--- a/temp/stable_train.xlsx
+++ b/temp/stable_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,850 +28,859 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-11 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:36:00</t>
+    <t>2019-06-12 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 11:03:00</t>
   </si>
   <si>
     <t>2019-05-15 13:59:00</t>
   </si>
   <si>
-    <t>2019-05-15 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 09:36:00</t>
+    <t>2019-05-15 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 10:51:00</t>
   </si>
   <si>
     <t>2019-04-24 14:36:00</t>
   </si>
   <si>
-    <t>2019-04-24 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 09:36:00</t>
+    <t>2019-04-23 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:31:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 13:15:00</t>
   </si>
   <si>
     <t>2019-04-09 11:28:00</t>
   </si>
   <si>
-    <t>2019-04-08 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:45:00</t>
+    <t>2019-04-04 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 09:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 13:54:00</t>
   </si>
   <si>
     <t>2019-03-04 13:46:00</t>
   </si>
   <si>
-    <t>2019-03-04 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 11:02:00</t>
+    <t>2019-03-04 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:05:00</t>
   </si>
   <si>
     <t>2019-01-23 10:39:00</t>
   </si>
   <si>
-    <t>2019-01-23 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 11:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:24:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 09:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:26:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 11:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 11:00:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 10:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:09:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 13:33:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 09:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 09:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 13:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 09:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:36:00</t>
+    <t>2019-01-23 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:27:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:52:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 14:29:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 13:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 13:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 11:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 09:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 09:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 14:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 11:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:23:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 13:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 11:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 14:55:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 14:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 10:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:54:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:43:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 14:26:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 13:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 11:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 09:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 09:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-05 09:37:00</t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D283"/>
+  <dimension ref="A1:D286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1254,13 +1263,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.56</v>
+        <v>6.8</v>
       </c>
       <c r="C2">
-        <v>6.547423205604206</v>
+        <v>6.660648366562978</v>
       </c>
       <c r="D2">
-        <v>-0.01257679439579373</v>
+        <v>-0.1393516334370215</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1268,13 +1277,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.57</v>
+        <v>6.61</v>
       </c>
       <c r="C3">
-        <v>6.538865460694751</v>
+        <v>6.702989246068737</v>
       </c>
       <c r="D3">
-        <v>-0.03113453930524912</v>
+        <v>0.09298924606873626</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1282,13 +1291,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.36</v>
+        <v>6.69</v>
       </c>
       <c r="C4">
-        <v>6.372412854846916</v>
+        <v>6.737527380501093</v>
       </c>
       <c r="D4">
-        <v>0.01241285484691534</v>
+        <v>0.04752738050109251</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1296,13 +1305,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.37</v>
+        <v>6.58</v>
       </c>
       <c r="C5">
-        <v>6.413299710010945</v>
+        <v>6.615113669071257</v>
       </c>
       <c r="D5">
-        <v>0.04329971001094446</v>
+        <v>0.03511366907125701</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1310,13 +1319,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.32</v>
+        <v>6.55</v>
       </c>
       <c r="C6">
-        <v>6.289076174608748</v>
+        <v>6.543582275745977</v>
       </c>
       <c r="D6">
-        <v>-0.03092382539125182</v>
+        <v>-0.006417724254022872</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1324,13 +1333,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.64</v>
+        <v>6.4</v>
       </c>
       <c r="C7">
-        <v>6.564561902033518</v>
+        <v>6.431227192332263</v>
       </c>
       <c r="D7">
-        <v>-0.07543809796648215</v>
+        <v>0.03122719233226245</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1338,13 +1347,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.74</v>
+        <v>6.4</v>
       </c>
       <c r="C8">
-        <v>6.551383982075748</v>
+        <v>6.439235583820376</v>
       </c>
       <c r="D8">
-        <v>-0.188616017924252</v>
+        <v>0.03923558382037573</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1355,10 +1364,10 @@
         <v>6.66</v>
       </c>
       <c r="C9">
-        <v>6.531030072343716</v>
+        <v>6.618543842475547</v>
       </c>
       <c r="D9">
-        <v>-0.1289699276562839</v>
+        <v>-0.0414561575244532</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1366,13 +1375,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.59</v>
+        <v>6.5</v>
       </c>
       <c r="C10">
-        <v>6.690808550757771</v>
+        <v>6.579503675728925</v>
       </c>
       <c r="D10">
-        <v>0.1008085507577707</v>
+        <v>0.07950367572892514</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1380,13 +1389,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.54</v>
+        <v>6.55</v>
       </c>
       <c r="C11">
-        <v>6.565452461948187</v>
+        <v>6.626064671434789</v>
       </c>
       <c r="D11">
-        <v>0.02545246194818684</v>
+        <v>0.07606467143478923</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1394,13 +1403,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.54</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>6.561273844605511</v>
+        <v>6.782188374612867</v>
       </c>
       <c r="D12">
-        <v>0.02127384460551074</v>
+        <v>-0.2178116253871325</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1408,13 +1417,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.55</v>
+        <v>7.17</v>
       </c>
       <c r="C13">
-        <v>6.62338643079805</v>
+        <v>7.171318209394678</v>
       </c>
       <c r="D13">
-        <v>0.07338643079804985</v>
+        <v>0.001318209394677972</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1422,13 +1431,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.9</v>
+        <v>7.15</v>
       </c>
       <c r="C14">
-        <v>6.686390247681466</v>
+        <v>7.134139612786682</v>
       </c>
       <c r="D14">
-        <v>-0.2136097523185345</v>
+        <v>-0.01586038721331828</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1436,13 +1445,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.83</v>
+        <v>7.16</v>
       </c>
       <c r="C15">
-        <v>6.654921377495475</v>
+        <v>7.151566354694011</v>
       </c>
       <c r="D15">
-        <v>-0.1750786225045253</v>
+        <v>-0.008433645305989224</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1450,13 +1459,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.91</v>
+        <v>7.26</v>
       </c>
       <c r="C16">
-        <v>6.73033417233682</v>
+        <v>7.296646270544076</v>
       </c>
       <c r="D16">
-        <v>-0.1796658276631806</v>
+        <v>0.03664627054407621</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1464,13 +1473,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.96</v>
+        <v>7.14</v>
       </c>
       <c r="C17">
-        <v>6.76483652016478</v>
+        <v>7.366938141056171</v>
       </c>
       <c r="D17">
-        <v>-0.1951634798352204</v>
+        <v>0.2269381410561717</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1478,13 +1487,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.99</v>
+        <v>7.13</v>
       </c>
       <c r="C18">
-        <v>6.743398660533671</v>
+        <v>7.292381606257337</v>
       </c>
       <c r="D18">
-        <v>-0.2466013394663289</v>
+        <v>0.1623816062573376</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1492,13 +1501,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.04</v>
+        <v>7.09</v>
       </c>
       <c r="C19">
-        <v>6.99243808978782</v>
+        <v>7.295450483829314</v>
       </c>
       <c r="D19">
-        <v>-0.04756191021218026</v>
+        <v>0.2054504838293143</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1506,13 +1515,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.08</v>
+        <v>7.22</v>
       </c>
       <c r="C20">
-        <v>7.032371991708962</v>
+        <v>7.364975994691586</v>
       </c>
       <c r="D20">
-        <v>-0.04762800829103853</v>
+        <v>0.1449759946915865</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1520,13 +1529,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7.12</v>
+        <v>7.08</v>
       </c>
       <c r="C21">
-        <v>7.116166003013243</v>
+        <v>7.303968977463041</v>
       </c>
       <c r="D21">
-        <v>-0.003833996986757349</v>
+        <v>0.2239689774630405</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1534,13 +1543,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.12</v>
+        <v>6.86</v>
       </c>
       <c r="C22">
-        <v>7.14886647144499</v>
+        <v>7.267102506635541</v>
       </c>
       <c r="D22">
-        <v>0.02886647144498955</v>
+        <v>0.4071025066355407</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1548,13 +1557,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.18</v>
+        <v>6.85</v>
       </c>
       <c r="C23">
-        <v>7.181988641297288</v>
+        <v>7.358199007057721</v>
       </c>
       <c r="D23">
-        <v>0.001988641297288041</v>
+        <v>0.5081990070577218</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1562,13 +1571,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.23</v>
+        <v>6.82</v>
       </c>
       <c r="C24">
-        <v>7.213657120095158</v>
+        <v>7.311880703105198</v>
       </c>
       <c r="D24">
-        <v>-0.01634287990484218</v>
+        <v>0.4918807031051982</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1576,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>7.29</v>
+        <v>6.87</v>
       </c>
       <c r="C25">
-        <v>7.25399722544676</v>
+        <v>7.285458985568108</v>
       </c>
       <c r="D25">
-        <v>-0.03600277455324008</v>
+        <v>0.4154589855681081</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1590,13 +1599,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.13</v>
+        <v>6.98</v>
       </c>
       <c r="C26">
-        <v>7.362275535005963</v>
+        <v>7.39524598727422</v>
       </c>
       <c r="D26">
-        <v>0.2322755350059635</v>
+        <v>0.4152459872742194</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1604,13 +1613,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.13</v>
+        <v>6.95</v>
       </c>
       <c r="C27">
-        <v>7.312446175563128</v>
+        <v>7.443212855795042</v>
       </c>
       <c r="D27">
-        <v>0.1824461755631281</v>
+        <v>0.4932128557950417</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1618,13 +1627,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.22</v>
+        <v>7.12</v>
       </c>
       <c r="C28">
-        <v>7.382065830424779</v>
+        <v>7.58068890279858</v>
       </c>
       <c r="D28">
-        <v>0.1620658304247788</v>
+        <v>0.4606889027985801</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1632,13 +1641,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.13</v>
+        <v>7.12</v>
       </c>
       <c r="C29">
-        <v>7.270770753957219</v>
+        <v>7.484416143606794</v>
       </c>
       <c r="D29">
-        <v>0.1407707539572192</v>
+        <v>0.3644161436067943</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1646,13 +1655,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="C30">
-        <v>7.270860848661298</v>
+        <v>7.534582392036886</v>
       </c>
       <c r="D30">
-        <v>0.3708608486612981</v>
+        <v>0.3345823920368858</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1660,13 +1669,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.87</v>
+        <v>7.2</v>
       </c>
       <c r="C31">
-        <v>7.389917858511138</v>
+        <v>7.506229897000721</v>
       </c>
       <c r="D31">
-        <v>0.5199178585111381</v>
+        <v>0.3062298970007209</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1674,13 +1683,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.07</v>
+        <v>7.3</v>
       </c>
       <c r="C32">
-        <v>7.50918400055415</v>
+        <v>7.583026682724202</v>
       </c>
       <c r="D32">
-        <v>0.4391840005541496</v>
+        <v>0.2830266827242021</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1688,13 +1697,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.21</v>
+        <v>7.3</v>
       </c>
       <c r="C33">
-        <v>7.524602616448924</v>
+        <v>7.565717877355175</v>
       </c>
       <c r="D33">
-        <v>0.3146026164489237</v>
+        <v>0.2657178773551756</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1702,13 +1711,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.17</v>
+        <v>7.22</v>
       </c>
       <c r="C34">
-        <v>7.491062809899203</v>
+        <v>7.437438438119361</v>
       </c>
       <c r="D34">
-        <v>0.3210628098992032</v>
+        <v>0.2174384381193608</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1716,13 +1725,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.22</v>
+        <v>6.98</v>
       </c>
       <c r="C35">
-        <v>7.583041638612197</v>
+        <v>7.180446172904319</v>
       </c>
       <c r="D35">
-        <v>0.3630416386121977</v>
+        <v>0.2004461729043188</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1730,13 +1739,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.35</v>
+        <v>7.61</v>
       </c>
       <c r="C36">
-        <v>7.597336478403475</v>
+        <v>7.438586953678519</v>
       </c>
       <c r="D36">
-        <v>0.2473364784034757</v>
+        <v>-0.1714130463214811</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1744,13 +1753,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.02</v>
+        <v>7.66</v>
       </c>
       <c r="C37">
-        <v>7.329977977842661</v>
+        <v>7.533297105825127</v>
       </c>
       <c r="D37">
-        <v>0.3099779778426619</v>
+        <v>-0.1267028941748736</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1758,13 +1767,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.55</v>
+        <v>7.39</v>
       </c>
       <c r="C38">
-        <v>7.44505570096784</v>
+        <v>7.439070547681752</v>
       </c>
       <c r="D38">
-        <v>-0.1049442990321596</v>
+        <v>0.04907054768175279</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1772,13 +1781,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.62</v>
+        <v>7.38</v>
       </c>
       <c r="C39">
-        <v>7.43535761520287</v>
+        <v>7.439828250181573</v>
       </c>
       <c r="D39">
-        <v>-0.1846423847971304</v>
+        <v>0.05982825018157278</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1786,13 +1795,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.38</v>
+        <v>7.3</v>
       </c>
       <c r="C40">
-        <v>7.434802514148933</v>
+        <v>7.404722346536288</v>
       </c>
       <c r="D40">
-        <v>0.05480251414893278</v>
+        <v>0.1047223465362883</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1800,13 +1809,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.39</v>
+        <v>7.27</v>
       </c>
       <c r="C41">
-        <v>7.462188490271892</v>
+        <v>7.365704742865554</v>
       </c>
       <c r="D41">
-        <v>0.07218849027189211</v>
+        <v>0.09570474286555442</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1814,13 +1823,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.3</v>
+        <v>7.24</v>
       </c>
       <c r="C42">
-        <v>7.406751244603845</v>
+        <v>7.299850317533793</v>
       </c>
       <c r="D42">
-        <v>0.1067512446038448</v>
+        <v>0.059850317533793</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1828,13 +1837,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.31</v>
+        <v>7.16</v>
       </c>
       <c r="C43">
-        <v>7.398492990685384</v>
+        <v>7.214732992948114</v>
       </c>
       <c r="D43">
-        <v>0.08849299068538397</v>
+        <v>0.05473299294811351</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1845,10 +1854,10 @@
         <v>7.27</v>
       </c>
       <c r="C44">
-        <v>7.330101489651186</v>
+        <v>7.240807485755806</v>
       </c>
       <c r="D44">
-        <v>0.06010148965118667</v>
+        <v>-0.02919251424419311</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1859,10 +1868,10 @@
         <v>7.27</v>
       </c>
       <c r="C45">
-        <v>7.273765981714051</v>
+        <v>7.232513220447916</v>
       </c>
       <c r="D45">
-        <v>0.003765981714051847</v>
+        <v>-0.03748677955208368</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1870,13 +1879,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.29</v>
+        <v>7.24</v>
       </c>
       <c r="C46">
-        <v>7.248001891305144</v>
+        <v>7.276279723933993</v>
       </c>
       <c r="D46">
-        <v>-0.04199810869485621</v>
+        <v>0.03627972393399315</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1884,13 +1893,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.27</v>
+        <v>7.31</v>
       </c>
       <c r="C47">
-        <v>7.241868632324557</v>
+        <v>7.32517653369021</v>
       </c>
       <c r="D47">
-        <v>-0.02813136767544222</v>
+        <v>0.01517653369021055</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1898,13 +1907,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.29</v>
+        <v>7.26</v>
       </c>
       <c r="C48">
-        <v>7.295642560651098</v>
+        <v>7.313471273183935</v>
       </c>
       <c r="D48">
-        <v>0.005642560651097916</v>
+        <v>0.05347127318393508</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1912,13 +1921,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.35</v>
+        <v>7.27</v>
       </c>
       <c r="C49">
-        <v>7.168990685833528</v>
+        <v>7.290383290922402</v>
       </c>
       <c r="D49">
-        <v>-0.1810093141664719</v>
+        <v>0.02038329092240243</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1926,13 +1935,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.35</v>
+        <v>7.37</v>
       </c>
       <c r="C50">
-        <v>7.186385676211856</v>
+        <v>7.194020432462653</v>
       </c>
       <c r="D50">
-        <v>-0.1636143237881438</v>
+        <v>-0.1759795675373468</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1940,13 +1949,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.16</v>
+        <v>7.88</v>
       </c>
       <c r="C51">
-        <v>7.035857098455146</v>
+        <v>7.298558066484035</v>
       </c>
       <c r="D51">
-        <v>-0.1241429015448539</v>
+        <v>-0.5814419335159648</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1954,13 +1963,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7.2</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C52">
-        <v>7.09455468292993</v>
+        <v>7.773672605610227</v>
       </c>
       <c r="D52">
-        <v>-0.1054453170700702</v>
+        <v>-0.3563273943897736</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1968,13 +1977,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.75</v>
+        <v>7.93</v>
       </c>
       <c r="C53">
-        <v>7.245385649021232</v>
+        <v>7.847415446504379</v>
       </c>
       <c r="D53">
-        <v>-0.5046143509787679</v>
+        <v>-0.08258455349562066</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1982,13 +1991,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.83</v>
+        <v>7.81</v>
       </c>
       <c r="C54">
-        <v>7.270524806877381</v>
+        <v>8.345076545184167</v>
       </c>
       <c r="D54">
-        <v>-0.5594751931226192</v>
+        <v>0.5350765451841673</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1996,13 +2005,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>8.15</v>
+        <v>7.88</v>
       </c>
       <c r="C55">
-        <v>7.680187397686417</v>
+        <v>8.342504315518266</v>
       </c>
       <c r="D55">
-        <v>-0.4698126023135831</v>
+        <v>0.4625043155182658</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2010,13 +2019,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>8.210000000000001</v>
+        <v>7.61</v>
       </c>
       <c r="C56">
-        <v>7.832651228615136</v>
+        <v>8.144555495927953</v>
       </c>
       <c r="D56">
-        <v>-0.3773487713848649</v>
+        <v>0.534555495927953</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2024,13 +2033,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.93</v>
+        <v>7.58</v>
       </c>
       <c r="C57">
-        <v>7.807599982588076</v>
+        <v>8.14040375809838</v>
       </c>
       <c r="D57">
-        <v>-0.1224000174119233</v>
+        <v>0.5604037580983796</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2038,13 +2047,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.89</v>
+        <v>7.54</v>
       </c>
       <c r="C58">
-        <v>7.838253890252265</v>
+        <v>8.143262389249664</v>
       </c>
       <c r="D58">
-        <v>-0.05174610974773497</v>
+        <v>0.6032623892496636</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2052,13 +2061,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.9</v>
+        <v>7.87</v>
       </c>
       <c r="C59">
-        <v>7.911433735911778</v>
+        <v>8.329659562245631</v>
       </c>
       <c r="D59">
-        <v>0.01143373591177799</v>
+        <v>0.4596595622456308</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2066,13 +2075,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>8.08</v>
+        <v>7.86</v>
       </c>
       <c r="C60">
-        <v>8.017903856531861</v>
+        <v>8.301485907100624</v>
       </c>
       <c r="D60">
-        <v>-0.06209614346813908</v>
+        <v>0.4414859071006232</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2080,13 +2089,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.79</v>
+        <v>7.96</v>
       </c>
       <c r="C61">
-        <v>8.311970722146022</v>
+        <v>8.298268763738022</v>
       </c>
       <c r="D61">
-        <v>0.5219707221460217</v>
+        <v>0.3382687637380224</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2094,13 +2103,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7.75</v>
+        <v>8.44</v>
       </c>
       <c r="C62">
-        <v>8.31419042764337</v>
+        <v>7.990186812981222</v>
       </c>
       <c r="D62">
-        <v>0.5641904276433696</v>
+        <v>-0.4498131870187771</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2108,13 +2117,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.62</v>
+        <v>8.51</v>
       </c>
       <c r="C63">
-        <v>8.105162662774932</v>
+        <v>7.925201321514995</v>
       </c>
       <c r="D63">
-        <v>0.4851626627749317</v>
+        <v>-0.5847986784850052</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2122,13 +2131,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>7.63</v>
+        <v>8.31</v>
       </c>
       <c r="C64">
-        <v>8.10904532785184</v>
+        <v>7.983854907408094</v>
       </c>
       <c r="D64">
-        <v>0.4790453278518401</v>
+        <v>-0.3261450925919069</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2136,13 +2145,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7.67</v>
+        <v>9.26</v>
       </c>
       <c r="C65">
-        <v>8.179375641839393</v>
+        <v>8.337328436210331</v>
       </c>
       <c r="D65">
-        <v>0.5093756418393927</v>
+        <v>-0.9226715637896685</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2150,13 +2159,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>7.87</v>
+        <v>9.4</v>
       </c>
       <c r="C66">
-        <v>8.312174560168396</v>
+        <v>8.386761993613575</v>
       </c>
       <c r="D66">
-        <v>0.4421745601683957</v>
+        <v>-1.013238006386425</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2164,13 +2173,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>9.32</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="C67">
-        <v>8.329639957760286</v>
+        <v>8.163282813380462</v>
       </c>
       <c r="D67">
-        <v>-0.9903600422397147</v>
+        <v>-0.6267171866195369</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2178,13 +2187,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>8.99</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C68">
-        <v>8.240024960275932</v>
+        <v>8.178779474463475</v>
       </c>
       <c r="D68">
-        <v>-0.7499750397240685</v>
+        <v>-0.8512205255365242</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2192,13 +2201,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.789999999999999</v>
+        <v>8.06</v>
       </c>
       <c r="C69">
-        <v>8.163634702409578</v>
+        <v>8.104719486318142</v>
       </c>
       <c r="D69">
-        <v>-0.6263652975904215</v>
+        <v>0.04471948631814193</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2206,13 +2215,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.949999999999999</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C70">
-        <v>8.199971953866088</v>
+        <v>8.072148936494273</v>
       </c>
       <c r="D70">
-        <v>-0.7500280461339113</v>
+        <v>0.04214893649427331</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2220,13 +2229,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.949999999999999</v>
+        <v>8.26</v>
       </c>
       <c r="C71">
-        <v>8.188682903172039</v>
+        <v>8.125465473558627</v>
       </c>
       <c r="D71">
-        <v>-0.7613170968279608</v>
+        <v>-0.1345345264413726</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2234,13 +2243,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>9.02</v>
+        <v>8.26</v>
       </c>
       <c r="C72">
-        <v>8.15800890844454</v>
+        <v>8.145929520568167</v>
       </c>
       <c r="D72">
-        <v>-0.8619910915554598</v>
+        <v>-0.1140704794318328</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2248,13 +2257,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>9.08</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C73">
-        <v>8.157933904232303</v>
+        <v>8.152200405248355</v>
       </c>
       <c r="D73">
-        <v>-0.9220660957676969</v>
+        <v>-0.1477995947516462</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2262,13 +2271,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.470000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C74">
-        <v>7.986418286192622</v>
+        <v>8.163337869363957</v>
       </c>
       <c r="D74">
-        <v>-0.4835817138073786</v>
+        <v>-0.1366621306360436</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2276,13 +2285,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.050000000000001</v>
+        <v>8.35</v>
       </c>
       <c r="C75">
-        <v>8.091028863097193</v>
+        <v>8.188121314183363</v>
       </c>
       <c r="D75">
-        <v>0.04102886309719267</v>
+        <v>-0.161878685816637</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2290,13 +2299,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8</v>
+        <v>8.58</v>
       </c>
       <c r="C76">
-        <v>8.027340549856865</v>
+        <v>8.220279093972842</v>
       </c>
       <c r="D76">
-        <v>0.02734054985686463</v>
+        <v>-0.3597209060271584</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2304,13 +2313,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>7.99</v>
+        <v>8.5</v>
       </c>
       <c r="C77">
-        <v>8.032187814917878</v>
+        <v>8.240422057347427</v>
       </c>
       <c r="D77">
-        <v>0.04218781491787738</v>
+        <v>-0.2595779426525731</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2318,13 +2327,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.300000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="C78">
-        <v>8.166484028554144</v>
+        <v>8.118241976714344</v>
       </c>
       <c r="D78">
-        <v>-0.1335159714458563</v>
+        <v>-0.2117580232856557</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2332,13 +2341,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.380000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C79">
-        <v>8.228978956771805</v>
+        <v>8.177622405846048</v>
       </c>
       <c r="D79">
-        <v>-0.1510210432281962</v>
+        <v>-0.2423775941539521</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2346,13 +2355,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8</v>
+        <v>7.81</v>
       </c>
       <c r="C80">
-        <v>7.899179944514735</v>
+        <v>7.803795170226935</v>
       </c>
       <c r="D80">
-        <v>-0.100820055485265</v>
+        <v>-0.006204829773064802</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2360,13 +2369,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7.96</v>
+        <v>8.1</v>
       </c>
       <c r="C81">
-        <v>7.898362528169015</v>
+        <v>7.950213840047152</v>
       </c>
       <c r="D81">
-        <v>-0.06163747183098511</v>
+        <v>-0.1497861599528472</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2374,13 +2383,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>7.65</v>
+        <v>8.17</v>
       </c>
       <c r="C82">
-        <v>7.635081377862129</v>
+        <v>8.088934398470485</v>
       </c>
       <c r="D82">
-        <v>-0.01491862213787165</v>
+        <v>-0.08106560152951481</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2388,13 +2397,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7.65</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C83">
-        <v>7.616110009243544</v>
+        <v>8.09407981654401</v>
       </c>
       <c r="D83">
-        <v>-0.03388999075645671</v>
+        <v>-0.02592018345598923</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2402,13 +2411,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.67</v>
+        <v>8.15</v>
       </c>
       <c r="C84">
-        <v>7.639998266008952</v>
+        <v>8.1216994819025</v>
       </c>
       <c r="D84">
-        <v>-0.03000173399104789</v>
+        <v>-0.02830051809750067</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2416,13 +2425,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7.6</v>
+        <v>8.07</v>
       </c>
       <c r="C85">
-        <v>7.595100520571282</v>
+        <v>8.007526218618722</v>
       </c>
       <c r="D85">
-        <v>-0.004899479428717157</v>
+        <v>-0.06247378138127857</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2430,13 +2439,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.140000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="C86">
-        <v>7.998757057628591</v>
+        <v>8.05253084945803</v>
       </c>
       <c r="D86">
-        <v>-0.1412429423714094</v>
+        <v>-0.1374691505419694</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2444,13 +2453,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.140000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C87">
-        <v>7.98815341440552</v>
+        <v>8.128109511103478</v>
       </c>
       <c r="D87">
-        <v>-0.1518465855944804</v>
+        <v>-0.1518904888965213</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2458,13 +2467,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.17</v>
+        <v>8.25</v>
       </c>
       <c r="C88">
-        <v>8.066934433699689</v>
+        <v>8.116236759791505</v>
       </c>
       <c r="D88">
-        <v>-0.1030655663003106</v>
+        <v>-0.1337632402084949</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2472,13 +2481,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.140000000000001</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C89">
-        <v>8.116052164801314</v>
+        <v>8.065711416570359</v>
       </c>
       <c r="D89">
-        <v>-0.02394783519868682</v>
+        <v>0.01571141657035824</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2486,13 +2495,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>8.08</v>
+        <v>7.7</v>
       </c>
       <c r="C90">
-        <v>8.156154589098456</v>
+        <v>7.897270869330407</v>
       </c>
       <c r="D90">
-        <v>0.07615458909845607</v>
+        <v>0.1972708693304064</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2500,13 +2509,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>8.119999999999999</v>
+        <v>7.56</v>
       </c>
       <c r="C91">
-        <v>8.01634660684563</v>
+        <v>7.923232837933328</v>
       </c>
       <c r="D91">
-        <v>-0.1036533931543691</v>
+        <v>0.3632328379333281</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2514,13 +2523,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>8.109999999999999</v>
+        <v>7.53</v>
       </c>
       <c r="C92">
-        <v>8.033818382912987</v>
+        <v>7.702424383171958</v>
       </c>
       <c r="D92">
-        <v>-0.07618161708701265</v>
+        <v>0.1724243831719576</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2528,13 +2537,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>8.26</v>
+        <v>7.5</v>
       </c>
       <c r="C93">
-        <v>8.094765684625271</v>
+        <v>7.637228423179262</v>
       </c>
       <c r="D93">
-        <v>-0.1652343153747289</v>
+        <v>0.1372284231792618</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2542,13 +2551,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>8.039999999999999</v>
+        <v>7.46</v>
       </c>
       <c r="C94">
-        <v>8.095216245686114</v>
+        <v>7.570844413223555</v>
       </c>
       <c r="D94">
-        <v>0.05521624568611472</v>
+        <v>0.1108444132235551</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2556,13 +2565,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.59</v>
+        <v>7.58</v>
       </c>
       <c r="C95">
-        <v>7.865955536027563</v>
+        <v>7.573907401465676</v>
       </c>
       <c r="D95">
-        <v>0.2759555360275634</v>
+        <v>-0.00609259853432409</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2570,13 +2579,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.67</v>
+        <v>7.6</v>
       </c>
       <c r="C96">
-        <v>7.861984413033182</v>
+        <v>7.603926443839272</v>
       </c>
       <c r="D96">
-        <v>0.1919844130331825</v>
+        <v>0.003926443839271876</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2587,10 +2596,10 @@
         <v>7.64</v>
       </c>
       <c r="C97">
-        <v>7.83657601952955</v>
+        <v>7.976384919194989</v>
       </c>
       <c r="D97">
-        <v>0.1965760195295507</v>
+        <v>0.3363849191949893</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2598,13 +2607,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.52</v>
+        <v>7.65</v>
       </c>
       <c r="C98">
-        <v>7.813109018970351</v>
+        <v>7.818525856066734</v>
       </c>
       <c r="D98">
-        <v>0.2931090189703518</v>
+        <v>0.1685258560667338</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2612,13 +2621,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.53</v>
+        <v>7.65</v>
       </c>
       <c r="C99">
-        <v>7.844764079226625</v>
+        <v>7.816972601754332</v>
       </c>
       <c r="D99">
-        <v>0.3147640792266246</v>
+        <v>0.166972601754332</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2626,13 +2635,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.6</v>
+        <v>7.67</v>
       </c>
       <c r="C100">
-        <v>7.602441613631534</v>
+        <v>7.838544922817671</v>
       </c>
       <c r="D100">
-        <v>0.002441613631534167</v>
+        <v>0.168544922817671</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2640,13 +2649,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.63</v>
+        <v>7.6</v>
       </c>
       <c r="C101">
-        <v>7.890858061756216</v>
+        <v>7.901583470133255</v>
       </c>
       <c r="D101">
-        <v>0.260858061756216</v>
+        <v>0.3015834701332549</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2654,13 +2663,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.61</v>
+        <v>7.66</v>
       </c>
       <c r="C102">
-        <v>7.799484887649824</v>
+        <v>7.917657115944063</v>
       </c>
       <c r="D102">
-        <v>0.1894848876498232</v>
+        <v>0.2576571159440624</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2668,13 +2677,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.66</v>
+        <v>7.71</v>
       </c>
       <c r="C103">
-        <v>7.936803118299901</v>
+        <v>7.928352717111619</v>
       </c>
       <c r="D103">
-        <v>0.2768031182999007</v>
+        <v>0.2183527171116193</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2682,13 +2691,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.61</v>
+        <v>7.72</v>
       </c>
       <c r="C104">
-        <v>7.866241243835944</v>
+        <v>8.015220607762497</v>
       </c>
       <c r="D104">
-        <v>0.2562412438359436</v>
+        <v>0.2952206077624977</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2696,13 +2705,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.62</v>
+        <v>7.36</v>
       </c>
       <c r="C105">
-        <v>7.915539530602965</v>
+        <v>7.636750720092528</v>
       </c>
       <c r="D105">
-        <v>0.2955395306029649</v>
+        <v>0.2767507200925277</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2710,13 +2719,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.62</v>
+        <v>7.23</v>
       </c>
       <c r="C106">
-        <v>7.900323548248945</v>
+        <v>7.411724624385525</v>
       </c>
       <c r="D106">
-        <v>0.280323548248945</v>
+        <v>0.1817246243855246</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2724,13 +2733,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.59</v>
+        <v>7.15</v>
       </c>
       <c r="C107">
-        <v>7.906049960483429</v>
+        <v>7.4142302759807</v>
       </c>
       <c r="D107">
-        <v>0.3160499604834293</v>
+        <v>0.2642302759807</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2738,13 +2747,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.63</v>
+        <v>7.18</v>
       </c>
       <c r="C108">
-        <v>7.872907277863233</v>
+        <v>7.432885193211848</v>
       </c>
       <c r="D108">
-        <v>0.2429072778632326</v>
+        <v>0.2528851932118483</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2752,13 +2761,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.39</v>
+        <v>7.16</v>
       </c>
       <c r="C109">
-        <v>7.677556585005357</v>
+        <v>7.409784386023818</v>
       </c>
       <c r="D109">
-        <v>0.2875565850053574</v>
+        <v>0.2497843860238183</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2766,13 +2775,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.23</v>
+        <v>7.21</v>
       </c>
       <c r="C110">
-        <v>7.488867943657008</v>
+        <v>7.533300311045733</v>
       </c>
       <c r="D110">
-        <v>0.2588679436570072</v>
+        <v>0.3233003110457329</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2780,13 +2789,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.08</v>
+        <v>7.55</v>
       </c>
       <c r="C111">
-        <v>7.522059215184594</v>
+        <v>7.611761499345387</v>
       </c>
       <c r="D111">
-        <v>0.4420592151845941</v>
+        <v>0.06176149934538699</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2794,13 +2803,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.04</v>
+        <v>7.85</v>
       </c>
       <c r="C112">
-        <v>7.521109954997133</v>
+        <v>7.800110213961045</v>
       </c>
       <c r="D112">
-        <v>0.4811099549971329</v>
+        <v>-0.04988978603895422</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2808,13 +2817,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.17</v>
+        <v>7.8</v>
       </c>
       <c r="C113">
-        <v>7.538831295490121</v>
+        <v>7.955803053445559</v>
       </c>
       <c r="D113">
-        <v>0.3688312954901214</v>
+        <v>0.1558030534455597</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2822,13 +2831,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.45</v>
+        <v>7.88</v>
       </c>
       <c r="C114">
-        <v>7.606102141943508</v>
+        <v>8.034622369542134</v>
       </c>
       <c r="D114">
-        <v>0.1561021419435074</v>
+        <v>0.1546223695421345</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2839,10 +2848,10 @@
         <v>7.9</v>
       </c>
       <c r="C115">
-        <v>8.012778595371726</v>
+        <v>7.999964220167841</v>
       </c>
       <c r="D115">
-        <v>0.1127785953717257</v>
+        <v>0.09996422016784035</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2850,13 +2859,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.71</v>
+        <v>7.88</v>
       </c>
       <c r="C116">
-        <v>7.917679279392475</v>
+        <v>8.00541767670083</v>
       </c>
       <c r="D116">
-        <v>0.2076792793924751</v>
+        <v>0.1254176767008301</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2864,13 +2873,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C117">
-        <v>7.88465671764725</v>
+        <v>7.976107488799269</v>
       </c>
       <c r="D117">
-        <v>0.1846567176472496</v>
+        <v>0.07610748879926899</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2878,13 +2887,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.87</v>
+        <v>8.16</v>
       </c>
       <c r="C118">
-        <v>7.96176976954391</v>
+        <v>8.142063247067533</v>
       </c>
       <c r="D118">
-        <v>0.0917697695439097</v>
+        <v>-0.01793675293246721</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2892,13 +2901,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.85</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C119">
-        <v>7.928816212747481</v>
+        <v>8.271812923340313</v>
       </c>
       <c r="D119">
-        <v>0.07881621274748163</v>
+        <v>-0.09818707665968596</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2906,13 +2915,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>8.300000000000001</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C120">
-        <v>8.27382545601917</v>
+        <v>8.120785531752055</v>
       </c>
       <c r="D120">
-        <v>-0.02617454398083119</v>
+        <v>-0.1592144682479439</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2920,13 +2929,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>8.32</v>
+        <v>8.18</v>
       </c>
       <c r="C121">
-        <v>8.297454477818249</v>
+        <v>8.003720084717877</v>
       </c>
       <c r="D121">
-        <v>-0.02254552218175121</v>
+        <v>-0.1762799152821231</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2934,13 +2943,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.44</v>
+        <v>8.32</v>
       </c>
       <c r="C122">
-        <v>8.304770882944775</v>
+        <v>8.149241931156205</v>
       </c>
       <c r="D122">
-        <v>-0.1352291170552249</v>
+        <v>-0.1707580688437957</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2948,13 +2957,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>8.199999999999999</v>
+        <v>8.34</v>
       </c>
       <c r="C123">
-        <v>8.151574248884364</v>
+        <v>8.215260165419146</v>
       </c>
       <c r="D123">
-        <v>-0.04842575111563541</v>
+        <v>-0.1247398345808541</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2962,13 +2971,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.23</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C124">
-        <v>8.160056371379785</v>
+        <v>8.185543853998389</v>
       </c>
       <c r="D124">
-        <v>-0.06994362862021575</v>
+        <v>-0.03445614600161129</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2976,13 +2985,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.26</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C125">
-        <v>8.01958377614357</v>
+        <v>8.040646989619447</v>
       </c>
       <c r="D125">
-        <v>-0.24041622385643</v>
+        <v>-0.1693530103805543</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2990,13 +2999,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.199999999999999</v>
+        <v>8.15</v>
       </c>
       <c r="C126">
-        <v>8.010707523481985</v>
+        <v>8.332387579957182</v>
       </c>
       <c r="D126">
-        <v>-0.1892924765180144</v>
+        <v>0.1823875799571812</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3004,13 +3013,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.369999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="C127">
-        <v>8.082853357988153</v>
+        <v>8.345856340625616</v>
       </c>
       <c r="D127">
-        <v>-0.2871466420118463</v>
+        <v>0.1058563406256159</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3018,13 +3027,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.390000000000001</v>
+        <v>8.33</v>
       </c>
       <c r="C128">
-        <v>8.053981196426285</v>
+        <v>8.34734672768494</v>
       </c>
       <c r="D128">
-        <v>-0.3360188035737153</v>
+        <v>0.01734672768493972</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3032,13 +3041,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.359999999999999</v>
+        <v>8.42</v>
       </c>
       <c r="C129">
-        <v>8.219972172233589</v>
+        <v>8.424757973730539</v>
       </c>
       <c r="D129">
-        <v>-0.14002782776641</v>
+        <v>0.004757973730539433</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3046,13 +3055,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.220000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C130">
-        <v>8.199163437999944</v>
+        <v>8.200944280838939</v>
       </c>
       <c r="D130">
-        <v>-0.02083656200005635</v>
+        <v>0.07094428083893867</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3060,13 +3069,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.24</v>
+        <v>8.26</v>
       </c>
       <c r="C131">
-        <v>8.391192384844</v>
+        <v>8.378358136055169</v>
       </c>
       <c r="D131">
-        <v>0.1511923848440002</v>
+        <v>0.1183581360551695</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3074,13 +3083,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.31</v>
+        <v>8.24</v>
       </c>
       <c r="C132">
-        <v>8.427292232600736</v>
+        <v>8.268111159454101</v>
       </c>
       <c r="D132">
-        <v>0.117292232600736</v>
+        <v>0.02811115945410059</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3088,13 +3097,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.369999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C133">
-        <v>8.380706861453163</v>
+        <v>8.5777186806556</v>
       </c>
       <c r="D133">
-        <v>0.0107068614531638</v>
+        <v>0.1977186806555995</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3102,13 +3111,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>8.449999999999999</v>
+        <v>9.01</v>
       </c>
       <c r="C134">
-        <v>8.453556418516232</v>
+        <v>8.817193269543228</v>
       </c>
       <c r="D134">
-        <v>0.003556418516232895</v>
+        <v>-0.1928067304567715</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3116,13 +3125,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>8.359999999999999</v>
+        <v>10</v>
       </c>
       <c r="C135">
-        <v>8.557134593423287</v>
+        <v>9.374808380517084</v>
       </c>
       <c r="D135">
-        <v>0.1971345934232875</v>
+        <v>-0.6251916194829157</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3130,13 +3139,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>8.6</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="C136">
-        <v>8.648230225157883</v>
+        <v>9.582550866992872</v>
       </c>
       <c r="D136">
-        <v>0.04823022515788367</v>
+        <v>-0.3674491330071277</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3144,13 +3153,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>9.91</v>
+        <v>9.58</v>
       </c>
       <c r="C137">
-        <v>9.386995028304431</v>
+        <v>9.250525044026936</v>
       </c>
       <c r="D137">
-        <v>-0.5230049716955687</v>
+        <v>-0.3294749559730636</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3158,13 +3167,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.58</v>
+        <v>9.43</v>
       </c>
       <c r="C138">
-        <v>9.324588409070618</v>
+        <v>9.245835317133157</v>
       </c>
       <c r="D138">
-        <v>-0.2554115909293824</v>
+        <v>-0.1841646828668431</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3172,13 +3181,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>9.58</v>
+        <v>8.99</v>
       </c>
       <c r="C139">
-        <v>9.278310690890933</v>
+        <v>9.130260893236564</v>
       </c>
       <c r="D139">
-        <v>-0.3016893091090669</v>
+        <v>0.1402608932365634</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3186,13 +3195,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>9.43</v>
+        <v>8.99</v>
       </c>
       <c r="C140">
-        <v>9.256243185343388</v>
+        <v>8.938299564298038</v>
       </c>
       <c r="D140">
-        <v>-0.1737568146566115</v>
+        <v>-0.05170043570196192</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3200,13 +3209,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.390000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C141">
-        <v>8.413974372121835</v>
+        <v>8.710466644898311</v>
       </c>
       <c r="D141">
-        <v>0.02397437212183462</v>
+        <v>0.0004666448983101645</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3214,13 +3223,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>8.449999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C142">
-        <v>8.278353564991155</v>
+        <v>8.280628732096218</v>
       </c>
       <c r="D142">
-        <v>-0.171646435008844</v>
+        <v>-0.1193712679037819</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3228,13 +3237,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.65</v>
+        <v>7.66</v>
       </c>
       <c r="C143">
-        <v>8.180043782743269</v>
+        <v>8.230127015726236</v>
       </c>
       <c r="D143">
-        <v>0.5300437827432685</v>
+        <v>0.5701270157262357</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3242,13 +3251,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.74</v>
+        <v>7.66</v>
       </c>
       <c r="C144">
-        <v>8.197542594306807</v>
+        <v>8.156103922825494</v>
       </c>
       <c r="D144">
-        <v>0.4575425943068065</v>
+        <v>0.496103922825494</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3256,13 +3265,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.73</v>
+        <v>7.64</v>
       </c>
       <c r="C145">
-        <v>8.003517092001369</v>
+        <v>8.148353403627997</v>
       </c>
       <c r="D145">
-        <v>0.2735170920013683</v>
+        <v>0.5083534036279973</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3273,10 +3282,10 @@
         <v>7.74</v>
       </c>
       <c r="C146">
-        <v>7.966058385528564</v>
+        <v>8.208596456203768</v>
       </c>
       <c r="D146">
-        <v>0.2260583855285638</v>
+        <v>0.4685964562037679</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3284,13 +3293,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.54</v>
+        <v>7.75</v>
       </c>
       <c r="C147">
-        <v>7.790492011777983</v>
+        <v>8.013566727742987</v>
       </c>
       <c r="D147">
-        <v>0.2504920117779834</v>
+        <v>0.2635667277429867</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3298,13 +3307,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.75</v>
+        <v>7.78</v>
       </c>
       <c r="C148">
-        <v>7.90347835127168</v>
+        <v>7.987258983799268</v>
       </c>
       <c r="D148">
-        <v>0.15347835127168</v>
+        <v>0.2072589837992673</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3312,13 +3321,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.7</v>
+        <v>7.83</v>
       </c>
       <c r="C149">
-        <v>7.874905910810472</v>
+        <v>7.969696827979392</v>
       </c>
       <c r="D149">
-        <v>0.1749059108104722</v>
+        <v>0.1396968279793915</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3326,13 +3335,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.67</v>
+        <v>7.64</v>
       </c>
       <c r="C150">
-        <v>7.848990292143784</v>
+        <v>7.898217908260018</v>
       </c>
       <c r="D150">
-        <v>0.1789902921437836</v>
+        <v>0.2582179082600184</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3340,13 +3349,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.53</v>
+        <v>7.66</v>
       </c>
       <c r="C151">
-        <v>7.739295553308251</v>
+        <v>7.903582424102455</v>
       </c>
       <c r="D151">
-        <v>0.2092955533082508</v>
+        <v>0.2435824241024553</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3354,13 +3363,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.02</v>
+        <v>7.9</v>
       </c>
       <c r="C152">
-        <v>7.093653329283889</v>
+        <v>7.923313345099278</v>
       </c>
       <c r="D152">
-        <v>0.07365332928388924</v>
+        <v>0.02331334509927796</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3368,13 +3377,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.02</v>
+        <v>7.72</v>
       </c>
       <c r="C153">
-        <v>7.133179493318838</v>
+        <v>7.908376420398366</v>
       </c>
       <c r="D153">
-        <v>0.1131794933188388</v>
+        <v>0.1883764203983667</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3382,13 +3391,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.03</v>
+        <v>7.7</v>
       </c>
       <c r="C154">
-        <v>7.121931682404538</v>
+        <v>7.877443635175809</v>
       </c>
       <c r="D154">
-        <v>0.09193168240453797</v>
+        <v>0.1774436351758091</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3396,13 +3405,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.4</v>
+        <v>7.69</v>
       </c>
       <c r="C155">
-        <v>7.210670953785302</v>
+        <v>7.83470640703704</v>
       </c>
       <c r="D155">
-        <v>-0.1893290462146986</v>
+        <v>0.1447064070370399</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3410,13 +3419,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.33</v>
+        <v>7.67</v>
       </c>
       <c r="C156">
-        <v>7.244668526794099</v>
+        <v>7.795910838737844</v>
       </c>
       <c r="D156">
-        <v>-0.08533147320590118</v>
+        <v>0.1259108387378438</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3424,13 +3433,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.3</v>
+        <v>7.66</v>
       </c>
       <c r="C157">
-        <v>7.227907514069642</v>
+        <v>7.779364071415835</v>
       </c>
       <c r="D157">
-        <v>-0.07209248593035777</v>
+        <v>0.119364071415835</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3438,13 +3447,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.51</v>
+        <v>7.22</v>
       </c>
       <c r="C158">
-        <v>7.30995907363655</v>
+        <v>7.309535398073371</v>
       </c>
       <c r="D158">
-        <v>-0.2000409263634495</v>
+        <v>0.0895353980733713</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3452,13 +3461,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.75</v>
+        <v>7.04</v>
       </c>
       <c r="C159">
-        <v>7.546088366144438</v>
+        <v>7.121650491996989</v>
       </c>
       <c r="D159">
-        <v>-0.2039116338555615</v>
+        <v>0.08165049199698871</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3466,13 +3475,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.77</v>
+        <v>7</v>
       </c>
       <c r="C160">
-        <v>7.551748894083641</v>
+        <v>7.101889352290221</v>
       </c>
       <c r="D160">
-        <v>-0.2182511059163588</v>
+        <v>0.1018893522902209</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3480,13 +3489,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.75</v>
+        <v>7.02</v>
       </c>
       <c r="C161">
-        <v>7.564940777437704</v>
+        <v>7.078270015027431</v>
       </c>
       <c r="D161">
-        <v>-0.1850592225622965</v>
+        <v>0.05827001502743112</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3494,13 +3503,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>6.91</v>
+        <v>7.17</v>
       </c>
       <c r="C162">
-        <v>6.814848995340821</v>
+        <v>7.185358575234251</v>
       </c>
       <c r="D162">
-        <v>-0.09515100465917925</v>
+        <v>0.01535857523425133</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3508,13 +3517,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.17</v>
+        <v>7.16</v>
       </c>
       <c r="C163">
-        <v>6.75715469982228</v>
+        <v>7.172862668794628</v>
       </c>
       <c r="D163">
-        <v>-0.4128453001777199</v>
+        <v>0.01286266879462783</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3522,13 +3531,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.07</v>
+        <v>7.21</v>
       </c>
       <c r="C164">
-        <v>6.664529933648533</v>
+        <v>7.206947843452006</v>
       </c>
       <c r="D164">
-        <v>-0.4054700663514677</v>
+        <v>-0.0030521565479944</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3536,13 +3545,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.06</v>
+        <v>7.26</v>
       </c>
       <c r="C165">
-        <v>6.660493103519538</v>
+        <v>7.263780398278887</v>
       </c>
       <c r="D165">
-        <v>-0.3995068964804611</v>
+        <v>0.003780398278887098</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3550,13 +3559,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.21</v>
+        <v>7.36</v>
       </c>
       <c r="C166">
-        <v>6.596461625023784</v>
+        <v>7.206349210110019</v>
       </c>
       <c r="D166">
-        <v>-0.6135383749762164</v>
+        <v>-0.1536507898899817</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3564,13 +3573,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.3</v>
+        <v>7.83</v>
       </c>
       <c r="C167">
-        <v>6.602489637054465</v>
+        <v>7.54766946391915</v>
       </c>
       <c r="D167">
-        <v>-0.6975103629455353</v>
+        <v>-0.2823305360808499</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3578,13 +3587,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.28</v>
+        <v>7.59</v>
       </c>
       <c r="C168">
-        <v>6.705053751118548</v>
+        <v>7.398822137779464</v>
       </c>
       <c r="D168">
-        <v>-0.5749462488814521</v>
+        <v>-0.1911778622205356</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3592,13 +3601,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>7.22</v>
+        <v>7.19</v>
       </c>
       <c r="C169">
-        <v>6.793337012633334</v>
+        <v>7.257384363755482</v>
       </c>
       <c r="D169">
-        <v>-0.4266629873666661</v>
+        <v>0.0673843637554814</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3606,13 +3615,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.05</v>
+        <v>7.18</v>
       </c>
       <c r="C170">
-        <v>6.603079385356425</v>
+        <v>7.25754732317401</v>
       </c>
       <c r="D170">
-        <v>-0.4469206146435747</v>
+        <v>0.07754732317401025</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3620,13 +3629,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.93</v>
+        <v>6.98</v>
       </c>
       <c r="C171">
-        <v>6.651105371595328</v>
+        <v>6.5485554969328</v>
       </c>
       <c r="D171">
-        <v>-0.2788946284046716</v>
+        <v>-0.4314445030672003</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3634,13 +3643,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>6.82</v>
+        <v>7.01</v>
       </c>
       <c r="C172">
-        <v>6.56963532887468</v>
+        <v>6.531878506370455</v>
       </c>
       <c r="D172">
-        <v>-0.25036467112532</v>
+        <v>-0.478121493629545</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3648,13 +3657,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>6.64</v>
+        <v>7.37</v>
       </c>
       <c r="C173">
-        <v>6.343594948959694</v>
+        <v>6.755899903877844</v>
       </c>
       <c r="D173">
-        <v>-0.2964050510403053</v>
+        <v>-0.6141000961221561</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3662,13 +3671,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>6.66</v>
+        <v>7.61</v>
       </c>
       <c r="C174">
-        <v>6.324750794680289</v>
+        <v>6.773409704426526</v>
       </c>
       <c r="D174">
-        <v>-0.3352492053197107</v>
+        <v>-0.8365902955734743</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3676,13 +3685,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>6.65</v>
+        <v>7.1</v>
       </c>
       <c r="C175">
-        <v>6.353177551061785</v>
+        <v>6.748069077648693</v>
       </c>
       <c r="D175">
-        <v>-0.2968224489382152</v>
+        <v>-0.3519309223513067</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3690,13 +3699,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.81</v>
+        <v>6.7</v>
       </c>
       <c r="C176">
-        <v>6.312437784651971</v>
+        <v>6.335957239430763</v>
       </c>
       <c r="D176">
-        <v>-0.4975622153480286</v>
+        <v>-0.3640427605692373</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3704,13 +3713,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.68</v>
+        <v>6.81</v>
       </c>
       <c r="C177">
-        <v>6.300736873958318</v>
+        <v>6.370315510232953</v>
       </c>
       <c r="D177">
-        <v>-0.3792631260416819</v>
+        <v>-0.4396844897670462</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3718,13 +3727,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.7</v>
+        <v>6.33</v>
       </c>
       <c r="C178">
-        <v>6.299654321775686</v>
+        <v>6.040559693677758</v>
       </c>
       <c r="D178">
-        <v>-0.4003456782243147</v>
+        <v>-0.2894403063222422</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3732,13 +3741,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.71</v>
+        <v>6.36</v>
       </c>
       <c r="C179">
-        <v>6.292928093498608</v>
+        <v>6.077412630289388</v>
       </c>
       <c r="D179">
-        <v>-0.4170719065013921</v>
+        <v>-0.2825873697106118</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3746,13 +3755,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>5.78</v>
+        <v>5.99</v>
       </c>
       <c r="C180">
-        <v>6.084572156261395</v>
+        <v>6.060511002402477</v>
       </c>
       <c r="D180">
-        <v>0.3045721562613943</v>
+        <v>0.0705110024024771</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3763,10 +3772,10 @@
         <v>5.78</v>
       </c>
       <c r="C181">
-        <v>6.072760334961291</v>
+        <v>6.06971633020076</v>
       </c>
       <c r="D181">
-        <v>0.2927603349612911</v>
+        <v>0.2897163302007595</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3777,10 +3786,10 @@
         <v>5.75</v>
       </c>
       <c r="C182">
-        <v>6.070368027510339</v>
+        <v>6.065605443818572</v>
       </c>
       <c r="D182">
-        <v>0.3203680275103391</v>
+        <v>0.3156054438185718</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3788,13 +3797,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5.74</v>
+        <v>5.76</v>
       </c>
       <c r="C183">
-        <v>6.047219513785098</v>
+        <v>6.060145232826309</v>
       </c>
       <c r="D183">
-        <v>0.3072195137850979</v>
+        <v>0.300145232826309</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3802,13 +3811,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.77</v>
+        <v>5.67</v>
       </c>
       <c r="C184">
-        <v>6.039699408294473</v>
+        <v>5.948512962612647</v>
       </c>
       <c r="D184">
-        <v>0.269699408294473</v>
+        <v>0.2785129626126475</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3816,13 +3825,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.68</v>
+        <v>5.75</v>
       </c>
       <c r="C185">
-        <v>5.987099879554375</v>
+        <v>5.906756890471622</v>
       </c>
       <c r="D185">
-        <v>0.3070998795543751</v>
+        <v>0.1567568904716223</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3830,13 +3839,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.69</v>
+        <v>5.78</v>
       </c>
       <c r="C186">
-        <v>5.941741832307423</v>
+        <v>5.91692220583982</v>
       </c>
       <c r="D186">
-        <v>0.251741832307423</v>
+        <v>0.1369222058398201</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3844,13 +3853,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.65</v>
+        <v>5.72</v>
       </c>
       <c r="C187">
-        <v>5.913120407661182</v>
+        <v>5.893790509939856</v>
       </c>
       <c r="D187">
-        <v>0.2631204076611819</v>
+        <v>0.173790509939856</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3858,13 +3867,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.66</v>
+        <v>5.75</v>
       </c>
       <c r="C188">
-        <v>5.90654698202831</v>
+        <v>5.897546682036123</v>
       </c>
       <c r="D188">
-        <v>0.2465469820283097</v>
+        <v>0.1475466820361229</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3872,13 +3881,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.67</v>
+        <v>5.75</v>
       </c>
       <c r="C189">
-        <v>5.925257201462703</v>
+        <v>5.862079024308236</v>
       </c>
       <c r="D189">
-        <v>0.2552572014627028</v>
+        <v>0.1120790243082359</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3886,13 +3895,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.72</v>
+        <v>5.7</v>
       </c>
       <c r="C190">
-        <v>5.938368537654743</v>
+        <v>5.782246854963243</v>
       </c>
       <c r="D190">
-        <v>0.2183685376547428</v>
+        <v>0.08224685496324291</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3900,13 +3909,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.7</v>
+        <v>5.44</v>
       </c>
       <c r="C191">
-        <v>5.933059872799292</v>
+        <v>5.61993126047322</v>
       </c>
       <c r="D191">
-        <v>0.2330598727992923</v>
+        <v>0.1799312604732197</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3914,13 +3923,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="C192">
-        <v>5.913713562388386</v>
+        <v>5.608066919942885</v>
       </c>
       <c r="D192">
-        <v>0.1637135623883861</v>
+        <v>0.2080669199428842</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3928,13 +3937,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.74</v>
+        <v>5.36</v>
       </c>
       <c r="C193">
-        <v>5.91746803901696</v>
+        <v>5.539403360669639</v>
       </c>
       <c r="D193">
-        <v>0.1774680390169596</v>
+        <v>0.1794033606696388</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3942,13 +3951,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.73</v>
+        <v>5.51</v>
       </c>
       <c r="C194">
-        <v>5.832406689578127</v>
+        <v>5.573759197472124</v>
       </c>
       <c r="D194">
-        <v>0.1024066895781264</v>
+        <v>0.06375919747212411</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3956,13 +3965,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.71</v>
+        <v>5.52</v>
       </c>
       <c r="C195">
-        <v>5.820234643657345</v>
+        <v>5.565452967818339</v>
       </c>
       <c r="D195">
-        <v>0.1102346436573454</v>
+        <v>0.0454529678183393</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3970,13 +3979,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.47</v>
+        <v>5.51</v>
       </c>
       <c r="C196">
-        <v>5.660577713679187</v>
+        <v>5.564229740514899</v>
       </c>
       <c r="D196">
-        <v>0.1905777136791871</v>
+        <v>0.05422974051489948</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3984,13 +3993,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.46</v>
+        <v>5.78</v>
       </c>
       <c r="C197">
-        <v>5.652931483776864</v>
+        <v>5.673158382998584</v>
       </c>
       <c r="D197">
-        <v>0.1929314837768645</v>
+        <v>-0.1068416170014164</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3998,13 +4007,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.43</v>
+        <v>5.8</v>
       </c>
       <c r="C198">
-        <v>5.637275989543113</v>
+        <v>5.670654960468419</v>
       </c>
       <c r="D198">
-        <v>0.2072759895431133</v>
+        <v>-0.1293450395315805</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4012,13 +4021,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.41</v>
+        <v>5.75</v>
       </c>
       <c r="C199">
-        <v>5.655741761110468</v>
+        <v>5.650159326819311</v>
       </c>
       <c r="D199">
-        <v>0.2457417611104677</v>
+        <v>-0.09984067318068934</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4026,13 +4035,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.4</v>
+        <v>5.98</v>
       </c>
       <c r="C200">
-        <v>5.6525798264428</v>
+        <v>5.61957974934244</v>
       </c>
       <c r="D200">
-        <v>0.2525798264427994</v>
+        <v>-0.3604202506575609</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4040,13 +4049,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.38</v>
+        <v>5.98</v>
       </c>
       <c r="C201">
-        <v>5.542715740670928</v>
+        <v>5.611379233716499</v>
       </c>
       <c r="D201">
-        <v>0.1627157406709285</v>
+        <v>-0.3686207662835015</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4054,13 +4063,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.3</v>
+        <v>5.76</v>
       </c>
       <c r="C202">
-        <v>5.567435614130254</v>
+        <v>5.596872956832509</v>
       </c>
       <c r="D202">
-        <v>0.2674356141302541</v>
+        <v>-0.1631270431674912</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4068,13 +4077,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.55</v>
+        <v>5.68</v>
       </c>
       <c r="C203">
-        <v>5.584461678258462</v>
+        <v>5.520382149463388</v>
       </c>
       <c r="D203">
-        <v>0.03446167825846214</v>
+        <v>-0.1596178505366117</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4082,13 +4091,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.61</v>
+        <v>5.34</v>
       </c>
       <c r="C204">
-        <v>5.620529354948991</v>
+        <v>5.446894239361444</v>
       </c>
       <c r="D204">
-        <v>0.01052935494899021</v>
+        <v>0.106894239361444</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4096,13 +4105,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.63</v>
+        <v>5.3</v>
       </c>
       <c r="C205">
-        <v>5.632930889895738</v>
+        <v>5.441354052850458</v>
       </c>
       <c r="D205">
-        <v>0.002930889895737643</v>
+        <v>0.141354052850458</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4110,13 +4119,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.61</v>
+        <v>5.32</v>
       </c>
       <c r="C206">
-        <v>5.640359962125261</v>
+        <v>5.421267880209524</v>
       </c>
       <c r="D206">
-        <v>0.03035996212526104</v>
+        <v>0.1012678802095239</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4124,13 +4133,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.6</v>
+        <v>5.26</v>
       </c>
       <c r="C207">
-        <v>5.612818939575845</v>
+        <v>5.418336894529021</v>
       </c>
       <c r="D207">
-        <v>0.01281893957584579</v>
+        <v>0.1583368945290209</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4138,13 +4147,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.78</v>
+        <v>5.27</v>
       </c>
       <c r="C208">
-        <v>5.653808976905395</v>
+        <v>5.414194307784991</v>
       </c>
       <c r="D208">
-        <v>-0.1261910230946048</v>
+        <v>0.1441943077849919</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4152,13 +4161,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.83</v>
+        <v>5.32</v>
       </c>
       <c r="C209">
-        <v>5.681931138171521</v>
+        <v>5.447647698898373</v>
       </c>
       <c r="D209">
-        <v>-0.1480688618284791</v>
+        <v>0.1276476988983726</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4166,13 +4175,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.92</v>
+        <v>5.17</v>
       </c>
       <c r="C210">
-        <v>5.647210286422446</v>
+        <v>5.465369336641898</v>
       </c>
       <c r="D210">
-        <v>-0.2727897135775539</v>
+        <v>0.2953693366418984</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4180,13 +4189,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>6.01</v>
+        <v>4.98</v>
       </c>
       <c r="C211">
-        <v>5.658547355515676</v>
+        <v>5.397557674906754</v>
       </c>
       <c r="D211">
-        <v>-0.3514526444843238</v>
+        <v>0.417557674906754</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4194,13 +4203,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.98</v>
+        <v>5</v>
       </c>
       <c r="C212">
-        <v>5.62263827914326</v>
+        <v>5.417279964518761</v>
       </c>
       <c r="D212">
-        <v>-0.3573617208567406</v>
+        <v>0.4172799645187615</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4208,13 +4217,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.28</v>
+        <v>5.01</v>
       </c>
       <c r="C213">
-        <v>5.417172529363642</v>
+        <v>5.419004977561049</v>
       </c>
       <c r="D213">
-        <v>0.1371725293636414</v>
+        <v>0.4090049775610494</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4222,13 +4231,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.3</v>
+        <v>5.03</v>
       </c>
       <c r="C214">
-        <v>5.442553054165035</v>
+        <v>5.445803393399218</v>
       </c>
       <c r="D214">
-        <v>0.1425530541650355</v>
+        <v>0.4158033933992176</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4236,13 +4245,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.31</v>
+        <v>5.02</v>
       </c>
       <c r="C215">
-        <v>5.414568358406534</v>
+        <v>5.416709980477054</v>
       </c>
       <c r="D215">
-        <v>0.1045683584065342</v>
+        <v>0.3967099804770546</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4250,13 +4259,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.27</v>
+        <v>4.99</v>
       </c>
       <c r="C216">
-        <v>5.403355518830983</v>
+        <v>5.38582731467029</v>
       </c>
       <c r="D216">
-        <v>0.1333555188309834</v>
+        <v>0.3958273146702895</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4264,13 +4273,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.28</v>
+        <v>5.07</v>
       </c>
       <c r="C217">
-        <v>5.436760003319883</v>
+        <v>5.404683335239057</v>
       </c>
       <c r="D217">
-        <v>0.1567600033198824</v>
+        <v>0.334683335239057</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4278,13 +4287,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.28</v>
+        <v>5.09</v>
       </c>
       <c r="C218">
-        <v>5.439340009998487</v>
+        <v>5.400949399648556</v>
       </c>
       <c r="D218">
-        <v>0.1593400099984867</v>
+        <v>0.3109493996485559</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4292,13 +4301,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.32</v>
+        <v>5.09</v>
       </c>
       <c r="C219">
-        <v>5.446382817684105</v>
+        <v>5.409061143268734</v>
       </c>
       <c r="D219">
-        <v>0.1263828176841049</v>
+        <v>0.3190611432687342</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4306,13 +4315,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.15</v>
+        <v>5.16</v>
       </c>
       <c r="C220">
-        <v>5.466659388611706</v>
+        <v>5.42841353783137</v>
       </c>
       <c r="D220">
-        <v>0.3166593886117059</v>
+        <v>0.2684135378313703</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4320,13 +4329,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.05</v>
+        <v>5.12</v>
       </c>
       <c r="C221">
-        <v>5.455346869758198</v>
+        <v>5.408184921898783</v>
       </c>
       <c r="D221">
-        <v>0.4053468697581986</v>
+        <v>0.2881849218987824</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4334,13 +4343,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.06</v>
+        <v>5.1</v>
       </c>
       <c r="C222">
-        <v>5.454854482512177</v>
+        <v>5.283850555210466</v>
       </c>
       <c r="D222">
-        <v>0.3948544825121774</v>
+        <v>0.1838505552104666</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4348,13 +4357,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.02</v>
+        <v>5.12</v>
       </c>
       <c r="C223">
-        <v>5.418854496217349</v>
+        <v>5.276011119838295</v>
       </c>
       <c r="D223">
-        <v>0.3988544962173499</v>
+        <v>0.1560111198382952</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4362,13 +4371,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.01</v>
+        <v>5.15</v>
       </c>
       <c r="C224">
-        <v>5.427074651416387</v>
+        <v>5.318994322879694</v>
       </c>
       <c r="D224">
-        <v>0.417074651416387</v>
+        <v>0.1689943228796933</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4376,13 +4385,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.04</v>
+        <v>5.14</v>
       </c>
       <c r="C225">
-        <v>5.378065702535702</v>
+        <v>5.300099974853883</v>
       </c>
       <c r="D225">
-        <v>0.3380657025357019</v>
+        <v>0.1600999748538836</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4390,13 +4399,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.09</v>
+        <v>5.08</v>
       </c>
       <c r="C226">
-        <v>5.409021057509529</v>
+        <v>5.233497323526016</v>
       </c>
       <c r="D226">
-        <v>0.3190210575095289</v>
+        <v>0.1534973235260155</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4404,13 +4413,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.1</v>
+        <v>5.09</v>
       </c>
       <c r="C227">
-        <v>5.420327213207349</v>
+        <v>5.271318517389491</v>
       </c>
       <c r="D227">
-        <v>0.3203272132073494</v>
+        <v>0.1813185173894913</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4418,13 +4427,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.13</v>
+        <v>5.04</v>
       </c>
       <c r="C228">
-        <v>5.399062052492022</v>
+        <v>5.264663028479473</v>
       </c>
       <c r="D228">
-        <v>0.2690620524920222</v>
+        <v>0.2246630284794726</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4432,13 +4441,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="C229">
-        <v>5.395985289631206</v>
+        <v>5.25325725499489</v>
       </c>
       <c r="D229">
-        <v>0.255985289631206</v>
+        <v>0.1932572549948901</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4446,13 +4455,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.14</v>
+        <v>5.06</v>
       </c>
       <c r="C230">
-        <v>5.393834122987153</v>
+        <v>5.260333328980058</v>
       </c>
       <c r="D230">
-        <v>0.2538341229871532</v>
+        <v>0.200333328980058</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4460,13 +4469,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.08</v>
+        <v>5.06</v>
       </c>
       <c r="C231">
-        <v>5.302426904256219</v>
+        <v>5.224207960531825</v>
       </c>
       <c r="D231">
-        <v>0.2224269042562188</v>
+        <v>0.1642079605318258</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4474,13 +4483,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="C232">
-        <v>5.27961883659667</v>
+        <v>5.266104109718966</v>
       </c>
       <c r="D232">
-        <v>0.1796188365966707</v>
+        <v>0.1961041097189655</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4488,13 +4497,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.1</v>
+        <v>5.14</v>
       </c>
       <c r="C233">
-        <v>5.291527223288353</v>
+        <v>5.336996646223146</v>
       </c>
       <c r="D233">
-        <v>0.1915272232883538</v>
+        <v>0.1969966462231465</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4502,13 +4511,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.13</v>
+        <v>5.16</v>
       </c>
       <c r="C234">
-        <v>5.280523869029619</v>
+        <v>5.325369161804011</v>
       </c>
       <c r="D234">
-        <v>0.1505238690296187</v>
+        <v>0.1653691618040112</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4516,13 +4525,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.15</v>
+        <v>5.12</v>
       </c>
       <c r="C235">
-        <v>5.326235280506564</v>
+        <v>5.223458926646287</v>
       </c>
       <c r="D235">
-        <v>0.1762352805065639</v>
+        <v>0.1034589266462866</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4530,13 +4539,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="C236">
-        <v>5.273645797744235</v>
+        <v>5.223867618269188</v>
       </c>
       <c r="D236">
-        <v>0.1736457977442356</v>
+        <v>0.143867618269188</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4547,10 +4556,10 @@
         <v>5.09</v>
       </c>
       <c r="C237">
-        <v>5.262634405054355</v>
+        <v>5.243453870004138</v>
       </c>
       <c r="D237">
-        <v>0.1726344050543549</v>
+        <v>0.1534538700041379</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4561,10 +4570,10 @@
         <v>5.08</v>
       </c>
       <c r="C238">
-        <v>5.245364089353613</v>
+        <v>5.23776782770311</v>
       </c>
       <c r="D238">
-        <v>0.1653640893536128</v>
+        <v>0.1577678277031103</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4572,13 +4581,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.08</v>
+        <v>4.96</v>
       </c>
       <c r="C239">
-        <v>5.258604768681408</v>
+        <v>5.105282931626815</v>
       </c>
       <c r="D239">
-        <v>0.1786047686814083</v>
+        <v>0.1452829316268147</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4586,13 +4595,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.06</v>
+        <v>4.98</v>
       </c>
       <c r="C240">
-        <v>5.270831093517877</v>
+        <v>5.115263044535657</v>
       </c>
       <c r="D240">
-        <v>0.2108310935178777</v>
+        <v>0.1352630445356562</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4600,13 +4609,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.06</v>
+        <v>4.96</v>
       </c>
       <c r="C241">
-        <v>5.257972220631414</v>
+        <v>5.071091304867481</v>
       </c>
       <c r="D241">
-        <v>0.1979722206314145</v>
+        <v>0.1110913048674806</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4614,13 +4623,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.14</v>
+        <v>4.95</v>
       </c>
       <c r="C242">
-        <v>5.333149897681869</v>
+        <v>5.012258698901852</v>
       </c>
       <c r="D242">
-        <v>0.1931498976818693</v>
+        <v>0.06225869890185187</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4628,13 +4637,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.15</v>
+        <v>4.97</v>
       </c>
       <c r="C243">
-        <v>5.326458127139619</v>
+        <v>4.994000000889272</v>
       </c>
       <c r="D243">
-        <v>0.1764581271396182</v>
+        <v>0.02400000088927179</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4642,13 +4651,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.16</v>
+        <v>5.05</v>
       </c>
       <c r="C244">
-        <v>5.327706206733611</v>
+        <v>5.01638164362411</v>
       </c>
       <c r="D244">
-        <v>0.1677062067336106</v>
+        <v>-0.03361835637588939</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4656,13 +4665,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.06</v>
+        <v>5.09</v>
       </c>
       <c r="C245">
-        <v>5.209757124643955</v>
+        <v>5.001852397633068</v>
       </c>
       <c r="D245">
-        <v>0.1497571246439557</v>
+        <v>-0.08814760236693164</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4670,13 +4679,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.04</v>
+        <v>5.17</v>
       </c>
       <c r="C246">
-        <v>5.203121597667106</v>
+        <v>5.012795493450514</v>
       </c>
       <c r="D246">
-        <v>0.1631215976671063</v>
+        <v>-0.157204506549486</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4684,13 +4693,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="C247">
-        <v>5.236346950686086</v>
+        <v>5.033557371849578</v>
       </c>
       <c r="D247">
-        <v>0.1463469506860857</v>
+        <v>-0.1564426281504225</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4698,13 +4707,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.07</v>
+        <v>5.2</v>
       </c>
       <c r="C248">
-        <v>5.222701016282425</v>
+        <v>5.096061911246152</v>
       </c>
       <c r="D248">
-        <v>0.1527010162824247</v>
+        <v>-0.1039380887538481</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4712,13 +4721,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.02</v>
+        <v>5.23</v>
       </c>
       <c r="C249">
-        <v>5.184752364620193</v>
+        <v>5.121792329286937</v>
       </c>
       <c r="D249">
-        <v>0.1647523646201936</v>
+        <v>-0.108207670713063</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4726,13 +4735,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>4.97</v>
+        <v>5.25</v>
       </c>
       <c r="C250">
-        <v>5.101977154287951</v>
+        <v>5.137470653408569</v>
       </c>
       <c r="D250">
-        <v>0.1319771542879513</v>
+        <v>-0.1125293465914305</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4740,13 +4749,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>4.93</v>
+        <v>5.23</v>
       </c>
       <c r="C251">
-        <v>5.025807541814805</v>
+        <v>5.109860533947367</v>
       </c>
       <c r="D251">
-        <v>0.09580754181480522</v>
+        <v>-0.1201394660526338</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4754,13 +4763,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>4.92</v>
+        <v>5.24</v>
       </c>
       <c r="C252">
-        <v>4.992728094109141</v>
+        <v>5.094969210817422</v>
       </c>
       <c r="D252">
-        <v>0.07272809410914149</v>
+        <v>-0.1450307891825782</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4768,13 +4777,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>4.94</v>
+        <v>5.19</v>
       </c>
       <c r="C253">
-        <v>4.99836050562558</v>
+        <v>5.071538510481896</v>
       </c>
       <c r="D253">
-        <v>0.05836050562558004</v>
+        <v>-0.1184614895181042</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4782,13 +4791,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>4.96</v>
+        <v>5.28</v>
       </c>
       <c r="C254">
-        <v>4.994753790118107</v>
+        <v>5.087260230119656</v>
       </c>
       <c r="D254">
-        <v>0.0347537901181072</v>
+        <v>-0.1927397698803439</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4796,13 +4805,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>4.98</v>
+        <v>5.35</v>
       </c>
       <c r="C255">
-        <v>4.992669379883637</v>
+        <v>5.1548386926108</v>
       </c>
       <c r="D255">
-        <v>0.01266937988363637</v>
+        <v>-0.1951613073892</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4810,13 +4819,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.04</v>
+        <v>5.34</v>
       </c>
       <c r="C256">
-        <v>4.988129990351041</v>
+        <v>5.162140864108461</v>
       </c>
       <c r="D256">
-        <v>-0.05187000964895905</v>
+        <v>-0.1778591358915387</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4824,13 +4833,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.09</v>
+        <v>5.29</v>
       </c>
       <c r="C257">
-        <v>4.976790749314659</v>
+        <v>5.089848381586781</v>
       </c>
       <c r="D257">
-        <v>-0.1132092506853404</v>
+        <v>-0.2001516184132193</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4838,13 +4847,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.22</v>
+        <v>5.29</v>
       </c>
       <c r="C258">
-        <v>5.018855114031373</v>
+        <v>5.130243212356114</v>
       </c>
       <c r="D258">
-        <v>-0.2011448859686267</v>
+        <v>-0.1597567876438859</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4852,13 +4861,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.2</v>
+        <v>5.29</v>
       </c>
       <c r="C259">
-        <v>5.016585238934287</v>
+        <v>5.152365324846589</v>
       </c>
       <c r="D259">
-        <v>-0.1834147610657135</v>
+        <v>-0.1376346751534108</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4866,13 +4875,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.28</v>
+        <v>5.26</v>
       </c>
       <c r="C260">
-        <v>5.174703749821692</v>
+        <v>5.16435781975725</v>
       </c>
       <c r="D260">
-        <v>-0.1052962501783083</v>
+        <v>-0.0956421802427494</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4880,13 +4889,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.23</v>
+        <v>5.32</v>
       </c>
       <c r="C261">
-        <v>5.088393809188542</v>
+        <v>5.131199337273249</v>
       </c>
       <c r="D261">
-        <v>-0.1416061908114585</v>
+        <v>-0.1888006627267513</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4894,13 +4903,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.19</v>
+        <v>5.39</v>
       </c>
       <c r="C262">
-        <v>5.069656788514003</v>
+        <v>5.165330447331173</v>
       </c>
       <c r="D262">
-        <v>-0.1203432114859977</v>
+        <v>-0.2246695526688267</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4908,13 +4917,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.24</v>
+        <v>5.36</v>
       </c>
       <c r="C263">
-        <v>5.088696138309817</v>
+        <v>5.1663883140433</v>
       </c>
       <c r="D263">
-        <v>-0.1513038616901827</v>
+        <v>-0.1936116859567001</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4922,13 +4931,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.34</v>
+        <v>5.37</v>
       </c>
       <c r="C264">
-        <v>5.137297499866524</v>
+        <v>5.178044165142851</v>
       </c>
       <c r="D264">
-        <v>-0.2027025001334763</v>
+        <v>-0.1919558348571488</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4936,13 +4945,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.28</v>
+        <v>5.51</v>
       </c>
       <c r="C265">
-        <v>5.093800587767452</v>
+        <v>5.253671473165181</v>
       </c>
       <c r="D265">
-        <v>-0.1861994122325479</v>
+        <v>-0.2563285268348183</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4950,13 +4959,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.31</v>
+        <v>5.55</v>
       </c>
       <c r="C266">
-        <v>5.107533757731566</v>
+        <v>5.414574639595926</v>
       </c>
       <c r="D266">
-        <v>-0.2024662422684331</v>
+        <v>-0.1354253604040743</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4964,13 +4973,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.3</v>
+        <v>5.54</v>
       </c>
       <c r="C267">
-        <v>5.104487051565545</v>
+        <v>5.413842819310404</v>
       </c>
       <c r="D267">
-        <v>-0.1955129484344544</v>
+        <v>-0.1261571806895958</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4978,13 +4987,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.3</v>
+        <v>5.52</v>
       </c>
       <c r="C268">
-        <v>5.115510139183316</v>
+        <v>5.385103063711893</v>
       </c>
       <c r="D268">
-        <v>-0.1844898608166838</v>
+        <v>-0.134896936288107</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4992,13 +5001,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.38</v>
+        <v>5.52</v>
       </c>
       <c r="C269">
-        <v>5.199111044628031</v>
+        <v>5.392305789669538</v>
       </c>
       <c r="D269">
-        <v>-0.1808889553719686</v>
+        <v>-0.1276942103304615</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5006,13 +5015,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.34</v>
+        <v>5.53</v>
       </c>
       <c r="C270">
-        <v>5.18045246566159</v>
+        <v>5.397204040222705</v>
       </c>
       <c r="D270">
-        <v>-0.1595475343384098</v>
+        <v>-0.1327959597772956</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5020,13 +5029,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.48</v>
+        <v>5.53</v>
       </c>
       <c r="C271">
-        <v>5.255243652325031</v>
+        <v>5.347125961122134</v>
       </c>
       <c r="D271">
-        <v>-0.224756347674969</v>
+        <v>-0.1828740388778662</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5034,13 +5043,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.49</v>
+        <v>5.47</v>
       </c>
       <c r="C272">
-        <v>5.174058934422236</v>
+        <v>5.332423828739032</v>
       </c>
       <c r="D272">
-        <v>-0.3159410655777641</v>
+        <v>-0.1375761712609673</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5048,13 +5057,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.62</v>
+        <v>5.48</v>
       </c>
       <c r="C273">
-        <v>5.259360777025885</v>
+        <v>5.333865667294215</v>
       </c>
       <c r="D273">
-        <v>-0.3606392229741155</v>
+        <v>-0.1461343327057856</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5062,13 +5071,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.65</v>
+        <v>5.55</v>
       </c>
       <c r="C274">
-        <v>5.286092325520581</v>
+        <v>5.34060042278677</v>
       </c>
       <c r="D274">
-        <v>-0.3639076744794192</v>
+        <v>-0.2093995772132295</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5076,13 +5085,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.53</v>
+        <v>5.57</v>
       </c>
       <c r="C275">
-        <v>5.396226692201264</v>
+        <v>5.348838722280253</v>
       </c>
       <c r="D275">
-        <v>-0.1337733077987364</v>
+        <v>-0.2211612777197471</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5090,13 +5099,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.52</v>
+        <v>5.54</v>
       </c>
       <c r="C276">
-        <v>5.385133446907339</v>
+        <v>5.347927204210555</v>
       </c>
       <c r="D276">
-        <v>-0.1348665530926603</v>
+        <v>-0.1920727957894446</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5104,13 +5113,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.55</v>
+        <v>5.51</v>
       </c>
       <c r="C277">
-        <v>5.35539445073633</v>
+        <v>5.33974285867214</v>
       </c>
       <c r="D277">
-        <v>-0.1946055492636694</v>
+        <v>-0.17025714132786</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5118,13 +5127,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.53</v>
+        <v>5.66</v>
       </c>
       <c r="C278">
-        <v>5.350422811251235</v>
+        <v>5.387878903288517</v>
       </c>
       <c r="D278">
-        <v>-0.1795771887487652</v>
+        <v>-0.2721210967114827</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5132,13 +5141,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.57</v>
+        <v>5.67</v>
       </c>
       <c r="C279">
-        <v>5.356246574270868</v>
+        <v>5.413015706655732</v>
       </c>
       <c r="D279">
-        <v>-0.2137534257291325</v>
+        <v>-0.2569842933442681</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5146,13 +5155,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.6</v>
+        <v>5.66</v>
       </c>
       <c r="C280">
-        <v>5.405055101232172</v>
+        <v>5.381836694840524</v>
       </c>
       <c r="D280">
-        <v>-0.1949448987678277</v>
+        <v>-0.2781633051594765</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5163,10 +5172,10 @@
         <v>5.67</v>
       </c>
       <c r="C281">
-        <v>5.394364583246373</v>
+        <v>5.358298686903143</v>
       </c>
       <c r="D281">
-        <v>-0.2756354167536266</v>
+        <v>-0.3117013130968571</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5174,13 +5183,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.67</v>
+        <v>5.66</v>
       </c>
       <c r="C282">
-        <v>5.381244423899533</v>
+        <v>5.379430073724639</v>
       </c>
       <c r="D282">
-        <v>-0.288755576100467</v>
+        <v>-0.2805699262753611</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5188,13 +5197,55 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.65</v>
+        <v>5.71</v>
       </c>
       <c r="C283">
-        <v>5.373301804000644</v>
+        <v>5.437741174038725</v>
       </c>
       <c r="D283">
-        <v>-0.2766981959993569</v>
+        <v>-0.2722588259612753</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284">
+        <v>5.74</v>
+      </c>
+      <c r="C284">
+        <v>5.44734654155818</v>
+      </c>
+      <c r="D284">
+        <v>-0.2926534584418201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>5.78</v>
+      </c>
+      <c r="C285">
+        <v>5.473370124093468</v>
+      </c>
+      <c r="D285">
+        <v>-0.3066298759065322</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286">
+        <v>5.69</v>
+      </c>
+      <c r="C286">
+        <v>5.464890839148082</v>
+      </c>
+      <c r="D286">
+        <v>-0.2251091608519182</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_train.xlsx
+++ b/temp/stable_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,859 +28,865 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-12 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:32:00</t>
+    <t>2019-06-13 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 14:03:00</t>
   </si>
   <si>
     <t>2019-04-30 13:20:00</t>
   </si>
   <si>
-    <t>2019-04-30 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:08:00</t>
+    <t>2019-04-30 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:40:00</t>
   </si>
   <si>
     <t>2019-04-15 11:27:00</t>
   </si>
   <si>
-    <t>2019-04-12 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:31:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 09:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:27:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:52:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 14:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 13:39:00</t>
+    <t>2019-04-12 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 09:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 14:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 09:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 13:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:17:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:17:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:35:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:27:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:13:00</t>
   </si>
   <si>
     <t>2018-12-25 13:37:00</t>
   </si>
   <si>
-    <t>2018-12-25 09:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 11:18:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 14:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 09:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 09:39:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 14:03:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 11:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:19:00</t>
+    <t>2018-12-25 13:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 14:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 11:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 13:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 13:51:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 13:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 10:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 09:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:57:00</t>
   </si>
   <si>
     <t>2018-12-19 14:14:00</t>
   </si>
   <si>
-    <t>2018-12-19 13:23:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 13:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 11:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 14:55:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 14:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 10:06:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:54:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:43:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 14:26:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 13:30:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 11:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 09:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 10:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 10:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 09:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-05 09:37:00</t>
+    <t>2018-12-17 14:35:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:26:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:48:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:43:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:47:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 09:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 09:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 13:57:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 11:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 11:17:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 10:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 14:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 11:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 11:20:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 13:14:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:51:00</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D286"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1263,13 +1269,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.8</v>
+        <v>6.77</v>
       </c>
       <c r="C2">
-        <v>6.660648366562978</v>
+        <v>6.638414291799723</v>
       </c>
       <c r="D2">
-        <v>-0.1393516334370215</v>
+        <v>-0.1315857082002765</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1277,13 +1283,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.61</v>
+        <v>6.65</v>
       </c>
       <c r="C3">
-        <v>6.702989246068737</v>
+        <v>6.687462603923976</v>
       </c>
       <c r="D3">
-        <v>0.09298924606873626</v>
+        <v>0.03746260392397538</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1291,13 +1297,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.69</v>
+        <v>6.4</v>
       </c>
       <c r="C4">
-        <v>6.737527380501093</v>
+        <v>6.465453973377818</v>
       </c>
       <c r="D4">
-        <v>0.04752738050109251</v>
+        <v>0.06545397337781722</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1305,13 +1311,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.58</v>
+        <v>6.39</v>
       </c>
       <c r="C5">
-        <v>6.615113669071257</v>
+        <v>6.44347138903823</v>
       </c>
       <c r="D5">
-        <v>0.03511366907125701</v>
+        <v>0.05347138903823012</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1319,13 +1325,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.55</v>
+        <v>6.28</v>
       </c>
       <c r="C6">
-        <v>6.543582275745977</v>
+        <v>6.346182261557288</v>
       </c>
       <c r="D6">
-        <v>-0.006417724254022872</v>
+        <v>0.06618226155728824</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1333,13 +1339,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.4</v>
+        <v>6.66</v>
       </c>
       <c r="C7">
-        <v>6.431227192332263</v>
+        <v>6.614461135451757</v>
       </c>
       <c r="D7">
-        <v>0.03122719233226245</v>
+        <v>-0.0455388645482433</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1347,13 +1353,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.4</v>
+        <v>6.55</v>
       </c>
       <c r="C8">
-        <v>6.439235583820376</v>
+        <v>6.538908368279053</v>
       </c>
       <c r="D8">
-        <v>0.03923558382037573</v>
+        <v>-0.01109163172094707</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1361,13 +1367,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.66</v>
+        <v>6.48</v>
       </c>
       <c r="C9">
-        <v>6.618543842475547</v>
+        <v>6.529395680264583</v>
       </c>
       <c r="D9">
-        <v>-0.0414561575244532</v>
+        <v>0.04939568026458296</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1375,13 +1381,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C10">
-        <v>6.579503675728925</v>
+        <v>6.602919655438264</v>
       </c>
       <c r="D10">
-        <v>0.07950367572892514</v>
+        <v>0.002919655438264002</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1389,13 +1395,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.55</v>
+        <v>6.87</v>
       </c>
       <c r="C11">
-        <v>6.626064671434789</v>
+        <v>6.677147743389012</v>
       </c>
       <c r="D11">
-        <v>0.07606467143478923</v>
+        <v>-0.1928522566109878</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1403,13 +1409,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>6.88</v>
       </c>
       <c r="C12">
-        <v>6.782188374612867</v>
+        <v>6.669265227454853</v>
       </c>
       <c r="D12">
-        <v>-0.2178116253871325</v>
+        <v>-0.2107347725451474</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1417,13 +1423,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>7.17</v>
+        <v>6.96</v>
       </c>
       <c r="C13">
-        <v>7.171318209394678</v>
+        <v>6.7469250691484</v>
       </c>
       <c r="D13">
-        <v>0.001318209394677972</v>
+        <v>-0.2130749308516</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1431,13 +1437,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7.15</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>7.134139612786682</v>
+        <v>6.781772622095094</v>
       </c>
       <c r="D14">
-        <v>-0.01586038721331828</v>
+        <v>-0.2182273779049062</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1445,13 +1451,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.16</v>
+        <v>7.09</v>
       </c>
       <c r="C15">
-        <v>7.151566354694011</v>
+        <v>7.043350423133081</v>
       </c>
       <c r="D15">
-        <v>-0.008433645305989224</v>
+        <v>-0.04664957686691906</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1459,13 +1465,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>7.26</v>
+        <v>7.16</v>
       </c>
       <c r="C16">
-        <v>7.296646270544076</v>
+        <v>7.199992438184772</v>
       </c>
       <c r="D16">
-        <v>0.03664627054407621</v>
+        <v>0.03999243818477183</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1473,13 +1479,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>7.14</v>
+        <v>7.26</v>
       </c>
       <c r="C17">
-        <v>7.366938141056171</v>
+        <v>7.243938807642081</v>
       </c>
       <c r="D17">
-        <v>0.2269381410561717</v>
+        <v>-0.01606119235791859</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1487,13 +1493,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>7.13</v>
+        <v>7.09</v>
       </c>
       <c r="C18">
-        <v>7.292381606257337</v>
+        <v>7.335700839770206</v>
       </c>
       <c r="D18">
-        <v>0.1623816062573376</v>
+        <v>0.2457008397702065</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1501,13 +1507,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.09</v>
+        <v>7.08</v>
       </c>
       <c r="C19">
-        <v>7.295450483829314</v>
+        <v>7.347066901811484</v>
       </c>
       <c r="D19">
-        <v>0.2054504838293143</v>
+        <v>0.267066901811484</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1518,10 +1524,10 @@
         <v>7.22</v>
       </c>
       <c r="C20">
-        <v>7.364975994691586</v>
+        <v>7.374418296550941</v>
       </c>
       <c r="D20">
-        <v>0.1449759946915865</v>
+        <v>0.1544182965509409</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1529,13 +1535,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7.08</v>
+        <v>7.11</v>
       </c>
       <c r="C21">
-        <v>7.303968977463041</v>
+        <v>7.298080661725624</v>
       </c>
       <c r="D21">
-        <v>0.2239689774630405</v>
+        <v>0.1880806617256239</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1543,13 +1549,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.86</v>
+        <v>6.99</v>
       </c>
       <c r="C22">
-        <v>7.267102506635541</v>
+        <v>7.448984021110657</v>
       </c>
       <c r="D22">
-        <v>0.4071025066355407</v>
+        <v>0.4589840211106573</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1557,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.85</v>
+        <v>6.84</v>
       </c>
       <c r="C23">
-        <v>7.358199007057721</v>
+        <v>7.224196071654417</v>
       </c>
       <c r="D23">
-        <v>0.5081990070577218</v>
+        <v>0.3841960716544168</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1571,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.82</v>
+        <v>6.9</v>
       </c>
       <c r="C24">
-        <v>7.311880703105198</v>
+        <v>7.340177498021578</v>
       </c>
       <c r="D24">
-        <v>0.4918807031051982</v>
+        <v>0.440177498021578</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1585,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.87</v>
+        <v>6.93</v>
       </c>
       <c r="C25">
-        <v>7.285458985568108</v>
+        <v>7.410088818977217</v>
       </c>
       <c r="D25">
-        <v>0.4154589855681081</v>
+        <v>0.480088818977217</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1599,13 +1605,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.98</v>
+        <v>7.18</v>
       </c>
       <c r="C26">
-        <v>7.39524598727422</v>
+        <v>7.517743562884554</v>
       </c>
       <c r="D26">
-        <v>0.4152459872742194</v>
+        <v>0.3377435628845546</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1613,13 +1619,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.95</v>
+        <v>7.29</v>
       </c>
       <c r="C27">
-        <v>7.443212855795042</v>
+        <v>7.524788607223408</v>
       </c>
       <c r="D27">
-        <v>0.4932128557950417</v>
+        <v>0.2347886072234084</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1627,13 +1633,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.12</v>
+        <v>7.3</v>
       </c>
       <c r="C28">
-        <v>7.58068890279858</v>
+        <v>7.546092965732088</v>
       </c>
       <c r="D28">
-        <v>0.4606889027985801</v>
+        <v>0.2460929657320881</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1641,13 +1647,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.12</v>
+        <v>7.02</v>
       </c>
       <c r="C29">
-        <v>7.484416143606794</v>
+        <v>7.266331419711662</v>
       </c>
       <c r="D29">
-        <v>0.3644161436067943</v>
+        <v>0.2463314197116624</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1655,13 +1661,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.2</v>
+        <v>7.53</v>
       </c>
       <c r="C30">
-        <v>7.534582392036886</v>
+        <v>7.404776159488659</v>
       </c>
       <c r="D30">
-        <v>0.3345823920368858</v>
+        <v>-0.1252238405113415</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1669,13 +1675,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.2</v>
+        <v>7.69</v>
       </c>
       <c r="C31">
-        <v>7.506229897000721</v>
+        <v>7.489871148025927</v>
       </c>
       <c r="D31">
-        <v>0.3062298970007209</v>
+        <v>-0.2001288519740738</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1683,13 +1689,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.3</v>
+        <v>7.38</v>
       </c>
       <c r="C32">
-        <v>7.583026682724202</v>
+        <v>7.432982009422282</v>
       </c>
       <c r="D32">
-        <v>0.2830266827242021</v>
+        <v>0.05298200942228259</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1697,13 +1703,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.3</v>
+        <v>7.38</v>
       </c>
       <c r="C33">
-        <v>7.565717877355175</v>
+        <v>7.435145077061486</v>
       </c>
       <c r="D33">
-        <v>0.2657178773551756</v>
+        <v>0.05514507706148652</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1711,13 +1717,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.22</v>
+        <v>7.28</v>
       </c>
       <c r="C34">
-        <v>7.437438438119361</v>
+        <v>7.390741574612168</v>
       </c>
       <c r="D34">
-        <v>0.2174384381193608</v>
+        <v>0.1107415746121676</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1725,13 +1731,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.98</v>
+        <v>7.29</v>
       </c>
       <c r="C35">
-        <v>7.180446172904319</v>
+        <v>7.401941721152948</v>
       </c>
       <c r="D35">
-        <v>0.2004461729043188</v>
+        <v>0.1119417211529479</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1739,13 +1745,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.61</v>
+        <v>7.22</v>
       </c>
       <c r="C36">
-        <v>7.438586953678519</v>
+        <v>7.256883566361145</v>
       </c>
       <c r="D36">
-        <v>-0.1714130463214811</v>
+        <v>0.03688356636114509</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1753,13 +1759,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.66</v>
+        <v>7.18</v>
       </c>
       <c r="C37">
-        <v>7.533297105825127</v>
+        <v>7.261183567751774</v>
       </c>
       <c r="D37">
-        <v>-0.1267028941748736</v>
+        <v>0.08118356775177382</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1767,13 +1773,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.39</v>
+        <v>7.18</v>
       </c>
       <c r="C38">
-        <v>7.439070547681752</v>
+        <v>7.301208678244747</v>
       </c>
       <c r="D38">
-        <v>0.04907054768175279</v>
+        <v>0.1212086782447468</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1781,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.38</v>
+        <v>7.21</v>
       </c>
       <c r="C39">
-        <v>7.439828250181573</v>
+        <v>7.239317584719016</v>
       </c>
       <c r="D39">
-        <v>0.05982825018157278</v>
+        <v>0.02931758471901613</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1795,13 +1801,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.3</v>
+        <v>7.19</v>
       </c>
       <c r="C40">
-        <v>7.404722346536288</v>
+        <v>7.287951318925403</v>
       </c>
       <c r="D40">
-        <v>0.1047223465362883</v>
+        <v>0.09795131892540265</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1809,13 +1815,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.27</v>
+        <v>7.29</v>
       </c>
       <c r="C41">
-        <v>7.365704742865554</v>
+        <v>7.322816373601682</v>
       </c>
       <c r="D41">
-        <v>0.09570474286555442</v>
+        <v>0.03281637360168244</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1823,13 +1829,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.24</v>
+        <v>7.32</v>
       </c>
       <c r="C42">
-        <v>7.299850317533793</v>
+        <v>7.298118856198643</v>
       </c>
       <c r="D42">
-        <v>0.059850317533793</v>
+        <v>-0.02188114380135708</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1837,13 +1843,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.16</v>
+        <v>7.31</v>
       </c>
       <c r="C43">
-        <v>7.214732992948114</v>
+        <v>7.269208300701129</v>
       </c>
       <c r="D43">
-        <v>0.05473299294811351</v>
+        <v>-0.04079169929887083</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1851,13 +1857,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.27</v>
+        <v>7.67</v>
       </c>
       <c r="C44">
-        <v>7.240807485755806</v>
+        <v>7.234466620035834</v>
       </c>
       <c r="D44">
-        <v>-0.02919251424419311</v>
+        <v>-0.4355333799641663</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1865,13 +1871,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.27</v>
+        <v>7.8</v>
       </c>
       <c r="C45">
-        <v>7.232513220447916</v>
+        <v>7.287439219893693</v>
       </c>
       <c r="D45">
-        <v>-0.03748677955208368</v>
+        <v>-0.5125607801063063</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1879,13 +1885,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.24</v>
+        <v>7.86</v>
       </c>
       <c r="C46">
-        <v>7.276279723933993</v>
+        <v>7.322517953971996</v>
       </c>
       <c r="D46">
-        <v>0.03627972393399315</v>
+        <v>-0.5374820460280043</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1893,13 +1899,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.31</v>
+        <v>7.89</v>
       </c>
       <c r="C47">
-        <v>7.32517653369021</v>
+        <v>7.281142955705675</v>
       </c>
       <c r="D47">
-        <v>0.01517653369021055</v>
+        <v>-0.6088570442943242</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1907,13 +1913,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.26</v>
+        <v>7.94</v>
       </c>
       <c r="C48">
-        <v>7.313471273183935</v>
+        <v>7.34869368448854</v>
       </c>
       <c r="D48">
-        <v>0.05347127318393508</v>
+        <v>-0.5913063155114608</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1921,13 +1927,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.27</v>
+        <v>7.85</v>
       </c>
       <c r="C49">
-        <v>7.290383290922402</v>
+        <v>7.326035705982958</v>
       </c>
       <c r="D49">
-        <v>0.02038329092240243</v>
+        <v>-0.5239642940170413</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1935,13 +1941,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.37</v>
+        <v>7.7</v>
       </c>
       <c r="C50">
-        <v>7.194020432462653</v>
+        <v>7.247315966497213</v>
       </c>
       <c r="D50">
-        <v>-0.1759795675373468</v>
+        <v>-0.4526840335027869</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1949,13 +1955,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>7.88</v>
+        <v>8.23</v>
       </c>
       <c r="C51">
-        <v>7.298558066484035</v>
+        <v>7.607237841863816</v>
       </c>
       <c r="D51">
-        <v>-0.5814419335159648</v>
+        <v>-0.6227621581361849</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1963,13 +1969,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>8.130000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="C52">
-        <v>7.773672605610227</v>
+        <v>7.615084044418365</v>
       </c>
       <c r="D52">
-        <v>-0.3563273943897736</v>
+        <v>-0.5749159555816341</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1977,13 +1983,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>7.93</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C53">
-        <v>7.847415446504379</v>
+        <v>7.746719128206236</v>
       </c>
       <c r="D53">
-        <v>-0.08258455349562066</v>
+        <v>-0.4632808717937653</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1991,13 +1997,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>7.81</v>
+        <v>8.27</v>
       </c>
       <c r="C54">
-        <v>8.345076545184167</v>
+        <v>7.835011830387568</v>
       </c>
       <c r="D54">
-        <v>0.5350765451841673</v>
+        <v>-0.4349881696124314</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2005,13 +2011,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.88</v>
+        <v>7.66</v>
       </c>
       <c r="C55">
-        <v>8.342504315518266</v>
+        <v>7.856692900400351</v>
       </c>
       <c r="D55">
-        <v>0.4625043155182658</v>
+        <v>0.1966929004003504</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2019,13 +2025,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.61</v>
+        <v>7.94</v>
       </c>
       <c r="C56">
-        <v>8.144555495927953</v>
+        <v>7.850506782740279</v>
       </c>
       <c r="D56">
-        <v>0.534555495927953</v>
+        <v>-0.08949321725972137</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2033,13 +2039,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.58</v>
+        <v>7.79</v>
       </c>
       <c r="C57">
-        <v>8.14040375809838</v>
+        <v>8.327848419984138</v>
       </c>
       <c r="D57">
-        <v>0.5604037580983796</v>
+        <v>0.5378484199841376</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2047,13 +2053,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.54</v>
+        <v>7.8</v>
       </c>
       <c r="C58">
-        <v>8.143262389249664</v>
+        <v>8.388094494356107</v>
       </c>
       <c r="D58">
-        <v>0.6032623892496636</v>
+        <v>0.5880944943561071</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2061,13 +2067,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.87</v>
+        <v>7.88</v>
       </c>
       <c r="C59">
-        <v>8.329659562245631</v>
+        <v>8.346772128068288</v>
       </c>
       <c r="D59">
-        <v>0.4596595622456308</v>
+        <v>0.4667721280682882</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2075,13 +2081,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>7.86</v>
+        <v>7.65</v>
       </c>
       <c r="C60">
-        <v>8.301485907100624</v>
+        <v>8.157019535239865</v>
       </c>
       <c r="D60">
-        <v>0.4414859071006232</v>
+        <v>0.5070195352398645</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2089,13 +2095,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.96</v>
+        <v>7.63</v>
       </c>
       <c r="C61">
-        <v>8.298268763738022</v>
+        <v>8.152841401608431</v>
       </c>
       <c r="D61">
-        <v>0.3382687637380224</v>
+        <v>0.5228414016084306</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2103,13 +2109,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>8.44</v>
+        <v>7.67</v>
       </c>
       <c r="C62">
-        <v>7.990186812981222</v>
+        <v>8.213179507999504</v>
       </c>
       <c r="D62">
-        <v>-0.4498131870187771</v>
+        <v>0.5431795079995041</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2117,13 +2123,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>8.51</v>
+        <v>7.72</v>
       </c>
       <c r="C63">
-        <v>7.925201321514995</v>
+        <v>8.26629163302993</v>
       </c>
       <c r="D63">
-        <v>-0.5847986784850052</v>
+        <v>0.5462916330299299</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2131,13 +2137,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>8.31</v>
+        <v>8.44</v>
       </c>
       <c r="C64">
-        <v>7.983854907408094</v>
+        <v>7.91673596625669</v>
       </c>
       <c r="D64">
-        <v>-0.3261450925919069</v>
+        <v>-0.5232640337433097</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2145,13 +2151,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>9.26</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C65">
-        <v>8.337328436210331</v>
+        <v>8.221761397146485</v>
       </c>
       <c r="D65">
-        <v>-0.9226715637896685</v>
+        <v>-0.808238602853514</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2159,13 +2165,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>9.4</v>
+        <v>8.81</v>
       </c>
       <c r="C66">
-        <v>8.386761993613575</v>
+        <v>8.194630485400406</v>
       </c>
       <c r="D66">
-        <v>-1.013238006386425</v>
+        <v>-0.6153695145995943</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2173,13 +2179,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>8.789999999999999</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C67">
-        <v>8.163282813380462</v>
+        <v>8.189949034045593</v>
       </c>
       <c r="D67">
-        <v>-0.6267171866195369</v>
+        <v>-0.7700509659544075</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2187,13 +2193,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>9.029999999999999</v>
+        <v>9</v>
       </c>
       <c r="C68">
-        <v>8.178779474463475</v>
+        <v>8.196055685556038</v>
       </c>
       <c r="D68">
-        <v>-0.8512205255365242</v>
+        <v>-0.803944314443962</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2201,13 +2207,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>8.06</v>
+        <v>9.09</v>
       </c>
       <c r="C69">
-        <v>8.104719486318142</v>
+        <v>8.119127809273166</v>
       </c>
       <c r="D69">
-        <v>0.04471948631814193</v>
+        <v>-0.9708721907268334</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2215,13 +2221,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.029999999999999</v>
+        <v>8.49</v>
       </c>
       <c r="C70">
-        <v>8.072148936494273</v>
+        <v>8.046178876242173</v>
       </c>
       <c r="D70">
-        <v>0.04214893649427331</v>
+        <v>-0.4438211237578269</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2229,13 +2235,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.26</v>
+        <v>8.08</v>
       </c>
       <c r="C71">
-        <v>8.125465473558627</v>
+        <v>8.106794733750881</v>
       </c>
       <c r="D71">
-        <v>-0.1345345264413726</v>
+        <v>0.02679473375088115</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2243,13 +2249,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>8.26</v>
+        <v>8.01</v>
       </c>
       <c r="C72">
-        <v>8.145929520568167</v>
+        <v>8.067878155992432</v>
       </c>
       <c r="D72">
-        <v>-0.1140704794318328</v>
+        <v>0.05787815599243196</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2257,13 +2263,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>8.300000000000001</v>
+        <v>8.01</v>
       </c>
       <c r="C73">
-        <v>8.152200405248355</v>
+        <v>8.113236412937164</v>
       </c>
       <c r="D73">
-        <v>-0.1477995947516462</v>
+        <v>0.1032364129371643</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2271,13 +2277,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.300000000000001</v>
+        <v>8.24</v>
       </c>
       <c r="C74">
-        <v>8.163337869363957</v>
+        <v>8.112972893973863</v>
       </c>
       <c r="D74">
-        <v>-0.1366621306360436</v>
+        <v>-0.1270271060261372</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2285,13 +2291,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.35</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C75">
-        <v>8.188121314183363</v>
+        <v>8.178366483684659</v>
       </c>
       <c r="D75">
-        <v>-0.161878685816637</v>
+        <v>-0.1116335163153401</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2299,13 +2305,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.58</v>
+        <v>8.44</v>
       </c>
       <c r="C76">
-        <v>8.220279093972842</v>
+        <v>8.207928034867638</v>
       </c>
       <c r="D76">
-        <v>-0.3597209060271584</v>
+        <v>-0.2320719651323611</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2313,13 +2319,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.5</v>
+        <v>8.52</v>
       </c>
       <c r="C77">
-        <v>8.240422057347427</v>
+        <v>8.191146940755516</v>
       </c>
       <c r="D77">
-        <v>-0.2595779426525731</v>
+        <v>-0.3288530592444836</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2327,13 +2333,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.33</v>
+        <v>8.4</v>
       </c>
       <c r="C78">
-        <v>8.118241976714344</v>
+        <v>8.224296890237515</v>
       </c>
       <c r="D78">
-        <v>-0.2117580232856557</v>
+        <v>-0.1757031097624857</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2341,13 +2347,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.42</v>
+        <v>8.24</v>
       </c>
       <c r="C79">
-        <v>8.177622405846048</v>
+        <v>8.021785255794642</v>
       </c>
       <c r="D79">
-        <v>-0.2423775941539521</v>
+        <v>-0.2182147442053584</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2355,13 +2361,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>7.81</v>
+        <v>7.69</v>
       </c>
       <c r="C80">
-        <v>7.803795170226935</v>
+        <v>7.734663371705475</v>
       </c>
       <c r="D80">
-        <v>-0.006204829773064802</v>
+        <v>0.0446633717054743</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2369,13 +2375,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8.1</v>
+        <v>7.62</v>
       </c>
       <c r="C81">
-        <v>7.950213840047152</v>
+        <v>7.575753029502719</v>
       </c>
       <c r="D81">
-        <v>-0.1497861599528472</v>
+        <v>-0.04424697049728099</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2383,13 +2389,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>8.17</v>
+        <v>8.07</v>
       </c>
       <c r="C82">
-        <v>8.088934398470485</v>
+        <v>7.93549072779383</v>
       </c>
       <c r="D82">
-        <v>-0.08106560152951481</v>
+        <v>-0.13450927220617</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2400,10 +2406,10 @@
         <v>8.119999999999999</v>
       </c>
       <c r="C83">
-        <v>8.09407981654401</v>
+        <v>8.043212384672776</v>
       </c>
       <c r="D83">
-        <v>-0.02592018345598923</v>
+        <v>-0.07678761532722334</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2414,10 +2420,10 @@
         <v>8.15</v>
       </c>
       <c r="C84">
-        <v>8.1216994819025</v>
+        <v>8.121313275138304</v>
       </c>
       <c r="D84">
-        <v>-0.02830051809750067</v>
+        <v>-0.02868672486169643</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2425,13 +2431,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8.07</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C85">
-        <v>8.007526218618722</v>
+        <v>8.032497135542314</v>
       </c>
       <c r="D85">
-        <v>-0.06247378138127857</v>
+        <v>-0.0975028644576863</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2439,13 +2445,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.19</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="C86">
-        <v>8.05253084945803</v>
+        <v>8.030260777447909</v>
       </c>
       <c r="D86">
-        <v>-0.1374691505419694</v>
+        <v>-0.08973922255209033</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2453,13 +2459,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.279999999999999</v>
+        <v>8</v>
       </c>
       <c r="C87">
-        <v>8.128109511103478</v>
+        <v>8.078441991273046</v>
       </c>
       <c r="D87">
-        <v>-0.1518904888965213</v>
+        <v>0.07844199127304563</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2467,13 +2473,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.25</v>
+        <v>7.58</v>
       </c>
       <c r="C88">
-        <v>8.116236759791505</v>
+        <v>7.944082248655098</v>
       </c>
       <c r="D88">
-        <v>-0.1337632402084949</v>
+        <v>0.3640822486550981</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2481,13 +2487,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.050000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="C89">
-        <v>8.065711416570359</v>
+        <v>7.886857431306264</v>
       </c>
       <c r="D89">
-        <v>0.01571141657035824</v>
+        <v>0.2068574313062648</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2495,13 +2501,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.7</v>
+        <v>7.67</v>
       </c>
       <c r="C90">
-        <v>7.897270869330407</v>
+        <v>7.865436663645585</v>
       </c>
       <c r="D90">
-        <v>0.1972708693304064</v>
+        <v>0.1954366636455855</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2509,13 +2515,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.56</v>
+        <v>7.68</v>
       </c>
       <c r="C91">
-        <v>7.923232837933328</v>
+        <v>7.870215261591683</v>
       </c>
       <c r="D91">
-        <v>0.3632328379333281</v>
+        <v>0.1902152615916837</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2523,13 +2529,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.53</v>
+        <v>7.51</v>
       </c>
       <c r="C92">
-        <v>7.702424383171958</v>
+        <v>7.683766505252933</v>
       </c>
       <c r="D92">
-        <v>0.1724243831719576</v>
+        <v>0.1737665052529334</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2537,13 +2543,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.5</v>
+        <v>7.51</v>
       </c>
       <c r="C93">
-        <v>7.637228423179262</v>
+        <v>7.635019601250784</v>
       </c>
       <c r="D93">
-        <v>0.1372284231792618</v>
+        <v>0.1250196012507843</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2551,13 +2557,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.46</v>
+        <v>7.64</v>
       </c>
       <c r="C94">
-        <v>7.570844413223555</v>
+        <v>7.79657642330019</v>
       </c>
       <c r="D94">
-        <v>0.1108444132235551</v>
+        <v>0.1565764233001898</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2565,13 +2571,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.58</v>
+        <v>7.62</v>
       </c>
       <c r="C95">
-        <v>7.573907401465676</v>
+        <v>7.797605677989701</v>
       </c>
       <c r="D95">
-        <v>-0.00609259853432409</v>
+        <v>0.1776056779897006</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2579,13 +2585,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.6</v>
+        <v>7.63</v>
       </c>
       <c r="C96">
-        <v>7.603926443839272</v>
+        <v>7.807691430290149</v>
       </c>
       <c r="D96">
-        <v>0.003926443839271876</v>
+        <v>0.1776914302901487</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2593,13 +2599,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.64</v>
+        <v>7.72</v>
       </c>
       <c r="C97">
-        <v>7.976384919194989</v>
+        <v>8.006964487597591</v>
       </c>
       <c r="D97">
-        <v>0.3363849191949893</v>
+        <v>0.286964487597591</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2607,13 +2613,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.65</v>
+        <v>7.61</v>
       </c>
       <c r="C98">
-        <v>7.818525856066734</v>
+        <v>7.880995321710571</v>
       </c>
       <c r="D98">
-        <v>0.1685258560667338</v>
+        <v>0.2709953217105712</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2621,13 +2627,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.65</v>
+        <v>7.61</v>
       </c>
       <c r="C99">
-        <v>7.816972601754332</v>
+        <v>7.872009124725848</v>
       </c>
       <c r="D99">
-        <v>0.166972601754332</v>
+        <v>0.2620091247258474</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2635,13 +2641,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.67</v>
+        <v>7.61</v>
       </c>
       <c r="C100">
-        <v>7.838544922817671</v>
+        <v>7.934690919606695</v>
       </c>
       <c r="D100">
-        <v>0.168544922817671</v>
+        <v>0.3246909196066943</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2649,13 +2655,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.6</v>
+        <v>7.69</v>
       </c>
       <c r="C101">
-        <v>7.901583470133255</v>
+        <v>7.933166555135552</v>
       </c>
       <c r="D101">
-        <v>0.3015834701332549</v>
+        <v>0.2431665551355513</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2663,13 +2669,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.66</v>
+        <v>7.67</v>
       </c>
       <c r="C102">
-        <v>7.917657115944063</v>
+        <v>7.9405305701194</v>
       </c>
       <c r="D102">
-        <v>0.2576571159440624</v>
+        <v>0.2705305701193996</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2677,13 +2683,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.71</v>
+        <v>7.61</v>
       </c>
       <c r="C103">
-        <v>7.928352717111619</v>
+        <v>7.835311646353572</v>
       </c>
       <c r="D103">
-        <v>0.2183527171116193</v>
+        <v>0.225311646353572</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2691,13 +2697,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.72</v>
+        <v>7.61</v>
       </c>
       <c r="C104">
-        <v>8.015220607762497</v>
+        <v>7.908774839686968</v>
       </c>
       <c r="D104">
-        <v>0.2952206077624977</v>
+        <v>0.2987748396869678</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2705,13 +2711,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.36</v>
+        <v>7.66</v>
       </c>
       <c r="C105">
-        <v>7.636750720092528</v>
+        <v>7.924952675297551</v>
       </c>
       <c r="D105">
-        <v>0.2767507200925277</v>
+        <v>0.2649526752975504</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2719,13 +2725,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.23</v>
+        <v>7.65</v>
       </c>
       <c r="C106">
-        <v>7.411724624385525</v>
+        <v>7.832296728514329</v>
       </c>
       <c r="D106">
-        <v>0.1817246243855246</v>
+        <v>0.1822967285143289</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2733,13 +2739,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.15</v>
+        <v>7.61</v>
       </c>
       <c r="C107">
-        <v>7.4142302759807</v>
+        <v>7.826519219073202</v>
       </c>
       <c r="D107">
-        <v>0.2642302759807</v>
+        <v>0.2165192190732013</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2747,13 +2753,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.18</v>
+        <v>7.7</v>
       </c>
       <c r="C108">
-        <v>7.432885193211848</v>
+        <v>8.018226909046508</v>
       </c>
       <c r="D108">
-        <v>0.2528851932118483</v>
+        <v>0.3182269090465075</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2761,13 +2767,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.16</v>
+        <v>7.35</v>
       </c>
       <c r="C109">
-        <v>7.409784386023818</v>
+        <v>7.599023474496635</v>
       </c>
       <c r="D109">
-        <v>0.2497843860238183</v>
+        <v>0.2490234744966351</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2775,13 +2781,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.21</v>
+        <v>7.22</v>
       </c>
       <c r="C110">
-        <v>7.533300311045733</v>
+        <v>7.467574552485635</v>
       </c>
       <c r="D110">
-        <v>0.3233003110457329</v>
+        <v>0.2475745524856352</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2789,13 +2795,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.55</v>
+        <v>7.27</v>
       </c>
       <c r="C111">
-        <v>7.611761499345387</v>
+        <v>7.542982351924142</v>
       </c>
       <c r="D111">
-        <v>0.06176149934538699</v>
+        <v>0.2729823519241421</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2803,13 +2809,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.85</v>
+        <v>7.46</v>
       </c>
       <c r="C112">
-        <v>7.800110213961045</v>
+        <v>7.602052500779136</v>
       </c>
       <c r="D112">
-        <v>-0.04988978603895422</v>
+        <v>0.142052500779136</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2817,13 +2823,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.8</v>
+        <v>7.72</v>
       </c>
       <c r="C113">
-        <v>7.955803053445559</v>
+        <v>7.714138296546325</v>
       </c>
       <c r="D113">
-        <v>0.1558030534455597</v>
+        <v>-0.005861703453674316</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2831,13 +2837,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.88</v>
+        <v>7.86</v>
       </c>
       <c r="C114">
-        <v>8.034622369542134</v>
+        <v>8.003353047261216</v>
       </c>
       <c r="D114">
-        <v>0.1546223695421345</v>
+        <v>0.1433530472612157</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2845,13 +2851,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="C115">
-        <v>7.999964220167841</v>
+        <v>7.982091219303504</v>
       </c>
       <c r="D115">
-        <v>0.09996422016784035</v>
+        <v>0.182091219303504</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2859,13 +2865,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.88</v>
+        <v>7.98</v>
       </c>
       <c r="C116">
-        <v>8.00541767670083</v>
+        <v>8.062181978658579</v>
       </c>
       <c r="D116">
-        <v>0.1254176767008301</v>
+        <v>0.08218197865857846</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2873,13 +2879,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.9</v>
+        <v>7.91</v>
       </c>
       <c r="C117">
-        <v>7.976107488799269</v>
+        <v>7.994925273054763</v>
       </c>
       <c r="D117">
-        <v>0.07610748879926899</v>
+        <v>0.08492527305476294</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2887,13 +2893,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>8.16</v>
+        <v>7.99</v>
       </c>
       <c r="C118">
-        <v>8.142063247067533</v>
+        <v>8.049536806755903</v>
       </c>
       <c r="D118">
-        <v>-0.01793675293246721</v>
+        <v>0.05953680675590256</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2901,13 +2907,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>8.369999999999999</v>
+        <v>7.88</v>
       </c>
       <c r="C119">
-        <v>8.271812923340313</v>
+        <v>7.950937036076962</v>
       </c>
       <c r="D119">
-        <v>-0.09818707665968596</v>
+        <v>0.07093703607696167</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2915,13 +2921,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>8.279999999999999</v>
+        <v>7.86</v>
       </c>
       <c r="C120">
-        <v>8.120785531752055</v>
+        <v>7.978024084855333</v>
       </c>
       <c r="D120">
-        <v>-0.1592144682479439</v>
+        <v>0.1180240848553327</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2929,13 +2935,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>8.18</v>
+        <v>7.87</v>
       </c>
       <c r="C121">
-        <v>8.003720084717877</v>
+        <v>7.979458944383204</v>
       </c>
       <c r="D121">
-        <v>-0.1762799152821231</v>
+        <v>0.1094589443832037</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2943,13 +2949,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.32</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="C122">
-        <v>8.149241931156205</v>
+        <v>8.001707136609863</v>
       </c>
       <c r="D122">
-        <v>-0.1707580688437957</v>
+        <v>-0.1082928633901368</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2957,13 +2963,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>8.34</v>
+        <v>8.16</v>
       </c>
       <c r="C123">
-        <v>8.215260165419146</v>
+        <v>8.13715392313056</v>
       </c>
       <c r="D123">
-        <v>-0.1247398345808541</v>
+        <v>-0.02284607686944007</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2971,13 +2977,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.220000000000001</v>
+        <v>8.15</v>
       </c>
       <c r="C124">
-        <v>8.185543853998389</v>
+        <v>8.170272946578075</v>
       </c>
       <c r="D124">
-        <v>-0.03445614600161129</v>
+        <v>0.02027294657807488</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2985,13 +2991,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.210000000000001</v>
+        <v>8.18</v>
       </c>
       <c r="C125">
-        <v>8.040646989619447</v>
+        <v>8.16947073528376</v>
       </c>
       <c r="D125">
-        <v>-0.1693530103805543</v>
+        <v>-0.01052926471624005</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2999,13 +3005,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.15</v>
+        <v>8.19</v>
       </c>
       <c r="C126">
-        <v>8.332387579957182</v>
+        <v>8.138792697563337</v>
       </c>
       <c r="D126">
-        <v>0.1823875799571812</v>
+        <v>-0.05120730243666216</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3013,13 +3019,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.24</v>
+        <v>8.23</v>
       </c>
       <c r="C127">
-        <v>8.345856340625616</v>
+        <v>8.158486434943011</v>
       </c>
       <c r="D127">
-        <v>0.1058563406256159</v>
+        <v>-0.07151356505698914</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3027,13 +3033,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.33</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C128">
-        <v>8.34734672768494</v>
+        <v>8.165126297394547</v>
       </c>
       <c r="D128">
-        <v>0.01734672768493972</v>
+        <v>-0.1248737026054521</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3041,13 +3047,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.42</v>
+        <v>8.23</v>
       </c>
       <c r="C129">
-        <v>8.424757973730539</v>
+        <v>8.158171108125668</v>
       </c>
       <c r="D129">
-        <v>0.004757973730539433</v>
+        <v>-0.07182889187433261</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3055,13 +3061,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.130000000000001</v>
+        <v>8.42</v>
       </c>
       <c r="C130">
-        <v>8.200944280838939</v>
+        <v>8.070941726606462</v>
       </c>
       <c r="D130">
-        <v>0.07094428083893867</v>
+        <v>-0.3490582733935383</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3069,13 +3075,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.26</v>
+        <v>8.4</v>
       </c>
       <c r="C131">
-        <v>8.378358136055169</v>
+        <v>8.245438589005179</v>
       </c>
       <c r="D131">
-        <v>0.1183581360551695</v>
+        <v>-0.1545614109948215</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3083,13 +3089,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.24</v>
+        <v>8.19</v>
       </c>
       <c r="C132">
-        <v>8.268111159454101</v>
+        <v>8.210308353936766</v>
       </c>
       <c r="D132">
-        <v>0.02811115945410059</v>
+        <v>0.02030835393676611</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3097,13 +3103,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.380000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="C133">
-        <v>8.5777186806556</v>
+        <v>8.076453220051064</v>
       </c>
       <c r="D133">
-        <v>0.1977186806555995</v>
+        <v>-0.02354677994893528</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3111,13 +3117,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>9.01</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C134">
-        <v>8.817193269543228</v>
+        <v>8.106135660322481</v>
       </c>
       <c r="D134">
-        <v>-0.1928067304567715</v>
+        <v>-0.1138643396775194</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3125,13 +3131,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>10</v>
+        <v>8.24</v>
       </c>
       <c r="C135">
-        <v>9.374808380517084</v>
+        <v>8.141282552279581</v>
       </c>
       <c r="D135">
-        <v>-0.6251916194829157</v>
+        <v>-0.09871744772041957</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3139,13 +3145,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>9.949999999999999</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C136">
-        <v>9.582550866992872</v>
+        <v>8.418142652070495</v>
       </c>
       <c r="D136">
-        <v>-0.3674491330071277</v>
+        <v>0.03814265207049417</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3153,13 +3159,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>9.58</v>
+        <v>8.35</v>
       </c>
       <c r="C137">
-        <v>9.250525044026936</v>
+        <v>8.395411508616792</v>
       </c>
       <c r="D137">
-        <v>-0.3294749559730636</v>
+        <v>0.04541150861679277</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3167,13 +3173,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>9.43</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C138">
-        <v>9.245835317133157</v>
+        <v>8.227942281051066</v>
       </c>
       <c r="D138">
-        <v>-0.1841646828668431</v>
+        <v>0.09794228105106484</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3181,13 +3187,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.99</v>
+        <v>8.25</v>
       </c>
       <c r="C139">
-        <v>9.130260893236564</v>
+        <v>8.35469882054467</v>
       </c>
       <c r="D139">
-        <v>0.1402608932365634</v>
+        <v>0.1046988205446695</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3195,13 +3201,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.99</v>
+        <v>8.57</v>
       </c>
       <c r="C140">
-        <v>8.938299564298038</v>
+        <v>8.666240165760263</v>
       </c>
       <c r="D140">
-        <v>-0.05170043570196192</v>
+        <v>0.09624016576026229</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3209,13 +3215,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.710000000000001</v>
+        <v>9.17</v>
       </c>
       <c r="C141">
-        <v>8.710466644898311</v>
+        <v>8.914687064714283</v>
       </c>
       <c r="D141">
-        <v>0.0004666448983101645</v>
+        <v>-0.2553129352857173</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3223,13 +3229,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>8.4</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C142">
-        <v>8.280628732096218</v>
+        <v>9.041135562712231</v>
       </c>
       <c r="D142">
-        <v>-0.1193712679037819</v>
+        <v>-0.248864437287768</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3237,13 +3243,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.66</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C143">
-        <v>8.230127015726236</v>
+        <v>9.122441560967394</v>
       </c>
       <c r="D143">
-        <v>0.5701270157262357</v>
+        <v>-0.3275584390326056</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3251,13 +3257,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.66</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C144">
-        <v>8.156103922825494</v>
+        <v>8.978142793444036</v>
       </c>
       <c r="D144">
-        <v>0.496103922825494</v>
+        <v>-0.7218572065559634</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3265,13 +3271,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.64</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="C145">
-        <v>8.148353403627997</v>
+        <v>8.463815407412849</v>
       </c>
       <c r="D145">
-        <v>0.5083534036279973</v>
+        <v>-0.1661845925871521</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3279,13 +3285,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.74</v>
+        <v>8.66</v>
       </c>
       <c r="C146">
-        <v>8.208596456203768</v>
+        <v>8.418659413939286</v>
       </c>
       <c r="D146">
-        <v>0.4685964562037679</v>
+        <v>-0.2413405860607138</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3293,13 +3299,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>7.75</v>
+        <v>8.41</v>
       </c>
       <c r="C147">
-        <v>8.013566727742987</v>
+        <v>8.26522483557549</v>
       </c>
       <c r="D147">
-        <v>0.2635667277429867</v>
+        <v>-0.1447751644245105</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3307,13 +3313,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.78</v>
+        <v>7.7</v>
       </c>
       <c r="C148">
-        <v>7.987258983799268</v>
+        <v>8.149187428145737</v>
       </c>
       <c r="D148">
-        <v>0.2072589837992673</v>
+        <v>0.4491874281457369</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3321,13 +3327,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.83</v>
+        <v>7.73</v>
       </c>
       <c r="C149">
-        <v>7.969696827979392</v>
+        <v>7.984885395933777</v>
       </c>
       <c r="D149">
-        <v>0.1396968279793915</v>
+        <v>0.2548853959337762</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3335,13 +3341,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="C150">
-        <v>7.898217908260018</v>
+        <v>8.027188791886372</v>
       </c>
       <c r="D150">
-        <v>0.2582179082600184</v>
+        <v>0.3171887918863723</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3349,13 +3355,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.66</v>
+        <v>7.93</v>
       </c>
       <c r="C151">
-        <v>7.903582424102455</v>
+        <v>7.970836728912202</v>
       </c>
       <c r="D151">
-        <v>0.2435824241024553</v>
+        <v>0.04083672891220225</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3363,13 +3369,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.9</v>
+        <v>7.47</v>
       </c>
       <c r="C152">
-        <v>7.923313345099278</v>
+        <v>7.67223789528475</v>
       </c>
       <c r="D152">
-        <v>0.02331334509927796</v>
+        <v>0.2022378952847506</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3377,13 +3383,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.72</v>
+        <v>7.69</v>
       </c>
       <c r="C153">
-        <v>7.908376420398366</v>
+        <v>7.874815304642047</v>
       </c>
       <c r="D153">
-        <v>0.1883764203983667</v>
+        <v>0.1848153046420462</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3391,13 +3397,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.7</v>
+        <v>7.76</v>
       </c>
       <c r="C154">
-        <v>7.877443635175809</v>
+        <v>7.946117333693064</v>
       </c>
       <c r="D154">
-        <v>0.1774436351758091</v>
+        <v>0.1861173336930637</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3405,13 +3411,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.69</v>
+        <v>7.6</v>
       </c>
       <c r="C155">
-        <v>7.83470640703704</v>
+        <v>7.807134929737002</v>
       </c>
       <c r="D155">
-        <v>0.1447064070370399</v>
+        <v>0.207134929737002</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3419,13 +3425,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.67</v>
+        <v>7.54</v>
       </c>
       <c r="C156">
-        <v>7.795910838737844</v>
+        <v>7.684660414913779</v>
       </c>
       <c r="D156">
-        <v>0.1259108387378438</v>
+        <v>0.1446604149137789</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3433,13 +3439,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.66</v>
+        <v>7.69</v>
       </c>
       <c r="C157">
-        <v>7.779364071415835</v>
+        <v>7.733085244279646</v>
       </c>
       <c r="D157">
-        <v>0.119364071415835</v>
+        <v>0.04308524427964588</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3447,13 +3453,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.22</v>
+        <v>7.26</v>
       </c>
       <c r="C158">
-        <v>7.309535398073371</v>
+        <v>7.329773362770094</v>
       </c>
       <c r="D158">
-        <v>0.0895353980733713</v>
+        <v>0.06977336277009449</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3461,13 +3467,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.04</v>
+        <v>7.01</v>
       </c>
       <c r="C159">
-        <v>7.121650491996989</v>
+        <v>7.095885880545513</v>
       </c>
       <c r="D159">
-        <v>0.08165049199698871</v>
+        <v>0.08588588054551316</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3475,13 +3481,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7</v>
+        <v>7.03</v>
       </c>
       <c r="C160">
-        <v>7.101889352290221</v>
+        <v>7.106892943117748</v>
       </c>
       <c r="D160">
-        <v>0.1018893522902209</v>
+        <v>0.07689294311774741</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3489,13 +3495,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.02</v>
+        <v>7.04</v>
       </c>
       <c r="C161">
-        <v>7.078270015027431</v>
+        <v>7.129007237684739</v>
       </c>
       <c r="D161">
-        <v>0.05827001502743112</v>
+        <v>0.08900723768473906</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3503,13 +3509,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.17</v>
+        <v>7.05</v>
       </c>
       <c r="C162">
-        <v>7.185358575234251</v>
+        <v>7.061104176911956</v>
       </c>
       <c r="D162">
-        <v>0.01535857523425133</v>
+        <v>0.01110417691195575</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3517,13 +3523,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.16</v>
+        <v>7.21</v>
       </c>
       <c r="C163">
-        <v>7.172862668794628</v>
+        <v>7.229920847849399</v>
       </c>
       <c r="D163">
-        <v>0.01286266879462783</v>
+        <v>0.01992084784939951</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3531,13 +3537,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.21</v>
+        <v>7.77</v>
       </c>
       <c r="C164">
-        <v>7.206947843452006</v>
+        <v>7.481413657147499</v>
       </c>
       <c r="D164">
-        <v>-0.0030521565479944</v>
+        <v>-0.2885863428525006</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3545,13 +3551,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.26</v>
+        <v>7.75</v>
       </c>
       <c r="C165">
-        <v>7.263780398278887</v>
+        <v>7.503058735025961</v>
       </c>
       <c r="D165">
-        <v>0.003780398278887098</v>
+        <v>-0.2469412649740388</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3559,13 +3565,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.36</v>
+        <v>7.66</v>
       </c>
       <c r="C166">
-        <v>7.206349210110019</v>
+        <v>7.542013261608275</v>
       </c>
       <c r="D166">
-        <v>-0.1536507898899817</v>
+        <v>-0.1179867383917248</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3573,13 +3579,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.83</v>
+        <v>7.12</v>
       </c>
       <c r="C167">
-        <v>7.54766946391915</v>
+        <v>7.315499231765541</v>
       </c>
       <c r="D167">
-        <v>-0.2823305360808499</v>
+        <v>0.1954992317655408</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3587,13 +3593,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.59</v>
+        <v>7.2</v>
       </c>
       <c r="C168">
-        <v>7.398822137779464</v>
+        <v>7.265177806986721</v>
       </c>
       <c r="D168">
-        <v>-0.1911778622205356</v>
+        <v>0.06517780698672038</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3601,13 +3607,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
       <c r="C169">
-        <v>7.257384363755482</v>
+        <v>7.160734766696566</v>
       </c>
       <c r="D169">
-        <v>0.0673843637554814</v>
+        <v>0.02073476669656582</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3615,13 +3621,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.18</v>
+        <v>7.23</v>
       </c>
       <c r="C170">
-        <v>7.25754732317401</v>
+        <v>7.057197223934379</v>
       </c>
       <c r="D170">
-        <v>0.07754732317401025</v>
+        <v>-0.1728027760656214</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3629,13 +3635,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>6.98</v>
+        <v>7.02</v>
       </c>
       <c r="C171">
-        <v>6.5485554969328</v>
+        <v>6.930948438958433</v>
       </c>
       <c r="D171">
-        <v>-0.4314445030672003</v>
+        <v>-0.08905156104156653</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3643,13 +3649,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.01</v>
+        <v>7.04</v>
       </c>
       <c r="C172">
-        <v>6.531878506370455</v>
+        <v>6.54940704881407</v>
       </c>
       <c r="D172">
-        <v>-0.478121493629545</v>
+        <v>-0.4905929511859304</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3657,13 +3663,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.37</v>
+        <v>7.26</v>
       </c>
       <c r="C173">
-        <v>6.755899903877844</v>
+        <v>6.634512734710137</v>
       </c>
       <c r="D173">
-        <v>-0.6141000961221561</v>
+        <v>-0.6254872652898626</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3671,13 +3677,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.61</v>
+        <v>7.25</v>
       </c>
       <c r="C174">
-        <v>6.773409704426526</v>
+        <v>6.808870671850165</v>
       </c>
       <c r="D174">
-        <v>-0.8365902955734743</v>
+        <v>-0.4411293281498345</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3688,10 +3694,10 @@
         <v>7.1</v>
       </c>
       <c r="C175">
-        <v>6.748069077648693</v>
+        <v>6.797826301850099</v>
       </c>
       <c r="D175">
-        <v>-0.3519309223513067</v>
+        <v>-0.3021736981499004</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3699,13 +3705,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>6.7</v>
+        <v>7.04</v>
       </c>
       <c r="C176">
-        <v>6.335957239430763</v>
+        <v>6.592159655285942</v>
       </c>
       <c r="D176">
-        <v>-0.3640427605692373</v>
+        <v>-0.4478403447140584</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3713,13 +3719,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>6.81</v>
+        <v>7.05</v>
       </c>
       <c r="C177">
-        <v>6.370315510232953</v>
+        <v>6.59051421292293</v>
       </c>
       <c r="D177">
-        <v>-0.4396844897670462</v>
+        <v>-0.4594857870770701</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3727,13 +3733,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.33</v>
+        <v>6.62</v>
       </c>
       <c r="C178">
-        <v>6.040559693677758</v>
+        <v>6.388545538096704</v>
       </c>
       <c r="D178">
-        <v>-0.2894403063222422</v>
+        <v>-0.2314544619032963</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3741,13 +3747,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.36</v>
+        <v>6.67</v>
       </c>
       <c r="C179">
-        <v>6.077412630289388</v>
+        <v>6.369492179301844</v>
       </c>
       <c r="D179">
-        <v>-0.2825873697106118</v>
+        <v>-0.3005078206981562</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3755,13 +3761,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>5.99</v>
+        <v>6.6</v>
       </c>
       <c r="C180">
-        <v>6.060511002402477</v>
+        <v>6.432576515185168</v>
       </c>
       <c r="D180">
-        <v>0.0705110024024771</v>
+        <v>-0.1674234848148313</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3769,13 +3775,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>5.78</v>
+        <v>6.81</v>
       </c>
       <c r="C181">
-        <v>6.06971633020076</v>
+        <v>6.361118739779647</v>
       </c>
       <c r="D181">
-        <v>0.2897163302007595</v>
+        <v>-0.4488812602203529</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3783,13 +3789,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>5.75</v>
+        <v>6.29</v>
       </c>
       <c r="C182">
-        <v>6.065605443818572</v>
+        <v>6.219426605607733</v>
       </c>
       <c r="D182">
-        <v>0.3156054438185718</v>
+        <v>-0.07057339439226684</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3797,13 +3803,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>5.76</v>
+        <v>6.36</v>
       </c>
       <c r="C183">
-        <v>6.060145232826309</v>
+        <v>6.068073459437823</v>
       </c>
       <c r="D183">
-        <v>0.300145232826309</v>
+        <v>-0.2919265405621774</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3811,13 +3817,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.67</v>
+        <v>5.96</v>
       </c>
       <c r="C184">
-        <v>5.948512962612647</v>
+        <v>6.010311395308648</v>
       </c>
       <c r="D184">
-        <v>0.2785129626126475</v>
+        <v>0.05031139530864781</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3825,13 +3831,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.75</v>
+        <v>5.72</v>
       </c>
       <c r="C185">
-        <v>5.906756890471622</v>
+        <v>6.047483987974401</v>
       </c>
       <c r="D185">
-        <v>0.1567568904716223</v>
+        <v>0.3274839879744009</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3839,13 +3845,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.78</v>
+        <v>5.73</v>
       </c>
       <c r="C186">
-        <v>5.91692220583982</v>
+        <v>6.081088101230359</v>
       </c>
       <c r="D186">
-        <v>0.1369222058398201</v>
+        <v>0.3510881012303582</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3853,13 +3859,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="C187">
-        <v>5.893790509939856</v>
+        <v>6.017920344910092</v>
       </c>
       <c r="D187">
-        <v>0.173790509939856</v>
+        <v>0.3079203449100918</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3867,13 +3873,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.75</v>
+        <v>5.68</v>
       </c>
       <c r="C188">
-        <v>5.897546682036123</v>
+        <v>6.003607073280641</v>
       </c>
       <c r="D188">
-        <v>0.1475466820361229</v>
+        <v>0.3236070732806411</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3881,13 +3887,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.75</v>
+        <v>5.69</v>
       </c>
       <c r="C189">
-        <v>5.862079024308236</v>
+        <v>6.003103931525423</v>
       </c>
       <c r="D189">
-        <v>0.1120790243082359</v>
+        <v>0.3131039315254229</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3895,13 +3901,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.7</v>
+        <v>5.69</v>
       </c>
       <c r="C190">
-        <v>5.782246854963243</v>
+        <v>5.947126258435173</v>
       </c>
       <c r="D190">
-        <v>0.08224685496324291</v>
+        <v>0.2571262584351723</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3909,13 +3915,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.44</v>
+        <v>5.67</v>
       </c>
       <c r="C191">
-        <v>5.61993126047322</v>
+        <v>5.921530581582735</v>
       </c>
       <c r="D191">
-        <v>0.1799312604732197</v>
+        <v>0.2515305815827347</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3923,13 +3929,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.4</v>
+        <v>5.74</v>
       </c>
       <c r="C192">
-        <v>5.608066919942885</v>
+        <v>5.933441215236458</v>
       </c>
       <c r="D192">
-        <v>0.2080669199428842</v>
+        <v>0.193441215236458</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3937,13 +3943,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.36</v>
+        <v>5.69</v>
       </c>
       <c r="C193">
-        <v>5.539403360669639</v>
+        <v>5.893527436784256</v>
       </c>
       <c r="D193">
-        <v>0.1794033606696388</v>
+        <v>0.2035274367842552</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3951,13 +3957,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.51</v>
+        <v>5.71</v>
       </c>
       <c r="C194">
-        <v>5.573759197472124</v>
+        <v>5.822179736656688</v>
       </c>
       <c r="D194">
-        <v>0.06375919747212411</v>
+        <v>0.1121797366566879</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3965,13 +3971,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.52</v>
+        <v>5.59</v>
       </c>
       <c r="C195">
-        <v>5.565452967818339</v>
+        <v>5.774102488202336</v>
       </c>
       <c r="D195">
-        <v>0.0454529678183393</v>
+        <v>0.1841024882023365</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3979,13 +3985,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.51</v>
+        <v>5.46</v>
       </c>
       <c r="C196">
-        <v>5.564229740514899</v>
+        <v>5.652307124614362</v>
       </c>
       <c r="D196">
-        <v>0.05422974051489948</v>
+        <v>0.1923071246143619</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3993,13 +3999,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.78</v>
+        <v>5.45</v>
       </c>
       <c r="C197">
-        <v>5.673158382998584</v>
+        <v>5.638779359544973</v>
       </c>
       <c r="D197">
-        <v>-0.1068416170014164</v>
+        <v>0.1887793595449727</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4007,13 +4013,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.8</v>
+        <v>5.38</v>
       </c>
       <c r="C198">
-        <v>5.670654960468419</v>
+        <v>5.624953943631356</v>
       </c>
       <c r="D198">
-        <v>-0.1293450395315805</v>
+        <v>0.2449539436313559</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4021,13 +4027,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.75</v>
+        <v>5.4</v>
       </c>
       <c r="C199">
-        <v>5.650159326819311</v>
+        <v>5.634394706075023</v>
       </c>
       <c r="D199">
-        <v>-0.09984067318068934</v>
+        <v>0.2343947060750224</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4035,13 +4041,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.98</v>
+        <v>5.62</v>
       </c>
       <c r="C200">
-        <v>5.61957974934244</v>
+        <v>5.643232318720122</v>
       </c>
       <c r="D200">
-        <v>-0.3604202506575609</v>
+        <v>0.02323231872012155</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4049,13 +4055,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.98</v>
+        <v>5.66</v>
       </c>
       <c r="C201">
-        <v>5.611379233716499</v>
+        <v>5.613672685735265</v>
       </c>
       <c r="D201">
-        <v>-0.3686207662835015</v>
+        <v>-0.04632731426473491</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4063,13 +4069,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.76</v>
+        <v>5.81</v>
       </c>
       <c r="C202">
-        <v>5.596872956832509</v>
+        <v>5.661447725675071</v>
       </c>
       <c r="D202">
-        <v>-0.1631270431674912</v>
+        <v>-0.1485522743249286</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4077,13 +4083,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.68</v>
+        <v>5.89</v>
       </c>
       <c r="C203">
-        <v>5.520382149463388</v>
+        <v>5.696979864454933</v>
       </c>
       <c r="D203">
-        <v>-0.1596178505366117</v>
+        <v>-0.1930201355450665</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4091,13 +4097,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.34</v>
+        <v>5.96</v>
       </c>
       <c r="C204">
-        <v>5.446894239361444</v>
+        <v>5.614536146036587</v>
       </c>
       <c r="D204">
-        <v>0.106894239361444</v>
+        <v>-0.3454638539634134</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4105,13 +4111,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.3</v>
+        <v>5.83</v>
       </c>
       <c r="C205">
-        <v>5.441354052850458</v>
+        <v>5.625493212485917</v>
       </c>
       <c r="D205">
-        <v>0.141354052850458</v>
+        <v>-0.2045067875140827</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4119,13 +4125,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.32</v>
+        <v>5.81</v>
       </c>
       <c r="C206">
-        <v>5.421267880209524</v>
+        <v>5.627960511854312</v>
       </c>
       <c r="D206">
-        <v>0.1012678802095239</v>
+        <v>-0.1820394881456879</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4133,13 +4139,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.26</v>
+        <v>5.93</v>
       </c>
       <c r="C207">
-        <v>5.418336894529021</v>
+        <v>5.625867903333072</v>
       </c>
       <c r="D207">
-        <v>0.1583368945290209</v>
+        <v>-0.3041320966669279</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4147,13 +4153,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.27</v>
+        <v>6</v>
       </c>
       <c r="C208">
-        <v>5.414194307784991</v>
+        <v>5.659118411202728</v>
       </c>
       <c r="D208">
-        <v>0.1441943077849919</v>
+        <v>-0.3408815887972718</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4161,13 +4167,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.32</v>
+        <v>5.98</v>
       </c>
       <c r="C209">
-        <v>5.447647698898373</v>
+        <v>5.604583459571458</v>
       </c>
       <c r="D209">
-        <v>0.1276476988983726</v>
+        <v>-0.3754165404285423</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4175,13 +4181,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.17</v>
+        <v>5.48</v>
       </c>
       <c r="C210">
-        <v>5.465369336641898</v>
+        <v>5.501007980010275</v>
       </c>
       <c r="D210">
-        <v>0.2953693366418984</v>
+        <v>0.02100798001027471</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4189,13 +4195,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>4.98</v>
+        <v>5.38</v>
       </c>
       <c r="C211">
-        <v>5.397557674906754</v>
+        <v>5.450884023221731</v>
       </c>
       <c r="D211">
-        <v>0.417557674906754</v>
+        <v>0.07088402322173071</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4203,13 +4209,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5</v>
+        <v>5.37</v>
       </c>
       <c r="C212">
-        <v>5.417279964518761</v>
+        <v>5.448561500924431</v>
       </c>
       <c r="D212">
-        <v>0.4172799645187615</v>
+        <v>0.07856150092443048</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4217,13 +4223,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.01</v>
+        <v>5.32</v>
       </c>
       <c r="C213">
-        <v>5.419004977561049</v>
+        <v>5.426077596395606</v>
       </c>
       <c r="D213">
-        <v>0.4090049775610494</v>
+        <v>0.1060775963956058</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4231,13 +4237,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.03</v>
+        <v>5.31</v>
       </c>
       <c r="C214">
-        <v>5.445803393399218</v>
+        <v>5.410940058030492</v>
       </c>
       <c r="D214">
-        <v>0.4158033933992176</v>
+        <v>0.1009400580304929</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4245,13 +4251,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.02</v>
+        <v>5.2</v>
       </c>
       <c r="C215">
-        <v>5.416709980477054</v>
+        <v>5.429338612349177</v>
       </c>
       <c r="D215">
-        <v>0.3967099804770546</v>
+        <v>0.229338612349177</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4259,13 +4265,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>4.99</v>
+        <v>4.98</v>
       </c>
       <c r="C216">
-        <v>5.38582731467029</v>
+        <v>5.395519614024595</v>
       </c>
       <c r="D216">
-        <v>0.3958273146702895</v>
+        <v>0.4155196140245945</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4273,13 +4279,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.07</v>
+        <v>4.98</v>
       </c>
       <c r="C217">
-        <v>5.404683335239057</v>
+        <v>5.379443260531636</v>
       </c>
       <c r="D217">
-        <v>0.334683335239057</v>
+        <v>0.3994432605316351</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4287,13 +4293,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="C218">
-        <v>5.400949399648556</v>
+        <v>5.422841938030565</v>
       </c>
       <c r="D218">
-        <v>0.3109493996485559</v>
+        <v>0.4028419380305657</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4301,13 +4307,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.09</v>
+        <v>4.99</v>
       </c>
       <c r="C219">
-        <v>5.409061143268734</v>
+        <v>5.362444330437278</v>
       </c>
       <c r="D219">
-        <v>0.3190611432687342</v>
+        <v>0.3724443304372773</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4315,13 +4321,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.16</v>
+        <v>4.99</v>
       </c>
       <c r="C220">
-        <v>5.42841353783137</v>
+        <v>5.399805262223662</v>
       </c>
       <c r="D220">
-        <v>0.2684135378313703</v>
+        <v>0.4098052622236619</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4329,13 +4335,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.12</v>
+        <v>5.08</v>
       </c>
       <c r="C221">
-        <v>5.408184921898783</v>
+        <v>5.413478684986499</v>
       </c>
       <c r="D221">
-        <v>0.2881849218987824</v>
+        <v>0.333478684986499</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4343,13 +4349,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.1</v>
+        <v>5.08</v>
       </c>
       <c r="C222">
-        <v>5.283850555210466</v>
+        <v>5.408177666876226</v>
       </c>
       <c r="D222">
-        <v>0.1838505552104666</v>
+        <v>0.3281776668762255</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4357,13 +4363,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="C223">
-        <v>5.276011119838295</v>
+        <v>5.433876087057437</v>
       </c>
       <c r="D223">
-        <v>0.1560111198382952</v>
+        <v>0.2638760870574366</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4374,10 +4380,10 @@
         <v>5.15</v>
       </c>
       <c r="C224">
-        <v>5.318994322879694</v>
+        <v>5.414267696043252</v>
       </c>
       <c r="D224">
-        <v>0.1689943228796933</v>
+        <v>0.2642676960432517</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4385,13 +4391,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.14</v>
+        <v>5.1</v>
       </c>
       <c r="C225">
-        <v>5.300099974853883</v>
+        <v>5.288745865223795</v>
       </c>
       <c r="D225">
-        <v>0.1600999748538836</v>
+        <v>0.1887458652237957</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4399,13 +4405,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.08</v>
+        <v>5.07</v>
       </c>
       <c r="C226">
-        <v>5.233497323526016</v>
+        <v>5.229620099221798</v>
       </c>
       <c r="D226">
-        <v>0.1534973235260155</v>
+        <v>0.1596200992217973</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4413,13 +4419,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.09</v>
+        <v>5.1</v>
       </c>
       <c r="C227">
-        <v>5.271318517389491</v>
+        <v>5.255734757463905</v>
       </c>
       <c r="D227">
-        <v>0.1813185173894913</v>
+        <v>0.1557347574639056</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4427,13 +4433,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="C228">
-        <v>5.264663028479473</v>
+        <v>5.274017344102434</v>
       </c>
       <c r="D228">
-        <v>0.2246630284794726</v>
+        <v>0.2240173441024345</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4444,10 +4450,10 @@
         <v>5.06</v>
       </c>
       <c r="C229">
-        <v>5.25325725499489</v>
+        <v>5.256703521313366</v>
       </c>
       <c r="D229">
-        <v>0.1932572549948901</v>
+        <v>0.1967035213133661</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4455,13 +4461,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.06</v>
+        <v>5.11</v>
       </c>
       <c r="C230">
-        <v>5.260333328980058</v>
+        <v>5.218218709946571</v>
       </c>
       <c r="D230">
-        <v>0.200333328980058</v>
+        <v>0.1082187099465708</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4472,10 +4478,10 @@
         <v>5.06</v>
       </c>
       <c r="C231">
-        <v>5.224207960531825</v>
+        <v>5.229526398253855</v>
       </c>
       <c r="D231">
-        <v>0.1642079605318258</v>
+        <v>0.1695263982538551</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4483,13 +4489,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="C232">
-        <v>5.266104109718966</v>
+        <v>5.227285560478155</v>
       </c>
       <c r="D232">
-        <v>0.1961041097189655</v>
+        <v>0.1672855604781551</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4497,13 +4503,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="C233">
-        <v>5.336996646223146</v>
+        <v>5.224538540237342</v>
       </c>
       <c r="D233">
-        <v>0.1969966462231465</v>
+        <v>0.1545385402373416</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4511,13 +4517,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.16</v>
+        <v>5.04</v>
       </c>
       <c r="C234">
-        <v>5.325369161804011</v>
+        <v>5.211807579038958</v>
       </c>
       <c r="D234">
-        <v>0.1653691618040112</v>
+        <v>0.1718075790389575</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4525,13 +4531,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.12</v>
+        <v>5</v>
       </c>
       <c r="C235">
-        <v>5.223458926646287</v>
+        <v>5.187775941814738</v>
       </c>
       <c r="D235">
-        <v>0.1034589266462866</v>
+        <v>0.1877759418147384</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4539,13 +4545,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.08</v>
+        <v>4.99</v>
       </c>
       <c r="C236">
-        <v>5.223867618269188</v>
+        <v>5.14647041049774</v>
       </c>
       <c r="D236">
-        <v>0.143867618269188</v>
+        <v>0.1564704104977395</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4553,13 +4559,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.09</v>
+        <v>5.02</v>
       </c>
       <c r="C237">
-        <v>5.243453870004138</v>
+        <v>5.000270027170348</v>
       </c>
       <c r="D237">
-        <v>0.1534538700041379</v>
+        <v>-0.01972997282965139</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4567,13 +4573,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.08</v>
+        <v>5.1</v>
       </c>
       <c r="C238">
-        <v>5.23776782770311</v>
+        <v>5.030608908298348</v>
       </c>
       <c r="D238">
-        <v>0.1577678277031103</v>
+        <v>-0.06939109170165203</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4581,13 +4587,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>4.96</v>
+        <v>5.1</v>
       </c>
       <c r="C239">
-        <v>5.105282931626815</v>
+        <v>4.99801273318621</v>
       </c>
       <c r="D239">
-        <v>0.1452829316268147</v>
+        <v>-0.10198726681379</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4595,13 +4601,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>4.98</v>
+        <v>5.09</v>
       </c>
       <c r="C240">
-        <v>5.115263044535657</v>
+        <v>4.994288237459871</v>
       </c>
       <c r="D240">
-        <v>0.1352630445356562</v>
+        <v>-0.09571176254012848</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4609,13 +4615,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>4.96</v>
+        <v>5.14</v>
       </c>
       <c r="C241">
-        <v>5.071091304867481</v>
+        <v>5.010648689531914</v>
       </c>
       <c r="D241">
-        <v>0.1110913048674806</v>
+        <v>-0.1293513104680857</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4623,13 +4629,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>4.95</v>
+        <v>5.13</v>
       </c>
       <c r="C242">
-        <v>5.012258698901852</v>
+        <v>5.019020725179516</v>
       </c>
       <c r="D242">
-        <v>0.06225869890185187</v>
+        <v>-0.1109792748204841</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4637,13 +4643,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>4.97</v>
+        <v>5.16</v>
       </c>
       <c r="C243">
-        <v>4.994000000889272</v>
+        <v>5.054893788054088</v>
       </c>
       <c r="D243">
-        <v>0.02400000088927179</v>
+        <v>-0.1051062119459125</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4651,13 +4657,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.05</v>
+        <v>5.17</v>
       </c>
       <c r="C244">
-        <v>5.01638164362411</v>
+        <v>5.014154689545688</v>
       </c>
       <c r="D244">
-        <v>-0.03361835637588939</v>
+        <v>-0.1558453104543123</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4665,13 +4671,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.09</v>
+        <v>5.19</v>
       </c>
       <c r="C245">
-        <v>5.001852397633068</v>
+        <v>5.029712545690867</v>
       </c>
       <c r="D245">
-        <v>-0.08814760236693164</v>
+        <v>-0.1602874543091337</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4679,13 +4685,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.17</v>
+        <v>5.12</v>
       </c>
       <c r="C246">
-        <v>5.012795493450514</v>
+        <v>5.051260435181215</v>
       </c>
       <c r="D246">
-        <v>-0.157204506549486</v>
+        <v>-0.0687395648187854</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4693,13 +4699,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.19</v>
+        <v>5.13</v>
       </c>
       <c r="C247">
-        <v>5.033557371849578</v>
+        <v>5.051636010788673</v>
       </c>
       <c r="D247">
-        <v>-0.1564426281504225</v>
+        <v>-0.07836398921132659</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4707,13 +4713,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.2</v>
+        <v>5.13</v>
       </c>
       <c r="C248">
-        <v>5.096061911246152</v>
+        <v>5.050505234664232</v>
       </c>
       <c r="D248">
-        <v>-0.1039380887538481</v>
+        <v>-0.0794947653357676</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4724,10 +4730,10 @@
         <v>5.23</v>
       </c>
       <c r="C249">
-        <v>5.121792329286937</v>
+        <v>5.136415591750119</v>
       </c>
       <c r="D249">
-        <v>-0.108207670713063</v>
+        <v>-0.09358440824988179</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4735,13 +4741,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.25</v>
+        <v>5.31</v>
       </c>
       <c r="C250">
-        <v>5.137470653408569</v>
+        <v>5.197527377018261</v>
       </c>
       <c r="D250">
-        <v>-0.1125293465914305</v>
+        <v>-0.1124726229817385</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4749,13 +4755,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.23</v>
+        <v>5.25</v>
       </c>
       <c r="C251">
-        <v>5.109860533947367</v>
+        <v>5.115393276059567</v>
       </c>
       <c r="D251">
-        <v>-0.1201394660526338</v>
+        <v>-0.1346067239404327</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4763,13 +4769,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.24</v>
+        <v>5.27</v>
       </c>
       <c r="C252">
-        <v>5.094969210817422</v>
+        <v>5.104250702439268</v>
       </c>
       <c r="D252">
-        <v>-0.1450307891825782</v>
+        <v>-0.1657492975607315</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4780,10 +4786,10 @@
         <v>5.19</v>
       </c>
       <c r="C253">
-        <v>5.071538510481896</v>
+        <v>5.07175950323446</v>
       </c>
       <c r="D253">
-        <v>-0.1184614895181042</v>
+        <v>-0.1182404967655399</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4791,13 +4797,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.28</v>
+        <v>5.19</v>
       </c>
       <c r="C254">
-        <v>5.087260230119656</v>
+        <v>5.075049959543607</v>
       </c>
       <c r="D254">
-        <v>-0.1927397698803439</v>
+        <v>-0.1149500404563932</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4805,13 +4811,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.35</v>
+        <v>5.34</v>
       </c>
       <c r="C255">
-        <v>5.1548386926108</v>
+        <v>5.136131691889636</v>
       </c>
       <c r="D255">
-        <v>-0.1951613073892</v>
+        <v>-0.2038683081103638</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4819,13 +4825,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.34</v>
+        <v>5.33</v>
       </c>
       <c r="C256">
-        <v>5.162140864108461</v>
+        <v>5.154841207850081</v>
       </c>
       <c r="D256">
-        <v>-0.1778591358915387</v>
+        <v>-0.1751587921499187</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4833,13 +4839,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="C257">
-        <v>5.089848381586781</v>
+        <v>5.153435810184154</v>
       </c>
       <c r="D257">
-        <v>-0.2001516184132193</v>
+        <v>-0.1865641898158454</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4847,13 +4853,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.29</v>
+        <v>5.34</v>
       </c>
       <c r="C258">
-        <v>5.130243212356114</v>
+        <v>5.156541634415621</v>
       </c>
       <c r="D258">
-        <v>-0.1597567876438859</v>
+        <v>-0.1834583655843787</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4861,13 +4867,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.29</v>
+        <v>5.3</v>
       </c>
       <c r="C259">
-        <v>5.152365324846589</v>
+        <v>5.094424724252198</v>
       </c>
       <c r="D259">
-        <v>-0.1376346751534108</v>
+        <v>-0.205575275747802</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4875,13 +4881,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.26</v>
+        <v>5.3</v>
       </c>
       <c r="C260">
-        <v>5.16435781975725</v>
+        <v>5.090925455100109</v>
       </c>
       <c r="D260">
-        <v>-0.0956421802427494</v>
+        <v>-0.2090745448998907</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4889,13 +4895,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.32</v>
+        <v>5.3</v>
       </c>
       <c r="C261">
-        <v>5.131199337273249</v>
+        <v>5.094707773245005</v>
       </c>
       <c r="D261">
-        <v>-0.1888006627267513</v>
+        <v>-0.2052922267549944</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4903,13 +4909,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.39</v>
+        <v>5.3</v>
       </c>
       <c r="C262">
-        <v>5.165330447331173</v>
+        <v>5.125372955740994</v>
       </c>
       <c r="D262">
-        <v>-0.2246695526688267</v>
+        <v>-0.1746270442590054</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4917,13 +4923,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.36</v>
+        <v>5.3</v>
       </c>
       <c r="C263">
-        <v>5.1663883140433</v>
+        <v>5.114575899490243</v>
       </c>
       <c r="D263">
-        <v>-0.1936116859567001</v>
+        <v>-0.1854241005097572</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4931,13 +4937,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.37</v>
+        <v>5.35</v>
       </c>
       <c r="C264">
-        <v>5.178044165142851</v>
+        <v>5.137427944890641</v>
       </c>
       <c r="D264">
-        <v>-0.1919558348571488</v>
+        <v>-0.2125720551093586</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4945,13 +4951,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.51</v>
+        <v>5.35</v>
       </c>
       <c r="C265">
-        <v>5.253671473165181</v>
+        <v>5.132878580486826</v>
       </c>
       <c r="D265">
-        <v>-0.2563285268348183</v>
+        <v>-0.2171214195131732</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4959,13 +4965,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.55</v>
+        <v>5.36</v>
       </c>
       <c r="C266">
-        <v>5.414574639595926</v>
+        <v>5.167187419603653</v>
       </c>
       <c r="D266">
-        <v>-0.1354253604040743</v>
+        <v>-0.192812580396347</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4973,13 +4979,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.54</v>
+        <v>5.48</v>
       </c>
       <c r="C267">
-        <v>5.413842819310404</v>
+        <v>5.248558935384441</v>
       </c>
       <c r="D267">
-        <v>-0.1261571806895958</v>
+        <v>-0.2314410646155594</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4987,13 +4993,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="C268">
-        <v>5.385103063711893</v>
+        <v>5.256176066405473</v>
       </c>
       <c r="D268">
-        <v>-0.134896936288107</v>
+        <v>-0.2438239335945269</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5001,13 +5007,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C269">
-        <v>5.392305789669538</v>
+        <v>5.253967461486402</v>
       </c>
       <c r="D269">
-        <v>-0.1276942103304615</v>
+        <v>-0.276032538513598</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5015,13 +5021,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.53</v>
+        <v>5.49</v>
       </c>
       <c r="C270">
-        <v>5.397204040222705</v>
+        <v>5.173400654543665</v>
       </c>
       <c r="D270">
-        <v>-0.1327959597772956</v>
+        <v>-0.3165993454563356</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5029,13 +5035,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.53</v>
+        <v>5.62</v>
       </c>
       <c r="C271">
-        <v>5.347125961122134</v>
+        <v>5.261593741028616</v>
       </c>
       <c r="D271">
-        <v>-0.1828740388778662</v>
+        <v>-0.3584062589713843</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5043,13 +5049,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.47</v>
+        <v>5.62</v>
       </c>
       <c r="C272">
-        <v>5.332423828739032</v>
+        <v>5.264501781257817</v>
       </c>
       <c r="D272">
-        <v>-0.1375761712609673</v>
+        <v>-0.3554982187421833</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5057,13 +5063,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.48</v>
+        <v>5.65</v>
       </c>
       <c r="C273">
-        <v>5.333865667294215</v>
+        <v>5.269406230156694</v>
       </c>
       <c r="D273">
-        <v>-0.1461343327057856</v>
+        <v>-0.3805937698433066</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5071,13 +5077,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.55</v>
+        <v>5.72</v>
       </c>
       <c r="C274">
-        <v>5.34060042278677</v>
+        <v>5.33844732433843</v>
       </c>
       <c r="D274">
-        <v>-0.2093995772132295</v>
+        <v>-0.3815526756615695</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5085,13 +5091,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.57</v>
+        <v>5.53</v>
       </c>
       <c r="C275">
-        <v>5.348838722280253</v>
+        <v>5.40352439773009</v>
       </c>
       <c r="D275">
-        <v>-0.2211612777197471</v>
+        <v>-0.1264756022699105</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5099,13 +5105,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.54</v>
+        <v>5.53</v>
       </c>
       <c r="C276">
-        <v>5.347927204210555</v>
+        <v>5.401026796875191</v>
       </c>
       <c r="D276">
-        <v>-0.1920727957894446</v>
+        <v>-0.1289732031248088</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5116,10 +5122,10 @@
         <v>5.51</v>
       </c>
       <c r="C277">
-        <v>5.33974285867214</v>
+        <v>5.325184079962604</v>
       </c>
       <c r="D277">
-        <v>-0.17025714132786</v>
+        <v>-0.184815920037396</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5127,13 +5133,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.66</v>
+        <v>5.51</v>
       </c>
       <c r="C278">
-        <v>5.387878903288517</v>
+        <v>5.31474586860389</v>
       </c>
       <c r="D278">
-        <v>-0.2721210967114827</v>
+        <v>-0.1952541313961103</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5141,13 +5147,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.67</v>
+        <v>5.51</v>
       </c>
       <c r="C279">
-        <v>5.413015706655732</v>
+        <v>5.375098162970522</v>
       </c>
       <c r="D279">
-        <v>-0.2569842933442681</v>
+        <v>-0.1349018370294779</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5155,13 +5161,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.66</v>
+        <v>5.53</v>
       </c>
       <c r="C280">
-        <v>5.381836694840524</v>
+        <v>5.369889919691584</v>
       </c>
       <c r="D280">
-        <v>-0.2781633051594765</v>
+        <v>-0.1601100803084163</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5169,13 +5175,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.67</v>
+        <v>5.54</v>
       </c>
       <c r="C281">
-        <v>5.358298686903143</v>
+        <v>5.373203435330893</v>
       </c>
       <c r="D281">
-        <v>-0.3117013130968571</v>
+        <v>-0.1667965646691068</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5183,13 +5189,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.66</v>
+        <v>5.53</v>
       </c>
       <c r="C282">
-        <v>5.379430073724639</v>
+        <v>5.382478477818072</v>
       </c>
       <c r="D282">
-        <v>-0.2805699262753611</v>
+        <v>-0.1475215221819282</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5197,13 +5203,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.71</v>
+        <v>5.55</v>
       </c>
       <c r="C283">
-        <v>5.437741174038725</v>
+        <v>5.357329068874774</v>
       </c>
       <c r="D283">
-        <v>-0.2722588259612753</v>
+        <v>-0.1926709311252255</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5211,13 +5217,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.74</v>
+        <v>5.66</v>
       </c>
       <c r="C284">
-        <v>5.44734654155818</v>
+        <v>5.37769550172642</v>
       </c>
       <c r="D284">
-        <v>-0.2926534584418201</v>
+        <v>-0.2823044982735805</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5225,13 +5231,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.78</v>
+        <v>5.65</v>
       </c>
       <c r="C285">
-        <v>5.473370124093468</v>
+        <v>5.379809799278549</v>
       </c>
       <c r="D285">
-        <v>-0.3066298759065322</v>
+        <v>-0.2701902007214514</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5239,13 +5245,41 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.69</v>
+        <v>5.66</v>
       </c>
       <c r="C286">
-        <v>5.464890839148082</v>
+        <v>5.34378466994835</v>
       </c>
       <c r="D286">
-        <v>-0.2251091608519182</v>
+        <v>-0.3162153300516497</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>5.68</v>
+      </c>
+      <c r="C287">
+        <v>5.398669155573803</v>
+      </c>
+      <c r="D287">
+        <v>-0.281330844426197</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>5.72</v>
+      </c>
+      <c r="C288">
+        <v>5.43181238499772</v>
+      </c>
+      <c r="D288">
+        <v>-0.28818761500228</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_train.xlsx
+++ b/temp/stable_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,865 +28,901 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-13 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:29:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 10:00:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:51:00</t>
+    <t>2019-06-20 14:53:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 13:51:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 10:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 13:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 11:09:00</t>
   </si>
   <si>
     <t>2019-04-04 13:49:00</t>
   </si>
   <si>
-    <t>2019-04-04 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 09:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:35:00</t>
+    <t>2019-04-04 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 13:48:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 10:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 10:36:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:50:00</t>
   </si>
   <si>
     <t>2019-02-13 13:32:00</t>
   </si>
   <si>
-    <t>2019-02-13 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 14:10:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 13:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 10:38:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 10:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 09:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 13:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:18:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:17:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:17:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 09:35:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 11:27:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 11:13:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 14:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 13:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 11:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:51:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 13:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 10:10:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 09:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:35:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:26:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 10:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:48:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:43:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 10:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:47:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:06:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 09:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 09:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 13:57:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 11:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 11:17:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 10:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 14:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 11:30:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 11:20:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:11:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 13:14:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 10:51:00</t>
+    <t>2019-02-13 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:01:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 09:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:50:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:29:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:43:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:16:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 10:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 09:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:17:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 11:09:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:58:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 09:41:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 14:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 13:05:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:01:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:40:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 10:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 10:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 14:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 10:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 14:12:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:43:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 09:38:00</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1269,13 +1305,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.77</v>
+        <v>6.6</v>
       </c>
       <c r="C2">
-        <v>6.638414291799723</v>
+        <v>6.749073773798136</v>
       </c>
       <c r="D2">
-        <v>-0.1315857082002765</v>
+        <v>0.1490737737981362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1283,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.65</v>
+        <v>6.59</v>
       </c>
       <c r="C3">
-        <v>6.687462603923976</v>
+        <v>6.752161649443797</v>
       </c>
       <c r="D3">
-        <v>0.03746260392397538</v>
+        <v>0.1621616494437976</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1297,13 +1333,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.4</v>
+        <v>6.58</v>
       </c>
       <c r="C4">
-        <v>6.465453973377818</v>
+        <v>6.706415981970375</v>
       </c>
       <c r="D4">
-        <v>0.06545397337781722</v>
+        <v>0.126415981970375</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1311,13 +1347,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.39</v>
+        <v>6.57</v>
       </c>
       <c r="C5">
-        <v>6.44347138903823</v>
+        <v>6.703208097984355</v>
       </c>
       <c r="D5">
-        <v>0.05347138903823012</v>
+        <v>0.1332080979843546</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1325,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.28</v>
+        <v>6.44</v>
       </c>
       <c r="C6">
-        <v>6.346182261557288</v>
+        <v>6.594041049721405</v>
       </c>
       <c r="D6">
-        <v>0.06618226155728824</v>
+        <v>0.1540410497214042</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1339,13 +1375,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.66</v>
+        <v>6.55</v>
       </c>
       <c r="C7">
-        <v>6.614461135451757</v>
+        <v>6.503665951534895</v>
       </c>
       <c r="D7">
-        <v>-0.0455388645482433</v>
+        <v>-0.04633404846510469</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1353,13 +1389,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.55</v>
+        <v>6.59</v>
       </c>
       <c r="C8">
-        <v>6.538908368279053</v>
+        <v>6.573327240159328</v>
       </c>
       <c r="D8">
-        <v>-0.01109163172094707</v>
+        <v>-0.01667275984067196</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1367,13 +1403,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.48</v>
+        <v>6.67</v>
       </c>
       <c r="C9">
-        <v>6.529395680264583</v>
+        <v>6.55527473513148</v>
       </c>
       <c r="D9">
-        <v>0.04939568026458296</v>
+        <v>-0.11472526486852</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1381,13 +1417,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="C10">
-        <v>6.602919655438264</v>
+        <v>6.469440341409451</v>
       </c>
       <c r="D10">
-        <v>0.002919655438264002</v>
+        <v>-0.1205596585905493</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1395,13 +1431,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.87</v>
+        <v>6.56</v>
       </c>
       <c r="C11">
-        <v>6.677147743389012</v>
+        <v>6.465511037587275</v>
       </c>
       <c r="D11">
-        <v>-0.1928522566109878</v>
+        <v>-0.09448896241272475</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1409,13 +1445,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.88</v>
+        <v>6.66</v>
       </c>
       <c r="C12">
-        <v>6.669265227454853</v>
+        <v>6.484339524764462</v>
       </c>
       <c r="D12">
-        <v>-0.2107347725451474</v>
+        <v>-0.1756604752355386</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1423,13 +1459,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.96</v>
+        <v>6.65</v>
       </c>
       <c r="C13">
-        <v>6.7469250691484</v>
+        <v>6.508505765825412</v>
       </c>
       <c r="D13">
-        <v>-0.2130749308516</v>
+        <v>-0.1414942341745888</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1437,13 +1473,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="C14">
-        <v>6.781772622095094</v>
+        <v>6.500665056562827</v>
       </c>
       <c r="D14">
-        <v>-0.2182273779049062</v>
+        <v>-0.09933494343717264</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1451,13 +1487,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>7.09</v>
+        <v>6.62</v>
       </c>
       <c r="C15">
-        <v>7.043350423133081</v>
+        <v>6.486578276142932</v>
       </c>
       <c r="D15">
-        <v>-0.04664957686691906</v>
+        <v>-0.1334217238570679</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1465,13 +1501,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>7.16</v>
+        <v>6.56</v>
       </c>
       <c r="C16">
-        <v>7.199992438184772</v>
+        <v>6.502391544079757</v>
       </c>
       <c r="D16">
-        <v>0.03999243818477183</v>
+        <v>-0.057608455920243</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1479,13 +1515,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>7.26</v>
+        <v>6.52</v>
       </c>
       <c r="C17">
-        <v>7.243938807642081</v>
+        <v>6.512351077212868</v>
       </c>
       <c r="D17">
-        <v>-0.01606119235791859</v>
+        <v>-0.007648922787131696</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1493,13 +1529,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>7.09</v>
+        <v>6.74</v>
       </c>
       <c r="C18">
-        <v>7.335700839770206</v>
+        <v>6.709185319293171</v>
       </c>
       <c r="D18">
-        <v>0.2457008397702065</v>
+        <v>-0.03081468070682902</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1507,13 +1543,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>7.08</v>
+        <v>6.75</v>
       </c>
       <c r="C19">
-        <v>7.347066901811484</v>
+        <v>6.758785850753803</v>
       </c>
       <c r="D19">
-        <v>0.267066901811484</v>
+        <v>0.008785850753803004</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1521,13 +1557,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.22</v>
+        <v>6.75</v>
       </c>
       <c r="C20">
-        <v>7.374418296550941</v>
+        <v>6.728231132795401</v>
       </c>
       <c r="D20">
-        <v>0.1544182965509409</v>
+        <v>-0.02176886720459947</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1535,13 +1571,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7.11</v>
+        <v>6.75</v>
       </c>
       <c r="C21">
-        <v>7.298080661725624</v>
+        <v>6.712337420615116</v>
       </c>
       <c r="D21">
-        <v>0.1880806617256239</v>
+        <v>-0.03766257938488415</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1549,13 +1585,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.99</v>
+        <v>6.74</v>
       </c>
       <c r="C22">
-        <v>7.448984021110657</v>
+        <v>6.720839726976701</v>
       </c>
       <c r="D22">
-        <v>0.4589840211106573</v>
+        <v>-0.01916027302329937</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1563,13 +1599,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.84</v>
+        <v>6.69</v>
       </c>
       <c r="C23">
-        <v>7.224196071654417</v>
+        <v>6.620950860708097</v>
       </c>
       <c r="D23">
-        <v>0.3841960716544168</v>
+        <v>-0.06904913929190304</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1577,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.9</v>
+        <v>6.78</v>
       </c>
       <c r="C24">
-        <v>7.340177498021578</v>
+        <v>6.66238202792295</v>
       </c>
       <c r="D24">
-        <v>0.440177498021578</v>
+        <v>-0.11761797207705</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1591,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.93</v>
+        <v>6.75</v>
       </c>
       <c r="C25">
-        <v>7.410088818977217</v>
+        <v>6.67383042105997</v>
       </c>
       <c r="D25">
-        <v>0.480088818977217</v>
+        <v>-0.07616957894003029</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1605,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>7.18</v>
+        <v>6.66</v>
       </c>
       <c r="C26">
-        <v>7.517743562884554</v>
+        <v>6.718744981065024</v>
       </c>
       <c r="D26">
-        <v>0.3377435628845546</v>
+        <v>0.05874498106502379</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1619,13 +1655,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>7.29</v>
+        <v>6.39</v>
       </c>
       <c r="C27">
-        <v>7.524788607223408</v>
+        <v>6.414861027804028</v>
       </c>
       <c r="D27">
-        <v>0.2347886072234084</v>
+        <v>0.02486102780402799</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1633,13 +1669,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>7.3</v>
+        <v>6.33</v>
       </c>
       <c r="C28">
-        <v>7.546092965732088</v>
+        <v>6.430073113326305</v>
       </c>
       <c r="D28">
-        <v>0.2460929657320881</v>
+        <v>0.1000731133263049</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1647,13 +1683,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>7.02</v>
+        <v>6.32</v>
       </c>
       <c r="C29">
-        <v>7.266331419711662</v>
+        <v>6.399524297345346</v>
       </c>
       <c r="D29">
-        <v>0.2463314197116624</v>
+        <v>0.07952429734534583</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1661,13 +1697,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>7.53</v>
+        <v>6.65</v>
       </c>
       <c r="C30">
-        <v>7.404776159488659</v>
+        <v>6.595747484500482</v>
       </c>
       <c r="D30">
-        <v>-0.1252238405113415</v>
+        <v>-0.05425251549951859</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1675,13 +1711,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>7.69</v>
+        <v>6.67</v>
       </c>
       <c r="C31">
-        <v>7.489871148025927</v>
+        <v>6.555027735057081</v>
       </c>
       <c r="D31">
-        <v>-0.2001288519740738</v>
+        <v>-0.114972264942919</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1689,13 +1725,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>7.38</v>
+        <v>6.64</v>
       </c>
       <c r="C32">
-        <v>7.432982009422282</v>
+        <v>6.540896686499494</v>
       </c>
       <c r="D32">
-        <v>0.05298200942228259</v>
+        <v>-0.09910331350050594</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1703,13 +1739,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.38</v>
+        <v>6.5</v>
       </c>
       <c r="C33">
-        <v>7.435145077061486</v>
+        <v>6.565452009729674</v>
       </c>
       <c r="D33">
-        <v>0.05514507706148652</v>
+        <v>0.06545200972967358</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1717,13 +1753,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.28</v>
+        <v>6.56</v>
       </c>
       <c r="C34">
-        <v>7.390741574612168</v>
+        <v>6.65345742852551</v>
       </c>
       <c r="D34">
-        <v>0.1107415746121676</v>
+        <v>0.09345742852551009</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1731,13 +1767,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.29</v>
+        <v>6.52</v>
       </c>
       <c r="C35">
-        <v>7.401941721152948</v>
+        <v>6.573279834103456</v>
       </c>
       <c r="D35">
-        <v>0.1119417211529479</v>
+        <v>0.05327983410345638</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1745,13 +1781,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.22</v>
+        <v>6.59</v>
       </c>
       <c r="C36">
-        <v>7.256883566361145</v>
+        <v>6.619009347941722</v>
       </c>
       <c r="D36">
-        <v>0.03688356636114509</v>
+        <v>0.02900934794172194</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1759,13 +1795,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>7.18</v>
+        <v>6.61</v>
       </c>
       <c r="C37">
-        <v>7.261183567751774</v>
+        <v>6.54421835903563</v>
       </c>
       <c r="D37">
-        <v>0.08118356775177382</v>
+        <v>-0.06578164096436989</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1773,13 +1809,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>7.18</v>
+        <v>6.63</v>
       </c>
       <c r="C38">
-        <v>7.301208678244747</v>
+        <v>6.58858762670698</v>
       </c>
       <c r="D38">
-        <v>0.1212086782447468</v>
+        <v>-0.04141237329301983</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1787,13 +1823,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>7.21</v>
+        <v>6.63</v>
       </c>
       <c r="C39">
-        <v>7.239317584719016</v>
+        <v>6.621440553137315</v>
       </c>
       <c r="D39">
-        <v>0.02931758471901613</v>
+        <v>-0.008559446862684617</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1801,13 +1837,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>7.19</v>
+        <v>6.91</v>
       </c>
       <c r="C40">
-        <v>7.287951318925403</v>
+        <v>6.737924763856789</v>
       </c>
       <c r="D40">
-        <v>0.09795131892540265</v>
+        <v>-0.1720752361432112</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1815,13 +1851,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>7.29</v>
+        <v>6.9</v>
       </c>
       <c r="C41">
-        <v>7.322816373601682</v>
+        <v>6.697624001057724</v>
       </c>
       <c r="D41">
-        <v>0.03281637360168244</v>
+        <v>-0.2023759989422764</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1829,13 +1865,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.32</v>
+        <v>7.1</v>
       </c>
       <c r="C42">
-        <v>7.298118856198643</v>
+        <v>7.110311525676313</v>
       </c>
       <c r="D42">
-        <v>-0.02188114380135708</v>
+        <v>0.01031152567631288</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1843,13 +1879,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.31</v>
+        <v>7.12</v>
       </c>
       <c r="C43">
-        <v>7.269208300701129</v>
+        <v>7.338153067926754</v>
       </c>
       <c r="D43">
-        <v>-0.04079169929887083</v>
+        <v>0.218153067926754</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1857,13 +1893,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.67</v>
+        <v>7.1</v>
       </c>
       <c r="C44">
-        <v>7.234466620035834</v>
+        <v>7.316873533400162</v>
       </c>
       <c r="D44">
-        <v>-0.4355333799641663</v>
+        <v>0.2168735334001628</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1871,13 +1907,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.8</v>
+        <v>7.09</v>
       </c>
       <c r="C45">
-        <v>7.287439219893693</v>
+        <v>7.314402977073055</v>
       </c>
       <c r="D45">
-        <v>-0.5125607801063063</v>
+        <v>0.2244029770730549</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1885,13 +1921,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.86</v>
+        <v>7.14</v>
       </c>
       <c r="C46">
-        <v>7.322517953971996</v>
+        <v>7.269212159863356</v>
       </c>
       <c r="D46">
-        <v>-0.5374820460280043</v>
+        <v>0.1292121598633562</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1899,13 +1935,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.89</v>
+        <v>7.06</v>
       </c>
       <c r="C47">
-        <v>7.281142955705675</v>
+        <v>7.266138656375633</v>
       </c>
       <c r="D47">
-        <v>-0.6088570442943242</v>
+        <v>0.2061386563756331</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1913,13 +1949,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.94</v>
+        <v>7.13</v>
       </c>
       <c r="C48">
-        <v>7.34869368448854</v>
+        <v>7.30442452764072</v>
       </c>
       <c r="D48">
-        <v>-0.5913063155114608</v>
+        <v>0.1744245276407197</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1927,13 +1963,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>7.85</v>
+        <v>6.91</v>
       </c>
       <c r="C49">
-        <v>7.326035705982958</v>
+        <v>7.317163618569813</v>
       </c>
       <c r="D49">
-        <v>-0.5239642940170413</v>
+        <v>0.4071636185698129</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1941,13 +1977,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>7.7</v>
+        <v>6.84</v>
       </c>
       <c r="C50">
-        <v>7.247315966497213</v>
+        <v>7.229117113665744</v>
       </c>
       <c r="D50">
-        <v>-0.4526840335027869</v>
+        <v>0.3891171136657441</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1955,13 +1991,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>8.23</v>
+        <v>6.85</v>
       </c>
       <c r="C51">
-        <v>7.607237841863816</v>
+        <v>7.329590987027427</v>
       </c>
       <c r="D51">
-        <v>-0.6227621581361849</v>
+        <v>0.4795909870274269</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1969,13 +2005,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>8.19</v>
+        <v>7</v>
       </c>
       <c r="C52">
-        <v>7.615084044418365</v>
+        <v>7.446060257446986</v>
       </c>
       <c r="D52">
-        <v>-0.5749159555816341</v>
+        <v>0.4460602574469856</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1983,13 +2019,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>8.210000000000001</v>
+        <v>6.94</v>
       </c>
       <c r="C53">
-        <v>7.746719128206236</v>
+        <v>7.410809126783574</v>
       </c>
       <c r="D53">
-        <v>-0.4632808717937653</v>
+        <v>0.4708091267835739</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1997,13 +2033,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>8.27</v>
+        <v>6.98</v>
       </c>
       <c r="C54">
-        <v>7.835011830387568</v>
+        <v>7.46695255033557</v>
       </c>
       <c r="D54">
-        <v>-0.4349881696124314</v>
+        <v>0.4869525503355696</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2011,13 +2047,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.66</v>
+        <v>7.08</v>
       </c>
       <c r="C55">
-        <v>7.856692900400351</v>
+        <v>7.537039916114985</v>
       </c>
       <c r="D55">
-        <v>0.1966929004003504</v>
+        <v>0.4570399161149847</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2025,13 +2061,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.94</v>
+        <v>7.22</v>
       </c>
       <c r="C56">
-        <v>7.850506782740279</v>
+        <v>7.564897534332012</v>
       </c>
       <c r="D56">
-        <v>-0.08949321725972137</v>
+        <v>0.344897534332012</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2039,13 +2075,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.79</v>
+        <v>7.2</v>
       </c>
       <c r="C57">
-        <v>8.327848419984138</v>
+        <v>7.559131016187482</v>
       </c>
       <c r="D57">
-        <v>0.5378484199841376</v>
+        <v>0.3591310161874821</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2053,13 +2089,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.8</v>
+        <v>7.31</v>
       </c>
       <c r="C58">
-        <v>8.388094494356107</v>
+        <v>7.560743007843335</v>
       </c>
       <c r="D58">
-        <v>0.5880944943561071</v>
+        <v>0.2507430078433357</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2067,13 +2103,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.88</v>
+        <v>7.33</v>
       </c>
       <c r="C59">
-        <v>8.346772128068288</v>
+        <v>7.573832139470948</v>
       </c>
       <c r="D59">
-        <v>0.4667721280682882</v>
+        <v>0.243832139470948</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2081,13 +2117,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>7.65</v>
+        <v>7.26</v>
       </c>
       <c r="C60">
-        <v>8.157019535239865</v>
+        <v>7.600675139123066</v>
       </c>
       <c r="D60">
-        <v>0.5070195352398645</v>
+        <v>0.340675139123066</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2095,13 +2131,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.63</v>
+        <v>7.17</v>
       </c>
       <c r="C61">
-        <v>8.152841401608431</v>
+        <v>7.353267873009823</v>
       </c>
       <c r="D61">
-        <v>0.5228414016084306</v>
+        <v>0.1832678730098234</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2109,13 +2145,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7.67</v>
+        <v>7.41</v>
       </c>
       <c r="C62">
-        <v>8.213179507999504</v>
+        <v>7.460727686440892</v>
       </c>
       <c r="D62">
-        <v>0.5431795079995041</v>
+        <v>0.05072768644089187</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2123,13 +2159,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.72</v>
+        <v>7.44</v>
       </c>
       <c r="C63">
-        <v>8.26629163302993</v>
+        <v>7.461324204188136</v>
       </c>
       <c r="D63">
-        <v>0.5462916330299299</v>
+        <v>0.02132420418813563</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2137,13 +2173,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>8.44</v>
+        <v>7.43</v>
       </c>
       <c r="C64">
-        <v>7.91673596625669</v>
+        <v>7.458606153480524</v>
       </c>
       <c r="D64">
-        <v>-0.5232640337433097</v>
+        <v>0.0286061534805242</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2151,13 +2187,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>9.029999999999999</v>
+        <v>7.48</v>
       </c>
       <c r="C65">
-        <v>8.221761397146485</v>
+        <v>7.463325948215857</v>
       </c>
       <c r="D65">
-        <v>-0.808238602853514</v>
+        <v>-0.01667405178414327</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2165,13 +2201,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>8.81</v>
+        <v>7.28</v>
       </c>
       <c r="C66">
-        <v>8.194630485400406</v>
+        <v>7.409158326717474</v>
       </c>
       <c r="D66">
-        <v>-0.6153695145995943</v>
+        <v>0.1291583267174738</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2179,13 +2215,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>8.960000000000001</v>
+        <v>7.25</v>
       </c>
       <c r="C67">
-        <v>8.189949034045593</v>
+        <v>7.302287258178065</v>
       </c>
       <c r="D67">
-        <v>-0.7700509659544075</v>
+        <v>0.05228725817806534</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2193,13 +2229,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>9</v>
+        <v>7.18</v>
       </c>
       <c r="C68">
-        <v>8.196055685556038</v>
+        <v>7.263782582404319</v>
       </c>
       <c r="D68">
-        <v>-0.803944314443962</v>
+        <v>0.08378258240431968</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2207,13 +2243,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>9.09</v>
+        <v>7.19</v>
       </c>
       <c r="C69">
-        <v>8.119127809273166</v>
+        <v>7.26870463110424</v>
       </c>
       <c r="D69">
-        <v>-0.9708721907268334</v>
+        <v>0.07870463110424009</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2221,13 +2257,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>8.49</v>
+        <v>7.23</v>
       </c>
       <c r="C70">
-        <v>8.046178876242173</v>
+        <v>7.231069658023596</v>
       </c>
       <c r="D70">
-        <v>-0.4438211237578269</v>
+        <v>0.001069658023595821</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2235,13 +2271,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>8.08</v>
+        <v>7.23</v>
       </c>
       <c r="C71">
-        <v>8.106794733750881</v>
+        <v>7.282085409110095</v>
       </c>
       <c r="D71">
-        <v>0.02679473375088115</v>
+        <v>0.05208540911009507</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2249,13 +2285,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>8.01</v>
+        <v>7.09</v>
       </c>
       <c r="C72">
-        <v>8.067878155992432</v>
+        <v>7.254549979459409</v>
       </c>
       <c r="D72">
-        <v>0.05787815599243196</v>
+        <v>0.1645499794594087</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2263,13 +2299,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>8.01</v>
+        <v>7.21</v>
       </c>
       <c r="C73">
-        <v>8.113236412937164</v>
+        <v>7.254736112531575</v>
       </c>
       <c r="D73">
-        <v>0.1032364129371643</v>
+        <v>0.04473611253157461</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2277,13 +2313,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>8.24</v>
+        <v>7.23</v>
       </c>
       <c r="C74">
-        <v>8.112972893973863</v>
+        <v>7.290988414214185</v>
       </c>
       <c r="D74">
-        <v>-0.1270271060261372</v>
+        <v>0.06098841421418477</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2291,13 +2327,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>8.289999999999999</v>
+        <v>7.42</v>
       </c>
       <c r="C75">
-        <v>8.178366483684659</v>
+        <v>7.427838931093204</v>
       </c>
       <c r="D75">
-        <v>-0.1116335163153401</v>
+        <v>0.007838931093203882</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2305,13 +2341,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>8.44</v>
+        <v>7.32</v>
       </c>
       <c r="C76">
-        <v>8.207928034867638</v>
+        <v>7.30214862964263</v>
       </c>
       <c r="D76">
-        <v>-0.2320719651323611</v>
+        <v>-0.01785137035736994</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2319,13 +2355,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>8.52</v>
+        <v>7.54</v>
       </c>
       <c r="C77">
-        <v>8.191146940755516</v>
+        <v>7.477049898763747</v>
       </c>
       <c r="D77">
-        <v>-0.3288530592444836</v>
+        <v>-0.062950101236253</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2333,13 +2369,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>8.4</v>
+        <v>7.85</v>
       </c>
       <c r="C78">
-        <v>8.224296890237515</v>
+        <v>7.299353421630402</v>
       </c>
       <c r="D78">
-        <v>-0.1757031097624857</v>
+        <v>-0.550646578369598</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2347,13 +2383,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.24</v>
+        <v>8.15</v>
       </c>
       <c r="C79">
-        <v>8.021785255794642</v>
+        <v>7.615662422346151</v>
       </c>
       <c r="D79">
-        <v>-0.2182147442053584</v>
+        <v>-0.534337577653849</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2361,13 +2397,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>7.69</v>
+        <v>8.09</v>
       </c>
       <c r="C80">
-        <v>7.734663371705475</v>
+        <v>7.714771360916856</v>
       </c>
       <c r="D80">
-        <v>0.0446633717054743</v>
+        <v>-0.3752286390831436</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2375,13 +2411,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>7.62</v>
+        <v>8.19</v>
       </c>
       <c r="C81">
-        <v>7.575753029502719</v>
+        <v>7.857493585973829</v>
       </c>
       <c r="D81">
-        <v>-0.04424697049728099</v>
+        <v>-0.3325064140261702</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2389,13 +2425,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>8.07</v>
+        <v>8.06</v>
       </c>
       <c r="C82">
-        <v>7.93549072779383</v>
+        <v>8.046848330504837</v>
       </c>
       <c r="D82">
-        <v>-0.13450927220617</v>
+        <v>-0.01315166949516389</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2403,13 +2439,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>8.119999999999999</v>
+        <v>7.93</v>
       </c>
       <c r="C83">
-        <v>8.043212384672776</v>
+        <v>8.420976192891041</v>
       </c>
       <c r="D83">
-        <v>-0.07678761532722334</v>
+        <v>0.4909761928910417</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2417,13 +2453,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>8.15</v>
+        <v>7.85</v>
       </c>
       <c r="C84">
-        <v>8.121313275138304</v>
+        <v>8.33066367556756</v>
       </c>
       <c r="D84">
-        <v>-0.02868672486169643</v>
+        <v>0.4806636755675608</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2431,13 +2467,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>8.130000000000001</v>
+        <v>7.78</v>
       </c>
       <c r="C85">
-        <v>8.032497135542314</v>
+        <v>8.271456789696376</v>
       </c>
       <c r="D85">
-        <v>-0.0975028644576863</v>
+        <v>0.4914567896963762</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2445,13 +2481,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>8.119999999999999</v>
+        <v>7.85</v>
       </c>
       <c r="C86">
-        <v>8.030260777447909</v>
+        <v>8.275384144470998</v>
       </c>
       <c r="D86">
-        <v>-0.08973922255209033</v>
+        <v>0.425384144470998</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2459,13 +2495,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C87">
-        <v>8.078441991273046</v>
+        <v>8.054573885016922</v>
       </c>
       <c r="D87">
-        <v>0.07844199127304563</v>
+        <v>-0.4854261149830776</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2473,13 +2509,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>7.58</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C88">
-        <v>7.944082248655098</v>
+        <v>7.897924930816025</v>
       </c>
       <c r="D88">
-        <v>0.3640822486550981</v>
+        <v>-0.5520750691839744</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2487,13 +2523,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>7.68</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C89">
-        <v>7.886857431306264</v>
+        <v>7.987946086680676</v>
       </c>
       <c r="D89">
-        <v>0.2068574313062648</v>
+        <v>-0.6320539133193233</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2501,13 +2537,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.67</v>
+        <v>9.41</v>
       </c>
       <c r="C90">
-        <v>7.865436663645585</v>
+        <v>8.38751610851841</v>
       </c>
       <c r="D90">
-        <v>0.1954366636455855</v>
+        <v>-1.02248389148159</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2515,13 +2551,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.68</v>
+        <v>8.83</v>
       </c>
       <c r="C91">
-        <v>7.870215261591683</v>
+        <v>8.194455655918828</v>
       </c>
       <c r="D91">
-        <v>0.1902152615916837</v>
+        <v>-0.6355443440811719</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2529,13 +2565,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>7.51</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="C92">
-        <v>7.683766505252933</v>
+        <v>8.142391845864543</v>
       </c>
       <c r="D92">
-        <v>0.1737665052529334</v>
+        <v>-0.4776081541354564</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2543,13 +2579,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>7.51</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C93">
-        <v>7.635019601250784</v>
+        <v>8.144939637783509</v>
       </c>
       <c r="D93">
-        <v>0.1250196012507843</v>
+        <v>-0.5650603622164923</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2557,13 +2593,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.64</v>
+        <v>8.91</v>
       </c>
       <c r="C94">
-        <v>7.79657642330019</v>
+        <v>8.159171019649218</v>
       </c>
       <c r="D94">
-        <v>0.1565764233001898</v>
+        <v>-0.7508289803507822</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2571,13 +2607,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>7.62</v>
+        <v>9.07</v>
       </c>
       <c r="C95">
-        <v>7.797605677989701</v>
+        <v>8.188841384529001</v>
       </c>
       <c r="D95">
-        <v>0.1776056779897006</v>
+        <v>-0.8811586154709996</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2585,13 +2621,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>7.63</v>
+        <v>8.59</v>
       </c>
       <c r="C96">
-        <v>7.807691430290149</v>
+        <v>8.018869699397413</v>
       </c>
       <c r="D96">
-        <v>0.1776914302901487</v>
+        <v>-0.5711303006025865</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2599,13 +2635,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.72</v>
+        <v>8.42</v>
       </c>
       <c r="C97">
-        <v>8.006964487597591</v>
+        <v>7.957081539723116</v>
       </c>
       <c r="D97">
-        <v>0.286964487597591</v>
+        <v>-0.4629184602768834</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2613,13 +2649,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.61</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="C98">
-        <v>7.880995321710571</v>
+        <v>8.042831466179569</v>
       </c>
       <c r="D98">
-        <v>0.2709953217105712</v>
+        <v>-0.5071685338204315</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2627,13 +2663,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.61</v>
+        <v>8.58</v>
       </c>
       <c r="C99">
-        <v>7.872009124725848</v>
+        <v>8.039268842557149</v>
       </c>
       <c r="D99">
-        <v>0.2620091247258474</v>
+        <v>-0.5407311574428508</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2641,13 +2677,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.61</v>
+        <v>8.09</v>
       </c>
       <c r="C100">
-        <v>7.934690919606695</v>
+        <v>8.17123764715736</v>
       </c>
       <c r="D100">
-        <v>0.3246909196066943</v>
+        <v>0.08123764715736037</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2655,13 +2691,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.69</v>
+        <v>8.27</v>
       </c>
       <c r="C101">
-        <v>7.933166555135552</v>
+        <v>8.154092176422507</v>
       </c>
       <c r="D101">
-        <v>0.2431665551355513</v>
+        <v>-0.1159078235774924</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2669,13 +2705,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.67</v>
+        <v>8.35</v>
       </c>
       <c r="C102">
-        <v>7.9405305701194</v>
+        <v>8.180639878632482</v>
       </c>
       <c r="D102">
-        <v>0.2705305701193996</v>
+        <v>-0.169360121367518</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2683,13 +2719,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.61</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C103">
-        <v>7.835311646353572</v>
+        <v>8.170276595272131</v>
       </c>
       <c r="D103">
-        <v>0.225311646353572</v>
+        <v>-0.2197234047278691</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2697,13 +2733,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.61</v>
+        <v>8.4</v>
       </c>
       <c r="C104">
-        <v>7.908774839686968</v>
+        <v>8.152929853280613</v>
       </c>
       <c r="D104">
-        <v>0.2987748396869678</v>
+        <v>-0.2470701467193877</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2711,13 +2747,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.66</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C105">
-        <v>7.924952675297551</v>
+        <v>8.071952471435708</v>
       </c>
       <c r="D105">
-        <v>0.2649526752975504</v>
+        <v>-0.2880475285642916</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2725,13 +2761,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.65</v>
+        <v>8.26</v>
       </c>
       <c r="C106">
-        <v>7.832296728514329</v>
+        <v>8.008568259207099</v>
       </c>
       <c r="D106">
-        <v>0.1822967285143289</v>
+        <v>-0.251431740792901</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2739,13 +2775,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.61</v>
+        <v>7.97</v>
       </c>
       <c r="C107">
-        <v>7.826519219073202</v>
+        <v>7.882851298829397</v>
       </c>
       <c r="D107">
-        <v>0.2165192190732013</v>
+        <v>-0.08714870117060247</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2753,13 +2789,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="C108">
-        <v>8.018226909046508</v>
+        <v>7.863464998414464</v>
       </c>
       <c r="D108">
-        <v>0.3182269090465075</v>
+        <v>-0.03653500158553591</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2767,13 +2803,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.35</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C109">
-        <v>7.599023474496635</v>
+        <v>7.942911565318514</v>
       </c>
       <c r="D109">
-        <v>0.2490234744966351</v>
+        <v>-0.08708843468148508</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2781,13 +2817,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.22</v>
+        <v>7.99</v>
       </c>
       <c r="C110">
-        <v>7.467574552485635</v>
+        <v>7.823668474225277</v>
       </c>
       <c r="D110">
-        <v>0.2475745524856352</v>
+        <v>-0.1663315257747229</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2795,13 +2831,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.27</v>
+        <v>8.1</v>
       </c>
       <c r="C111">
-        <v>7.542982351924142</v>
+        <v>7.908846892109198</v>
       </c>
       <c r="D111">
-        <v>0.2729823519241421</v>
+        <v>-0.191153107890802</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2809,13 +2845,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.46</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C112">
-        <v>7.602052500779136</v>
+        <v>8.093090445352487</v>
       </c>
       <c r="D112">
-        <v>0.142052500779136</v>
+        <v>-0.04690955464751312</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2823,13 +2859,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.72</v>
+        <v>8.17</v>
       </c>
       <c r="C113">
-        <v>7.714138296546325</v>
+        <v>8.126488251086901</v>
       </c>
       <c r="D113">
-        <v>-0.005861703453674316</v>
+        <v>-0.04351174891309917</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2837,13 +2873,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.86</v>
+        <v>8.43</v>
       </c>
       <c r="C114">
-        <v>8.003353047261216</v>
+        <v>8.320825163748335</v>
       </c>
       <c r="D114">
-        <v>0.1433530472612157</v>
+        <v>-0.1091748362516647</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2851,13 +2887,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.8</v>
+        <v>8.44</v>
       </c>
       <c r="C115">
-        <v>7.982091219303504</v>
+        <v>8.376328649657536</v>
       </c>
       <c r="D115">
-        <v>0.182091219303504</v>
+        <v>-0.06367135034246374</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2865,13 +2901,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.98</v>
+        <v>8.19</v>
       </c>
       <c r="C116">
-        <v>8.062181978658579</v>
+        <v>8.053624074938757</v>
       </c>
       <c r="D116">
-        <v>0.08218197865857846</v>
+        <v>-0.1363759250612429</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2879,13 +2915,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.91</v>
+        <v>7.67</v>
       </c>
       <c r="C117">
-        <v>7.994925273054763</v>
+        <v>8.026516299535595</v>
       </c>
       <c r="D117">
-        <v>0.08492527305476294</v>
+        <v>0.3565162995355955</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2893,13 +2929,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.99</v>
+        <v>7.67</v>
       </c>
       <c r="C118">
-        <v>8.049536806755903</v>
+        <v>7.875867824473893</v>
       </c>
       <c r="D118">
-        <v>0.05953680675590256</v>
+        <v>0.2058678244738932</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2907,13 +2943,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.88</v>
+        <v>7.52</v>
       </c>
       <c r="C119">
-        <v>7.950937036076962</v>
+        <v>7.652551406734554</v>
       </c>
       <c r="D119">
-        <v>0.07093703607696167</v>
+        <v>0.1325514067345548</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2921,13 +2957,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.86</v>
+        <v>7.51</v>
       </c>
       <c r="C120">
-        <v>7.978024084855333</v>
+        <v>7.573685645344764</v>
       </c>
       <c r="D120">
-        <v>0.1180240848553327</v>
+        <v>0.06368564534476384</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2935,13 +2971,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.87</v>
+        <v>7.56</v>
       </c>
       <c r="C121">
-        <v>7.979458944383204</v>
+        <v>7.539439893687359</v>
       </c>
       <c r="D121">
-        <v>0.1094589443832037</v>
+        <v>-0.02056010631264105</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2949,13 +2985,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>8.109999999999999</v>
+        <v>7.59</v>
       </c>
       <c r="C122">
-        <v>8.001707136609863</v>
+        <v>7.551869783511147</v>
       </c>
       <c r="D122">
-        <v>-0.1082928633901368</v>
+        <v>-0.0381302164888524</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2963,13 +2999,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>8.16</v>
+        <v>7.6</v>
       </c>
       <c r="C123">
-        <v>8.13715392313056</v>
+        <v>7.760767665022248</v>
       </c>
       <c r="D123">
-        <v>-0.02284607686944007</v>
+        <v>0.1607676650222487</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2977,13 +3013,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>8.15</v>
+        <v>7.72</v>
       </c>
       <c r="C124">
-        <v>8.170272946578075</v>
+        <v>7.897591681732575</v>
       </c>
       <c r="D124">
-        <v>0.02027294657807488</v>
+        <v>0.1775916817325749</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2991,13 +3027,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>8.18</v>
+        <v>7.61</v>
       </c>
       <c r="C125">
-        <v>8.16947073528376</v>
+        <v>7.876690331236933</v>
       </c>
       <c r="D125">
-        <v>-0.01052926471624005</v>
+        <v>0.2666903312369326</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3005,13 +3041,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>8.19</v>
+        <v>7.7</v>
       </c>
       <c r="C126">
-        <v>8.138792697563337</v>
+        <v>7.979268779626846</v>
       </c>
       <c r="D126">
-        <v>-0.05120730243666216</v>
+        <v>0.2792687796268458</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3019,13 +3055,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>8.23</v>
+        <v>7.62</v>
       </c>
       <c r="C127">
-        <v>8.158486434943011</v>
+        <v>7.836708967753662</v>
       </c>
       <c r="D127">
-        <v>-0.07151356505698914</v>
+        <v>0.2167089677536618</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3033,13 +3069,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>8.289999999999999</v>
+        <v>7.62</v>
       </c>
       <c r="C128">
-        <v>8.165126297394547</v>
+        <v>7.827721601761109</v>
       </c>
       <c r="D128">
-        <v>-0.1248737026054521</v>
+        <v>0.2077216017611088</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3047,13 +3083,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>8.23</v>
+        <v>7.7</v>
       </c>
       <c r="C129">
-        <v>8.158171108125668</v>
+        <v>7.954447913894509</v>
       </c>
       <c r="D129">
-        <v>-0.07182889187433261</v>
+        <v>0.2544479138945084</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3061,13 +3097,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.42</v>
+        <v>7.67</v>
       </c>
       <c r="C130">
-        <v>8.070941726606462</v>
+        <v>7.983041465551924</v>
       </c>
       <c r="D130">
-        <v>-0.3490582733935383</v>
+        <v>0.3130414655519242</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3075,13 +3111,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.4</v>
+        <v>7.68</v>
       </c>
       <c r="C131">
-        <v>8.245438589005179</v>
+        <v>7.998068158655293</v>
       </c>
       <c r="D131">
-        <v>-0.1545614109948215</v>
+        <v>0.3180681586552936</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3089,13 +3125,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>8.19</v>
+        <v>7.71</v>
       </c>
       <c r="C132">
-        <v>8.210308353936766</v>
+        <v>7.998209492683758</v>
       </c>
       <c r="D132">
-        <v>0.02030835393676611</v>
+        <v>0.288209492683758</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3103,13 +3139,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>8.1</v>
+        <v>7.75</v>
       </c>
       <c r="C133">
-        <v>8.076453220051064</v>
+        <v>7.919888836121084</v>
       </c>
       <c r="D133">
-        <v>-0.02354677994893528</v>
+        <v>0.1698888361210837</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3117,13 +3153,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>8.220000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="C134">
-        <v>8.106135660322481</v>
+        <v>7.678270951307995</v>
       </c>
       <c r="D134">
-        <v>-0.1138643396775194</v>
+        <v>0.2782709513079951</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3131,13 +3167,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>8.24</v>
+        <v>7.33</v>
       </c>
       <c r="C135">
-        <v>8.141282552279581</v>
+        <v>7.500056867073116</v>
       </c>
       <c r="D135">
-        <v>-0.09871744772041957</v>
+        <v>0.1700568670731162</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3145,13 +3181,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>8.380000000000001</v>
+        <v>7.28</v>
       </c>
       <c r="C136">
-        <v>8.418142652070495</v>
+        <v>7.477337486498779</v>
       </c>
       <c r="D136">
-        <v>0.03814265207049417</v>
+        <v>0.1973374864987791</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3159,13 +3195,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>8.35</v>
+        <v>7.2</v>
       </c>
       <c r="C137">
-        <v>8.395411508616792</v>
+        <v>7.471896574045717</v>
       </c>
       <c r="D137">
-        <v>0.04541150861679277</v>
+        <v>0.2718965740457167</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3173,13 +3209,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>8.130000000000001</v>
+        <v>7.45</v>
       </c>
       <c r="C138">
-        <v>8.227942281051066</v>
+        <v>7.585277145849007</v>
       </c>
       <c r="D138">
-        <v>0.09794228105106484</v>
+        <v>0.135277145849007</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3187,13 +3223,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.25</v>
+        <v>7.45</v>
       </c>
       <c r="C139">
-        <v>8.35469882054467</v>
+        <v>7.58168909671376</v>
       </c>
       <c r="D139">
-        <v>0.1046988205446695</v>
+        <v>0.1316890967137594</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3201,13 +3237,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.57</v>
+        <v>7.49</v>
       </c>
       <c r="C140">
-        <v>8.666240165760263</v>
+        <v>7.596698513438302</v>
       </c>
       <c r="D140">
-        <v>0.09624016576026229</v>
+        <v>0.1066985134383014</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3215,13 +3251,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>9.17</v>
+        <v>7.9</v>
       </c>
       <c r="C141">
-        <v>8.914687064714283</v>
+        <v>7.859049254680617</v>
       </c>
       <c r="D141">
-        <v>-0.2553129352857173</v>
+        <v>-0.04095074531938359</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3229,13 +3265,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>9.289999999999999</v>
+        <v>7.92</v>
       </c>
       <c r="C142">
-        <v>9.041135562712231</v>
+        <v>7.903268778944199</v>
       </c>
       <c r="D142">
-        <v>-0.248864437287768</v>
+        <v>-0.01673122105580127</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3243,13 +3279,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>9.449999999999999</v>
+        <v>7.94</v>
       </c>
       <c r="C143">
-        <v>9.122441560967394</v>
+        <v>7.947213939766417</v>
       </c>
       <c r="D143">
-        <v>-0.3275584390326056</v>
+        <v>0.007213939766416821</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3257,13 +3293,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>9.699999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="C144">
-        <v>8.978142793444036</v>
+        <v>7.938999597390188</v>
       </c>
       <c r="D144">
-        <v>-0.7218572065559634</v>
+        <v>0.1489995973901879</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3271,13 +3307,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>8.630000000000001</v>
+        <v>7.79</v>
       </c>
       <c r="C145">
-        <v>8.463815407412849</v>
+        <v>7.912971487138519</v>
       </c>
       <c r="D145">
-        <v>-0.1661845925871521</v>
+        <v>0.1229714871385186</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3285,13 +3321,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.66</v>
+        <v>7.91</v>
       </c>
       <c r="C146">
-        <v>8.418659413939286</v>
+        <v>8.035899584224204</v>
       </c>
       <c r="D146">
-        <v>-0.2413405860607138</v>
+        <v>0.1258995842242037</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3299,13 +3335,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>8.41</v>
+        <v>8.15</v>
       </c>
       <c r="C147">
-        <v>8.26522483557549</v>
+        <v>8.061104161859918</v>
       </c>
       <c r="D147">
-        <v>-0.1447751644245105</v>
+        <v>-0.08889583814008262</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3313,13 +3349,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>7.7</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C148">
-        <v>8.149187428145737</v>
+        <v>8.103242068216709</v>
       </c>
       <c r="D148">
-        <v>0.4491874281457369</v>
+        <v>-0.1067579317832923</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3327,13 +3363,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>7.73</v>
+        <v>8.27</v>
       </c>
       <c r="C149">
-        <v>7.984885395933777</v>
+        <v>8.144001782115319</v>
       </c>
       <c r="D149">
-        <v>0.2548853959337762</v>
+        <v>-0.1259982178846801</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3341,13 +3377,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>7.71</v>
+        <v>8.16</v>
       </c>
       <c r="C150">
-        <v>8.027188791886372</v>
+        <v>7.978387868447772</v>
       </c>
       <c r="D150">
-        <v>0.3171887918863723</v>
+        <v>-0.1816121315522281</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3355,13 +3391,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.93</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C151">
-        <v>7.970836728912202</v>
+        <v>8.047158216909027</v>
       </c>
       <c r="D151">
-        <v>0.04083672891220225</v>
+        <v>-0.3328417830909736</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3369,13 +3405,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.47</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C152">
-        <v>7.67223789528475</v>
+        <v>8.08042259979409</v>
       </c>
       <c r="D152">
-        <v>0.2022378952847506</v>
+        <v>-0.279577400205909</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3383,13 +3419,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>7.69</v>
+        <v>8.48</v>
       </c>
       <c r="C153">
-        <v>7.874815304642047</v>
+        <v>8.133378618166107</v>
       </c>
       <c r="D153">
-        <v>0.1848153046420462</v>
+        <v>-0.3466213818338932</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3397,13 +3433,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>7.76</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C154">
-        <v>7.946117333693064</v>
+        <v>8.146596082003516</v>
       </c>
       <c r="D154">
-        <v>0.1861173336930637</v>
+        <v>-0.3034039179964836</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3411,13 +3447,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C155">
-        <v>7.807134929737002</v>
+        <v>8.212045966277513</v>
       </c>
       <c r="D155">
-        <v>0.207134929737002</v>
+        <v>0.01204596627751364</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3425,13 +3461,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>7.54</v>
+        <v>8</v>
       </c>
       <c r="C156">
-        <v>7.684660414913779</v>
+        <v>8.008903410282846</v>
       </c>
       <c r="D156">
-        <v>0.1446604149137789</v>
+        <v>0.008903410282846025</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3439,13 +3475,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.69</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C157">
-        <v>7.733085244279646</v>
+        <v>8.36520384119698</v>
       </c>
       <c r="D157">
-        <v>0.04308524427964588</v>
+        <v>0.1652038411969805</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3453,13 +3489,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.26</v>
+        <v>8.41</v>
       </c>
       <c r="C158">
-        <v>7.329773362770094</v>
+        <v>8.466052252621312</v>
       </c>
       <c r="D158">
-        <v>0.06977336277009449</v>
+        <v>0.05605225262131164</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3467,13 +3503,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.01</v>
+        <v>8.42</v>
       </c>
       <c r="C159">
-        <v>7.095885880545513</v>
+        <v>8.459817061339203</v>
       </c>
       <c r="D159">
-        <v>0.08588588054551316</v>
+        <v>0.03981706133920326</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3481,13 +3517,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.03</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="C160">
-        <v>7.106892943117748</v>
+        <v>8.232017432618717</v>
       </c>
       <c r="D160">
-        <v>0.07689294311774741</v>
+        <v>0.102017432618716</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3495,13 +3531,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.04</v>
+        <v>8.4</v>
       </c>
       <c r="C161">
-        <v>7.129007237684739</v>
+        <v>8.47236960924411</v>
       </c>
       <c r="D161">
-        <v>0.08900723768473906</v>
+        <v>0.07236960924410951</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3509,13 +3545,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.05</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C162">
-        <v>7.061104176911956</v>
+        <v>8.542788951879398</v>
       </c>
       <c r="D162">
-        <v>0.01110417691195575</v>
+        <v>0.002788951879399093</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3523,13 +3559,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.21</v>
+        <v>10.07</v>
       </c>
       <c r="C163">
-        <v>7.229920847849399</v>
+        <v>9.338080074915117</v>
       </c>
       <c r="D163">
-        <v>0.01992084784939951</v>
+        <v>-0.7319199250848829</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3537,13 +3573,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.77</v>
+        <v>9.58</v>
       </c>
       <c r="C164">
-        <v>7.481413657147499</v>
+        <v>9.338580434021031</v>
       </c>
       <c r="D164">
-        <v>-0.2885863428525006</v>
+        <v>-0.2414195659789691</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3551,13 +3587,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.75</v>
+        <v>9.58</v>
       </c>
       <c r="C165">
-        <v>7.503058735025961</v>
+        <v>9.332198025734524</v>
       </c>
       <c r="D165">
-        <v>-0.2469412649740388</v>
+        <v>-0.2478019742654762</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3565,13 +3601,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.66</v>
+        <v>9.48</v>
       </c>
       <c r="C166">
-        <v>7.542013261608275</v>
+        <v>9.257912220623092</v>
       </c>
       <c r="D166">
-        <v>-0.1179867383917248</v>
+        <v>-0.222087779376908</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3579,13 +3615,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.12</v>
+        <v>9.15</v>
       </c>
       <c r="C167">
-        <v>7.315499231765541</v>
+        <v>9.093848745324296</v>
       </c>
       <c r="D167">
-        <v>0.1954992317655408</v>
+        <v>-0.05615125467570437</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3593,13 +3629,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.2</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C168">
-        <v>7.265177806986721</v>
+        <v>8.549198437243767</v>
       </c>
       <c r="D168">
-        <v>0.06517780698672038</v>
+        <v>-0.1608015627562338</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3607,13 +3643,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>7.14</v>
+        <v>8.43</v>
       </c>
       <c r="C169">
-        <v>7.160734766696566</v>
+        <v>8.256241988287801</v>
       </c>
       <c r="D169">
-        <v>0.02073476669656582</v>
+        <v>-0.1737580117121986</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3621,13 +3657,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.23</v>
+        <v>8.5</v>
       </c>
       <c r="C170">
-        <v>7.057197223934379</v>
+        <v>8.17509922513068</v>
       </c>
       <c r="D170">
-        <v>-0.1728027760656214</v>
+        <v>-0.3249007748693202</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3635,13 +3671,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.02</v>
+        <v>7.72</v>
       </c>
       <c r="C171">
-        <v>6.930948438958433</v>
+        <v>8.248085763066687</v>
       </c>
       <c r="D171">
-        <v>-0.08905156104156653</v>
+        <v>0.5280857630666871</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3649,13 +3685,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.04</v>
+        <v>7.62</v>
       </c>
       <c r="C172">
-        <v>6.54940704881407</v>
+        <v>8.142993135917658</v>
       </c>
       <c r="D172">
-        <v>-0.4905929511859304</v>
+        <v>0.5229931359176581</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3663,13 +3699,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.26</v>
+        <v>7.66</v>
       </c>
       <c r="C173">
-        <v>6.634512734710137</v>
+        <v>8.146380636784835</v>
       </c>
       <c r="D173">
-        <v>-0.6254872652898626</v>
+        <v>0.4863806367848351</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3677,13 +3713,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.25</v>
+        <v>7.78</v>
       </c>
       <c r="C174">
-        <v>6.808870671850165</v>
+        <v>8.197291253273438</v>
       </c>
       <c r="D174">
-        <v>-0.4411293281498345</v>
+        <v>0.4172912532734374</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3691,13 +3727,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.1</v>
+        <v>7.77</v>
       </c>
       <c r="C175">
-        <v>6.797826301850099</v>
+        <v>8.019869170311852</v>
       </c>
       <c r="D175">
-        <v>-0.3021736981499004</v>
+        <v>0.2498691703118521</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3705,13 +3741,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.04</v>
+        <v>7.74</v>
       </c>
       <c r="C176">
-        <v>6.592159655285942</v>
+        <v>7.98480009455521</v>
       </c>
       <c r="D176">
-        <v>-0.4478403447140584</v>
+        <v>0.2448000945552096</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3719,13 +3755,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.05</v>
+        <v>7.76</v>
       </c>
       <c r="C177">
-        <v>6.59051421292293</v>
+        <v>7.898852697189541</v>
       </c>
       <c r="D177">
-        <v>-0.4594857870770701</v>
+        <v>0.1388526971895416</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3733,13 +3769,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>6.62</v>
+        <v>7.77</v>
       </c>
       <c r="C178">
-        <v>6.388545538096704</v>
+        <v>7.898929466233662</v>
       </c>
       <c r="D178">
-        <v>-0.2314544619032963</v>
+        <v>0.1289294662336626</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3747,13 +3783,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>6.67</v>
+        <v>7.9</v>
       </c>
       <c r="C179">
-        <v>6.369492179301844</v>
+        <v>7.91200094983018</v>
       </c>
       <c r="D179">
-        <v>-0.3005078206981562</v>
+        <v>0.01200094983017941</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3761,13 +3797,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>6.6</v>
+        <v>7.96</v>
       </c>
       <c r="C180">
-        <v>6.432576515185168</v>
+        <v>7.93280699872318</v>
       </c>
       <c r="D180">
-        <v>-0.1674234848148313</v>
+        <v>-0.02719300127682001</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3775,13 +3811,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>6.81</v>
+        <v>7.48</v>
       </c>
       <c r="C181">
-        <v>6.361118739779647</v>
+        <v>7.72969495907352</v>
       </c>
       <c r="D181">
-        <v>-0.4488812602203529</v>
+        <v>0.2496949590735191</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3789,13 +3825,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>6.29</v>
+        <v>7.25</v>
       </c>
       <c r="C182">
-        <v>6.219426605607733</v>
+        <v>7.379749183880257</v>
       </c>
       <c r="D182">
-        <v>-0.07057339439226684</v>
+        <v>0.1297491838802571</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3803,13 +3839,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>6.36</v>
+        <v>7.02</v>
       </c>
       <c r="C183">
-        <v>6.068073459437823</v>
+        <v>7.041528317452814</v>
       </c>
       <c r="D183">
-        <v>-0.2919265405621774</v>
+        <v>0.02152831745281425</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3817,13 +3853,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>5.96</v>
+        <v>7.06</v>
       </c>
       <c r="C184">
-        <v>6.010311395308648</v>
+        <v>7.081466105135757</v>
       </c>
       <c r="D184">
-        <v>0.05031139530864781</v>
+        <v>0.0214661051357572</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3831,13 +3867,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>5.72</v>
+        <v>7.21</v>
       </c>
       <c r="C185">
-        <v>6.047483987974401</v>
+        <v>7.173183609038089</v>
       </c>
       <c r="D185">
-        <v>0.3274839879744009</v>
+        <v>-0.03681639096191081</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3845,13 +3881,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>5.73</v>
+        <v>7.34</v>
       </c>
       <c r="C186">
-        <v>6.081088101230359</v>
+        <v>7.237333901989169</v>
       </c>
       <c r="D186">
-        <v>0.3510881012303582</v>
+        <v>-0.1026660980108307</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3859,13 +3895,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>5.71</v>
+        <v>7.27</v>
       </c>
       <c r="C187">
-        <v>6.017920344910092</v>
+        <v>7.197423231028814</v>
       </c>
       <c r="D187">
-        <v>0.3079203449100918</v>
+        <v>-0.07257676897118515</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3873,13 +3909,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>5.68</v>
+        <v>7.17</v>
       </c>
       <c r="C188">
-        <v>6.003607073280641</v>
+        <v>7.226147964860273</v>
       </c>
       <c r="D188">
-        <v>0.3236070732806411</v>
+        <v>0.05614796486027274</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3887,13 +3923,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>5.69</v>
+        <v>7.18</v>
       </c>
       <c r="C189">
-        <v>6.003103931525423</v>
+        <v>7.163696593192869</v>
       </c>
       <c r="D189">
-        <v>0.3131039315254229</v>
+        <v>-0.01630340680713083</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3901,13 +3937,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>5.69</v>
+        <v>7.26</v>
       </c>
       <c r="C190">
-        <v>5.947126258435173</v>
+        <v>7.169395699561882</v>
       </c>
       <c r="D190">
-        <v>0.2571262584351723</v>
+        <v>-0.09060430043811785</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3915,13 +3951,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>5.67</v>
+        <v>7.28</v>
       </c>
       <c r="C191">
-        <v>5.921530581582735</v>
+        <v>7.195160195415484</v>
       </c>
       <c r="D191">
-        <v>0.2515305815827347</v>
+        <v>-0.08483980458451601</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3929,13 +3965,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>5.74</v>
+        <v>7.16</v>
       </c>
       <c r="C192">
-        <v>5.933441215236458</v>
+        <v>7.092502234945117</v>
       </c>
       <c r="D192">
-        <v>0.193441215236458</v>
+        <v>-0.06749776505488292</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3943,13 +3979,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>5.69</v>
+        <v>7.01</v>
       </c>
       <c r="C193">
-        <v>5.893527436784256</v>
+        <v>6.610648546560133</v>
       </c>
       <c r="D193">
-        <v>0.2035274367842552</v>
+        <v>-0.3993514534398663</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3957,13 +3993,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>5.71</v>
+        <v>7.03</v>
       </c>
       <c r="C194">
-        <v>5.822179736656688</v>
+        <v>6.590437573309803</v>
       </c>
       <c r="D194">
-        <v>0.1121797366566879</v>
+        <v>-0.4395624266901974</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3971,13 +4007,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>5.59</v>
+        <v>7.14</v>
       </c>
       <c r="C195">
-        <v>5.774102488202336</v>
+        <v>6.777193228496513</v>
       </c>
       <c r="D195">
-        <v>0.1841024882023365</v>
+        <v>-0.3628067715034868</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3985,13 +4021,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>5.46</v>
+        <v>7.07</v>
       </c>
       <c r="C196">
-        <v>5.652307124614362</v>
+        <v>6.601280632973005</v>
       </c>
       <c r="D196">
-        <v>0.1923071246143619</v>
+        <v>-0.4687193670269956</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3999,13 +4035,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>5.45</v>
+        <v>6.88</v>
       </c>
       <c r="C197">
-        <v>5.638779359544973</v>
+        <v>6.550497034253048</v>
       </c>
       <c r="D197">
-        <v>0.1887793595449727</v>
+        <v>-0.3295029657469515</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4013,13 +4049,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>5.38</v>
+        <v>6.69</v>
       </c>
       <c r="C198">
-        <v>5.624953943631356</v>
+        <v>6.345100000190207</v>
       </c>
       <c r="D198">
-        <v>0.2449539436313559</v>
+        <v>-0.344899999809793</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4027,13 +4063,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>5.4</v>
+        <v>6.66</v>
       </c>
       <c r="C199">
-        <v>5.634394706075023</v>
+        <v>6.321501973546384</v>
       </c>
       <c r="D199">
-        <v>0.2343947060750224</v>
+        <v>-0.3384980264536157</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4041,13 +4077,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>5.62</v>
+        <v>6.68</v>
       </c>
       <c r="C200">
-        <v>5.643232318720122</v>
+        <v>6.304324015111742</v>
       </c>
       <c r="D200">
-        <v>0.02323231872012155</v>
+        <v>-0.3756759848882574</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4055,13 +4091,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>5.66</v>
+        <v>6.64</v>
       </c>
       <c r="C201">
-        <v>5.613672685735265</v>
+        <v>6.352886553643749</v>
       </c>
       <c r="D201">
-        <v>-0.04632731426473491</v>
+        <v>-0.2871134463562504</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4069,13 +4105,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>5.81</v>
+        <v>6.58</v>
       </c>
       <c r="C202">
-        <v>5.661447725675071</v>
+        <v>6.395677231829163</v>
       </c>
       <c r="D202">
-        <v>-0.1485522743249286</v>
+        <v>-0.184322768170837</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4083,13 +4119,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>5.89</v>
+        <v>6.59</v>
       </c>
       <c r="C203">
-        <v>5.696979864454933</v>
+        <v>6.386230462516503</v>
       </c>
       <c r="D203">
-        <v>-0.1930201355450665</v>
+        <v>-0.2037695374834971</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4097,13 +4133,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>5.96</v>
+        <v>6.62</v>
       </c>
       <c r="C204">
-        <v>5.614536146036587</v>
+        <v>6.399767769725692</v>
       </c>
       <c r="D204">
-        <v>-0.3454638539634134</v>
+        <v>-0.2202322302743083</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4111,13 +4147,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>5.83</v>
+        <v>6.81</v>
       </c>
       <c r="C205">
-        <v>5.625493212485917</v>
+        <v>6.36502727600538</v>
       </c>
       <c r="D205">
-        <v>-0.2045067875140827</v>
+        <v>-0.4449727239946197</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4125,13 +4161,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>5.81</v>
+        <v>6.72</v>
       </c>
       <c r="C206">
-        <v>5.627960511854312</v>
+        <v>6.297460683415201</v>
       </c>
       <c r="D206">
-        <v>-0.1820394881456879</v>
+        <v>-0.4225393165847988</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4139,13 +4175,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.93</v>
+        <v>5.76</v>
       </c>
       <c r="C207">
-        <v>5.625867903333072</v>
+        <v>6.065482098908241</v>
       </c>
       <c r="D207">
-        <v>-0.3041320966669279</v>
+        <v>0.3054820989082412</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4153,13 +4189,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>6</v>
+        <v>5.74</v>
       </c>
       <c r="C208">
-        <v>5.659118411202728</v>
+        <v>6.059805486578336</v>
       </c>
       <c r="D208">
-        <v>-0.3408815887972718</v>
+        <v>0.3198054865783355</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4167,13 +4203,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.98</v>
+        <v>5.73</v>
       </c>
       <c r="C209">
-        <v>5.604583459571458</v>
+        <v>6.069276523941252</v>
       </c>
       <c r="D209">
-        <v>-0.3754165404285423</v>
+        <v>0.3392765239412512</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4181,13 +4217,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.48</v>
+        <v>5.69</v>
       </c>
       <c r="C210">
-        <v>5.501007980010275</v>
+        <v>6.059852151583128</v>
       </c>
       <c r="D210">
-        <v>0.02100798001027471</v>
+        <v>0.3698521515831272</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4195,13 +4231,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.38</v>
+        <v>5.71</v>
       </c>
       <c r="C211">
-        <v>5.450884023221731</v>
+        <v>6.035244135846506</v>
       </c>
       <c r="D211">
-        <v>0.07088402322173071</v>
+        <v>0.3252441358465061</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4209,13 +4245,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.37</v>
+        <v>5.72</v>
       </c>
       <c r="C212">
-        <v>5.448561500924431</v>
+        <v>6.029042442305888</v>
       </c>
       <c r="D212">
-        <v>0.07856150092443048</v>
+        <v>0.3090424423058886</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4223,13 +4259,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.32</v>
+        <v>5.69</v>
       </c>
       <c r="C213">
-        <v>5.426077596395606</v>
+        <v>6.003608198822109</v>
       </c>
       <c r="D213">
-        <v>0.1060775963956058</v>
+        <v>0.3136081988221084</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4237,13 +4273,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.31</v>
+        <v>5.67</v>
       </c>
       <c r="C214">
-        <v>5.410940058030492</v>
+        <v>5.999844055269689</v>
       </c>
       <c r="D214">
-        <v>0.1009400580304929</v>
+        <v>0.3298440552696889</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4251,13 +4287,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.2</v>
+        <v>5.67</v>
       </c>
       <c r="C215">
-        <v>5.429338612349177</v>
+        <v>5.986423860656828</v>
       </c>
       <c r="D215">
-        <v>0.229338612349177</v>
+        <v>0.3164238606568279</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4265,13 +4301,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>4.98</v>
+        <v>5.67</v>
       </c>
       <c r="C216">
-        <v>5.395519614024595</v>
+        <v>5.933492116224885</v>
       </c>
       <c r="D216">
-        <v>0.4155196140245945</v>
+        <v>0.2634921162248851</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4279,13 +4315,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>4.98</v>
+        <v>5.73</v>
       </c>
       <c r="C217">
-        <v>5.379443260531636</v>
+        <v>5.936222943810527</v>
       </c>
       <c r="D217">
-        <v>0.3994432605316351</v>
+        <v>0.206222943810527</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4293,13 +4329,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.02</v>
+        <v>5.77</v>
       </c>
       <c r="C218">
-        <v>5.422841938030565</v>
+        <v>5.863254510385827</v>
       </c>
       <c r="D218">
-        <v>0.4028419380305657</v>
+        <v>0.09325451038582777</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4307,13 +4343,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>4.99</v>
+        <v>5.57</v>
       </c>
       <c r="C219">
-        <v>5.362444330437278</v>
+        <v>5.760469702537311</v>
       </c>
       <c r="D219">
-        <v>0.3724443304372773</v>
+        <v>0.1904697025373103</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4321,13 +4357,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>4.99</v>
+        <v>5.43</v>
       </c>
       <c r="C220">
-        <v>5.399805262223662</v>
+        <v>5.624162361856831</v>
       </c>
       <c r="D220">
-        <v>0.4098052622236619</v>
+        <v>0.1941623618568311</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4335,13 +4371,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.08</v>
+        <v>5.37</v>
       </c>
       <c r="C221">
-        <v>5.413478684986499</v>
+        <v>5.639461275633211</v>
       </c>
       <c r="D221">
-        <v>0.333478684986499</v>
+        <v>0.2694612756332111</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4349,13 +4385,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.08</v>
+        <v>5.42</v>
       </c>
       <c r="C222">
-        <v>5.408177666876226</v>
+        <v>5.6022169445139</v>
       </c>
       <c r="D222">
-        <v>0.3281776668762255</v>
+        <v>0.1822169445139004</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4363,13 +4399,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.17</v>
+        <v>5.38</v>
       </c>
       <c r="C223">
-        <v>5.433876087057437</v>
+        <v>5.560442264440228</v>
       </c>
       <c r="D223">
-        <v>0.2638760870574366</v>
+        <v>0.1804422644402282</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4377,13 +4413,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.15</v>
+        <v>5.55</v>
       </c>
       <c r="C224">
-        <v>5.414267696043252</v>
+        <v>5.600121514236106</v>
       </c>
       <c r="D224">
-        <v>0.2642676960432517</v>
+        <v>0.050121514236106</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4391,13 +4427,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.1</v>
+        <v>5.68</v>
       </c>
       <c r="C225">
-        <v>5.288745865223795</v>
+        <v>5.624640518461309</v>
       </c>
       <c r="D225">
-        <v>0.1887458652237957</v>
+        <v>-0.05535948153869086</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4405,13 +4441,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.07</v>
+        <v>5.76</v>
       </c>
       <c r="C226">
-        <v>5.229620099221798</v>
+        <v>5.655310963355053</v>
       </c>
       <c r="D226">
-        <v>0.1596200992217973</v>
+        <v>-0.1046890366449471</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4419,13 +4455,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.1</v>
+        <v>5.87</v>
       </c>
       <c r="C227">
-        <v>5.255734757463905</v>
+        <v>5.696824992374271</v>
       </c>
       <c r="D227">
-        <v>0.1557347574639056</v>
+        <v>-0.173175007625729</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4433,13 +4469,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.05</v>
+        <v>5.87</v>
       </c>
       <c r="C228">
-        <v>5.274017344102434</v>
+        <v>5.698136051719686</v>
       </c>
       <c r="D228">
-        <v>0.2240173441024345</v>
+        <v>-0.1718639482803139</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4447,13 +4483,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.06</v>
+        <v>5.99</v>
       </c>
       <c r="C229">
-        <v>5.256703521313366</v>
+        <v>5.623746854292813</v>
       </c>
       <c r="D229">
-        <v>0.1967035213133661</v>
+        <v>-0.3662531457071871</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4461,13 +4497,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.11</v>
+        <v>5.98</v>
       </c>
       <c r="C230">
-        <v>5.218218709946571</v>
+        <v>5.648051695712484</v>
       </c>
       <c r="D230">
-        <v>0.1082187099465708</v>
+        <v>-0.3319483042875166</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4475,13 +4511,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.06</v>
+        <v>5.76</v>
       </c>
       <c r="C231">
-        <v>5.229526398253855</v>
+        <v>5.595892453805883</v>
       </c>
       <c r="D231">
-        <v>0.1695263982538551</v>
+        <v>-0.164107546194117</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4489,13 +4525,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.06</v>
+        <v>5.6</v>
       </c>
       <c r="C232">
-        <v>5.227285560478155</v>
+        <v>5.522962576211217</v>
       </c>
       <c r="D232">
-        <v>0.1672855604781551</v>
+        <v>-0.07703742378878253</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4503,13 +4539,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.07</v>
+        <v>5.29</v>
       </c>
       <c r="C233">
-        <v>5.224538540237342</v>
+        <v>5.416020663217958</v>
       </c>
       <c r="D233">
-        <v>0.1545385402373416</v>
+        <v>0.1260206632179584</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4517,13 +4553,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.04</v>
+        <v>5.3</v>
       </c>
       <c r="C234">
-        <v>5.211807579038958</v>
+        <v>5.434955429199885</v>
       </c>
       <c r="D234">
-        <v>0.1718075790389575</v>
+        <v>0.1349554291998851</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4531,13 +4567,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5</v>
+        <v>5.31</v>
       </c>
       <c r="C235">
-        <v>5.187775941814738</v>
+        <v>5.438328616307338</v>
       </c>
       <c r="D235">
-        <v>0.1877759418147384</v>
+        <v>0.1283286163073383</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4545,13 +4581,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>4.99</v>
+        <v>5.28</v>
       </c>
       <c r="C236">
-        <v>5.14647041049774</v>
+        <v>5.426382733574917</v>
       </c>
       <c r="D236">
-        <v>0.1564704104977395</v>
+        <v>0.1463827335749164</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4559,13 +4595,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.02</v>
+        <v>5.06</v>
       </c>
       <c r="C237">
-        <v>5.000270027170348</v>
+        <v>5.485134050290782</v>
       </c>
       <c r="D237">
-        <v>-0.01972997282965139</v>
+        <v>0.4251340502907821</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4573,13 +4609,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>5.1</v>
+        <v>4.99</v>
       </c>
       <c r="C238">
-        <v>5.030608908298348</v>
+        <v>5.408086859502747</v>
       </c>
       <c r="D238">
-        <v>-0.06939109170165203</v>
+        <v>0.4180868595027469</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4587,13 +4623,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>5.1</v>
+        <v>4.98</v>
       </c>
       <c r="C239">
-        <v>4.99801273318621</v>
+        <v>5.407055947393074</v>
       </c>
       <c r="D239">
-        <v>-0.10198726681379</v>
+        <v>0.4270559473930735</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4601,13 +4637,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>5.09</v>
+        <v>4.97</v>
       </c>
       <c r="C240">
-        <v>4.994288237459871</v>
+        <v>5.393041005628557</v>
       </c>
       <c r="D240">
-        <v>-0.09571176254012848</v>
+        <v>0.4230410056285576</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4615,13 +4651,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>5.14</v>
+        <v>4.95</v>
       </c>
       <c r="C241">
-        <v>5.010648689531914</v>
+        <v>5.367039049711567</v>
       </c>
       <c r="D241">
-        <v>-0.1293513104680857</v>
+        <v>0.4170390497115664</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4629,13 +4665,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.13</v>
+        <v>5.14</v>
       </c>
       <c r="C242">
-        <v>5.019020725179516</v>
+        <v>5.43075858258271</v>
       </c>
       <c r="D242">
-        <v>-0.1109792748204841</v>
+        <v>0.2907585825827104</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4643,13 +4679,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.16</v>
+        <v>5.14</v>
       </c>
       <c r="C243">
-        <v>5.054893788054088</v>
+        <v>5.400730591994181</v>
       </c>
       <c r="D243">
-        <v>-0.1051062119459125</v>
+        <v>0.2607305919941814</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4657,13 +4693,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.17</v>
+        <v>5.13</v>
       </c>
       <c r="C244">
-        <v>5.014154689545688</v>
+        <v>5.372790339505487</v>
       </c>
       <c r="D244">
-        <v>-0.1558453104543123</v>
+        <v>0.2427903395054871</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4671,13 +4707,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.19</v>
+        <v>5.14</v>
       </c>
       <c r="C245">
-        <v>5.029712545690867</v>
+        <v>5.382504466907706</v>
       </c>
       <c r="D245">
-        <v>-0.1602874543091337</v>
+        <v>0.2425044669077066</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4685,13 +4721,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.12</v>
+        <v>5.09</v>
       </c>
       <c r="C246">
-        <v>5.051260435181215</v>
+        <v>5.288484149791227</v>
       </c>
       <c r="D246">
-        <v>-0.0687395648187854</v>
+        <v>0.1984841497912271</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4699,13 +4735,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.13</v>
+        <v>5.1</v>
       </c>
       <c r="C247">
-        <v>5.051636010788673</v>
+        <v>5.282002274473975</v>
       </c>
       <c r="D247">
-        <v>-0.07836398921132659</v>
+        <v>0.1820022744739749</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4716,10 +4752,10 @@
         <v>5.13</v>
       </c>
       <c r="C248">
-        <v>5.050505234664232</v>
+        <v>5.301282934828924</v>
       </c>
       <c r="D248">
-        <v>-0.0794947653357676</v>
+        <v>0.1712829348289242</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4727,13 +4763,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.23</v>
+        <v>5.16</v>
       </c>
       <c r="C249">
-        <v>5.136415591750119</v>
+        <v>5.327757345038913</v>
       </c>
       <c r="D249">
-        <v>-0.09358440824988179</v>
+        <v>0.1677573450389129</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4741,13 +4777,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.31</v>
+        <v>5.07</v>
       </c>
       <c r="C250">
-        <v>5.197527377018261</v>
+        <v>5.249120639295345</v>
       </c>
       <c r="D250">
-        <v>-0.1124726229817385</v>
+        <v>0.1791206392953448</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4755,13 +4791,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.25</v>
+        <v>5.07</v>
       </c>
       <c r="C251">
-        <v>5.115393276059567</v>
+        <v>5.294272523337693</v>
       </c>
       <c r="D251">
-        <v>-0.1346067239404327</v>
+        <v>0.2242725233376923</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4769,13 +4805,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.27</v>
+        <v>5.07</v>
       </c>
       <c r="C252">
-        <v>5.104250702439268</v>
+        <v>5.292108203075328</v>
       </c>
       <c r="D252">
-        <v>-0.1657492975607315</v>
+        <v>0.2221082030753276</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4783,13 +4819,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.19</v>
+        <v>5.08</v>
       </c>
       <c r="C253">
-        <v>5.07175950323446</v>
+        <v>5.29415791991897</v>
       </c>
       <c r="D253">
-        <v>-0.1182404967655399</v>
+        <v>0.2141579199189696</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4797,13 +4833,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.19</v>
+        <v>5.06</v>
       </c>
       <c r="C254">
-        <v>5.075049959543607</v>
+        <v>5.264555457328374</v>
       </c>
       <c r="D254">
-        <v>-0.1149500404563932</v>
+        <v>0.2045554573283743</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4811,13 +4847,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.34</v>
+        <v>5.16</v>
       </c>
       <c r="C255">
-        <v>5.136131691889636</v>
+        <v>5.312971851095748</v>
       </c>
       <c r="D255">
-        <v>-0.2038683081103638</v>
+        <v>0.1529718510957476</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4825,13 +4861,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.33</v>
+        <v>5.08</v>
       </c>
       <c r="C256">
-        <v>5.154841207850081</v>
+        <v>5.220153011463664</v>
       </c>
       <c r="D256">
-        <v>-0.1751587921499187</v>
+        <v>0.1401530114636635</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4839,13 +4875,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.34</v>
+        <v>5.08</v>
       </c>
       <c r="C257">
-        <v>5.153435810184154</v>
+        <v>5.247211599723945</v>
       </c>
       <c r="D257">
-        <v>-0.1865641898158454</v>
+        <v>0.1672115997239452</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4853,13 +4889,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.34</v>
+        <v>5.07</v>
       </c>
       <c r="C258">
-        <v>5.156541634415621</v>
+        <v>5.217322886414379</v>
       </c>
       <c r="D258">
-        <v>-0.1834583655843787</v>
+        <v>0.1473228864143792</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4867,13 +4903,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.3</v>
+        <v>5.03</v>
       </c>
       <c r="C259">
-        <v>5.094424724252198</v>
+        <v>5.212932985180704</v>
       </c>
       <c r="D259">
-        <v>-0.205575275747802</v>
+        <v>0.1829329851807033</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4881,13 +4917,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.3</v>
+        <v>5.01</v>
       </c>
       <c r="C260">
-        <v>5.090925455100109</v>
+        <v>5.167137009239655</v>
       </c>
       <c r="D260">
-        <v>-0.2090745448998907</v>
+        <v>0.1571370092396549</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4895,13 +4931,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.3</v>
+        <v>4.98</v>
       </c>
       <c r="C261">
-        <v>5.094707773245005</v>
+        <v>5.143459116859614</v>
       </c>
       <c r="D261">
-        <v>-0.2052922267549944</v>
+        <v>0.1634591168596131</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4909,13 +4945,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.3</v>
+        <v>4.97</v>
       </c>
       <c r="C262">
-        <v>5.125372955740994</v>
+        <v>5.106049337590159</v>
       </c>
       <c r="D262">
-        <v>-0.1746270442590054</v>
+        <v>0.1360493375901592</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4923,13 +4959,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.3</v>
+        <v>4.95</v>
       </c>
       <c r="C263">
-        <v>5.114575899490243</v>
+        <v>5.058143236877147</v>
       </c>
       <c r="D263">
-        <v>-0.1854241005097572</v>
+        <v>0.1081432368771464</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4937,13 +4973,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.35</v>
+        <v>4.97</v>
       </c>
       <c r="C264">
-        <v>5.137427944890641</v>
+        <v>4.996867773152806</v>
       </c>
       <c r="D264">
-        <v>-0.2125720551093586</v>
+        <v>0.02686777315280597</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4951,13 +4987,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.35</v>
+        <v>5</v>
       </c>
       <c r="C265">
-        <v>5.132878580486826</v>
+        <v>4.994753218350565</v>
       </c>
       <c r="D265">
-        <v>-0.2171214195131732</v>
+        <v>-0.005246781649434595</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4965,13 +5001,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.36</v>
+        <v>5.07</v>
       </c>
       <c r="C266">
-        <v>5.167187419603653</v>
+        <v>4.985407519784385</v>
       </c>
       <c r="D266">
-        <v>-0.192812580396347</v>
+        <v>-0.0845924802156155</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4979,13 +5015,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.48</v>
+        <v>5.07</v>
       </c>
       <c r="C267">
-        <v>5.248558935384441</v>
+        <v>4.985470336490577</v>
       </c>
       <c r="D267">
-        <v>-0.2314410646155594</v>
+        <v>-0.08452966350942326</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4993,13 +5029,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.5</v>
+        <v>5.09</v>
       </c>
       <c r="C268">
-        <v>5.256176066405473</v>
+        <v>4.977692786225637</v>
       </c>
       <c r="D268">
-        <v>-0.2438239335945269</v>
+        <v>-0.112307213774363</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5007,13 +5043,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.53</v>
+        <v>5.16</v>
       </c>
       <c r="C269">
-        <v>5.253967461486402</v>
+        <v>5.055947094798681</v>
       </c>
       <c r="D269">
-        <v>-0.276032538513598</v>
+        <v>-0.1040529052013195</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5021,13 +5057,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.49</v>
+        <v>5.22</v>
       </c>
       <c r="C270">
-        <v>5.173400654543665</v>
+        <v>5.030386332585953</v>
       </c>
       <c r="D270">
-        <v>-0.3165993454563356</v>
+        <v>-0.1896136674140463</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5035,13 +5071,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.62</v>
+        <v>5.22</v>
       </c>
       <c r="C271">
-        <v>5.261593741028616</v>
+        <v>5.014176922592462</v>
       </c>
       <c r="D271">
-        <v>-0.3584062589713843</v>
+        <v>-0.2058230774075378</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5049,13 +5085,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.62</v>
+        <v>5.2</v>
       </c>
       <c r="C272">
-        <v>5.264501781257817</v>
+        <v>4.969690752833592</v>
       </c>
       <c r="D272">
-        <v>-0.3554982187421833</v>
+        <v>-0.2303092471664083</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5063,13 +5099,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.65</v>
+        <v>5.15</v>
       </c>
       <c r="C273">
-        <v>5.269406230156694</v>
+        <v>5.07419835268538</v>
       </c>
       <c r="D273">
-        <v>-0.3805937698433066</v>
+        <v>-0.07580164731461991</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5077,13 +5113,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.72</v>
+        <v>5.18</v>
       </c>
       <c r="C274">
-        <v>5.33844732433843</v>
+        <v>5.085555962427609</v>
       </c>
       <c r="D274">
-        <v>-0.3815526756615695</v>
+        <v>-0.09444403757239073</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5091,13 +5127,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.53</v>
+        <v>5.21</v>
       </c>
       <c r="C275">
-        <v>5.40352439773009</v>
+        <v>5.113230328701343</v>
       </c>
       <c r="D275">
-        <v>-0.1264756022699105</v>
+        <v>-0.09676967129865677</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5105,13 +5141,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.53</v>
+        <v>5.23</v>
       </c>
       <c r="C276">
-        <v>5.401026796875191</v>
+        <v>5.131463551856784</v>
       </c>
       <c r="D276">
-        <v>-0.1289732031248088</v>
+        <v>-0.09853644814321605</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5119,13 +5155,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.51</v>
+        <v>5.26</v>
       </c>
       <c r="C277">
-        <v>5.325184079962604</v>
+        <v>5.150612593453255</v>
       </c>
       <c r="D277">
-        <v>-0.184815920037396</v>
+        <v>-0.1093874065467446</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5133,13 +5169,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.51</v>
+        <v>5.23</v>
       </c>
       <c r="C278">
-        <v>5.31474586860389</v>
+        <v>5.09075569277304</v>
       </c>
       <c r="D278">
-        <v>-0.1952541313961103</v>
+        <v>-0.13924430722696</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5147,13 +5183,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.51</v>
+        <v>5.35</v>
       </c>
       <c r="C279">
-        <v>5.375098162970522</v>
+        <v>5.166910975818723</v>
       </c>
       <c r="D279">
-        <v>-0.1349018370294779</v>
+        <v>-0.1830890241812764</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5161,13 +5197,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.53</v>
+        <v>5.3</v>
       </c>
       <c r="C280">
-        <v>5.369889919691584</v>
+        <v>5.113154196288429</v>
       </c>
       <c r="D280">
-        <v>-0.1601100803084163</v>
+        <v>-0.186845803711571</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5175,13 +5211,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.54</v>
+        <v>5.34</v>
       </c>
       <c r="C281">
-        <v>5.373203435330893</v>
+        <v>5.149944515349665</v>
       </c>
       <c r="D281">
-        <v>-0.1667965646691068</v>
+        <v>-0.1900554846503351</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5189,13 +5225,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.53</v>
+        <v>5.35</v>
       </c>
       <c r="C282">
-        <v>5.382478477818072</v>
+        <v>5.142703744504391</v>
       </c>
       <c r="D282">
-        <v>-0.1475215221819282</v>
+        <v>-0.2072962554956082</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5203,13 +5239,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.55</v>
+        <v>5.34</v>
       </c>
       <c r="C283">
-        <v>5.357329068874774</v>
+        <v>5.121269350214432</v>
       </c>
       <c r="D283">
-        <v>-0.1926709311252255</v>
+        <v>-0.2187306497855683</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5217,13 +5253,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.66</v>
+        <v>5.36</v>
       </c>
       <c r="C284">
-        <v>5.37769550172642</v>
+        <v>5.176421991533939</v>
       </c>
       <c r="D284">
-        <v>-0.2823044982735805</v>
+        <v>-0.1835780084660614</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5231,13 +5267,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.65</v>
+        <v>5.36</v>
       </c>
       <c r="C285">
-        <v>5.379809799278549</v>
+        <v>5.189090186798603</v>
       </c>
       <c r="D285">
-        <v>-0.2701902007214514</v>
+        <v>-0.1709098132013969</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5245,13 +5281,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.66</v>
+        <v>5.48</v>
       </c>
       <c r="C286">
-        <v>5.34378466994835</v>
+        <v>5.25068950834379</v>
       </c>
       <c r="D286">
-        <v>-0.3162153300516497</v>
+        <v>-0.2293104916562108</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5259,13 +5295,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.68</v>
+        <v>5.52</v>
       </c>
       <c r="C287">
-        <v>5.398669155573803</v>
+        <v>5.241088497121551</v>
       </c>
       <c r="D287">
-        <v>-0.281330844426197</v>
+        <v>-0.278911502878449</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5273,13 +5309,181 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.72</v>
+        <v>5.71</v>
       </c>
       <c r="C288">
-        <v>5.43181238499772</v>
+        <v>5.32447694570468</v>
       </c>
       <c r="D288">
-        <v>-0.28818761500228</v>
+        <v>-0.3855230542953203</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>5.54</v>
+      </c>
+      <c r="C289">
+        <v>5.403984907238184</v>
+      </c>
+      <c r="D289">
+        <v>-0.1360150927618156</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>5.49</v>
+      </c>
+      <c r="C290">
+        <v>5.310480713786847</v>
+      </c>
+      <c r="D290">
+        <v>-0.1795192862131536</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
+        <v>5.48</v>
+      </c>
+      <c r="C291">
+        <v>5.32507872407921</v>
+      </c>
+      <c r="D291">
+        <v>-0.1549212759207901</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>5.53</v>
+      </c>
+      <c r="C292">
+        <v>5.338173828333231</v>
+      </c>
+      <c r="D292">
+        <v>-0.1918261716667695</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>5.6</v>
+      </c>
+      <c r="C293">
+        <v>5.384986603007164</v>
+      </c>
+      <c r="D293">
+        <v>-0.2150133969928358</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>5.66</v>
+      </c>
+      <c r="C294">
+        <v>5.39259184918944</v>
+      </c>
+      <c r="D294">
+        <v>-0.2674081508105601</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>5.67</v>
+      </c>
+      <c r="C295">
+        <v>5.342422517597113</v>
+      </c>
+      <c r="D295">
+        <v>-0.3275774824028872</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>5.69</v>
+      </c>
+      <c r="C296">
+        <v>5.376628559394677</v>
+      </c>
+      <c r="D296">
+        <v>-0.3133714406053238</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>5.68</v>
+      </c>
+      <c r="C297">
+        <v>5.371739013593716</v>
+      </c>
+      <c r="D297">
+        <v>-0.3082609864062835</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>5.71</v>
+      </c>
+      <c r="C298">
+        <v>5.433138284266382</v>
+      </c>
+      <c r="D298">
+        <v>-0.2768617157336175</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>5.71</v>
+      </c>
+      <c r="C299">
+        <v>5.436366860406938</v>
+      </c>
+      <c r="D299">
+        <v>-0.2736331395930618</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>5.76</v>
+      </c>
+      <c r="C300">
+        <v>5.444260754562885</v>
+      </c>
+      <c r="D300">
+        <v>-0.3157392454371148</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_train.xlsx
+++ b/temp/stable_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,901 +28,1108 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-06-20 14:53:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 13:51:00</t>
-  </si>
-  <si>
-    <t>2019-06-19 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 13:10:00</t>
+    <t>2019-07-31 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 10:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 10:06:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 13:32:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-07-12 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-02 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-07-01 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 11:00:00</t>
   </si>
   <si>
     <t>2019-06-18 10:59:00</t>
   </si>
   <si>
-    <t>2019-06-18 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-17 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 10:21:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-11 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 11:12:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 10:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 10:32:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 10:16:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-13 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 14:25:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-05-06 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 11:01:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-17 09:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 13:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 11:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 09:37:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 14:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 13:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 10:51:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-14 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-03-12 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 10:11:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:42:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 10:37:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 14:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 10:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 10:38:00</t>
+    <t>2019-06-18 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 11:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 14:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:55:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:38:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-05-10 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 10:28:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 14:47:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 14:51:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:53:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-15 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 09:45:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-04-09 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 11:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 09:42:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:08:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 11:23:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 09:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:31:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-04 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 14:03:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:55:00</t>
   </si>
   <si>
     <t>2019-02-18 14:47:00</t>
   </si>
   <si>
-    <t>2019-02-18 10:36:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 13:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 10:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:50:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 13:01:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:07:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 10:50:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 13:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 14:01:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 10:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 10:09:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 13:12:00</t>
+    <t>2019-02-18 14:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 11:07:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:52:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 11:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 14:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-24 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 14:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:21:00</t>
   </si>
   <si>
     <t>2019-01-18 11:18:00</t>
   </si>
   <si>
-    <t>2019-01-18 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 09:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:30:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 11:27:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 14:50:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 13:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 13:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 14:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 11:06:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-28 10:04:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 14:10:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:43:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:16:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 10:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 09:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:17:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 13:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 11:09:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 10:58:00</t>
-  </si>
-  <si>
-    <t>2018-12-20 09:41:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 13:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 14:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 13:05:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 13:01:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:40:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 10:06:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 10:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 10:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 14:22:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 10:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 14:38:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 14:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 10:43:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 10:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-06 09:38:00</t>
+    <t>2019-01-18 11:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-17 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:51:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:57:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-01-09 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 14:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:49:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 09:34:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 13:29:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 14:28:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 10:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:21:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 13:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 10:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 09:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 10:16:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:40:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:37:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 14:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:12:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 10:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 09:59:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 10:31:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 09:53:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:36:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 10:29:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 09:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 14:08:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 14:44:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 13:18:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 10:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 14:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 13:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 13:41:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 11:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 09:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 14:55:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 13:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-05 09:39:00</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D300"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1305,13 +1512,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.6</v>
+        <v>6.26</v>
       </c>
       <c r="C2">
-        <v>6.749073773798136</v>
+        <v>6.700965910407621</v>
       </c>
       <c r="D2">
-        <v>0.1490737737981362</v>
+        <v>0.4409659104076216</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1319,13 +1526,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.59</v>
+        <v>6.28</v>
       </c>
       <c r="C3">
-        <v>6.752161649443797</v>
+        <v>6.712576621796721</v>
       </c>
       <c r="D3">
-        <v>0.1621616494437976</v>
+        <v>0.4325766217967209</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1333,13 +1540,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.58</v>
+        <v>6.29</v>
       </c>
       <c r="C4">
-        <v>6.706415981970375</v>
+        <v>6.701912872587211</v>
       </c>
       <c r="D4">
-        <v>0.126415981970375</v>
+        <v>0.4119128725872114</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1347,13 +1554,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.57</v>
+        <v>6.29</v>
       </c>
       <c r="C5">
-        <v>6.703208097984355</v>
+        <v>6.716539785334495</v>
       </c>
       <c r="D5">
-        <v>0.1332080979843546</v>
+        <v>0.4265397853344952</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1361,13 +1568,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.44</v>
+        <v>6.32</v>
       </c>
       <c r="C6">
-        <v>6.594041049721405</v>
+        <v>6.726623630814576</v>
       </c>
       <c r="D6">
-        <v>0.1540410497214042</v>
+        <v>0.4066236308145754</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1375,13 +1582,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.55</v>
+        <v>6.32</v>
       </c>
       <c r="C7">
-        <v>6.503665951534895</v>
+        <v>6.696383694835191</v>
       </c>
       <c r="D7">
-        <v>-0.04633404846510469</v>
+        <v>0.3763836948351909</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1389,13 +1596,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.59</v>
+        <v>6.33</v>
       </c>
       <c r="C8">
-        <v>6.573327240159328</v>
+        <v>6.71391806121969</v>
       </c>
       <c r="D8">
-        <v>-0.01667275984067196</v>
+        <v>0.3839180612196902</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1403,13 +1610,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.67</v>
+        <v>6.57</v>
       </c>
       <c r="C9">
-        <v>6.55527473513148</v>
+        <v>6.650368756686143</v>
       </c>
       <c r="D9">
-        <v>-0.11472526486852</v>
+        <v>0.08036875668614307</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1420,10 +1627,10 @@
         <v>6.59</v>
       </c>
       <c r="C10">
-        <v>6.469440341409451</v>
+        <v>6.676155494838341</v>
       </c>
       <c r="D10">
-        <v>-0.1205596585905493</v>
+        <v>0.08615549483834073</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1431,13 +1638,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.56</v>
+        <v>6.64</v>
       </c>
       <c r="C11">
-        <v>6.465511037587275</v>
+        <v>6.769438679777618</v>
       </c>
       <c r="D11">
-        <v>-0.09448896241272475</v>
+        <v>0.1294386797776186</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1445,13 +1652,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.66</v>
+        <v>6.62</v>
       </c>
       <c r="C12">
-        <v>6.484339524764462</v>
+        <v>6.766501599304361</v>
       </c>
       <c r="D12">
-        <v>-0.1756604752355386</v>
+        <v>0.1465015993043606</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1459,13 +1666,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
       <c r="C13">
-        <v>6.508505765825412</v>
+        <v>6.777559752201386</v>
       </c>
       <c r="D13">
-        <v>-0.1414942341745888</v>
+        <v>0.1075597522013858</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1473,13 +1680,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.6</v>
+        <v>6.59</v>
       </c>
       <c r="C14">
-        <v>6.500665056562827</v>
+        <v>6.700210828540394</v>
       </c>
       <c r="D14">
-        <v>-0.09933494343717264</v>
+        <v>0.110210828540394</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1487,13 +1694,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="C15">
-        <v>6.486578276142932</v>
+        <v>6.743870732177228</v>
       </c>
       <c r="D15">
-        <v>-0.1334217238570679</v>
+        <v>0.1438707321772288</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1501,13 +1708,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.56</v>
+        <v>6.61</v>
       </c>
       <c r="C16">
-        <v>6.502391544079757</v>
+        <v>6.746627081607418</v>
       </c>
       <c r="D16">
-        <v>-0.057608455920243</v>
+        <v>0.1366270816074175</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1515,13 +1722,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.52</v>
+        <v>6.62</v>
       </c>
       <c r="C17">
-        <v>6.512351077212868</v>
+        <v>6.618953373194211</v>
       </c>
       <c r="D17">
-        <v>-0.007648922787131696</v>
+        <v>-0.001046626805789153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1529,13 +1736,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.74</v>
+        <v>6.6</v>
       </c>
       <c r="C18">
-        <v>6.709185319293171</v>
+        <v>6.612873834599784</v>
       </c>
       <c r="D18">
-        <v>-0.03081468070682902</v>
+        <v>0.01287383459978386</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1543,13 +1750,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.75</v>
+        <v>6.61</v>
       </c>
       <c r="C19">
-        <v>6.758785850753803</v>
+        <v>6.619731610170103</v>
       </c>
       <c r="D19">
-        <v>0.008785850753803004</v>
+        <v>0.009731610170102378</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1557,13 +1764,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>6.75</v>
+        <v>7.04</v>
       </c>
       <c r="C20">
-        <v>6.728231132795401</v>
+        <v>6.788727911982544</v>
       </c>
       <c r="D20">
-        <v>-0.02176886720459947</v>
+        <v>-0.2512720880174557</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1571,13 +1778,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>6.75</v>
+        <v>7.05</v>
       </c>
       <c r="C21">
-        <v>6.712337420615116</v>
+        <v>6.793308262297892</v>
       </c>
       <c r="D21">
-        <v>-0.03766257938488415</v>
+        <v>-0.2566917377021083</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1585,13 +1792,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>6.74</v>
+        <v>7.07</v>
       </c>
       <c r="C22">
-        <v>6.720839726976701</v>
+        <v>6.792098934413168</v>
       </c>
       <c r="D22">
-        <v>-0.01916027302329937</v>
+        <v>-0.2779010655868319</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1599,13 +1806,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>6.69</v>
+        <v>7.07</v>
       </c>
       <c r="C23">
-        <v>6.620950860708097</v>
+        <v>6.819825781277416</v>
       </c>
       <c r="D23">
-        <v>-0.06904913929190304</v>
+        <v>-0.2501742187225844</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1613,13 +1820,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>6.78</v>
+        <v>7.13</v>
       </c>
       <c r="C24">
-        <v>6.66238202792295</v>
+        <v>6.840833653462688</v>
       </c>
       <c r="D24">
-        <v>-0.11761797207705</v>
+        <v>-0.2891663465373115</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1627,13 +1834,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.75</v>
+        <v>6.95</v>
       </c>
       <c r="C25">
-        <v>6.67383042105997</v>
+        <v>6.830258971292535</v>
       </c>
       <c r="D25">
-        <v>-0.07616957894003029</v>
+        <v>-0.1197410287074652</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1641,13 +1848,13 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>6.66</v>
+        <v>6.95</v>
       </c>
       <c r="C26">
-        <v>6.718744981065024</v>
+        <v>6.850976136401579</v>
       </c>
       <c r="D26">
-        <v>0.05874498106502379</v>
+        <v>-0.09902386359842108</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1655,13 +1862,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.39</v>
+        <v>6.95</v>
       </c>
       <c r="C27">
-        <v>6.414861027804028</v>
+        <v>6.874199006227522</v>
       </c>
       <c r="D27">
-        <v>0.02486102780402799</v>
+        <v>-0.07580099377247773</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1669,13 +1876,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.33</v>
+        <v>6.9</v>
       </c>
       <c r="C28">
-        <v>6.430073113326305</v>
+        <v>6.867065998528346</v>
       </c>
       <c r="D28">
-        <v>0.1000731133263049</v>
+        <v>-0.03293400147165393</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1683,13 +1890,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.32</v>
+        <v>6.82</v>
       </c>
       <c r="C29">
-        <v>6.399524297345346</v>
+        <v>6.792696892537023</v>
       </c>
       <c r="D29">
-        <v>0.07952429734534583</v>
+        <v>-0.02730310746297704</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1697,13 +1904,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.65</v>
+        <v>6.91</v>
       </c>
       <c r="C30">
-        <v>6.595747484500482</v>
+        <v>6.809408832178658</v>
       </c>
       <c r="D30">
-        <v>-0.05425251549951859</v>
+        <v>-0.1005911678213423</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1711,13 +1918,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.67</v>
+        <v>6.82</v>
       </c>
       <c r="C31">
-        <v>6.555027735057081</v>
+        <v>6.737025274506893</v>
       </c>
       <c r="D31">
-        <v>-0.114972264942919</v>
+        <v>-0.08297472549310747</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1725,13 +1932,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.64</v>
+        <v>6.87</v>
       </c>
       <c r="C32">
-        <v>6.540896686499494</v>
+        <v>6.711128551087731</v>
       </c>
       <c r="D32">
-        <v>-0.09910331350050594</v>
+        <v>-0.1588714489122696</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1739,13 +1946,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>6.5</v>
+        <v>7.05</v>
       </c>
       <c r="C33">
-        <v>6.565452009729674</v>
+        <v>6.804788469698407</v>
       </c>
       <c r="D33">
-        <v>0.06545200972967358</v>
+        <v>-0.2452115303015932</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1753,13 +1960,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>6.56</v>
+        <v>7.24</v>
       </c>
       <c r="C34">
-        <v>6.65345742852551</v>
+        <v>6.845286741546166</v>
       </c>
       <c r="D34">
-        <v>0.09345742852551009</v>
+        <v>-0.3947132584538338</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1767,13 +1974,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>6.52</v>
+        <v>7.14</v>
       </c>
       <c r="C35">
-        <v>6.573279834103456</v>
+        <v>7.019045121449649</v>
       </c>
       <c r="D35">
-        <v>0.05327983410345638</v>
+        <v>-0.1209548785503509</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1781,13 +1988,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>6.59</v>
+        <v>7.1</v>
       </c>
       <c r="C36">
-        <v>6.619009347941722</v>
+        <v>6.989799507031135</v>
       </c>
       <c r="D36">
-        <v>0.02900934794172194</v>
+        <v>-0.1102004929688647</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1795,13 +2002,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.61</v>
+        <v>6.68</v>
       </c>
       <c r="C37">
-        <v>6.54421835903563</v>
+        <v>6.886313539333631</v>
       </c>
       <c r="D37">
-        <v>-0.06578164096436989</v>
+        <v>0.2063135393336317</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1809,13 +2016,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.63</v>
+        <v>6.75</v>
       </c>
       <c r="C38">
-        <v>6.58858762670698</v>
+        <v>6.902598267656678</v>
       </c>
       <c r="D38">
-        <v>-0.04141237329301983</v>
+        <v>0.1525982676566784</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1823,13 +2030,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.63</v>
+        <v>6.72</v>
       </c>
       <c r="C39">
-        <v>6.621440553137315</v>
+        <v>6.835174872265538</v>
       </c>
       <c r="D39">
-        <v>-0.008559446862684617</v>
+        <v>0.1151748722655386</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1837,13 +2044,13 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>6.91</v>
+        <v>6.75</v>
       </c>
       <c r="C40">
-        <v>6.737924763856789</v>
+        <v>6.820308129682605</v>
       </c>
       <c r="D40">
-        <v>-0.1720752361432112</v>
+        <v>0.07030812968260491</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1851,13 +2058,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.9</v>
+        <v>6.74</v>
       </c>
       <c r="C41">
-        <v>6.697624001057724</v>
+        <v>6.846883213057525</v>
       </c>
       <c r="D41">
-        <v>-0.2023759989422764</v>
+        <v>0.1068832130575252</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1865,13 +2072,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>7.1</v>
+        <v>6.68</v>
       </c>
       <c r="C42">
-        <v>7.110311525676313</v>
+        <v>6.810631020645454</v>
       </c>
       <c r="D42">
-        <v>0.01031152567631288</v>
+        <v>0.1306310206454544</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1879,13 +2086,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>7.12</v>
+        <v>6.7</v>
       </c>
       <c r="C43">
-        <v>7.338153067926754</v>
+        <v>6.913659392051574</v>
       </c>
       <c r="D43">
-        <v>0.218153067926754</v>
+        <v>0.2136593920515741</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1893,13 +2100,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>7.1</v>
+        <v>6.67</v>
       </c>
       <c r="C44">
-        <v>7.316873533400162</v>
+        <v>6.870032924802286</v>
       </c>
       <c r="D44">
-        <v>0.2168735334001628</v>
+        <v>0.2000329248022865</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1907,13 +2114,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>7.09</v>
+        <v>6.73</v>
       </c>
       <c r="C45">
-        <v>7.314402977073055</v>
+        <v>6.956732322832719</v>
       </c>
       <c r="D45">
-        <v>0.2244029770730549</v>
+        <v>0.2267323228327189</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1921,13 +2128,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>7.14</v>
+        <v>6.72</v>
       </c>
       <c r="C46">
-        <v>7.269212159863356</v>
+        <v>6.95263515421823</v>
       </c>
       <c r="D46">
-        <v>0.1292121598633562</v>
+        <v>0.2326351542182303</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1935,13 +2142,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>7.06</v>
+        <v>6.68</v>
       </c>
       <c r="C47">
-        <v>7.266138656375633</v>
+        <v>6.921865909071034</v>
       </c>
       <c r="D47">
-        <v>0.2061386563756331</v>
+        <v>0.2418659090710342</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1949,13 +2156,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>7.13</v>
+        <v>6.63</v>
       </c>
       <c r="C48">
-        <v>7.30442452764072</v>
+        <v>6.865815075660938</v>
       </c>
       <c r="D48">
-        <v>0.1744245276407197</v>
+        <v>0.2358150756609385</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1963,13 +2170,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.91</v>
+        <v>6.64</v>
       </c>
       <c r="C49">
-        <v>7.317163618569813</v>
+        <v>6.857807857103133</v>
       </c>
       <c r="D49">
-        <v>0.4071636185698129</v>
+        <v>0.217807857103133</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1977,13 +2184,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.84</v>
+        <v>6.63</v>
       </c>
       <c r="C50">
-        <v>7.229117113665744</v>
+        <v>6.864216796556596</v>
       </c>
       <c r="D50">
-        <v>0.3891171136657441</v>
+        <v>0.2342167965565958</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1991,13 +2198,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.85</v>
+        <v>6.58</v>
       </c>
       <c r="C51">
-        <v>7.329590987027427</v>
+        <v>6.821128342556753</v>
       </c>
       <c r="D51">
-        <v>0.4795909870274269</v>
+        <v>0.2411283425567525</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2005,13 +2212,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>6.54</v>
       </c>
       <c r="C52">
-        <v>7.446060257446986</v>
+        <v>6.752426260272772</v>
       </c>
       <c r="D52">
-        <v>0.4460602574469856</v>
+        <v>0.212426260272772</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2019,13 +2226,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.94</v>
+        <v>6.5</v>
       </c>
       <c r="C53">
-        <v>7.410809126783574</v>
+        <v>6.653978694311274</v>
       </c>
       <c r="D53">
-        <v>0.4708091267835739</v>
+        <v>0.1539786943112738</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2033,13 +2240,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.98</v>
+        <v>6.51</v>
       </c>
       <c r="C54">
-        <v>7.46695255033557</v>
+        <v>6.619488375012416</v>
       </c>
       <c r="D54">
-        <v>0.4869525503355696</v>
+        <v>0.1094883750124165</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2047,13 +2254,13 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>7.08</v>
+        <v>6.57</v>
       </c>
       <c r="C55">
-        <v>7.537039916114985</v>
+        <v>6.622884588043746</v>
       </c>
       <c r="D55">
-        <v>0.4570399161149847</v>
+        <v>0.05288458804374585</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2061,13 +2268,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>7.22</v>
+        <v>6.56</v>
       </c>
       <c r="C56">
-        <v>7.564897534332012</v>
+        <v>6.592992095768427</v>
       </c>
       <c r="D56">
-        <v>0.344897534332012</v>
+        <v>0.0329920957684271</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2075,13 +2282,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>7.2</v>
+        <v>6.61</v>
       </c>
       <c r="C57">
-        <v>7.559131016187482</v>
+        <v>6.639759098076217</v>
       </c>
       <c r="D57">
-        <v>0.3591310161874821</v>
+        <v>0.02975909807621679</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2089,13 +2296,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>7.31</v>
+        <v>6.58</v>
       </c>
       <c r="C58">
-        <v>7.560743007843335</v>
+        <v>6.727390129523718</v>
       </c>
       <c r="D58">
-        <v>0.2507430078433357</v>
+        <v>0.1473901295237177</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2103,13 +2310,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>7.33</v>
+        <v>6.59</v>
       </c>
       <c r="C59">
-        <v>7.573832139470948</v>
+        <v>6.719090338553899</v>
       </c>
       <c r="D59">
-        <v>0.243832139470948</v>
+        <v>0.1290903385538993</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2117,13 +2324,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>7.26</v>
+        <v>6.6</v>
       </c>
       <c r="C60">
-        <v>7.600675139123066</v>
+        <v>6.760340261575379</v>
       </c>
       <c r="D60">
-        <v>0.340675139123066</v>
+        <v>0.1603402615753797</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2131,13 +2338,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>7.17</v>
+        <v>6.65</v>
       </c>
       <c r="C61">
-        <v>7.353267873009823</v>
+        <v>6.761082393498832</v>
       </c>
       <c r="D61">
-        <v>0.1832678730098234</v>
+        <v>0.1110823934988314</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2145,13 +2352,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>7.41</v>
+        <v>6.59</v>
       </c>
       <c r="C62">
-        <v>7.460727686440892</v>
+        <v>6.717279023774044</v>
       </c>
       <c r="D62">
-        <v>0.05072768644089187</v>
+        <v>0.1272790237740438</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2159,13 +2366,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>7.44</v>
+        <v>6.58</v>
       </c>
       <c r="C63">
-        <v>7.461324204188136</v>
+        <v>6.665135549544011</v>
       </c>
       <c r="D63">
-        <v>0.02132420418813563</v>
+        <v>0.08513554954401137</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2173,13 +2380,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>7.43</v>
+        <v>6.65</v>
       </c>
       <c r="C64">
-        <v>7.458606153480524</v>
+        <v>6.500004360004082</v>
       </c>
       <c r="D64">
-        <v>0.0286061534805242</v>
+        <v>-0.1499956399959181</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2187,13 +2394,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>7.48</v>
+        <v>6.65</v>
       </c>
       <c r="C65">
-        <v>7.463325948215857</v>
+        <v>6.508501156755878</v>
       </c>
       <c r="D65">
-        <v>-0.01667405178414327</v>
+        <v>-0.141498843244122</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2201,13 +2408,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>7.28</v>
+        <v>6.64</v>
       </c>
       <c r="C66">
-        <v>7.409158326717474</v>
+        <v>6.562326220041552</v>
       </c>
       <c r="D66">
-        <v>0.1291583267174738</v>
+        <v>-0.07767377995844793</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2215,13 +2422,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>7.25</v>
+        <v>6.63</v>
       </c>
       <c r="C67">
-        <v>7.302287258178065</v>
+        <v>6.491895294806591</v>
       </c>
       <c r="D67">
-        <v>0.05228725817806534</v>
+        <v>-0.1381047051934088</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2229,13 +2436,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>7.18</v>
+        <v>6.73</v>
       </c>
       <c r="C68">
-        <v>7.263782582404319</v>
+        <v>6.635701028574486</v>
       </c>
       <c r="D68">
-        <v>0.08378258240431968</v>
+        <v>-0.09429897142551447</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2243,13 +2450,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>7.19</v>
+        <v>6.75</v>
       </c>
       <c r="C69">
-        <v>7.26870463110424</v>
+        <v>6.71059642623748</v>
       </c>
       <c r="D69">
-        <v>0.07870463110424009</v>
+        <v>-0.03940357376252024</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2257,13 +2464,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>7.23</v>
+        <v>6.71</v>
       </c>
       <c r="C70">
-        <v>7.231069658023596</v>
+        <v>6.680973189767689</v>
       </c>
       <c r="D70">
-        <v>0.001069658023595821</v>
+        <v>-0.02902681023231057</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2271,13 +2478,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>7.23</v>
+        <v>6.63</v>
       </c>
       <c r="C71">
-        <v>7.282085409110095</v>
+        <v>6.680360099708608</v>
       </c>
       <c r="D71">
-        <v>0.05208540911009507</v>
+        <v>0.050360099708608</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2285,13 +2492,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>7.09</v>
+        <v>6.41</v>
       </c>
       <c r="C72">
-        <v>7.254549979459409</v>
+        <v>6.436672464773542</v>
       </c>
       <c r="D72">
-        <v>0.1645499794594087</v>
+        <v>0.0266724647735419</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2299,13 +2506,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>7.21</v>
+        <v>6.34</v>
       </c>
       <c r="C73">
-        <v>7.254736112531575</v>
+        <v>6.389602334376841</v>
       </c>
       <c r="D73">
-        <v>0.04473611253157461</v>
+        <v>0.04960233437684103</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2313,13 +2520,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>7.23</v>
+        <v>6.63</v>
       </c>
       <c r="C74">
-        <v>7.290988414214185</v>
+        <v>6.514280732192544</v>
       </c>
       <c r="D74">
-        <v>0.06098841421418477</v>
+        <v>-0.1157192678074557</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2327,13 +2534,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>7.42</v>
+        <v>6.64</v>
       </c>
       <c r="C75">
-        <v>7.427838931093204</v>
+        <v>6.556748531024358</v>
       </c>
       <c r="D75">
-        <v>0.007838931093203882</v>
+        <v>-0.08325146897564206</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2341,13 +2548,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>7.32</v>
+        <v>6.55</v>
       </c>
       <c r="C76">
-        <v>7.30214862964263</v>
+        <v>6.566652478668196</v>
       </c>
       <c r="D76">
-        <v>-0.01785137035736994</v>
+        <v>0.0166524786681963</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2355,13 +2562,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>7.54</v>
+        <v>6.55</v>
       </c>
       <c r="C77">
-        <v>7.477049898763747</v>
+        <v>6.549424066427278</v>
       </c>
       <c r="D77">
-        <v>-0.062950101236253</v>
+        <v>-0.0005759335727217874</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2369,13 +2576,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>7.85</v>
+        <v>6.63</v>
       </c>
       <c r="C78">
-        <v>7.299353421630402</v>
+        <v>6.556226988112982</v>
       </c>
       <c r="D78">
-        <v>-0.550646578369598</v>
+        <v>-0.07377301188701768</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2383,13 +2590,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>8.15</v>
+        <v>6.61</v>
       </c>
       <c r="C79">
-        <v>7.615662422346151</v>
+        <v>6.62558310870266</v>
       </c>
       <c r="D79">
-        <v>-0.534337577653849</v>
+        <v>0.01558310870265966</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2397,13 +2604,13 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>8.09</v>
+        <v>6.86</v>
       </c>
       <c r="C80">
-        <v>7.714771360916856</v>
+        <v>6.713095135317692</v>
       </c>
       <c r="D80">
-        <v>-0.3752286390831436</v>
+        <v>-0.1469048646823081</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2411,13 +2618,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>8.19</v>
+        <v>6.93</v>
       </c>
       <c r="C81">
-        <v>7.857493585973829</v>
+        <v>6.820957435061384</v>
       </c>
       <c r="D81">
-        <v>-0.3325064140261702</v>
+        <v>-0.1090425649386155</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2425,13 +2632,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>8.06</v>
+        <v>7.09</v>
       </c>
       <c r="C82">
-        <v>8.046848330504837</v>
+        <v>7.041143298402918</v>
       </c>
       <c r="D82">
-        <v>-0.01315166949516389</v>
+        <v>-0.04885670159708155</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2439,13 +2646,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7.93</v>
+        <v>7.06</v>
       </c>
       <c r="C83">
-        <v>8.420976192891041</v>
+        <v>7.175152738736909</v>
       </c>
       <c r="D83">
-        <v>0.4909761928910417</v>
+        <v>0.1151527387369091</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2453,13 +2660,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.85</v>
+        <v>7.23</v>
       </c>
       <c r="C84">
-        <v>8.33066367556756</v>
+        <v>7.218014146855527</v>
       </c>
       <c r="D84">
-        <v>0.4806636755675608</v>
+        <v>-0.01198585314447342</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2467,13 +2674,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7.78</v>
+        <v>7.12</v>
       </c>
       <c r="C85">
-        <v>8.271456789696376</v>
+        <v>7.146729209577046</v>
       </c>
       <c r="D85">
-        <v>0.4914567896963762</v>
+        <v>0.02672920957704594</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2481,13 +2688,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7.85</v>
+        <v>7.18</v>
       </c>
       <c r="C86">
-        <v>8.275384144470998</v>
+        <v>7.178424823692062</v>
       </c>
       <c r="D86">
-        <v>0.425384144470998</v>
+        <v>-0.001575176307937909</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2495,13 +2702,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>8.539999999999999</v>
+        <v>7.17</v>
       </c>
       <c r="C87">
-        <v>8.054573885016922</v>
+        <v>7.215102525584241</v>
       </c>
       <c r="D87">
-        <v>-0.4854261149830776</v>
+        <v>0.04510252558424099</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2509,13 +2716,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>8.449999999999999</v>
+        <v>7.12</v>
       </c>
       <c r="C88">
-        <v>7.897924930816025</v>
+        <v>7.241985187374366</v>
       </c>
       <c r="D88">
-        <v>-0.5520750691839744</v>
+        <v>0.1219851873743663</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2523,13 +2730,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>8.619999999999999</v>
+        <v>7.05</v>
       </c>
       <c r="C89">
-        <v>7.987946086680676</v>
+        <v>7.19893807516107</v>
       </c>
       <c r="D89">
-        <v>-0.6320539133193233</v>
+        <v>0.1489380751610705</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2537,13 +2744,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>9.41</v>
+        <v>7.09</v>
       </c>
       <c r="C90">
-        <v>8.38751610851841</v>
+        <v>7.132371132106126</v>
       </c>
       <c r="D90">
-        <v>-1.02248389148159</v>
+        <v>0.0423711321061262</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2551,13 +2758,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>8.83</v>
+        <v>7.11</v>
       </c>
       <c r="C91">
-        <v>8.194455655918828</v>
+        <v>7.17350719355062</v>
       </c>
       <c r="D91">
-        <v>-0.6355443440811719</v>
+        <v>0.06350719355061951</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2565,13 +2772,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>8.619999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="C92">
-        <v>8.142391845864543</v>
+        <v>7.304237718715925</v>
       </c>
       <c r="D92">
-        <v>-0.4776081541354564</v>
+        <v>0.3942377187159245</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2579,13 +2786,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>8.710000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="C93">
-        <v>8.144939637783509</v>
+        <v>7.463133026982279</v>
       </c>
       <c r="D93">
-        <v>-0.5650603622164923</v>
+        <v>0.5031330269822787</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2593,13 +2800,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>8.91</v>
+        <v>7.05</v>
       </c>
       <c r="C94">
-        <v>8.159171019649218</v>
+        <v>7.525083604809355</v>
       </c>
       <c r="D94">
-        <v>-0.7508289803507822</v>
+        <v>0.4750836048093552</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2607,13 +2814,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>9.07</v>
+        <v>6.93</v>
       </c>
       <c r="C95">
-        <v>8.188841384529001</v>
+        <v>7.481377260254551</v>
       </c>
       <c r="D95">
-        <v>-0.8811586154709996</v>
+        <v>0.5513772602545508</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2621,13 +2828,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>8.59</v>
+        <v>6.93</v>
       </c>
       <c r="C96">
-        <v>8.018869699397413</v>
+        <v>7.375948799996751</v>
       </c>
       <c r="D96">
-        <v>-0.5711303006025865</v>
+        <v>0.4459487999967511</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2635,13 +2842,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>8.42</v>
+        <v>7.18</v>
       </c>
       <c r="C97">
-        <v>7.957081539723116</v>
+        <v>7.497877953933292</v>
       </c>
       <c r="D97">
-        <v>-0.4629184602768834</v>
+        <v>0.3178779539332925</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2649,13 +2856,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>8.550000000000001</v>
+        <v>7.13</v>
       </c>
       <c r="C98">
-        <v>8.042831466179569</v>
+        <v>7.456187407922274</v>
       </c>
       <c r="D98">
-        <v>-0.5071685338204315</v>
+        <v>0.3261874079222737</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2663,13 +2870,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>8.58</v>
+        <v>7.14</v>
       </c>
       <c r="C99">
-        <v>8.039268842557149</v>
+        <v>7.444327058073231</v>
       </c>
       <c r="D99">
-        <v>-0.5407311574428508</v>
+        <v>0.3043270580732313</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2677,13 +2884,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>8.09</v>
+        <v>7.16</v>
       </c>
       <c r="C100">
-        <v>8.17123764715736</v>
+        <v>7.454047410746659</v>
       </c>
       <c r="D100">
-        <v>0.08123764715736037</v>
+        <v>0.2940474107466589</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2691,13 +2898,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>8.27</v>
+        <v>7.22</v>
       </c>
       <c r="C101">
-        <v>8.154092176422507</v>
+        <v>7.551312413583902</v>
       </c>
       <c r="D101">
-        <v>-0.1159078235774924</v>
+        <v>0.3313124135839027</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2705,13 +2912,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>8.35</v>
+        <v>7.31</v>
       </c>
       <c r="C102">
-        <v>8.180639878632482</v>
+        <v>7.551527180507378</v>
       </c>
       <c r="D102">
-        <v>-0.169360121367518</v>
+        <v>0.2415271805073784</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2719,13 +2926,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>8.390000000000001</v>
+        <v>7.24</v>
       </c>
       <c r="C103">
-        <v>8.170276595272131</v>
+        <v>7.538981942642422</v>
       </c>
       <c r="D103">
-        <v>-0.2197234047278691</v>
+        <v>0.2989819426424223</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2733,13 +2940,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="C104">
-        <v>8.152929853280613</v>
+        <v>7.267891357950822</v>
       </c>
       <c r="D104">
-        <v>-0.2470701467193877</v>
+        <v>0.1678913579508219</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2747,13 +2954,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>8.359999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C105">
-        <v>8.071952471435708</v>
+        <v>7.435869747052065</v>
       </c>
       <c r="D105">
-        <v>-0.2880475285642916</v>
+        <v>-0.06413025294793506</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2761,13 +2968,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>8.26</v>
+        <v>7.51</v>
       </c>
       <c r="C106">
-        <v>8.008568259207099</v>
+        <v>7.462117637313678</v>
       </c>
       <c r="D106">
-        <v>-0.251431740792901</v>
+        <v>-0.0478823626863214</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2775,13 +2982,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.97</v>
+        <v>7.65</v>
       </c>
       <c r="C107">
-        <v>7.882851298829397</v>
+        <v>7.509017469626361</v>
       </c>
       <c r="D107">
-        <v>-0.08714870117060247</v>
+        <v>-0.1409825303736394</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2789,13 +2996,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.9</v>
+        <v>7.75</v>
       </c>
       <c r="C108">
-        <v>7.863464998414464</v>
+        <v>7.684525329069011</v>
       </c>
       <c r="D108">
-        <v>-0.03653500158553591</v>
+        <v>-0.06547467093098902</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2803,13 +3010,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>8.029999999999999</v>
+        <v>7.75</v>
       </c>
       <c r="C109">
-        <v>7.942911565318514</v>
+        <v>7.542780574515454</v>
       </c>
       <c r="D109">
-        <v>-0.08708843468148508</v>
+        <v>-0.2072194254845456</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2817,13 +3024,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.99</v>
+        <v>7.27</v>
       </c>
       <c r="C110">
-        <v>7.823668474225277</v>
+        <v>7.511585421497941</v>
       </c>
       <c r="D110">
-        <v>-0.1663315257747229</v>
+        <v>0.2415854214979412</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2831,13 +3038,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>8.1</v>
+        <v>7.39</v>
       </c>
       <c r="C111">
-        <v>7.908846892109198</v>
+        <v>7.523633208279177</v>
       </c>
       <c r="D111">
-        <v>-0.191153107890802</v>
+        <v>0.1336332082791776</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2845,13 +3052,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>8.140000000000001</v>
+        <v>7.37</v>
       </c>
       <c r="C112">
-        <v>8.093090445352487</v>
+        <v>7.508146869339123</v>
       </c>
       <c r="D112">
-        <v>-0.04690955464751312</v>
+        <v>0.1381468693391232</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2859,13 +3066,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>8.17</v>
+        <v>7.42</v>
       </c>
       <c r="C113">
-        <v>8.126488251086901</v>
+        <v>7.564324338607738</v>
       </c>
       <c r="D113">
-        <v>-0.04351174891309917</v>
+        <v>0.1443243386077384</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2873,13 +3080,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>8.43</v>
+        <v>7.3</v>
       </c>
       <c r="C114">
-        <v>8.320825163748335</v>
+        <v>7.522237739369235</v>
       </c>
       <c r="D114">
-        <v>-0.1091748362516647</v>
+        <v>0.222237739369235</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2887,13 +3094,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>8.44</v>
+        <v>7.2</v>
       </c>
       <c r="C115">
-        <v>8.376328649657536</v>
+        <v>7.408441990398156</v>
       </c>
       <c r="D115">
-        <v>-0.06367135034246374</v>
+        <v>0.208441990398156</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2901,13 +3108,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>8.19</v>
+        <v>7.2</v>
       </c>
       <c r="C116">
-        <v>8.053624074938757</v>
+        <v>7.390939546312861</v>
       </c>
       <c r="D116">
-        <v>-0.1363759250612429</v>
+        <v>0.1909395463128609</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2915,13 +3122,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.67</v>
+        <v>7.2</v>
       </c>
       <c r="C117">
-        <v>8.026516299535595</v>
+        <v>7.34930461736319</v>
       </c>
       <c r="D117">
-        <v>0.3565162995355955</v>
+        <v>0.1493046173631898</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2929,13 +3136,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.67</v>
+        <v>7.23</v>
       </c>
       <c r="C118">
-        <v>7.875867824473893</v>
+        <v>7.382397996671124</v>
       </c>
       <c r="D118">
-        <v>0.2058678244738932</v>
+        <v>0.1523979966711231</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2943,13 +3150,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.52</v>
+        <v>7.25</v>
       </c>
       <c r="C119">
-        <v>7.652551406734554</v>
+        <v>7.360910217430703</v>
       </c>
       <c r="D119">
-        <v>0.1325514067345548</v>
+        <v>0.1109102174307033</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2957,13 +3164,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.51</v>
+        <v>7.17</v>
       </c>
       <c r="C120">
-        <v>7.573685645344764</v>
+        <v>7.374397296664421</v>
       </c>
       <c r="D120">
-        <v>0.06368564534476384</v>
+        <v>0.2043972966644212</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2971,13 +3178,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.56</v>
+        <v>7.45</v>
       </c>
       <c r="C121">
-        <v>7.539439893687359</v>
+        <v>7.455691451948823</v>
       </c>
       <c r="D121">
-        <v>-0.02056010631264105</v>
+        <v>0.005691451948822923</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2985,13 +3192,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.59</v>
+        <v>7.32</v>
       </c>
       <c r="C122">
-        <v>7.551869783511147</v>
+        <v>7.23917835881649</v>
       </c>
       <c r="D122">
-        <v>-0.0381302164888524</v>
+        <v>-0.0808216411835101</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2999,13 +3206,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.6</v>
+        <v>7.42</v>
       </c>
       <c r="C123">
-        <v>7.760767665022248</v>
+        <v>7.343672880038836</v>
       </c>
       <c r="D123">
-        <v>0.1607676650222487</v>
+        <v>-0.0763271199611637</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3013,13 +3220,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.72</v>
+        <v>7.42</v>
       </c>
       <c r="C124">
-        <v>7.897591681732575</v>
+        <v>7.359286089526487</v>
       </c>
       <c r="D124">
-        <v>0.1775916817325749</v>
+        <v>-0.06071391047351327</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3027,13 +3234,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>7.61</v>
+        <v>7.52</v>
       </c>
       <c r="C125">
-        <v>7.876690331236933</v>
+        <v>7.452967778190773</v>
       </c>
       <c r="D125">
-        <v>0.2666903312369326</v>
+        <v>-0.0670322218092263</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3041,13 +3248,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>7.7</v>
+        <v>7.16</v>
       </c>
       <c r="C126">
-        <v>7.979268779626846</v>
+        <v>6.954750796682303</v>
       </c>
       <c r="D126">
-        <v>0.2792687796268458</v>
+        <v>-0.2052492033176971</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3055,13 +3262,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>7.62</v>
+        <v>7.15</v>
       </c>
       <c r="C127">
-        <v>7.836708967753662</v>
+        <v>6.925942855749829</v>
       </c>
       <c r="D127">
-        <v>0.2167089677536618</v>
+        <v>-0.2240571442501711</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3069,13 +3276,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>7.62</v>
+        <v>7.82</v>
       </c>
       <c r="C128">
-        <v>7.827721601761109</v>
+        <v>7.249632561405461</v>
       </c>
       <c r="D128">
-        <v>0.2077216017611088</v>
+        <v>-0.5703674385945394</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3083,13 +3290,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>7.7</v>
+        <v>7.84</v>
       </c>
       <c r="C129">
-        <v>7.954447913894509</v>
+        <v>7.226997029225284</v>
       </c>
       <c r="D129">
-        <v>0.2544479138945084</v>
+        <v>-0.6130029707747155</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3097,13 +3304,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>7.67</v>
+        <v>8.25</v>
       </c>
       <c r="C130">
-        <v>7.983041465551924</v>
+        <v>7.684690237516817</v>
       </c>
       <c r="D130">
-        <v>0.3130414655519242</v>
+        <v>-0.5653097624831833</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3111,13 +3318,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>7.68</v>
+        <v>8.06</v>
       </c>
       <c r="C131">
-        <v>7.998068158655293</v>
+        <v>7.638731547618276</v>
       </c>
       <c r="D131">
-        <v>0.3180681586552936</v>
+        <v>-0.4212684523817245</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3125,13 +3332,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>7.71</v>
+        <v>7.97</v>
       </c>
       <c r="C132">
-        <v>7.998209492683758</v>
+        <v>8.416618463060704</v>
       </c>
       <c r="D132">
-        <v>0.288209492683758</v>
+        <v>0.4466184630607044</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3139,13 +3346,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>7.75</v>
+        <v>7.83</v>
       </c>
       <c r="C133">
-        <v>7.919888836121084</v>
+        <v>8.30215452536692</v>
       </c>
       <c r="D133">
-        <v>0.1698888361210837</v>
+        <v>0.4721545253669195</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3153,13 +3360,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>7.4</v>
+        <v>7.61</v>
       </c>
       <c r="C134">
-        <v>7.678270951307995</v>
+        <v>8.125125069215606</v>
       </c>
       <c r="D134">
-        <v>0.2782709513079951</v>
+        <v>0.515125069215606</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3167,13 +3374,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>7.33</v>
+        <v>7.63</v>
       </c>
       <c r="C135">
-        <v>7.500056867073116</v>
+        <v>8.115555827135029</v>
       </c>
       <c r="D135">
-        <v>0.1700568670731162</v>
+        <v>0.4855558271350295</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3181,13 +3388,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>7.28</v>
+        <v>7.85</v>
       </c>
       <c r="C136">
-        <v>7.477337486498779</v>
+        <v>8.259999883786207</v>
       </c>
       <c r="D136">
-        <v>0.1973374864987791</v>
+        <v>0.4099998837862078</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3195,13 +3402,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>7.2</v>
+        <v>7.83</v>
       </c>
       <c r="C137">
-        <v>7.471896574045717</v>
+        <v>8.290456858503575</v>
       </c>
       <c r="D137">
-        <v>0.2718965740457167</v>
+        <v>0.4604568585035747</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3209,13 +3416,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>7.45</v>
+        <v>7.92</v>
       </c>
       <c r="C138">
-        <v>7.585277145849007</v>
+        <v>8.252015351482759</v>
       </c>
       <c r="D138">
-        <v>0.135277145849007</v>
+        <v>0.3320153514827595</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3223,13 +3430,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>7.45</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C139">
-        <v>7.58168909671376</v>
+        <v>8.246435958559879</v>
       </c>
       <c r="D139">
-        <v>0.1316890967137594</v>
+        <v>0.1964359585598778</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3237,13 +3444,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>7.49</v>
+        <v>8.51</v>
       </c>
       <c r="C140">
-        <v>7.596698513438302</v>
+        <v>8.11928268905152</v>
       </c>
       <c r="D140">
-        <v>0.1066985134383014</v>
+        <v>-0.3907173109484798</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3251,13 +3458,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>7.9</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C141">
-        <v>7.859049254680617</v>
+        <v>8.059297487405473</v>
       </c>
       <c r="D141">
-        <v>-0.04095074531938359</v>
+        <v>-0.3207025125945275</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3265,13 +3472,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>7.92</v>
+        <v>9.17</v>
       </c>
       <c r="C142">
-        <v>7.903268778944199</v>
+        <v>8.480369197106802</v>
       </c>
       <c r="D142">
-        <v>-0.01673122105580127</v>
+        <v>-0.6896308028931983</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3279,13 +3486,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>7.94</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="C143">
-        <v>7.947213939766417</v>
+        <v>8.44792653670779</v>
       </c>
       <c r="D143">
-        <v>0.007213939766416821</v>
+        <v>-0.4120734632922094</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3293,13 +3500,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>7.79</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C144">
-        <v>7.938999597390188</v>
+        <v>8.379606097487082</v>
       </c>
       <c r="D144">
-        <v>0.1489995973901879</v>
+        <v>-0.6503939025129171</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3307,13 +3514,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>7.79</v>
+        <v>8.6</v>
       </c>
       <c r="C145">
-        <v>7.912971487138519</v>
+        <v>8.239213537505355</v>
       </c>
       <c r="D145">
-        <v>0.1229714871385186</v>
+        <v>-0.3607864624946444</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3321,13 +3528,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>7.91</v>
+        <v>8.57</v>
       </c>
       <c r="C146">
-        <v>8.035899584224204</v>
+        <v>8.195710265103576</v>
       </c>
       <c r="D146">
-        <v>0.1258995842242037</v>
+        <v>-0.3742897348964238</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3335,13 +3542,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>8.15</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C147">
-        <v>8.061104161859918</v>
+        <v>8.231553128742243</v>
       </c>
       <c r="D147">
-        <v>-0.08889583814008262</v>
+        <v>-0.7384468712577572</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3349,13 +3556,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>8.210000000000001</v>
+        <v>8.49</v>
       </c>
       <c r="C148">
-        <v>8.103242068216709</v>
+        <v>8.152704849488945</v>
       </c>
       <c r="D148">
-        <v>-0.1067579317832923</v>
+        <v>-0.3372951505110553</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3363,13 +3570,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>8.27</v>
+        <v>8.06</v>
       </c>
       <c r="C149">
-        <v>8.144001782115319</v>
+        <v>7.96763480135137</v>
       </c>
       <c r="D149">
-        <v>-0.1259982178846801</v>
+        <v>-0.09236519864863091</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3377,13 +3584,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>8.16</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="C150">
-        <v>7.978387868447772</v>
+        <v>7.994198107924849</v>
       </c>
       <c r="D150">
-        <v>-0.1816121315522281</v>
+        <v>-0.2958018920751506</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3391,13 +3598,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>8.380000000000001</v>
+        <v>7.68</v>
       </c>
       <c r="C151">
-        <v>8.047158216909027</v>
+        <v>7.554205603272525</v>
       </c>
       <c r="D151">
-        <v>-0.3328417830909736</v>
+        <v>-0.1257943967274748</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3405,13 +3612,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>8.359999999999999</v>
+        <v>7.63</v>
       </c>
       <c r="C152">
-        <v>8.08042259979409</v>
+        <v>7.513819446738157</v>
       </c>
       <c r="D152">
-        <v>-0.279577400205909</v>
+        <v>-0.1161805532618425</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3419,13 +3626,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>8.48</v>
+        <v>8.09</v>
       </c>
       <c r="C153">
-        <v>8.133378618166107</v>
+        <v>7.81389533008069</v>
       </c>
       <c r="D153">
-        <v>-0.3466213818338932</v>
+        <v>-0.2761046699193095</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3433,13 +3640,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>8.449999999999999</v>
+        <v>8.09</v>
       </c>
       <c r="C154">
-        <v>8.146596082003516</v>
+        <v>7.812064158657718</v>
       </c>
       <c r="D154">
-        <v>-0.3034039179964836</v>
+        <v>-0.2779358413422823</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3447,13 +3654,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>8.199999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C155">
-        <v>8.212045966277513</v>
+        <v>8.002564948056223</v>
       </c>
       <c r="D155">
-        <v>0.01204596627751364</v>
+        <v>-0.2174350519437773</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3461,13 +3668,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>8</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C156">
-        <v>8.008903410282846</v>
+        <v>7.983834619633077</v>
       </c>
       <c r="D156">
-        <v>0.008903410282846025</v>
+        <v>-0.1561653803669234</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3475,13 +3682,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>8.199999999999999</v>
+        <v>7.55</v>
       </c>
       <c r="C157">
-        <v>8.36520384119698</v>
+        <v>7.784652316866072</v>
       </c>
       <c r="D157">
-        <v>0.1652038411969805</v>
+        <v>0.2346523168660726</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3489,13 +3696,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>8.41</v>
+        <v>7.69</v>
       </c>
       <c r="C158">
-        <v>8.466052252621312</v>
+        <v>7.855162961911612</v>
       </c>
       <c r="D158">
-        <v>0.05605225262131164</v>
+        <v>0.1651629619116113</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3503,13 +3710,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>8.42</v>
+        <v>7.46</v>
       </c>
       <c r="C159">
-        <v>8.459817061339203</v>
+        <v>7.753857898010203</v>
       </c>
       <c r="D159">
-        <v>0.03981706133920326</v>
+        <v>0.2938578980102031</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3517,13 +3724,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>8.130000000000001</v>
+        <v>7.53</v>
       </c>
       <c r="C160">
-        <v>8.232017432618717</v>
+        <v>7.769967973028391</v>
       </c>
       <c r="D160">
-        <v>0.102017432618716</v>
+        <v>0.2399679730283912</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3531,13 +3738,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>8.4</v>
+        <v>7.47</v>
       </c>
       <c r="C161">
-        <v>8.47236960924411</v>
+        <v>7.697703274425509</v>
       </c>
       <c r="D161">
-        <v>0.07236960924410951</v>
+        <v>0.227703274425509</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3545,13 +3752,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>8.539999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C162">
-        <v>8.542788951879398</v>
+        <v>7.713719008925192</v>
       </c>
       <c r="D162">
-        <v>0.002788951879399093</v>
+        <v>0.2137190089251924</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3559,13 +3766,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>10.07</v>
+        <v>7.45</v>
       </c>
       <c r="C163">
-        <v>9.338080074915117</v>
+        <v>7.615228132024344</v>
       </c>
       <c r="D163">
-        <v>-0.7319199250848829</v>
+        <v>0.1652281320243434</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3573,13 +3780,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>9.58</v>
+        <v>7.58</v>
       </c>
       <c r="C164">
-        <v>9.338580434021031</v>
+        <v>7.665977543318677</v>
       </c>
       <c r="D164">
-        <v>-0.2414195659789691</v>
+        <v>0.08597754331867691</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3587,13 +3794,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>9.58</v>
+        <v>7.59</v>
       </c>
       <c r="C165">
-        <v>9.332198025734524</v>
+        <v>7.732089765979527</v>
       </c>
       <c r="D165">
-        <v>-0.2478019742654762</v>
+        <v>0.1420897659795273</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3601,13 +3808,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>9.48</v>
+        <v>7.62</v>
       </c>
       <c r="C166">
-        <v>9.257912220623092</v>
+        <v>8.032975772588562</v>
       </c>
       <c r="D166">
-        <v>-0.222087779376908</v>
+        <v>0.4129757725885623</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3615,13 +3822,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>9.15</v>
+        <v>7.61</v>
       </c>
       <c r="C167">
-        <v>9.093848745324296</v>
+        <v>7.991748929345681</v>
       </c>
       <c r="D167">
-        <v>-0.05615125467570437</v>
+        <v>0.3817489293456804</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3629,13 +3836,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>8.710000000000001</v>
+        <v>7.66</v>
       </c>
       <c r="C168">
-        <v>8.549198437243767</v>
+        <v>8.012223146644626</v>
       </c>
       <c r="D168">
-        <v>-0.1608015627562338</v>
+        <v>0.3522231466446257</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3643,13 +3850,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>8.43</v>
+        <v>7.64</v>
       </c>
       <c r="C169">
-        <v>8.256241988287801</v>
+        <v>7.993274456403002</v>
       </c>
       <c r="D169">
-        <v>-0.1737580117121986</v>
+        <v>0.3532744564030024</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3657,13 +3864,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>8.5</v>
+        <v>7.62</v>
       </c>
       <c r="C170">
-        <v>8.17509922513068</v>
+        <v>7.940233304219491</v>
       </c>
       <c r="D170">
-        <v>-0.3249007748693202</v>
+        <v>0.3202333042194914</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3671,13 +3878,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.72</v>
+        <v>7.6</v>
       </c>
       <c r="C171">
-        <v>8.248085763066687</v>
+        <v>8.023716417697846</v>
       </c>
       <c r="D171">
-        <v>0.5280857630666871</v>
+        <v>0.4237164176978467</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3685,13 +3892,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.62</v>
+        <v>7.67</v>
       </c>
       <c r="C172">
-        <v>8.142993135917658</v>
+        <v>8.012530274233724</v>
       </c>
       <c r="D172">
-        <v>0.5229931359176581</v>
+        <v>0.3425302742337237</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3699,13 +3906,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.66</v>
+        <v>7.61</v>
       </c>
       <c r="C173">
-        <v>8.146380636784835</v>
+        <v>7.89196336494191</v>
       </c>
       <c r="D173">
-        <v>0.4863806367848351</v>
+        <v>0.2819633649419098</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3713,13 +3920,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.78</v>
+        <v>7.67</v>
       </c>
       <c r="C174">
-        <v>8.197291253273438</v>
+        <v>7.815423961027006</v>
       </c>
       <c r="D174">
-        <v>0.4172912532734374</v>
+        <v>0.1454239610270065</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3727,13 +3934,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.77</v>
+        <v>7.65</v>
       </c>
       <c r="C175">
-        <v>8.019869170311852</v>
+        <v>7.755534469946562</v>
       </c>
       <c r="D175">
-        <v>0.2498691703118521</v>
+        <v>0.1055344699465621</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3741,13 +3948,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.74</v>
+        <v>7.67</v>
       </c>
       <c r="C176">
-        <v>7.98480009455521</v>
+        <v>7.8802828892878</v>
       </c>
       <c r="D176">
-        <v>0.2448000945552096</v>
+        <v>0.2102828892878001</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3755,13 +3962,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.76</v>
+        <v>7.68</v>
       </c>
       <c r="C177">
-        <v>7.898852697189541</v>
+        <v>7.853114522405646</v>
       </c>
       <c r="D177">
-        <v>0.1388526971895416</v>
+        <v>0.1731145224056458</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3769,13 +3976,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>7.77</v>
+        <v>7.7</v>
       </c>
       <c r="C178">
-        <v>7.898929466233662</v>
+        <v>7.874471124368792</v>
       </c>
       <c r="D178">
-        <v>0.1289294662336626</v>
+        <v>0.1744711243687922</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3783,13 +3990,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="C179">
-        <v>7.91200094983018</v>
+        <v>7.957239662129062</v>
       </c>
       <c r="D179">
-        <v>0.01200094983017941</v>
+        <v>0.257239662129062</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3797,13 +4004,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>7.96</v>
+        <v>7.37</v>
       </c>
       <c r="C180">
-        <v>7.93280699872318</v>
+        <v>7.600690067217249</v>
       </c>
       <c r="D180">
-        <v>-0.02719300127682001</v>
+        <v>0.2306900672172487</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3811,13 +4018,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>7.48</v>
+        <v>7.3</v>
       </c>
       <c r="C181">
-        <v>7.72969495907352</v>
+        <v>7.499471698476146</v>
       </c>
       <c r="D181">
-        <v>0.2496949590735191</v>
+        <v>0.1994716984761462</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3825,13 +4032,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7.25</v>
+        <v>7.3</v>
       </c>
       <c r="C182">
-        <v>7.379749183880257</v>
+        <v>7.507127890974008</v>
       </c>
       <c r="D182">
-        <v>0.1297491838802571</v>
+        <v>0.2071278909740082</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3839,13 +4046,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>7.02</v>
+        <v>7.19</v>
       </c>
       <c r="C183">
-        <v>7.041528317452814</v>
+        <v>7.366157773893827</v>
       </c>
       <c r="D183">
-        <v>0.02152831745281425</v>
+        <v>0.1761577738938263</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3853,13 +4060,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>7.06</v>
+        <v>7.21</v>
       </c>
       <c r="C184">
-        <v>7.081466105135757</v>
+        <v>7.357954227791312</v>
       </c>
       <c r="D184">
-        <v>0.0214661051357572</v>
+        <v>0.1479542277913124</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3867,13 +4074,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>7.21</v>
+        <v>7.45</v>
       </c>
       <c r="C185">
-        <v>7.173183609038089</v>
+        <v>7.586870649537095</v>
       </c>
       <c r="D185">
-        <v>-0.03681639096191081</v>
+        <v>0.1368706495370953</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3881,13 +4088,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>7.34</v>
+        <v>7.44</v>
       </c>
       <c r="C186">
-        <v>7.237333901989169</v>
+        <v>7.587248840463978</v>
       </c>
       <c r="D186">
-        <v>-0.1026660980108307</v>
+        <v>0.1472488404639778</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3895,13 +4102,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>7.27</v>
+        <v>7.86</v>
       </c>
       <c r="C187">
-        <v>7.197423231028814</v>
+        <v>7.784015187746487</v>
       </c>
       <c r="D187">
-        <v>-0.07257676897118515</v>
+        <v>-0.07598481225351339</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3909,13 +4116,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>7.17</v>
+        <v>7.93</v>
       </c>
       <c r="C188">
-        <v>7.226147964860273</v>
+        <v>7.849855703958994</v>
       </c>
       <c r="D188">
-        <v>0.05614796486027274</v>
+        <v>-0.0801442960410057</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3923,13 +4130,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>7.18</v>
+        <v>7.85</v>
       </c>
       <c r="C189">
-        <v>7.163696593192869</v>
+        <v>7.949921134748763</v>
       </c>
       <c r="D189">
-        <v>-0.01630340680713083</v>
+        <v>0.09992113474876341</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3937,13 +4144,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>7.26</v>
+        <v>7.86</v>
       </c>
       <c r="C190">
-        <v>7.169395699561882</v>
+        <v>7.968614910636097</v>
       </c>
       <c r="D190">
-        <v>-0.09060430043811785</v>
+        <v>0.1086149106360965</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3951,13 +4158,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>7.28</v>
+        <v>8.01</v>
       </c>
       <c r="C191">
-        <v>7.195160195415484</v>
+        <v>7.999024721888047</v>
       </c>
       <c r="D191">
-        <v>-0.08483980458451601</v>
+        <v>-0.0109752781119532</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3965,13 +4172,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>7.16</v>
+        <v>8.16</v>
       </c>
       <c r="C192">
-        <v>7.092502234945117</v>
+        <v>8.021908778876812</v>
       </c>
       <c r="D192">
-        <v>-0.06749776505488292</v>
+        <v>-0.1380912211231884</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3979,13 +4186,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>7.01</v>
+        <v>8.19</v>
       </c>
       <c r="C193">
-        <v>6.610648546560133</v>
+        <v>8.028474219721588</v>
       </c>
       <c r="D193">
-        <v>-0.3993514534398663</v>
+        <v>-0.1615257802784118</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3993,13 +4200,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>7.03</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="C194">
-        <v>6.590437573309803</v>
+        <v>8.098895281260505</v>
       </c>
       <c r="D194">
-        <v>-0.4395624266901974</v>
+        <v>-0.1111047187394956</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4007,13 +4214,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>7.14</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C195">
-        <v>6.777193228496513</v>
+        <v>7.993425884248834</v>
       </c>
       <c r="D195">
-        <v>-0.3628067715034868</v>
+        <v>-0.3665741157511651</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4021,13 +4228,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>7.07</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C196">
-        <v>6.601280632973005</v>
+        <v>8.26664979232975</v>
       </c>
       <c r="D196">
-        <v>-0.4687193670269956</v>
+        <v>-0.1033502076702497</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4035,13 +4242,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>6.88</v>
+        <v>8.19</v>
       </c>
       <c r="C197">
-        <v>6.550497034253048</v>
+        <v>8.127322375427072</v>
       </c>
       <c r="D197">
-        <v>-0.3295029657469515</v>
+        <v>-0.06267762457292747</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4049,13 +4256,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>6.69</v>
+        <v>8.17</v>
       </c>
       <c r="C198">
-        <v>6.345100000190207</v>
+        <v>8.133556418688817</v>
       </c>
       <c r="D198">
-        <v>-0.344899999809793</v>
+        <v>-0.03644358131118253</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4063,13 +4270,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>6.66</v>
+        <v>8.06</v>
       </c>
       <c r="C199">
-        <v>6.321501973546384</v>
+        <v>7.952256613646965</v>
       </c>
       <c r="D199">
-        <v>-0.3384980264536157</v>
+        <v>-0.1077433863530359</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4077,13 +4284,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>6.68</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C200">
-        <v>6.304324015111742</v>
+        <v>8.032461225997588</v>
       </c>
       <c r="D200">
-        <v>-0.3756759848882574</v>
+        <v>-0.167538774002411</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4091,13 +4298,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>6.64</v>
+        <v>8.18</v>
       </c>
       <c r="C201">
-        <v>6.352886553643749</v>
+        <v>8.174820805603865</v>
       </c>
       <c r="D201">
-        <v>-0.2871134463562504</v>
+        <v>-0.00517919439613479</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4105,13 +4312,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>6.58</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C202">
-        <v>6.395677231829163</v>
+        <v>8.462412960323</v>
       </c>
       <c r="D202">
-        <v>-0.184322768170837</v>
+        <v>0.0824129603229995</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4119,13 +4326,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>6.59</v>
+        <v>9.1</v>
       </c>
       <c r="C203">
-        <v>6.386230462516503</v>
+        <v>8.972340624577079</v>
       </c>
       <c r="D203">
-        <v>-0.2037695374834971</v>
+        <v>-0.1276593754229207</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4133,13 +4340,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>6.62</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="C204">
-        <v>6.399767769725692</v>
+        <v>8.963126217808306</v>
       </c>
       <c r="D204">
-        <v>-0.2202322302743083</v>
+        <v>-0.176873782191695</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4147,13 +4354,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>6.81</v>
+        <v>8.94</v>
       </c>
       <c r="C205">
-        <v>6.36502727600538</v>
+        <v>8.897423065759856</v>
       </c>
       <c r="D205">
-        <v>-0.4449727239946197</v>
+        <v>-0.04257693424014342</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4161,13 +4368,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>6.72</v>
+        <v>9.4</v>
       </c>
       <c r="C206">
-        <v>6.297460683415201</v>
+        <v>9.119031661773878</v>
       </c>
       <c r="D206">
-        <v>-0.4225393165847988</v>
+        <v>-0.2809683382261223</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4175,13 +4382,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>5.76</v>
+        <v>10.05</v>
       </c>
       <c r="C207">
-        <v>6.065482098908241</v>
+        <v>9.398317756244305</v>
       </c>
       <c r="D207">
-        <v>0.3054820989082412</v>
+        <v>-0.6516822437556957</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4189,13 +4396,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>5.74</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="C208">
-        <v>6.059805486578336</v>
+        <v>8.619776231625023</v>
       </c>
       <c r="D208">
-        <v>0.3198054865783355</v>
+        <v>-0.09022376837497781</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4203,13 +4410,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>5.73</v>
+        <v>7.66</v>
       </c>
       <c r="C209">
-        <v>6.069276523941252</v>
+        <v>8.207977565627175</v>
       </c>
       <c r="D209">
-        <v>0.3392765239412512</v>
+        <v>0.5479775656271748</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4217,13 +4424,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>5.69</v>
+        <v>7.62</v>
       </c>
       <c r="C210">
-        <v>6.059852151583128</v>
+        <v>8.181755015471614</v>
       </c>
       <c r="D210">
-        <v>0.3698521515831272</v>
+        <v>0.561755015471614</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4231,13 +4438,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>5.71</v>
+        <v>7.66</v>
       </c>
       <c r="C211">
-        <v>6.035244135846506</v>
+        <v>8.292633240168247</v>
       </c>
       <c r="D211">
-        <v>0.3252441358465061</v>
+        <v>0.6326332401682464</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4245,13 +4452,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>5.72</v>
+        <v>7.76</v>
       </c>
       <c r="C212">
-        <v>6.029042442305888</v>
+        <v>8.167775982001791</v>
       </c>
       <c r="D212">
-        <v>0.3090424423058886</v>
+        <v>0.407775982001791</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4259,13 +4466,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>5.69</v>
+        <v>7.71</v>
       </c>
       <c r="C213">
-        <v>6.003608198822109</v>
+        <v>8.086251161838275</v>
       </c>
       <c r="D213">
-        <v>0.3136081988221084</v>
+        <v>0.3762511618382751</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4273,13 +4480,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>5.67</v>
+        <v>7.76</v>
       </c>
       <c r="C214">
-        <v>5.999844055269689</v>
+        <v>8.046932631832233</v>
       </c>
       <c r="D214">
-        <v>0.3298440552696889</v>
+        <v>0.2869326318322329</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4287,13 +4494,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>5.67</v>
+        <v>7.66</v>
       </c>
       <c r="C215">
-        <v>5.986423860656828</v>
+        <v>7.89746553381452</v>
       </c>
       <c r="D215">
-        <v>0.3164238606568279</v>
+        <v>0.23746553381452</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4301,13 +4508,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>5.67</v>
+        <v>7.55</v>
       </c>
       <c r="C216">
-        <v>5.933492116224885</v>
+        <v>7.851268845500439</v>
       </c>
       <c r="D216">
-        <v>0.2634921162248851</v>
+        <v>0.3012688455004389</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4315,13 +4522,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>5.73</v>
+        <v>7.76</v>
       </c>
       <c r="C217">
-        <v>5.936222943810527</v>
+        <v>7.945870034727831</v>
       </c>
       <c r="D217">
-        <v>0.206222943810527</v>
+        <v>0.1858700347278308</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4329,13 +4536,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>5.77</v>
+        <v>7.8</v>
       </c>
       <c r="C218">
-        <v>5.863254510385827</v>
+        <v>7.939085372716059</v>
       </c>
       <c r="D218">
-        <v>0.09325451038582777</v>
+        <v>0.1390853727160595</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4343,13 +4550,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>5.57</v>
+        <v>7.78</v>
       </c>
       <c r="C219">
-        <v>5.760469702537311</v>
+        <v>7.906600997598135</v>
       </c>
       <c r="D219">
-        <v>0.1904697025373103</v>
+        <v>0.1266009975981346</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4357,13 +4564,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>5.43</v>
+        <v>7.9</v>
       </c>
       <c r="C220">
-        <v>5.624162361856831</v>
+        <v>7.94900125235139</v>
       </c>
       <c r="D220">
-        <v>0.1941623618568311</v>
+        <v>0.04900125235139008</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4371,13 +4578,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>5.37</v>
+        <v>8.1</v>
       </c>
       <c r="C221">
-        <v>5.639461275633211</v>
+        <v>7.977377699437209</v>
       </c>
       <c r="D221">
-        <v>0.2694612756332111</v>
+        <v>-0.1226223005627904</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4385,13 +4592,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>5.42</v>
+        <v>7.76</v>
       </c>
       <c r="C222">
-        <v>5.6022169445139</v>
+        <v>7.892370789338772</v>
       </c>
       <c r="D222">
-        <v>0.1822169445139004</v>
+        <v>0.132370789338772</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4399,13 +4606,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>5.38</v>
+        <v>7.24</v>
       </c>
       <c r="C223">
-        <v>5.560442264440228</v>
+        <v>7.442370170337931</v>
       </c>
       <c r="D223">
-        <v>0.1804422644402282</v>
+        <v>0.2023701703379306</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4413,13 +4620,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>5.55</v>
+        <v>7.22</v>
       </c>
       <c r="C224">
-        <v>5.600121514236106</v>
+        <v>7.358602372860037</v>
       </c>
       <c r="D224">
-        <v>0.050121514236106</v>
+        <v>0.1386023728600376</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4427,13 +4634,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>5.68</v>
+        <v>7.21</v>
       </c>
       <c r="C225">
-        <v>5.624640518461309</v>
+        <v>7.34071860196776</v>
       </c>
       <c r="D225">
-        <v>-0.05535948153869086</v>
+        <v>0.13071860196776</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4441,13 +4648,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>5.76</v>
+        <v>7.22</v>
       </c>
       <c r="C226">
-        <v>5.655310963355053</v>
+        <v>7.334340382160329</v>
       </c>
       <c r="D226">
-        <v>-0.1046890366449471</v>
+        <v>0.1143403821603295</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4455,13 +4662,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>5.87</v>
+        <v>7.23</v>
       </c>
       <c r="C227">
-        <v>5.696824992374271</v>
+        <v>7.364159920515961</v>
       </c>
       <c r="D227">
-        <v>-0.173175007625729</v>
+        <v>0.1341599205159607</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4469,13 +4676,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>5.87</v>
+        <v>7.12</v>
       </c>
       <c r="C228">
-        <v>5.698136051719686</v>
+        <v>7.141470331773046</v>
       </c>
       <c r="D228">
-        <v>-0.1718639482803139</v>
+        <v>0.02147033177304625</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4483,13 +4690,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>5.99</v>
+        <v>7.22</v>
       </c>
       <c r="C229">
-        <v>5.623746854292813</v>
+        <v>7.228294847492307</v>
       </c>
       <c r="D229">
-        <v>-0.3662531457071871</v>
+        <v>0.008294847492307689</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4497,13 +4704,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>5.98</v>
+        <v>7.19</v>
       </c>
       <c r="C230">
-        <v>5.648051695712484</v>
+        <v>7.129071289373956</v>
       </c>
       <c r="D230">
-        <v>-0.3319483042875166</v>
+        <v>-0.06092871062604477</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4511,13 +4718,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>5.76</v>
+        <v>7.2</v>
       </c>
       <c r="C231">
-        <v>5.595892453805883</v>
+        <v>7.200404592154428</v>
       </c>
       <c r="D231">
-        <v>-0.164107546194117</v>
+        <v>0.0004045921544273412</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4525,13 +4732,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>5.6</v>
+        <v>7.24</v>
       </c>
       <c r="C232">
-        <v>5.522962576211217</v>
+        <v>7.23325273995817</v>
       </c>
       <c r="D232">
-        <v>-0.07703742378878253</v>
+        <v>-0.006747260041830572</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4539,13 +4746,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>5.29</v>
+        <v>7.69</v>
       </c>
       <c r="C233">
-        <v>5.416020663217958</v>
+        <v>7.37886543703425</v>
       </c>
       <c r="D233">
-        <v>0.1260206632179584</v>
+        <v>-0.3111345629657505</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4553,13 +4760,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>5.3</v>
+        <v>7.19</v>
       </c>
       <c r="C234">
-        <v>5.434955429199885</v>
+        <v>7.102155067482279</v>
       </c>
       <c r="D234">
-        <v>0.1349554291998851</v>
+        <v>-0.0878449325177213</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4567,13 +4774,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>5.31</v>
+        <v>7.16</v>
       </c>
       <c r="C235">
-        <v>5.438328616307338</v>
+        <v>7.071461175075552</v>
       </c>
       <c r="D235">
-        <v>0.1283286163073383</v>
+        <v>-0.08853882492444853</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4581,13 +4788,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>5.28</v>
+        <v>7.14</v>
       </c>
       <c r="C236">
-        <v>5.426382733574917</v>
+        <v>6.981318652635235</v>
       </c>
       <c r="D236">
-        <v>0.1463827335749164</v>
+        <v>-0.158681347364765</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4595,13 +4802,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>5.06</v>
+        <v>7.08</v>
       </c>
       <c r="C237">
-        <v>5.485134050290782</v>
+        <v>6.720673725989661</v>
       </c>
       <c r="D237">
-        <v>0.4251340502907821</v>
+        <v>-0.3593262740103391</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4609,13 +4816,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>4.99</v>
+        <v>7.02</v>
       </c>
       <c r="C238">
-        <v>5.408086859502747</v>
+        <v>6.528011077776563</v>
       </c>
       <c r="D238">
-        <v>0.4180868595027469</v>
+        <v>-0.4919889222234364</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4623,13 +4830,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>4.98</v>
+        <v>6.8</v>
       </c>
       <c r="C239">
-        <v>5.407055947393074</v>
+        <v>6.399553599780953</v>
       </c>
       <c r="D239">
-        <v>0.4270559473930735</v>
+        <v>-0.4004464002190469</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4637,13 +4844,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>4.97</v>
+        <v>7.18</v>
       </c>
       <c r="C240">
-        <v>5.393041005628557</v>
+        <v>6.539890911167623</v>
       </c>
       <c r="D240">
-        <v>0.4230410056285576</v>
+        <v>-0.6401090888323768</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4651,13 +4858,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>4.95</v>
+        <v>7.25</v>
       </c>
       <c r="C241">
-        <v>5.367039049711567</v>
+        <v>6.611901310006479</v>
       </c>
       <c r="D241">
-        <v>0.4170390497115664</v>
+        <v>-0.6380986899935213</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4665,13 +4872,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>5.14</v>
+        <v>7.06</v>
       </c>
       <c r="C242">
-        <v>5.43075858258271</v>
+        <v>6.502344814503562</v>
       </c>
       <c r="D242">
-        <v>0.2907585825827104</v>
+        <v>-0.5576551854964373</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4679,13 +4886,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>5.14</v>
+        <v>6.89</v>
       </c>
       <c r="C243">
-        <v>5.400730591994181</v>
+        <v>6.47325099724501</v>
       </c>
       <c r="D243">
-        <v>0.2607305919941814</v>
+        <v>-0.4167490027549894</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4693,13 +4900,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>5.13</v>
+        <v>6.88</v>
       </c>
       <c r="C244">
-        <v>5.372790339505487</v>
+        <v>6.543687790211679</v>
       </c>
       <c r="D244">
-        <v>0.2427903395054871</v>
+        <v>-0.3363122097883204</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4707,13 +4914,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>5.14</v>
+        <v>6.62</v>
       </c>
       <c r="C245">
-        <v>5.382504466907706</v>
+        <v>6.27181083174643</v>
       </c>
       <c r="D245">
-        <v>0.2425044669077066</v>
+        <v>-0.3481891682535698</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4721,13 +4928,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>5.09</v>
+        <v>6.64</v>
       </c>
       <c r="C246">
-        <v>5.288484149791227</v>
+        <v>6.239699193316012</v>
       </c>
       <c r="D246">
-        <v>0.1984841497912271</v>
+        <v>-0.4003008066839877</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4735,13 +4942,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>5.1</v>
+        <v>6.65</v>
       </c>
       <c r="C247">
-        <v>5.282002274473975</v>
+        <v>6.220647280270908</v>
       </c>
       <c r="D247">
-        <v>0.1820022744739749</v>
+        <v>-0.4293527197290921</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4749,13 +4956,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>5.13</v>
+        <v>6.61</v>
       </c>
       <c r="C248">
-        <v>5.301282934828924</v>
+        <v>6.376692834683503</v>
       </c>
       <c r="D248">
-        <v>0.1712829348289242</v>
+        <v>-0.2333071653164973</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4763,13 +4970,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>5.16</v>
+        <v>6.81</v>
       </c>
       <c r="C249">
-        <v>5.327757345038913</v>
+        <v>6.336282302638907</v>
       </c>
       <c r="D249">
-        <v>0.1677573450389129</v>
+        <v>-0.473717697361093</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4777,13 +4984,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>5.07</v>
+        <v>6.81</v>
       </c>
       <c r="C250">
-        <v>5.249120639295345</v>
+        <v>6.329495767291689</v>
       </c>
       <c r="D250">
-        <v>0.1791206392953448</v>
+        <v>-0.4805042327083102</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4791,13 +4998,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>5.07</v>
+        <v>6.77</v>
       </c>
       <c r="C251">
-        <v>5.294272523337693</v>
+        <v>6.305343788777954</v>
       </c>
       <c r="D251">
-        <v>0.2242725233376923</v>
+        <v>-0.4646562112220458</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4805,13 +5012,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>5.07</v>
+        <v>6.76</v>
       </c>
       <c r="C252">
-        <v>5.292108203075328</v>
+        <v>6.301005450084705</v>
       </c>
       <c r="D252">
-        <v>0.2221082030753276</v>
+        <v>-0.4589945499152943</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -4819,13 +5026,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>5.08</v>
+        <v>6.77</v>
       </c>
       <c r="C253">
-        <v>5.29415791991897</v>
+        <v>6.263723196974194</v>
       </c>
       <c r="D253">
-        <v>0.2141579199189696</v>
+        <v>-0.5062768030258056</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -4833,13 +5040,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>5.06</v>
+        <v>6.36</v>
       </c>
       <c r="C254">
-        <v>5.264555457328374</v>
+        <v>6.046045382488826</v>
       </c>
       <c r="D254">
-        <v>0.2045554573283743</v>
+        <v>-0.3139546175111745</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -4847,13 +5054,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>5.16</v>
+        <v>6.07</v>
       </c>
       <c r="C255">
-        <v>5.312971851095748</v>
+        <v>6.07192066576718</v>
       </c>
       <c r="D255">
-        <v>0.1529718510957476</v>
+        <v>0.001920665767180196</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -4861,13 +5068,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.08</v>
+        <v>5.74</v>
       </c>
       <c r="C256">
-        <v>5.220153011463664</v>
+        <v>6.010999152191767</v>
       </c>
       <c r="D256">
-        <v>0.1401530114636635</v>
+        <v>0.2709991521917665</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -4875,13 +5082,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.08</v>
+        <v>5.79</v>
       </c>
       <c r="C257">
-        <v>5.247211599723945</v>
+        <v>6.018178431138963</v>
       </c>
       <c r="D257">
-        <v>0.1672115997239452</v>
+        <v>0.2281784311389634</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4889,13 +5096,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.07</v>
+        <v>5.71</v>
       </c>
       <c r="C258">
-        <v>5.217322886414379</v>
+        <v>6.015612082035267</v>
       </c>
       <c r="D258">
-        <v>0.1473228864143792</v>
+        <v>0.3056120820352666</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4903,13 +5110,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.03</v>
+        <v>5.67</v>
       </c>
       <c r="C259">
-        <v>5.212932985180704</v>
+        <v>5.986016840301751</v>
       </c>
       <c r="D259">
-        <v>0.1829329851807033</v>
+        <v>0.3160168403017511</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4917,13 +5124,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.01</v>
+        <v>5.68</v>
       </c>
       <c r="C260">
-        <v>5.167137009239655</v>
+        <v>5.991789800899607</v>
       </c>
       <c r="D260">
-        <v>0.1571370092396549</v>
+        <v>0.3117898008996072</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4931,13 +5138,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>4.98</v>
+        <v>5.69</v>
       </c>
       <c r="C261">
-        <v>5.143459116859614</v>
+        <v>5.955175470983267</v>
       </c>
       <c r="D261">
-        <v>0.1634591168596131</v>
+        <v>0.2651754709832668</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4945,13 +5152,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>4.97</v>
+        <v>5.7</v>
       </c>
       <c r="C262">
-        <v>5.106049337590159</v>
+        <v>5.962784901362051</v>
       </c>
       <c r="D262">
-        <v>0.1360493375901592</v>
+        <v>0.2627849013620507</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4959,13 +5166,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>4.95</v>
+        <v>5.65</v>
       </c>
       <c r="C263">
-        <v>5.058143236877147</v>
+        <v>5.953118333699427</v>
       </c>
       <c r="D263">
-        <v>0.1081432368771464</v>
+        <v>0.3031183336994268</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4973,13 +5180,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>4.97</v>
+        <v>5.67</v>
       </c>
       <c r="C264">
-        <v>4.996867773152806</v>
+        <v>5.901770366097423</v>
       </c>
       <c r="D264">
-        <v>0.02686777315280597</v>
+        <v>0.2317703660974235</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4987,13 +5194,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="C265">
-        <v>4.994753218350565</v>
+        <v>5.841170396869934</v>
       </c>
       <c r="D265">
-        <v>-0.005246781649434595</v>
+        <v>0.141170396869934</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5001,13 +5208,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.07</v>
+        <v>5.52</v>
       </c>
       <c r="C266">
-        <v>4.985407519784385</v>
+        <v>5.713668845586803</v>
       </c>
       <c r="D266">
-        <v>-0.0845924802156155</v>
+        <v>0.193668845586803</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5015,13 +5222,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.07</v>
+        <v>5.47</v>
       </c>
       <c r="C267">
-        <v>4.985470336490577</v>
+        <v>5.6563085755758</v>
       </c>
       <c r="D267">
-        <v>-0.08452966350942326</v>
+        <v>0.1863085755757998</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5029,13 +5236,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.09</v>
+        <v>5.47</v>
       </c>
       <c r="C268">
-        <v>4.977692786225637</v>
+        <v>5.657259480030858</v>
       </c>
       <c r="D268">
-        <v>-0.112307213774363</v>
+        <v>0.1872594800308578</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5043,13 +5250,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.16</v>
+        <v>5.43</v>
       </c>
       <c r="C269">
-        <v>5.055947094798681</v>
+        <v>5.633544161890377</v>
       </c>
       <c r="D269">
-        <v>-0.1040529052013195</v>
+        <v>0.2035441618903775</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5057,13 +5264,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.22</v>
+        <v>5.43</v>
       </c>
       <c r="C270">
-        <v>5.030386332585953</v>
+        <v>5.619809578822139</v>
       </c>
       <c r="D270">
-        <v>-0.1896136674140463</v>
+        <v>0.189809578822139</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5071,13 +5278,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.22</v>
+        <v>5.32</v>
       </c>
       <c r="C271">
-        <v>5.014176922592462</v>
+        <v>5.588024531377931</v>
       </c>
       <c r="D271">
-        <v>-0.2058230774075378</v>
+        <v>0.2680245313779306</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5085,13 +5292,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.2</v>
+        <v>5.39</v>
       </c>
       <c r="C272">
-        <v>4.969690752833592</v>
+        <v>5.665181795232458</v>
       </c>
       <c r="D272">
-        <v>-0.2303092471664083</v>
+        <v>0.2751817952324584</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5099,13 +5306,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.15</v>
+        <v>5.42</v>
       </c>
       <c r="C273">
-        <v>5.07419835268538</v>
+        <v>5.678653585619916</v>
       </c>
       <c r="D273">
-        <v>-0.07580164731461991</v>
+        <v>0.2586535856199159</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5113,13 +5320,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.18</v>
+        <v>5.36</v>
       </c>
       <c r="C274">
-        <v>5.085555962427609</v>
+        <v>5.542028217402938</v>
       </c>
       <c r="D274">
-        <v>-0.09444403757239073</v>
+        <v>0.1820282174029382</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5127,13 +5334,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.21</v>
+        <v>5.36</v>
       </c>
       <c r="C275">
-        <v>5.113230328701343</v>
+        <v>5.580327856735593</v>
       </c>
       <c r="D275">
-        <v>-0.09676967129865677</v>
+        <v>0.2203278567355929</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5141,13 +5348,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.23</v>
+        <v>5.46</v>
       </c>
       <c r="C276">
-        <v>5.131463551856784</v>
+        <v>5.573006426480099</v>
       </c>
       <c r="D276">
-        <v>-0.09853644814321605</v>
+        <v>0.1130064264800987</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5155,13 +5362,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.26</v>
+        <v>5.49</v>
       </c>
       <c r="C277">
-        <v>5.150612593453255</v>
+        <v>5.574252992359293</v>
       </c>
       <c r="D277">
-        <v>-0.1093874065467446</v>
+        <v>0.08425299235929273</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5169,13 +5376,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.23</v>
+        <v>5.65</v>
       </c>
       <c r="C278">
-        <v>5.09075569277304</v>
+        <v>5.624728024360754</v>
       </c>
       <c r="D278">
-        <v>-0.13924430722696</v>
+        <v>-0.02527197563924588</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5183,13 +5390,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.35</v>
+        <v>5.66</v>
       </c>
       <c r="C279">
-        <v>5.166910975818723</v>
+        <v>5.585892112508304</v>
       </c>
       <c r="D279">
-        <v>-0.1830890241812764</v>
+        <v>-0.07410788749169583</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5197,13 +5404,13 @@
         <v>282</v>
       </c>
       <c r="B280">
-        <v>5.3</v>
+        <v>5.85</v>
       </c>
       <c r="C280">
-        <v>5.113154196288429</v>
+        <v>5.697268507454918</v>
       </c>
       <c r="D280">
-        <v>-0.186845803711571</v>
+        <v>-0.1527314925450813</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5211,13 +5418,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.34</v>
+        <v>5.85</v>
       </c>
       <c r="C281">
-        <v>5.149944515349665</v>
+        <v>5.717370836363463</v>
       </c>
       <c r="D281">
-        <v>-0.1900554846503351</v>
+        <v>-0.1326291636365369</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5225,13 +5432,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.35</v>
+        <v>5.89</v>
       </c>
       <c r="C282">
-        <v>5.142703744504391</v>
+        <v>5.642842087425132</v>
       </c>
       <c r="D282">
-        <v>-0.2072962554956082</v>
+        <v>-0.2471579125748677</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5239,13 +5446,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.34</v>
+        <v>5.9</v>
       </c>
       <c r="C283">
-        <v>5.121269350214432</v>
+        <v>5.647966267390343</v>
       </c>
       <c r="D283">
-        <v>-0.2187306497855683</v>
+        <v>-0.2520337326096573</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5253,13 +5460,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.36</v>
+        <v>5.84</v>
       </c>
       <c r="C284">
-        <v>5.176421991533939</v>
+        <v>5.649177077065785</v>
       </c>
       <c r="D284">
-        <v>-0.1835780084660614</v>
+        <v>-0.1908229229342151</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5267,13 +5474,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.36</v>
+        <v>5.98</v>
       </c>
       <c r="C285">
-        <v>5.189090186798603</v>
+        <v>5.634293645409249</v>
       </c>
       <c r="D285">
-        <v>-0.1709098132013969</v>
+        <v>-0.3457063545907513</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5281,13 +5488,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.48</v>
+        <v>5.98</v>
       </c>
       <c r="C286">
-        <v>5.25068950834379</v>
+        <v>5.662829926553773</v>
       </c>
       <c r="D286">
-        <v>-0.2293104916562108</v>
+        <v>-0.3171700734462277</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5295,13 +5502,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.52</v>
+        <v>5.98</v>
       </c>
       <c r="C287">
-        <v>5.241088497121551</v>
+        <v>5.692723064855485</v>
       </c>
       <c r="D287">
-        <v>-0.278911502878449</v>
+        <v>-0.287276935144515</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5309,13 +5516,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.71</v>
+        <v>5.37</v>
       </c>
       <c r="C288">
-        <v>5.32447694570468</v>
+        <v>5.479177231130048</v>
       </c>
       <c r="D288">
-        <v>-0.3855230542953203</v>
+        <v>0.1091772311300483</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5323,13 +5530,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.54</v>
+        <v>5.33</v>
       </c>
       <c r="C289">
-        <v>5.403984907238184</v>
+        <v>5.440162142597295</v>
       </c>
       <c r="D289">
-        <v>-0.1360150927618156</v>
+        <v>0.1101621425972947</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5337,13 +5544,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.49</v>
+        <v>5.31</v>
       </c>
       <c r="C290">
-        <v>5.310480713786847</v>
+        <v>5.435213553835508</v>
       </c>
       <c r="D290">
-        <v>-0.1795192862131536</v>
+        <v>0.1252135538355086</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5351,13 +5558,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.48</v>
+        <v>5.3</v>
       </c>
       <c r="C291">
-        <v>5.32507872407921</v>
+        <v>5.422069978721173</v>
       </c>
       <c r="D291">
-        <v>-0.1549212759207901</v>
+        <v>0.1220699787211732</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5365,13 +5572,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>5.53</v>
+        <v>5.31</v>
       </c>
       <c r="C292">
-        <v>5.338173828333231</v>
+        <v>5.469413412764737</v>
       </c>
       <c r="D292">
-        <v>-0.1918261716667695</v>
+        <v>0.1594134127647377</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5379,13 +5586,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>5.6</v>
+        <v>5.18</v>
       </c>
       <c r="C293">
-        <v>5.384986603007164</v>
+        <v>5.477639066676938</v>
       </c>
       <c r="D293">
-        <v>-0.2150133969928358</v>
+        <v>0.297639066676938</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5393,13 +5600,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>5.66</v>
+        <v>5.04</v>
       </c>
       <c r="C294">
-        <v>5.39259184918944</v>
+        <v>5.463363525630891</v>
       </c>
       <c r="D294">
-        <v>-0.2674081508105601</v>
+        <v>0.423363525630891</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5407,13 +5614,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>5.67</v>
+        <v>5.01</v>
       </c>
       <c r="C295">
-        <v>5.342422517597113</v>
+        <v>5.443915939678506</v>
       </c>
       <c r="D295">
-        <v>-0.3275774824028872</v>
+        <v>0.4339159396785064</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5421,13 +5628,13 @@
         <v>298</v>
       </c>
       <c r="B296">
-        <v>5.69</v>
+        <v>4.98</v>
       </c>
       <c r="C296">
-        <v>5.376628559394677</v>
+        <v>5.447538337143119</v>
       </c>
       <c r="D296">
-        <v>-0.3133714406053238</v>
+        <v>0.4675383371431181</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5435,13 +5642,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>5.68</v>
+        <v>4.97</v>
       </c>
       <c r="C297">
-        <v>5.371739013593716</v>
+        <v>5.443160846224385</v>
       </c>
       <c r="D297">
-        <v>-0.3082609864062835</v>
+        <v>0.4731608462243857</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5449,13 +5656,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>5.71</v>
+        <v>4.96</v>
       </c>
       <c r="C298">
-        <v>5.433138284266382</v>
+        <v>5.437084717496054</v>
       </c>
       <c r="D298">
-        <v>-0.2768617157336175</v>
+        <v>0.4770847174960542</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5463,13 +5670,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>5.71</v>
+        <v>5</v>
       </c>
       <c r="C299">
-        <v>5.436366860406938</v>
+        <v>5.467489719361469</v>
       </c>
       <c r="D299">
-        <v>-0.2736331395930618</v>
+        <v>0.4674897193614687</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5477,13 +5684,979 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>5.76</v>
+        <v>5.02</v>
       </c>
       <c r="C300">
-        <v>5.444260754562885</v>
+        <v>5.493639373459553</v>
       </c>
       <c r="D300">
-        <v>-0.3157392454371148</v>
+        <v>0.4736393734595534</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>5.02</v>
+      </c>
+      <c r="C301">
+        <v>5.484546577901236</v>
+      </c>
+      <c r="D301">
+        <v>0.4645465779012365</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>5.447548832812771</v>
+      </c>
+      <c r="D302">
+        <v>0.447548832812771</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>5.09</v>
+      </c>
+      <c r="C303">
+        <v>5.487186615703353</v>
+      </c>
+      <c r="D303">
+        <v>0.3971866157033528</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>5.1</v>
+      </c>
+      <c r="C304">
+        <v>5.475960071066471</v>
+      </c>
+      <c r="D304">
+        <v>0.375960071066471</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>5.15</v>
+      </c>
+      <c r="C305">
+        <v>5.502642033360592</v>
+      </c>
+      <c r="D305">
+        <v>0.352642033360592</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>5.15</v>
+      </c>
+      <c r="C306">
+        <v>5.500129468230348</v>
+      </c>
+      <c r="D306">
+        <v>0.3501294682303477</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>5.16</v>
+      </c>
+      <c r="C307">
+        <v>5.482844502500772</v>
+      </c>
+      <c r="D307">
+        <v>0.3228445025007716</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>5.14</v>
+      </c>
+      <c r="C308">
+        <v>5.476448143034226</v>
+      </c>
+      <c r="D308">
+        <v>0.3364481430342261</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>5.14</v>
+      </c>
+      <c r="C309">
+        <v>5.449555076202223</v>
+      </c>
+      <c r="D309">
+        <v>0.3095550762022237</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>5.1</v>
+      </c>
+      <c r="C310">
+        <v>5.387940702106865</v>
+      </c>
+      <c r="D310">
+        <v>0.287940702106865</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>5.15</v>
+      </c>
+      <c r="C311">
+        <v>5.398861327691515</v>
+      </c>
+      <c r="D311">
+        <v>0.2488613276915146</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>5.13</v>
+      </c>
+      <c r="C312">
+        <v>5.378947174834086</v>
+      </c>
+      <c r="D312">
+        <v>0.2489471748340861</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>5.13</v>
+      </c>
+      <c r="C313">
+        <v>5.348066829375888</v>
+      </c>
+      <c r="D313">
+        <v>0.2180668293758883</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B314">
+        <v>5.07</v>
+      </c>
+      <c r="C314">
+        <v>5.301187034983322</v>
+      </c>
+      <c r="D314">
+        <v>0.2311870349833214</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B315">
+        <v>5.09</v>
+      </c>
+      <c r="C315">
+        <v>5.30800164333457</v>
+      </c>
+      <c r="D315">
+        <v>0.2180016433345706</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B316">
+        <v>5.08</v>
+      </c>
+      <c r="C316">
+        <v>5.308778033089709</v>
+      </c>
+      <c r="D316">
+        <v>0.2287780330897089</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B317">
+        <v>5.07</v>
+      </c>
+      <c r="C317">
+        <v>5.301484225534852</v>
+      </c>
+      <c r="D317">
+        <v>0.2314842255348513</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B318">
+        <v>5.07</v>
+      </c>
+      <c r="C318">
+        <v>5.339628731168868</v>
+      </c>
+      <c r="D318">
+        <v>0.2696287311688677</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B319">
+        <v>5.12</v>
+      </c>
+      <c r="C319">
+        <v>5.373240518947778</v>
+      </c>
+      <c r="D319">
+        <v>0.253240518947778</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B320">
+        <v>5.13</v>
+      </c>
+      <c r="C320">
+        <v>5.361715454582237</v>
+      </c>
+      <c r="D320">
+        <v>0.2317154545822371</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>5.15</v>
+      </c>
+      <c r="C321">
+        <v>5.367465097246286</v>
+      </c>
+      <c r="D321">
+        <v>0.2174650972462855</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>5.1</v>
+      </c>
+      <c r="C322">
+        <v>5.308611400846901</v>
+      </c>
+      <c r="D322">
+        <v>0.2086114008469009</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>5.1</v>
+      </c>
+      <c r="C323">
+        <v>5.253911999317702</v>
+      </c>
+      <c r="D323">
+        <v>0.1539119993177023</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B324">
+        <v>5.08</v>
+      </c>
+      <c r="C324">
+        <v>5.265228915374144</v>
+      </c>
+      <c r="D324">
+        <v>0.185228915374144</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B325">
+        <v>5.04</v>
+      </c>
+      <c r="C325">
+        <v>5.257985769488687</v>
+      </c>
+      <c r="D325">
+        <v>0.2179857694886866</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B326">
+        <v>5.08</v>
+      </c>
+      <c r="C326">
+        <v>5.233478917592929</v>
+      </c>
+      <c r="D326">
+        <v>0.1534789175929294</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B327">
+        <v>5.06</v>
+      </c>
+      <c r="C327">
+        <v>5.250648627357353</v>
+      </c>
+      <c r="D327">
+        <v>0.1906486273573531</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B328">
+        <v>5.04</v>
+      </c>
+      <c r="C328">
+        <v>5.216159648017442</v>
+      </c>
+      <c r="D328">
+        <v>0.1761596480174417</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B329">
+        <v>4.97</v>
+      </c>
+      <c r="C329">
+        <v>5.09523779144802</v>
+      </c>
+      <c r="D329">
+        <v>0.1252377914480203</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B330">
+        <v>4.82</v>
+      </c>
+      <c r="C330">
+        <v>4.975745796999674</v>
+      </c>
+      <c r="D330">
+        <v>0.1557457969996738</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B331">
+        <v>4.98</v>
+      </c>
+      <c r="C331">
+        <v>5.027778753662882</v>
+      </c>
+      <c r="D331">
+        <v>0.04777875366288153</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B332">
+        <v>5.1</v>
+      </c>
+      <c r="C332">
+        <v>4.992298282897899</v>
+      </c>
+      <c r="D332">
+        <v>-0.1077017171021009</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B333">
+        <v>5.14</v>
+      </c>
+      <c r="C333">
+        <v>5.007128738924989</v>
+      </c>
+      <c r="D333">
+        <v>-0.1328712610750102</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B334">
+        <v>5.17</v>
+      </c>
+      <c r="C334">
+        <v>5.069065396705627</v>
+      </c>
+      <c r="D334">
+        <v>-0.1009346032943732</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B335">
+        <v>5.2</v>
+      </c>
+      <c r="C335">
+        <v>5.109579306831741</v>
+      </c>
+      <c r="D335">
+        <v>-0.09042069316825962</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B336">
+        <v>5.24</v>
+      </c>
+      <c r="C336">
+        <v>5.098252126508717</v>
+      </c>
+      <c r="D336">
+        <v>-0.1417478734912834</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B337">
+        <v>5.24</v>
+      </c>
+      <c r="C337">
+        <v>5.091376717943734</v>
+      </c>
+      <c r="D337">
+        <v>-0.1486232820562661</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B338">
+        <v>5.26</v>
+      </c>
+      <c r="C338">
+        <v>5.147923960046474</v>
+      </c>
+      <c r="D338">
+        <v>-0.1120760399535259</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B339">
+        <v>5.2</v>
+      </c>
+      <c r="C339">
+        <v>5.077786803357928</v>
+      </c>
+      <c r="D339">
+        <v>-0.1222131966420719</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B340">
+        <v>5.21</v>
+      </c>
+      <c r="C340">
+        <v>5.065556038037865</v>
+      </c>
+      <c r="D340">
+        <v>-0.1444439619621347</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B341">
+        <v>5.23</v>
+      </c>
+      <c r="C341">
+        <v>5.071361694339069</v>
+      </c>
+      <c r="D341">
+        <v>-0.1586383056609311</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B342">
+        <v>5.28</v>
+      </c>
+      <c r="C342">
+        <v>5.071285078380041</v>
+      </c>
+      <c r="D342">
+        <v>-0.2087149216199595</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B343">
+        <v>5.36</v>
+      </c>
+      <c r="C343">
+        <v>5.177836466474237</v>
+      </c>
+      <c r="D343">
+        <v>-0.1821635335257632</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B344">
+        <v>5.29</v>
+      </c>
+      <c r="C344">
+        <v>5.110723021995611</v>
+      </c>
+      <c r="D344">
+        <v>-0.1792769780043892</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B345">
+        <v>5.3</v>
+      </c>
+      <c r="C345">
+        <v>5.109432725250127</v>
+      </c>
+      <c r="D345">
+        <v>-0.1905672747498723</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B346">
+        <v>5.28</v>
+      </c>
+      <c r="C346">
+        <v>5.10591325079476</v>
+      </c>
+      <c r="D346">
+        <v>-0.17408674920524</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B347">
+        <v>5.36</v>
+      </c>
+      <c r="C347">
+        <v>5.117577723693277</v>
+      </c>
+      <c r="D347">
+        <v>-0.2424222763067236</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B348">
+        <v>5.38</v>
+      </c>
+      <c r="C348">
+        <v>5.138701604379647</v>
+      </c>
+      <c r="D348">
+        <v>-0.2412983956203529</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B349">
+        <v>5.37</v>
+      </c>
+      <c r="C349">
+        <v>5.184032801697211</v>
+      </c>
+      <c r="D349">
+        <v>-0.1859671983027891</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B350">
+        <v>5.39</v>
+      </c>
+      <c r="C350">
+        <v>5.177312429806465</v>
+      </c>
+      <c r="D350">
+        <v>-0.2126875701935349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B351">
+        <v>5.41</v>
+      </c>
+      <c r="C351">
+        <v>5.187830518530068</v>
+      </c>
+      <c r="D351">
+        <v>-0.2221694814699324</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B352">
+        <v>5.5</v>
+      </c>
+      <c r="C352">
+        <v>5.176683374298929</v>
+      </c>
+      <c r="D352">
+        <v>-0.3233166257010707</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B353">
+        <v>5.56</v>
+      </c>
+      <c r="C353">
+        <v>5.168614462334791</v>
+      </c>
+      <c r="D353">
+        <v>-0.3913855376652089</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B354">
+        <v>5.66</v>
+      </c>
+      <c r="C354">
+        <v>5.237588299158249</v>
+      </c>
+      <c r="D354">
+        <v>-0.4224117008417512</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B355">
+        <v>5.69</v>
+      </c>
+      <c r="C355">
+        <v>5.294002350852923</v>
+      </c>
+      <c r="D355">
+        <v>-0.3959976491470769</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B356">
+        <v>5.71</v>
+      </c>
+      <c r="C356">
+        <v>5.289398787304707</v>
+      </c>
+      <c r="D356">
+        <v>-0.4206012126952929</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B357">
+        <v>5.69</v>
+      </c>
+      <c r="C357">
+        <v>5.321589914707238</v>
+      </c>
+      <c r="D357">
+        <v>-0.3684100852927621</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B358">
+        <v>5.53</v>
+      </c>
+      <c r="C358">
+        <v>5.347013606600154</v>
+      </c>
+      <c r="D358">
+        <v>-0.1829863933998466</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B359">
+        <v>5.53</v>
+      </c>
+      <c r="C359">
+        <v>5.361409169171403</v>
+      </c>
+      <c r="D359">
+        <v>-0.168590830828597</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B360">
+        <v>5.52</v>
+      </c>
+      <c r="C360">
+        <v>5.34483317759157</v>
+      </c>
+      <c r="D360">
+        <v>-0.1751668224084293</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B361">
+        <v>5.53</v>
+      </c>
+      <c r="C361">
+        <v>5.353507420389204</v>
+      </c>
+      <c r="D361">
+        <v>-0.1764925796107963</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B362">
+        <v>5.47</v>
+      </c>
+      <c r="C362">
+        <v>5.318928015524343</v>
+      </c>
+      <c r="D362">
+        <v>-0.1510719844756565</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B363">
+        <v>5.51</v>
+      </c>
+      <c r="C363">
+        <v>5.334190358249012</v>
+      </c>
+      <c r="D363">
+        <v>-0.1758096417509876</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B364">
+        <v>5.52</v>
+      </c>
+      <c r="C364">
+        <v>5.320369811932697</v>
+      </c>
+      <c r="D364">
+        <v>-0.1996301880673022</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B365">
+        <v>5.56</v>
+      </c>
+      <c r="C365">
+        <v>5.323840700165163</v>
+      </c>
+      <c r="D365">
+        <v>-0.2361592998348367</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B366">
+        <v>5.66</v>
+      </c>
+      <c r="C366">
+        <v>5.399336404855371</v>
+      </c>
+      <c r="D366">
+        <v>-0.2606635951446288</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B367">
+        <v>5.63</v>
+      </c>
+      <c r="C367">
+        <v>5.359723980553118</v>
+      </c>
+      <c r="D367">
+        <v>-0.2702760194468823</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B368">
+        <v>5.68</v>
+      </c>
+      <c r="C368">
+        <v>5.342085551693499</v>
+      </c>
+      <c r="D368">
+        <v>-0.3379144483065009</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B369">
+        <v>5.68</v>
+      </c>
+      <c r="C369">
+        <v>5.427336604796284</v>
+      </c>
+      <c r="D369">
+        <v>-0.2526633952037161</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_train.xlsx
+++ b/temp/stable_train.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>华英农业</t>
   </si>
@@ -28,1108 +28,1123 @@
     <t>time</t>
   </si>
   <si>
-    <t>2019-07-31 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-31 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-30 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-29 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-29 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 10:45:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-26 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-25 10:43:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-24 10:54:00</t>
-  </si>
-  <si>
-    <t>2019-07-23 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-23 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-07-22 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-07-19 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-17 10:06:00</t>
-  </si>
-  <si>
-    <t>2019-07-16 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-07-16 11:24:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 13:32:00</t>
-  </si>
-  <si>
-    <t>2019-07-15 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-07-12 13:23:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-07-11 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-07-10 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-09 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-05 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-07-04 14:05:00</t>
-  </si>
-  <si>
-    <t>2019-07-04 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-07-04 09:53:00</t>
-  </si>
-  <si>
-    <t>2019-07-03 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-07-03 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-07-03 09:48:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-07-02 09:46:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 13:22:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-07-01 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-28 14:44:00</t>
-  </si>
-  <si>
-    <t>2019-06-27 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-25 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-06-25 13:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-25 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-06-24 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-21 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-06-21 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-06-21 09:32:00</t>
-  </si>
-  <si>
-    <t>2019-06-20 13:20:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 11:00:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-06-18 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-06-14 13:35:00</t>
-  </si>
-  <si>
-    <t>2019-06-13 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 11:10:00</t>
-  </si>
-  <si>
-    <t>2019-06-12 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 13:16:00</t>
-  </si>
-  <si>
-    <t>2019-06-10 11:08:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-06-05 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-06-04 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-06-03 13:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 13:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-05-31 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-05-30 13:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:54:00</t>
-  </si>
-  <si>
-    <t>2019-05-29 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:33:00</t>
-  </si>
-  <si>
-    <t>2019-05-28 14:27:00</t>
-  </si>
-  <si>
-    <t>2019-05-27 09:55:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-05-24 09:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-22 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-21 10:19:00</t>
-  </si>
-  <si>
-    <t>2019-05-20 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 14:35:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:55:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 13:37:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:53:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-05-17 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:38:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 14:17:00</t>
-  </si>
-  <si>
-    <t>2019-05-16 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-15 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 13:57:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 13:41:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-05-14 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-05-10 10:48:00</t>
+    <t>2019-08-02 14:52:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-08-02 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 14:36:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-08-01 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-07-31 09:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-30 10:29:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-07-29 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-07-26 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-07-25 13:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-07-24 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-23 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-07-22 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-07-19 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-07-18 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-17 10:27:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 14:08:00</t>
+  </si>
+  <si>
+    <t>2019-07-16 13:15:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-07-15 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-07-11 14:42:00</t>
+  </si>
+  <si>
+    <t>2019-07-10 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-07-09 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-07-08 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-07-05 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-07-04 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-07-03 10:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 13:08:00</t>
+  </si>
+  <si>
+    <t>2019-06-28 11:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-27 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-06-25 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-06-24 09:54:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 13:41:00</t>
+  </si>
+  <si>
+    <t>2019-06-21 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 13:23:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-06-20 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 13:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-19 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-18 10:05:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-17 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-06-14 09:30:00</t>
+  </si>
+  <si>
+    <t>2019-06-13 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-06-12 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-06-11 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 14:44:00</t>
+  </si>
+  <si>
+    <t>2019-06-10 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-06-05 11:28:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 14:45:00</t>
+  </si>
+  <si>
+    <t>2019-06-04 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-06-03 10:32:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 14:05:00</t>
+  </si>
+  <si>
+    <t>2019-05-31 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-30 09:40:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-05-29 10:46:00</t>
+  </si>
+  <si>
+    <t>2019-05-28 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 13:02:00</t>
+  </si>
+  <si>
+    <t>2019-05-27 11:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 11:11:00</t>
+  </si>
+  <si>
+    <t>2019-05-24 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-05-23 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-05-22 10:41:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 14:27:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-05-21 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 14:18:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 13:36:00</t>
+  </si>
+  <si>
+    <t>2019-05-20 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 13:43:00</t>
+  </si>
+  <si>
+    <t>2019-05-17 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-16 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-05-15 11:21:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-05-14 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 14:25:00</t>
+  </si>
+  <si>
+    <t>2019-05-13 11:23:00</t>
   </si>
   <si>
     <t>2019-05-10 10:44:00</t>
   </si>
   <si>
-    <t>2019-05-10 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-05-09 09:30:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:29:00</t>
-  </si>
-  <si>
-    <t>2019-05-08 10:28:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-05-07 13:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-30 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-04-29 09:50:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:40:00</t>
-  </si>
-  <si>
-    <t>2019-04-26 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-04-25 14:08:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 14:51:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 13:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 10:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-24 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-04-23 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-19 10:05:00</t>
-  </si>
-  <si>
-    <t>2019-04-18 13:53:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 13:14:00</t>
-  </si>
-  <si>
-    <t>2019-04-16 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-15 10:35:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 13:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-12 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 11:03:00</t>
-  </si>
-  <si>
-    <t>2019-04-11 10:17:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:41:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 10:26:00</t>
-  </si>
-  <si>
-    <t>2019-04-10 09:45:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-04-09 10:48:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-04-08 13:59:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:28:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 11:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-04-04 09:42:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 13:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:18:00</t>
-  </si>
-  <si>
-    <t>2019-04-03 10:04:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-04-02 11:22:00</t>
-  </si>
-  <si>
-    <t>2019-04-01 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 13:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:59:00</t>
-  </si>
-  <si>
-    <t>2019-03-29 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-28 10:57:00</t>
+    <t>2019-05-10 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 14:31:00</t>
+  </si>
+  <si>
+    <t>2019-05-09 10:24:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-05-08 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 14:00:00</t>
+  </si>
+  <si>
+    <t>2019-05-07 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-05-06 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 10:35:00</t>
+  </si>
+  <si>
+    <t>2019-04-30 09:34:00</t>
+  </si>
+  <si>
+    <t>2019-04-29 13:06:00</t>
+  </si>
+  <si>
+    <t>2019-04-26 13:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 13:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 11:12:00</t>
+  </si>
+  <si>
+    <t>2019-04-25 09:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:18:00</t>
+  </si>
+  <si>
+    <t>2019-04-24 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-04-23 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-19 10:21:00</t>
+  </si>
+  <si>
+    <t>2019-04-18 13:22:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:56:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-04-17 09:58:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-16 10:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-04-12 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 10:04:00</t>
+  </si>
+  <si>
+    <t>2019-04-11 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-04-10 10:54:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-04-08 10:23:00</t>
+  </si>
+  <si>
+    <t>2019-04-04 13:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 11:19:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 10:07:00</t>
+  </si>
+  <si>
+    <t>2019-04-03 09:32:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-04-02 11:05:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-04-01 13:04:00</t>
+  </si>
+  <si>
+    <t>2019-03-29 14:26:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 14:28:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 13:06:00</t>
   </si>
   <si>
     <t>2019-03-28 10:35:00</t>
   </si>
   <si>
-    <t>2019-03-27 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-03-27 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-03-26 13:17:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 14:24:00</t>
-  </si>
-  <si>
-    <t>2019-03-25 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-22 14:21:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-21 10:10:00</t>
-  </si>
-  <si>
-    <t>2019-03-20 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-03-19 10:08:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:32:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 13:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-18 10:46:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 13:56:00</t>
-  </si>
-  <si>
-    <t>2019-03-15 11:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:39:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:29:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 13:25:00</t>
-  </si>
-  <si>
-    <t>2019-03-13 11:23:00</t>
-  </si>
-  <si>
-    <t>2019-03-11 14:30:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:36:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-07 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 10:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-06 09:57:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:43:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:31:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:27:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 13:05:00</t>
-  </si>
-  <si>
-    <t>2019-03-05 10:33:00</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:02:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 13:45:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-03-01 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 11:02:00</t>
-  </si>
-  <si>
-    <t>2019-02-28 09:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:41:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-02-27 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-26 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 13:33:00</t>
-  </si>
-  <si>
-    <t>2019-02-25 10:15:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 15:00:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 11:30:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-22 10:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-21 14:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 14:03:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-02-20 11:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:54:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-19 09:43:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:47:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:20:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 14:14:00</t>
-  </si>
-  <si>
-    <t>2019-02-18 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 11:13:00</t>
-  </si>
-  <si>
-    <t>2019-02-15 09:34:00</t>
-  </si>
-  <si>
-    <t>2019-02-14 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 14:09:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 11:28:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 11:26:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 11:07:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:52:00</t>
-  </si>
-  <si>
-    <t>2019-02-13 10:12:00</t>
-  </si>
-  <si>
-    <t>2019-02-12 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-02-11 09:38:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:56:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 14:46:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 11:16:00</t>
-  </si>
-  <si>
-    <t>2019-02-01 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 14:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 13:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 10:34:00</t>
-  </si>
-  <si>
-    <t>2019-01-31 09:54:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 14:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 14:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-30 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-29 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 11:29:00</t>
-  </si>
-  <si>
-    <t>2019-01-28 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:48:00</t>
-  </si>
-  <si>
-    <t>2019-01-25 14:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 14:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-24 13:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 14:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 13:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-23 09:40:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 13:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-22 10:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 14:55:00</t>
-  </si>
-  <si>
-    <t>2019-01-21 10:23:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 14:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:21:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:18:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 11:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-18 10:02:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 13:12:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-17 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 11:06:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 10:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:51:00</t>
-  </si>
-  <si>
-    <t>2019-01-16 09:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-15 14:55:00</t>
+    <t>2019-03-28 10:34:00</t>
+  </si>
+  <si>
+    <t>2019-03-28 10:09:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-03-27 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 13:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-26 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 15:00:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:25:00</t>
+  </si>
+  <si>
+    <t>2019-03-25 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 14:43:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-03-22 09:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-21 11:30:00</t>
+  </si>
+  <si>
+    <t>2019-03-20 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 14:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:40:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-03-19 10:10:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 10:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-18 09:52:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 14:14:00</t>
+  </si>
+  <si>
+    <t>2019-03-15 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-03-14 09:38:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:21:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 13:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 11:27:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:57:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:39:00</t>
+  </si>
+  <si>
+    <t>2019-03-13 10:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 13:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-03-12 10:15:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 13:24:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 11:13:00</t>
+  </si>
+  <si>
+    <t>2019-03-11 10:51:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:33:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 14:22:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-03-07 10:55:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 11:06:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-03-06 09:50:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-03-05 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 14:11:00</t>
+  </si>
+  <si>
+    <t>2019-03-01 10:26:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 14:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 13:38:00</t>
+  </si>
+  <si>
+    <t>2019-02-28 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 14:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-27 13:14:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 10:58:00</t>
+  </si>
+  <si>
+    <t>2019-02-26 10:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 13:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-25 11:04:00</t>
+  </si>
+  <si>
+    <t>2019-02-22 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 14:07:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 11:02:00</t>
+  </si>
+  <si>
+    <t>2019-02-21 09:53:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-02-20 10:45:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:57:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 13:34:00</t>
+  </si>
+  <si>
+    <t>2019-02-19 11:08:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:29:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 13:10:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 11:16:00</t>
+  </si>
+  <si>
+    <t>2019-02-18 09:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 14:24:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 13:33:00</t>
+  </si>
+  <si>
+    <t>2019-02-15 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:56:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 14:12:00</t>
+  </si>
+  <si>
+    <t>2019-02-14 13:37:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 14:55:00</t>
+  </si>
+  <si>
+    <t>2019-02-13 13:44:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 14:59:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-02-12 10:11:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:39:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 13:05:00</t>
+  </si>
+  <si>
+    <t>2019-02-11 10:25:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 11:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 10:17:00</t>
+  </si>
+  <si>
+    <t>2019-02-01 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-31 09:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-30 10:44:00</t>
+  </si>
+  <si>
+    <t>2019-01-29 10:42:00</t>
+  </si>
+  <si>
+    <t>2019-01-28 14:58:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 14:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 13:47:00</t>
+  </si>
+  <si>
+    <t>2019-01-25 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 13:16:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 10:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 09:55:00</t>
+  </si>
+  <si>
+    <t>2019-01-23 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 09:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-22 09:36:00</t>
+  </si>
+  <si>
+    <t>2019-01-21 13:28:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 14:29:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 13:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-18 11:22:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:40:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 14:30:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 11:26:00</t>
+  </si>
+  <si>
+    <t>2019-01-16 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 14:43:00</t>
   </si>
   <si>
     <t>2019-01-15 14:29:00</t>
   </si>
   <si>
-    <t>2019-01-15 13:44:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 14:42:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 10:24:00</t>
-  </si>
-  <si>
-    <t>2019-01-14 09:58:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 14:26:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:47:00</t>
-  </si>
-  <si>
-    <t>2019-01-11 10:22:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:57:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 14:52:00</t>
-  </si>
-  <si>
-    <t>2019-01-10 13:43:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 13:58:00</t>
+    <t>2019-01-15 11:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 10:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-15 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 14:21:00</t>
+  </si>
+  <si>
+    <t>2019-01-14 10:53:00</t>
+  </si>
+  <si>
+    <t>2019-01-11 09:39:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-10 13:29:00</t>
   </si>
   <si>
     <t>2019-01-09 11:18:00</t>
   </si>
   <si>
-    <t>2019-01-09 11:14:00</t>
-  </si>
-  <si>
-    <t>2019-01-09 09:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 14:16:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 13:04:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 11:11:00</t>
-  </si>
-  <si>
-    <t>2019-01-08 10:13:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 14:00:00</t>
-  </si>
-  <si>
-    <t>2019-01-07 10:39:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 11:19:00</t>
-  </si>
-  <si>
-    <t>2019-01-04 09:36:00</t>
-  </si>
-  <si>
-    <t>2019-01-03 13:15:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 14:31:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 10:49:00</t>
-  </si>
-  <si>
-    <t>2019-01-02 09:34:00</t>
-  </si>
-  <si>
-    <t>2018-12-27 13:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 14:28:00</t>
-  </si>
-  <si>
-    <t>2018-12-26 10:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 14:21:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 13:42:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 10:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-25 09:32:00</t>
-  </si>
-  <si>
-    <t>2018-12-24 10:16:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 14:45:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 14:40:00</t>
-  </si>
-  <si>
-    <t>2018-12-21 14:06:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:37:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 14:25:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 13:12:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 10:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-19 09:59:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 10:31:00</t>
-  </si>
-  <si>
-    <t>2018-12-17 09:53:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 14:15:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 10:36:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 10:29:00</t>
-  </si>
-  <si>
-    <t>2018-12-14 09:56:00</t>
-  </si>
-  <si>
-    <t>2018-12-13 14:08:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 14:44:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 13:18:00</t>
-  </si>
-  <si>
-    <t>2018-12-12 10:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 14:19:00</t>
-  </si>
-  <si>
-    <t>2018-12-11 13:07:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 13:41:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 11:24:00</t>
-  </si>
-  <si>
-    <t>2018-12-10 09:49:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 14:55:00</t>
-  </si>
-  <si>
-    <t>2018-12-07 13:50:00</t>
-  </si>
-  <si>
-    <t>2018-12-05 09:39:00</t>
+    <t>2019-01-09 09:48:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:56:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-08 11:01:00</t>
+  </si>
+  <si>
+    <t>2019-01-07 13:17:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:54:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 14:41:00</t>
+  </si>
+  <si>
+    <t>2019-01-04 10:20:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 14:46:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:45:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:18:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 13:03:00</t>
+  </si>
+  <si>
+    <t>2019-01-03 10:37:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:34:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:09:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 14:06:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:52:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 13:35:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:59:00</t>
+  </si>
+  <si>
+    <t>2019-01-02 10:22:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 14:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 11:02:00</t>
+  </si>
+  <si>
+    <t>2018-12-28 10:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:23:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 14:07:00</t>
+  </si>
+  <si>
+    <t>2018-12-27 09:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-26 11:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:52:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 14:24:00</t>
+  </si>
+  <si>
+    <t>2018-12-25 11:29:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 13:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-24 09:48:00</t>
+  </si>
+  <si>
+    <t>2018-12-21 14:46:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 14:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 13:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:49:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:42:00</t>
+  </si>
+  <si>
+    <t>2018-12-20 10:06:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:25:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 13:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 11:19:00</t>
+  </si>
+  <si>
+    <t>2018-12-19 11:03:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 11:11:00</t>
+  </si>
+  <si>
+    <t>2018-12-17 11:09:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 14:30:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:56:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 13:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-14 09:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:39:00</t>
+  </si>
+  <si>
+    <t>2018-12-13 10:04:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 13:10:00</t>
+  </si>
+  <si>
+    <t>2018-12-12 10:50:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 13:32:00</t>
+  </si>
+  <si>
+    <t>2018-12-11 09:38:00</t>
+  </si>
+  <si>
+    <t>2018-12-10 11:27:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 14:16:00</t>
+  </si>
+  <si>
+    <t>2018-12-07 11:15:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 10:45:00</t>
+  </si>
+  <si>
+    <t>2018-12-06 09:59:00</t>
   </si>
 </sst>
 </file>
@@ -1487,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1512,13 +1527,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>6.26</v>
+        <v>6.06</v>
       </c>
       <c r="C2">
-        <v>6.700965910407621</v>
+        <v>6.485808850355451</v>
       </c>
       <c r="D2">
-        <v>0.4409659104076216</v>
+        <v>0.4258088503554509</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1526,13 +1541,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6.28</v>
+        <v>6.09</v>
       </c>
       <c r="C3">
-        <v>6.712576621796721</v>
+        <v>6.429964278747685</v>
       </c>
       <c r="D3">
-        <v>0.4325766217967209</v>
+        <v>0.3399642787476846</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1540,13 +1555,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.29</v>
+        <v>6.09</v>
       </c>
       <c r="C4">
-        <v>6.701912872587211</v>
+        <v>6.432025274233414</v>
       </c>
       <c r="D4">
-        <v>0.4119128725872114</v>
+        <v>0.3420252742334142</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1554,13 +1569,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>6.29</v>
+        <v>6.1</v>
       </c>
       <c r="C5">
-        <v>6.716539785334495</v>
+        <v>6.660230411768346</v>
       </c>
       <c r="D5">
-        <v>0.4265397853344952</v>
+        <v>0.5602304117683463</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1568,13 +1583,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>6.32</v>
+        <v>6.22</v>
       </c>
       <c r="C6">
-        <v>6.726623630814576</v>
+        <v>6.639410296929199</v>
       </c>
       <c r="D6">
-        <v>0.4066236308145754</v>
+        <v>0.4194102969291995</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1582,13 +1597,13 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6.32</v>
+        <v>6.23</v>
       </c>
       <c r="C7">
-        <v>6.696383694835191</v>
+        <v>6.655103346090618</v>
       </c>
       <c r="D7">
-        <v>0.3763836948351909</v>
+        <v>0.4251033460906175</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1596,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>6.33</v>
+        <v>6.28</v>
       </c>
       <c r="C8">
-        <v>6.71391806121969</v>
+        <v>6.501367988247607</v>
       </c>
       <c r="D8">
-        <v>0.3839180612196902</v>
+        <v>0.2213679882476063</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1610,13 +1625,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>6.57</v>
+        <v>6.36</v>
       </c>
       <c r="C9">
-        <v>6.650368756686143</v>
+        <v>6.556847090467507</v>
       </c>
       <c r="D9">
-        <v>0.08036875668614307</v>
+        <v>0.1968470904675064</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1624,13 +1639,13 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>6.59</v>
+        <v>6.32</v>
       </c>
       <c r="C10">
-        <v>6.676155494838341</v>
+        <v>6.657049860259589</v>
       </c>
       <c r="D10">
-        <v>0.08615549483834073</v>
+        <v>0.3370498602595884</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1638,13 +1653,13 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6.64</v>
+        <v>6.3</v>
       </c>
       <c r="C11">
-        <v>6.769438679777618</v>
+        <v>6.633527236157741</v>
       </c>
       <c r="D11">
-        <v>0.1294386797776186</v>
+        <v>0.3335272361577415</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1652,13 +1667,13 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>6.62</v>
+        <v>6.42</v>
       </c>
       <c r="C12">
-        <v>6.766501599304361</v>
+        <v>6.64456044061011</v>
       </c>
       <c r="D12">
-        <v>0.1465015993043606</v>
+        <v>0.2245604406101105</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1666,13 +1681,13 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6.67</v>
+        <v>6.59</v>
       </c>
       <c r="C13">
-        <v>6.777559752201386</v>
+        <v>6.637519053791245</v>
       </c>
       <c r="D13">
-        <v>0.1075597522013858</v>
+        <v>0.04751905379124466</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1680,13 +1695,13 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>6.59</v>
+        <v>6.62</v>
       </c>
       <c r="C14">
-        <v>6.700210828540394</v>
+        <v>6.652222442866549</v>
       </c>
       <c r="D14">
-        <v>0.110210828540394</v>
+        <v>0.03222244286654874</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1694,13 +1709,13 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
       <c r="C15">
-        <v>6.743870732177228</v>
+        <v>6.727764001619231</v>
       </c>
       <c r="D15">
-        <v>0.1438707321772288</v>
+        <v>0.06776400161923135</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1708,13 +1723,13 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
       <c r="C16">
-        <v>6.746627081607418</v>
+        <v>6.642689092636116</v>
       </c>
       <c r="D16">
-        <v>0.1366270816074175</v>
+        <v>0.05268909263611654</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1722,13 +1737,13 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>6.62</v>
+        <v>6.6</v>
       </c>
       <c r="C17">
-        <v>6.618953373194211</v>
+        <v>6.707498296142683</v>
       </c>
       <c r="D17">
-        <v>-0.001046626805789153</v>
+        <v>0.1074982961426834</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1736,13 +1751,13 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>6.6</v>
+        <v>6.62</v>
       </c>
       <c r="C18">
-        <v>6.612873834599784</v>
+        <v>6.677801382156055</v>
       </c>
       <c r="D18">
-        <v>0.01287383459978386</v>
+        <v>0.05780138215605479</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1750,13 +1765,13 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>6.61</v>
+        <v>6.59</v>
       </c>
       <c r="C19">
-        <v>6.619731610170103</v>
+        <v>6.553697216322711</v>
       </c>
       <c r="D19">
-        <v>0.009731610170102378</v>
+        <v>-0.03630278367728934</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1764,13 +1779,13 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>7.04</v>
+        <v>6.57</v>
       </c>
       <c r="C20">
-        <v>6.788727911982544</v>
+        <v>6.547374703077063</v>
       </c>
       <c r="D20">
-        <v>-0.2512720880174557</v>
+        <v>-0.02262529692293747</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1778,13 +1793,13 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>7.05</v>
+        <v>7.11</v>
       </c>
       <c r="C21">
-        <v>6.793308262297892</v>
+        <v>6.76359661606598</v>
       </c>
       <c r="D21">
-        <v>-0.2566917377021083</v>
+        <v>-0.3464033839340201</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1792,13 +1807,13 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>7.07</v>
+        <v>7.15</v>
       </c>
       <c r="C22">
-        <v>6.792098934413168</v>
+        <v>6.715643672175684</v>
       </c>
       <c r="D22">
-        <v>-0.2779010655868319</v>
+        <v>-0.4343563278243163</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1806,13 +1821,13 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>7.07</v>
+        <v>7.17</v>
       </c>
       <c r="C23">
-        <v>6.819825781277416</v>
+        <v>6.785874818900879</v>
       </c>
       <c r="D23">
-        <v>-0.2501742187225844</v>
+        <v>-0.3841251810991206</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1820,13 +1835,13 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>7.13</v>
+        <v>6.97</v>
       </c>
       <c r="C24">
-        <v>6.840833653462688</v>
+        <v>6.762767595651191</v>
       </c>
       <c r="D24">
-        <v>-0.2891663465373115</v>
+        <v>-0.207232404348809</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1834,13 +1849,13 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>6.95</v>
+        <v>6.89</v>
       </c>
       <c r="C25">
-        <v>6.830258971292535</v>
+        <v>6.804070457244821</v>
       </c>
       <c r="D25">
-        <v>-0.1197410287074652</v>
+        <v>-0.08592954275517872</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1851,10 +1866,10 @@
         <v>6.95</v>
       </c>
       <c r="C26">
-        <v>6.850976136401579</v>
+        <v>6.83796572876207</v>
       </c>
       <c r="D26">
-        <v>-0.09902386359842108</v>
+        <v>-0.1120342712379303</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1862,13 +1877,13 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>6.95</v>
+        <v>6.96</v>
       </c>
       <c r="C27">
-        <v>6.874199006227522</v>
+        <v>6.81699744794186</v>
       </c>
       <c r="D27">
-        <v>-0.07580099377247773</v>
+        <v>-0.1430025520581397</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1876,13 +1891,13 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>6.9</v>
+        <v>6.91</v>
       </c>
       <c r="C28">
-        <v>6.867065998528346</v>
+        <v>6.801560940625215</v>
       </c>
       <c r="D28">
-        <v>-0.03293400147165393</v>
+        <v>-0.1084390593747848</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1890,13 +1905,13 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>6.82</v>
+        <v>6.87</v>
       </c>
       <c r="C29">
-        <v>6.792696892537023</v>
+        <v>6.75959720698706</v>
       </c>
       <c r="D29">
-        <v>-0.02730310746297704</v>
+        <v>-0.1104027930129403</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1904,13 +1919,13 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>6.91</v>
+        <v>6.93</v>
       </c>
       <c r="C30">
-        <v>6.809408832178658</v>
+        <v>6.700172026437244</v>
       </c>
       <c r="D30">
-        <v>-0.1005911678213423</v>
+        <v>-0.229827973562756</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1918,13 +1933,13 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>6.82</v>
+        <v>7.29</v>
       </c>
       <c r="C31">
-        <v>6.737025274506893</v>
+        <v>6.82028542650418</v>
       </c>
       <c r="D31">
-        <v>-0.08297472549310747</v>
+        <v>-0.4697145734958204</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1932,13 +1947,13 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>6.87</v>
+        <v>7.23</v>
       </c>
       <c r="C32">
-        <v>6.711128551087731</v>
+        <v>6.983353187011506</v>
       </c>
       <c r="D32">
-        <v>-0.1588714489122696</v>
+        <v>-0.2466468129884944</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1946,13 +1961,13 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>7.05</v>
+        <v>7.18</v>
       </c>
       <c r="C33">
-        <v>6.804788469698407</v>
+        <v>6.929360963570472</v>
       </c>
       <c r="D33">
-        <v>-0.2452115303015932</v>
+        <v>-0.2506390364295275</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1960,13 +1975,13 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>7.24</v>
+        <v>6.98</v>
       </c>
       <c r="C34">
-        <v>6.845286741546166</v>
+        <v>6.884752651877871</v>
       </c>
       <c r="D34">
-        <v>-0.3947132584538338</v>
+        <v>-0.09524734812212898</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1974,13 +1989,13 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>7.14</v>
+        <v>6.98</v>
       </c>
       <c r="C35">
-        <v>7.019045121449649</v>
+        <v>6.982435970378692</v>
       </c>
       <c r="D35">
-        <v>-0.1209548785503509</v>
+        <v>0.002435970378691366</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1988,13 +2003,13 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>7.1</v>
+        <v>7.07</v>
       </c>
       <c r="C36">
-        <v>6.989799507031135</v>
+        <v>7.005790164560285</v>
       </c>
       <c r="D36">
-        <v>-0.1102004929688647</v>
+        <v>-0.06420983543971559</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2002,13 +2017,13 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>6.68</v>
+        <v>7.05</v>
       </c>
       <c r="C37">
-        <v>6.886313539333631</v>
+        <v>6.987324705856192</v>
       </c>
       <c r="D37">
-        <v>0.2063135393336317</v>
+        <v>-0.06267529414380757</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2016,13 +2031,13 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>6.75</v>
+        <v>6.91</v>
       </c>
       <c r="C38">
-        <v>6.902598267656678</v>
+        <v>6.944024301050268</v>
       </c>
       <c r="D38">
-        <v>0.1525982676566784</v>
+        <v>0.03402430105026788</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2030,13 +2045,13 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>6.72</v>
+        <v>6.74</v>
       </c>
       <c r="C39">
-        <v>6.835174872265538</v>
+        <v>6.883986860922537</v>
       </c>
       <c r="D39">
-        <v>0.1151748722655386</v>
+        <v>0.1439868609225368</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2047,10 +2062,10 @@
         <v>6.75</v>
       </c>
       <c r="C40">
-        <v>6.820308129682605</v>
+        <v>6.815662369240602</v>
       </c>
       <c r="D40">
-        <v>0.07030812968260491</v>
+        <v>0.0656623692406022</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2058,13 +2073,13 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>6.74</v>
+        <v>6.61</v>
       </c>
       <c r="C41">
-        <v>6.846883213057525</v>
+        <v>6.768523886807543</v>
       </c>
       <c r="D41">
-        <v>0.1068832130575252</v>
+        <v>0.1585238868075427</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2072,13 +2087,13 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>6.68</v>
+        <v>6.51</v>
       </c>
       <c r="C42">
-        <v>6.810631020645454</v>
+        <v>6.631796535923643</v>
       </c>
       <c r="D42">
-        <v>0.1306310206454544</v>
+        <v>0.121796535923643</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2086,13 +2101,13 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>6.7</v>
+        <v>6.49</v>
       </c>
       <c r="C43">
-        <v>6.913659392051574</v>
+        <v>6.62639524891852</v>
       </c>
       <c r="D43">
-        <v>0.2136593920515741</v>
+        <v>0.1363952489185198</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2100,13 +2115,13 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>6.67</v>
+        <v>6.48</v>
       </c>
       <c r="C44">
-        <v>6.870032924802286</v>
+        <v>6.635505089260922</v>
       </c>
       <c r="D44">
-        <v>0.2000329248022865</v>
+        <v>0.155505089260922</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2114,13 +2129,13 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>6.73</v>
+        <v>6.6</v>
       </c>
       <c r="C45">
-        <v>6.956732322832719</v>
+        <v>6.729096899510663</v>
       </c>
       <c r="D45">
-        <v>0.2267323228327189</v>
+        <v>0.1290968995106638</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2128,13 +2143,13 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>6.72</v>
+        <v>6.54</v>
       </c>
       <c r="C46">
-        <v>6.95263515421823</v>
+        <v>6.643385842888799</v>
       </c>
       <c r="D46">
-        <v>0.2326351542182303</v>
+        <v>0.103385842888799</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2142,13 +2157,13 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>6.68</v>
+        <v>6.53</v>
       </c>
       <c r="C47">
-        <v>6.921865909071034</v>
+        <v>6.649075410536657</v>
       </c>
       <c r="D47">
-        <v>0.2418659090710342</v>
+        <v>0.1190754105366567</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2156,13 +2171,13 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>6.63</v>
+        <v>6.57</v>
       </c>
       <c r="C48">
-        <v>6.865815075660938</v>
+        <v>6.618080026537609</v>
       </c>
       <c r="D48">
-        <v>0.2358150756609385</v>
+        <v>0.04808002653760823</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2170,13 +2185,13 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>6.64</v>
+        <v>6.65</v>
       </c>
       <c r="C49">
-        <v>6.857807857103133</v>
+        <v>6.690808522739474</v>
       </c>
       <c r="D49">
-        <v>0.217807857103133</v>
+        <v>0.04080852273947322</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2184,13 +2199,13 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="C50">
-        <v>6.864216796556596</v>
+        <v>6.707829236416144</v>
       </c>
       <c r="D50">
-        <v>0.2342167965565958</v>
+        <v>0.007829236416143637</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2198,13 +2213,13 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>6.58</v>
+        <v>6.55</v>
       </c>
       <c r="C51">
-        <v>6.821128342556753</v>
+        <v>6.723602297741017</v>
       </c>
       <c r="D51">
-        <v>0.2411283425567525</v>
+        <v>0.1736022977410174</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2212,13 +2227,13 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>6.54</v>
+        <v>6.57</v>
       </c>
       <c r="C52">
-        <v>6.752426260272772</v>
+        <v>6.734846851811572</v>
       </c>
       <c r="D52">
-        <v>0.212426260272772</v>
+        <v>0.1648468518115713</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2226,13 +2241,13 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="C53">
-        <v>6.653978694311274</v>
+        <v>6.764267162142232</v>
       </c>
       <c r="D53">
-        <v>0.1539786943112738</v>
+        <v>0.1642671621422327</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2240,13 +2255,13 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>6.51</v>
+        <v>6.66</v>
       </c>
       <c r="C54">
-        <v>6.619488375012416</v>
+        <v>6.758057067797749</v>
       </c>
       <c r="D54">
-        <v>0.1094883750124165</v>
+        <v>0.09805706779774859</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2257,10 +2272,10 @@
         <v>6.57</v>
       </c>
       <c r="C55">
-        <v>6.622884588043746</v>
+        <v>6.667108458815795</v>
       </c>
       <c r="D55">
-        <v>0.05288458804374585</v>
+        <v>0.09710845881579466</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2268,13 +2283,13 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>6.56</v>
+        <v>6.51</v>
       </c>
       <c r="C56">
-        <v>6.592992095768427</v>
+        <v>6.66845689890137</v>
       </c>
       <c r="D56">
-        <v>0.0329920957684271</v>
+        <v>0.1584568989013704</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2282,13 +2297,13 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>6.61</v>
+        <v>6.44</v>
       </c>
       <c r="C57">
-        <v>6.639759098076217</v>
+        <v>6.512397339266014</v>
       </c>
       <c r="D57">
-        <v>0.02975909807621679</v>
+        <v>0.07239733926601399</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2296,13 +2311,13 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="C58">
-        <v>6.727390129523718</v>
+        <v>6.59623725571552</v>
       </c>
       <c r="D58">
-        <v>0.1473901295237177</v>
+        <v>-0.03376274428447967</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2310,13 +2325,13 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>6.59</v>
+        <v>6.64</v>
       </c>
       <c r="C59">
-        <v>6.719090338553899</v>
+        <v>6.540580173056663</v>
       </c>
       <c r="D59">
-        <v>0.1290903385538993</v>
+        <v>-0.09941982694333706</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2324,13 +2339,13 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>6.6</v>
+        <v>6.66</v>
       </c>
       <c r="C60">
-        <v>6.760340261575379</v>
+        <v>6.509635269381576</v>
       </c>
       <c r="D60">
-        <v>0.1603402615753797</v>
+        <v>-0.1503647306184241</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2338,13 +2353,13 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>6.65</v>
+        <v>6.63</v>
       </c>
       <c r="C61">
-        <v>6.761082393498832</v>
+        <v>6.465466578163236</v>
       </c>
       <c r="D61">
-        <v>0.1110823934988314</v>
+        <v>-0.1645334218367642</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2352,13 +2367,13 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>6.59</v>
+        <v>6.52</v>
       </c>
       <c r="C62">
-        <v>6.717279023774044</v>
+        <v>6.386165152390342</v>
       </c>
       <c r="D62">
-        <v>0.1272790237740438</v>
+        <v>-0.1338348476096574</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2366,13 +2381,13 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>6.58</v>
+        <v>6.56</v>
       </c>
       <c r="C63">
-        <v>6.665135549544011</v>
+        <v>6.406630521046097</v>
       </c>
       <c r="D63">
-        <v>0.08513554954401137</v>
+        <v>-0.1533694789539028</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2380,13 +2395,13 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>6.65</v>
+        <v>6.56</v>
       </c>
       <c r="C64">
-        <v>6.500004360004082</v>
+        <v>6.434446564649054</v>
       </c>
       <c r="D64">
-        <v>-0.1499956399959181</v>
+        <v>-0.1255534353509455</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2394,13 +2409,13 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>6.65</v>
+        <v>6.73</v>
       </c>
       <c r="C65">
-        <v>6.508501156755878</v>
+        <v>6.641258213441111</v>
       </c>
       <c r="D65">
-        <v>-0.141498843244122</v>
+        <v>-0.08874178655888976</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2408,13 +2423,13 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>6.64</v>
+        <v>6.71</v>
       </c>
       <c r="C66">
-        <v>6.562326220041552</v>
+        <v>6.652939105824972</v>
       </c>
       <c r="D66">
-        <v>-0.07767377995844793</v>
+        <v>-0.05706089417502813</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2422,13 +2437,13 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="C67">
-        <v>6.491895294806591</v>
+        <v>6.678029156736557</v>
       </c>
       <c r="D67">
-        <v>-0.1381047051934088</v>
+        <v>-0.02197084326344356</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2436,13 +2451,13 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>6.73</v>
+        <v>6.74</v>
       </c>
       <c r="C68">
-        <v>6.635701028574486</v>
+        <v>6.667941483855397</v>
       </c>
       <c r="D68">
-        <v>-0.09429897142551447</v>
+        <v>-0.07205851614460279</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2450,13 +2465,13 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="C69">
-        <v>6.71059642623748</v>
+        <v>6.638424784925791</v>
       </c>
       <c r="D69">
-        <v>-0.03940357376252024</v>
+        <v>-0.211575215074209</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2464,13 +2479,13 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>6.71</v>
+        <v>6.79</v>
       </c>
       <c r="C70">
-        <v>6.680973189767689</v>
+        <v>6.642125854317682</v>
       </c>
       <c r="D70">
-        <v>-0.02902681023231057</v>
+        <v>-0.1478741456823185</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2478,13 +2493,13 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>6.63</v>
+        <v>6.78</v>
       </c>
       <c r="C71">
-        <v>6.680360099708608</v>
+        <v>6.631028694936374</v>
       </c>
       <c r="D71">
-        <v>0.050360099708608</v>
+        <v>-0.1489713050636263</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2492,13 +2507,13 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>6.41</v>
+        <v>6.64</v>
       </c>
       <c r="C72">
-        <v>6.436672464773542</v>
+        <v>6.671978410103513</v>
       </c>
       <c r="D72">
-        <v>0.0266724647735419</v>
+        <v>0.03197841010351343</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2506,13 +2521,13 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>6.34</v>
+        <v>6.65</v>
       </c>
       <c r="C73">
-        <v>6.389602334376841</v>
+        <v>6.660673183979997</v>
       </c>
       <c r="D73">
-        <v>0.04960233437684103</v>
+        <v>0.01067318397999628</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2520,13 +2535,13 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>6.63</v>
+        <v>6.61</v>
       </c>
       <c r="C74">
-        <v>6.514280732192544</v>
+        <v>6.633913180071199</v>
       </c>
       <c r="D74">
-        <v>-0.1157192678074557</v>
+        <v>0.02391318007119825</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2534,13 +2549,13 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>6.64</v>
+        <v>6.38</v>
       </c>
       <c r="C75">
-        <v>6.556748531024358</v>
+        <v>6.407907023473477</v>
       </c>
       <c r="D75">
-        <v>-0.08325146897564206</v>
+        <v>0.02790702347347729</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2548,13 +2563,13 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>6.55</v>
+        <v>6.39</v>
       </c>
       <c r="C76">
-        <v>6.566652478668196</v>
+        <v>6.413444714993283</v>
       </c>
       <c r="D76">
-        <v>0.0166524786681963</v>
+        <v>0.02344471499328282</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2562,13 +2577,13 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>6.55</v>
+        <v>6.67</v>
       </c>
       <c r="C77">
-        <v>6.549424066427278</v>
+        <v>6.461818046163584</v>
       </c>
       <c r="D77">
-        <v>-0.0005759335727217874</v>
+        <v>-0.2081819538364158</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2576,13 +2591,13 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>6.63</v>
+        <v>6.51</v>
       </c>
       <c r="C78">
-        <v>6.556226988112982</v>
+        <v>6.487861104624981</v>
       </c>
       <c r="D78">
-        <v>-0.07377301188701768</v>
+        <v>-0.02213889537501856</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2590,13 +2605,13 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>6.61</v>
+        <v>6.62</v>
       </c>
       <c r="C79">
-        <v>6.62558310870266</v>
+        <v>6.548834570404034</v>
       </c>
       <c r="D79">
-        <v>0.01558310870265966</v>
+        <v>-0.07116542959596561</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2607,10 +2622,10 @@
         <v>6.86</v>
       </c>
       <c r="C80">
-        <v>6.713095135317692</v>
+        <v>6.731020663039155</v>
       </c>
       <c r="D80">
-        <v>-0.1469048646823081</v>
+        <v>-0.1289793369608452</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2618,13 +2633,13 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>6.93</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>6.820957435061384</v>
+        <v>6.81137500743257</v>
       </c>
       <c r="D81">
-        <v>-0.1090425649386155</v>
+        <v>-0.1886249925674299</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2632,13 +2647,13 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>7.09</v>
+        <v>7.05</v>
       </c>
       <c r="C82">
-        <v>7.041143298402918</v>
+        <v>7.071799567140159</v>
       </c>
       <c r="D82">
-        <v>-0.04885670159708155</v>
+        <v>0.0217995671401594</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2646,13 +2661,13 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="C83">
-        <v>7.175152738736909</v>
+        <v>7.201246367514052</v>
       </c>
       <c r="D83">
-        <v>0.1151527387369091</v>
+        <v>0.1212463675140523</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2660,13 +2675,13 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>7.23</v>
+        <v>7.14</v>
       </c>
       <c r="C84">
-        <v>7.218014146855527</v>
+        <v>7.175101706961588</v>
       </c>
       <c r="D84">
-        <v>-0.01198585314447342</v>
+        <v>0.03510170696158799</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2674,13 +2689,13 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>7.12</v>
+        <v>7.26</v>
       </c>
       <c r="C85">
-        <v>7.146729209577046</v>
+        <v>7.316893246148206</v>
       </c>
       <c r="D85">
-        <v>0.02672920957704594</v>
+        <v>0.05689324614820634</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2688,13 +2703,13 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>7.18</v>
+        <v>7.08</v>
       </c>
       <c r="C86">
-        <v>7.178424823692062</v>
+        <v>7.213477450750627</v>
       </c>
       <c r="D86">
-        <v>-0.001575176307937909</v>
+        <v>0.1334774507506271</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2702,13 +2717,13 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>7.17</v>
+        <v>7.08</v>
       </c>
       <c r="C87">
-        <v>7.215102525584241</v>
+        <v>7.180187798750566</v>
       </c>
       <c r="D87">
-        <v>0.04510252558424099</v>
+        <v>0.1001877987505662</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2716,13 +2731,13 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>7.12</v>
+        <v>7.06</v>
       </c>
       <c r="C88">
-        <v>7.241985187374366</v>
+        <v>7.17372840142893</v>
       </c>
       <c r="D88">
-        <v>0.1219851873743663</v>
+        <v>0.1137284014289301</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2730,13 +2745,13 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>7.05</v>
+        <v>7.14</v>
       </c>
       <c r="C89">
-        <v>7.19893807516107</v>
+        <v>7.185879868669723</v>
       </c>
       <c r="D89">
-        <v>0.1489380751610705</v>
+        <v>0.04587986866972305</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2744,13 +2759,13 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>7.09</v>
+        <v>6.97</v>
       </c>
       <c r="C90">
-        <v>7.132371132106126</v>
+        <v>7.457897446994298</v>
       </c>
       <c r="D90">
-        <v>0.0423711321061262</v>
+        <v>0.4878974469942987</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2758,13 +2773,13 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>7.11</v>
+        <v>6.92</v>
       </c>
       <c r="C91">
-        <v>7.17350719355062</v>
+        <v>7.371770498786647</v>
       </c>
       <c r="D91">
-        <v>0.06350719355061951</v>
+        <v>0.4517704987866473</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2772,13 +2787,13 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>6.91</v>
+        <v>6.92</v>
       </c>
       <c r="C92">
-        <v>7.304237718715925</v>
+        <v>7.308101740387446</v>
       </c>
       <c r="D92">
-        <v>0.3942377187159245</v>
+        <v>0.3881017403874463</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2786,13 +2801,13 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>6.96</v>
+        <v>6.86</v>
       </c>
       <c r="C93">
-        <v>7.463133026982279</v>
+        <v>7.206045173418261</v>
       </c>
       <c r="D93">
-        <v>0.5031330269822787</v>
+        <v>0.3460451734182604</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2800,13 +2815,13 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>7.05</v>
+        <v>6.9</v>
       </c>
       <c r="C94">
-        <v>7.525083604809355</v>
+        <v>7.327663360300988</v>
       </c>
       <c r="D94">
-        <v>0.4750836048093552</v>
+        <v>0.4276633603009881</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2814,13 +2829,13 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>6.93</v>
+        <v>6.96</v>
       </c>
       <c r="C95">
-        <v>7.481377260254551</v>
+        <v>7.44320505432035</v>
       </c>
       <c r="D95">
-        <v>0.5513772602545508</v>
+        <v>0.4832050543203499</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2828,13 +2843,13 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>6.93</v>
+        <v>6.98</v>
       </c>
       <c r="C96">
-        <v>7.375948799996751</v>
+        <v>7.477061794694034</v>
       </c>
       <c r="D96">
-        <v>0.4459487999967511</v>
+        <v>0.4970617946940337</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2842,13 +2857,13 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>7.18</v>
+        <v>6.94</v>
       </c>
       <c r="C97">
-        <v>7.497877953933292</v>
+        <v>7.391509464789015</v>
       </c>
       <c r="D97">
-        <v>0.3178779539332925</v>
+        <v>0.451509464789015</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2856,13 +2871,13 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>7.13</v>
+        <v>6.97</v>
       </c>
       <c r="C98">
-        <v>7.456187407922274</v>
+        <v>7.396951773427322</v>
       </c>
       <c r="D98">
-        <v>0.3261874079222737</v>
+        <v>0.426951773427322</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2870,13 +2885,13 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>7.14</v>
+        <v>7.21</v>
       </c>
       <c r="C99">
-        <v>7.444327058073231</v>
+        <v>7.524253953206557</v>
       </c>
       <c r="D99">
-        <v>0.3043270580732313</v>
+        <v>0.3142539532065571</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2884,13 +2899,13 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>7.16</v>
+        <v>7.3</v>
       </c>
       <c r="C100">
-        <v>7.454047410746659</v>
+        <v>7.510577665028821</v>
       </c>
       <c r="D100">
-        <v>0.2940474107466589</v>
+        <v>0.2105776650288211</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2898,13 +2913,13 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>7.22</v>
+        <v>7.28</v>
       </c>
       <c r="C101">
-        <v>7.551312413583902</v>
+        <v>7.549455676053199</v>
       </c>
       <c r="D101">
-        <v>0.3313124135839027</v>
+        <v>0.269455676053199</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2912,13 +2927,13 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>7.31</v>
+        <v>7.37</v>
       </c>
       <c r="C102">
-        <v>7.551527180507378</v>
+        <v>7.596901062057178</v>
       </c>
       <c r="D102">
-        <v>0.2415271805073784</v>
+        <v>0.2269010620571779</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2926,13 +2941,13 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>7.24</v>
+        <v>7.19</v>
       </c>
       <c r="C103">
-        <v>7.538981942642422</v>
+        <v>7.48337491354493</v>
       </c>
       <c r="D103">
-        <v>0.2989819426424223</v>
+        <v>0.2933749135449295</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2940,13 +2955,13 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>7.1</v>
+        <v>6.98</v>
       </c>
       <c r="C104">
-        <v>7.267891357950822</v>
+        <v>7.232206681260125</v>
       </c>
       <c r="D104">
-        <v>0.1678913579508219</v>
+        <v>0.2522066812601249</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2954,13 +2969,13 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="C105">
-        <v>7.435869747052065</v>
+        <v>7.274642369564276</v>
       </c>
       <c r="D105">
-        <v>-0.06413025294793506</v>
+        <v>0.1746423695642765</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2968,13 +2983,13 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>7.51</v>
+        <v>6.97</v>
       </c>
       <c r="C106">
-        <v>7.462117637313678</v>
+        <v>7.27132391020255</v>
       </c>
       <c r="D106">
-        <v>-0.0478823626863214</v>
+        <v>0.3013239102025507</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2982,13 +2997,13 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>7.65</v>
+        <v>7.54</v>
       </c>
       <c r="C107">
-        <v>7.509017469626361</v>
+        <v>7.477890159403355</v>
       </c>
       <c r="D107">
-        <v>-0.1409825303736394</v>
+        <v>-0.06210984059664515</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2996,13 +3011,13 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>7.75</v>
+        <v>7.62</v>
       </c>
       <c r="C108">
-        <v>7.684525329069011</v>
+        <v>7.480928467174225</v>
       </c>
       <c r="D108">
-        <v>-0.06547467093098902</v>
+        <v>-0.139071532825775</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3010,13 +3025,13 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>7.75</v>
+        <v>7.22</v>
       </c>
       <c r="C109">
-        <v>7.542780574515454</v>
+        <v>7.479514496526336</v>
       </c>
       <c r="D109">
-        <v>-0.2072194254845456</v>
+        <v>0.2595144965263367</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3024,13 +3039,13 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>7.27</v>
+        <v>7.38</v>
       </c>
       <c r="C110">
-        <v>7.511585421497941</v>
+        <v>7.562427237316356</v>
       </c>
       <c r="D110">
-        <v>0.2415854214979412</v>
+        <v>0.1824272373163565</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3038,13 +3053,13 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>7.39</v>
+        <v>7.31</v>
       </c>
       <c r="C111">
-        <v>7.523633208279177</v>
+        <v>7.533101963614786</v>
       </c>
       <c r="D111">
-        <v>0.1336332082791776</v>
+        <v>0.2231019636147868</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3052,13 +3067,13 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>7.37</v>
+        <v>7.29</v>
       </c>
       <c r="C112">
-        <v>7.508146869339123</v>
+        <v>7.548384508713804</v>
       </c>
       <c r="D112">
-        <v>0.1381468693391232</v>
+        <v>0.2583845087138039</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3066,13 +3081,13 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>7.42</v>
+        <v>7.25</v>
       </c>
       <c r="C113">
-        <v>7.564324338607738</v>
+        <v>7.435198746473068</v>
       </c>
       <c r="D113">
-        <v>0.1443243386077384</v>
+        <v>0.185198746473068</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3080,13 +3095,13 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>7.3</v>
+        <v>7.25</v>
       </c>
       <c r="C114">
-        <v>7.522237739369235</v>
+        <v>7.393141836048697</v>
       </c>
       <c r="D114">
-        <v>0.222237739369235</v>
+        <v>0.1431418360486969</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3094,13 +3109,13 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>7.2</v>
+        <v>7.28</v>
       </c>
       <c r="C115">
-        <v>7.408441990398156</v>
+        <v>7.414516552029792</v>
       </c>
       <c r="D115">
-        <v>0.208441990398156</v>
+        <v>0.1345165520297913</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3108,13 +3123,13 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>7.2</v>
+        <v>7.21</v>
       </c>
       <c r="C116">
-        <v>7.390939546312861</v>
+        <v>7.36464213607252</v>
       </c>
       <c r="D116">
-        <v>0.1909395463128609</v>
+        <v>0.1546421360725203</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3122,13 +3137,13 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>7.2</v>
+        <v>7.31</v>
       </c>
       <c r="C117">
-        <v>7.34930461736319</v>
+        <v>7.320002308554523</v>
       </c>
       <c r="D117">
-        <v>0.1493046173631898</v>
+        <v>0.01000230855452333</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3136,13 +3151,13 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>7.23</v>
+        <v>7.42</v>
       </c>
       <c r="C118">
-        <v>7.382397996671124</v>
+        <v>7.343839749556336</v>
       </c>
       <c r="D118">
-        <v>0.1523979966711231</v>
+        <v>-0.07616025044366381</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3150,13 +3165,13 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>7.25</v>
+        <v>7.46</v>
       </c>
       <c r="C119">
-        <v>7.360910217430703</v>
+        <v>7.383996104283193</v>
       </c>
       <c r="D119">
-        <v>0.1109102174307033</v>
+        <v>-0.07600389571680655</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3164,13 +3179,13 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>7.17</v>
+        <v>7.32</v>
       </c>
       <c r="C120">
-        <v>7.374397296664421</v>
+        <v>7.058236400577977</v>
       </c>
       <c r="D120">
-        <v>0.2043972966644212</v>
+        <v>-0.2617635994220233</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3178,13 +3193,13 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>7.45</v>
+        <v>7.23</v>
       </c>
       <c r="C121">
-        <v>7.455691451948823</v>
+        <v>7.027113133087257</v>
       </c>
       <c r="D121">
-        <v>0.005691451948822923</v>
+        <v>-0.2028868669127437</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3192,13 +3207,13 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>7.32</v>
+        <v>7.54</v>
       </c>
       <c r="C122">
-        <v>7.23917835881649</v>
+        <v>6.969399823339478</v>
       </c>
       <c r="D122">
-        <v>-0.0808216411835101</v>
+        <v>-0.5706001766605224</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3206,13 +3221,13 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>7.42</v>
+        <v>7.85</v>
       </c>
       <c r="C123">
-        <v>7.343672880038836</v>
+        <v>7.189704608222915</v>
       </c>
       <c r="D123">
-        <v>-0.0763271199611637</v>
+        <v>-0.6602953917770851</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3220,13 +3235,13 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>7.42</v>
+        <v>8.24</v>
       </c>
       <c r="C124">
-        <v>7.359286089526487</v>
+        <v>7.642625049436164</v>
       </c>
       <c r="D124">
-        <v>-0.06071391047351327</v>
+        <v>-0.5973749505638359</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3234,13 +3249,13 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>7.52</v>
+        <v>8.19</v>
       </c>
       <c r="C125">
-        <v>7.452967778190773</v>
+        <v>7.710729202499831</v>
       </c>
       <c r="D125">
-        <v>-0.0670322218092263</v>
+        <v>-0.4792707975001687</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3248,13 +3263,13 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>7.16</v>
+        <v>8.34</v>
       </c>
       <c r="C126">
-        <v>6.954750796682303</v>
+        <v>8.16299569921593</v>
       </c>
       <c r="D126">
-        <v>-0.2052492033176971</v>
+        <v>-0.1770043007840698</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3262,13 +3277,13 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>7.15</v>
+        <v>8.15</v>
       </c>
       <c r="C127">
-        <v>6.925942855749829</v>
+        <v>8.050572170787262</v>
       </c>
       <c r="D127">
-        <v>-0.2240571442501711</v>
+        <v>-0.09942782921273796</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3276,13 +3291,13 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>7.82</v>
+        <v>7.72</v>
       </c>
       <c r="C128">
-        <v>7.249632561405461</v>
+        <v>8.218579008881216</v>
       </c>
       <c r="D128">
-        <v>-0.5703674385945394</v>
+        <v>0.4985790088812161</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3290,13 +3305,13 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>7.84</v>
+        <v>7.67</v>
       </c>
       <c r="C129">
-        <v>7.226997029225284</v>
+        <v>8.165682068623163</v>
       </c>
       <c r="D129">
-        <v>-0.6130029707747155</v>
+        <v>0.4956820686231627</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3304,13 +3319,13 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="C130">
-        <v>7.684690237516817</v>
+        <v>8.014975305757993</v>
       </c>
       <c r="D130">
-        <v>-0.5653097624831833</v>
+        <v>0.6149753057579925</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3318,13 +3333,13 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>8.06</v>
+        <v>7.78</v>
       </c>
       <c r="C131">
-        <v>7.638731547618276</v>
+        <v>8.241680156900275</v>
       </c>
       <c r="D131">
-        <v>-0.4212684523817245</v>
+        <v>0.4616801569002744</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3332,13 +3347,13 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>7.97</v>
+        <v>8.41</v>
       </c>
       <c r="C132">
-        <v>8.416618463060704</v>
+        <v>8.007162654642979</v>
       </c>
       <c r="D132">
-        <v>0.4466184630607044</v>
+        <v>-0.4028373453570211</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3346,13 +3361,13 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>7.83</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="C133">
-        <v>8.30215452536692</v>
+        <v>8.390349247706098</v>
       </c>
       <c r="D133">
-        <v>0.4721545253669195</v>
+        <v>-0.6496507522939012</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3360,13 +3375,13 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>7.61</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C134">
-        <v>8.125125069215606</v>
+        <v>8.416270816510641</v>
       </c>
       <c r="D134">
-        <v>0.515125069215606</v>
+        <v>-0.6937291834893582</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3374,13 +3389,13 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>7.63</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C135">
-        <v>8.115555827135029</v>
+        <v>8.512890620830754</v>
       </c>
       <c r="D135">
-        <v>0.4855558271350295</v>
+        <v>-0.6971093791692464</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3388,13 +3403,13 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>7.85</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="C136">
-        <v>8.259999883786207</v>
+        <v>8.509843391417599</v>
       </c>
       <c r="D136">
-        <v>0.4099998837862078</v>
+        <v>-0.7801566085824003</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3402,13 +3417,13 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>7.83</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C137">
-        <v>8.290456858503575</v>
+        <v>8.568011475125811</v>
       </c>
       <c r="D137">
-        <v>0.4604568585035747</v>
+        <v>-0.5619885248741898</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3416,13 +3431,13 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>7.92</v>
+        <v>8.65</v>
       </c>
       <c r="C138">
-        <v>8.252015351482759</v>
+        <v>8.297889387555006</v>
       </c>
       <c r="D138">
-        <v>0.3320153514827595</v>
+        <v>-0.352110612444994</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3430,13 +3445,13 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>8.050000000000001</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="C139">
-        <v>8.246435958559879</v>
+        <v>8.298592024070331</v>
       </c>
       <c r="D139">
-        <v>0.1964359585598778</v>
+        <v>-0.3414079759296698</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3444,13 +3459,13 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>8.51</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="C140">
-        <v>8.11928268905152</v>
+        <v>8.271346763099686</v>
       </c>
       <c r="D140">
-        <v>-0.3907173109484798</v>
+        <v>-0.6186532369003146</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3458,13 +3473,13 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>8.380000000000001</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C141">
-        <v>8.059297487405473</v>
+        <v>8.098225714390683</v>
       </c>
       <c r="D141">
-        <v>-0.3207025125945275</v>
+        <v>-0.3717742856093178</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3472,13 +3487,13 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>9.17</v>
+        <v>8.02</v>
       </c>
       <c r="C142">
-        <v>8.480369197106802</v>
+        <v>7.948342610556582</v>
       </c>
       <c r="D142">
-        <v>-0.6896308028931983</v>
+        <v>-0.07165738944341804</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3486,13 +3501,13 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>8.859999999999999</v>
+        <v>8.32</v>
       </c>
       <c r="C143">
-        <v>8.44792653670779</v>
+        <v>8.000184651127604</v>
       </c>
       <c r="D143">
-        <v>-0.4120734632922094</v>
+        <v>-0.319815348872396</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3500,13 +3515,13 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>9.029999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C144">
-        <v>8.379606097487082</v>
+        <v>8.002427615985411</v>
       </c>
       <c r="D144">
-        <v>-0.6503939025129171</v>
+        <v>-0.4475723840145882</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3514,13 +3529,13 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>8.6</v>
+        <v>8.26</v>
       </c>
       <c r="C145">
-        <v>8.239213537505355</v>
+        <v>7.898908178698385</v>
       </c>
       <c r="D145">
-        <v>-0.3607864624946444</v>
+        <v>-0.3610918213016152</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3528,13 +3543,13 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>8.57</v>
+        <v>8</v>
       </c>
       <c r="C146">
-        <v>8.195710265103576</v>
+        <v>7.767463552032392</v>
       </c>
       <c r="D146">
-        <v>-0.3742897348964238</v>
+        <v>-0.2325364479676075</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3542,13 +3557,13 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>8.970000000000001</v>
+        <v>8.02</v>
       </c>
       <c r="C147">
-        <v>8.231553128742243</v>
+        <v>7.755633662926916</v>
       </c>
       <c r="D147">
-        <v>-0.7384468712577572</v>
+        <v>-0.2643663370730831</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3556,13 +3571,13 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>8.49</v>
+        <v>7.81</v>
       </c>
       <c r="C148">
-        <v>8.152704849488945</v>
+        <v>7.629505306131888</v>
       </c>
       <c r="D148">
-        <v>-0.3372951505110553</v>
+        <v>-0.1804946938681118</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3570,13 +3585,13 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>8.06</v>
+        <v>7.75</v>
       </c>
       <c r="C149">
-        <v>7.96763480135137</v>
+        <v>7.591716741644792</v>
       </c>
       <c r="D149">
-        <v>-0.09236519864863091</v>
+        <v>-0.1582832583552083</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3584,13 +3599,13 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>8.289999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="C150">
-        <v>7.994198107924849</v>
+        <v>7.44856550962391</v>
       </c>
       <c r="D150">
-        <v>-0.2958018920751506</v>
+        <v>-0.15143449037609</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3598,13 +3613,13 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>7.68</v>
+        <v>7.67</v>
       </c>
       <c r="C151">
-        <v>7.554205603272525</v>
+        <v>7.541484914329848</v>
       </c>
       <c r="D151">
-        <v>-0.1257943967274748</v>
+        <v>-0.128515085670152</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3612,13 +3627,13 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>7.63</v>
+        <v>7.55</v>
       </c>
       <c r="C152">
-        <v>7.513819446738157</v>
+        <v>7.436226209434851</v>
       </c>
       <c r="D152">
-        <v>-0.1161805532618425</v>
+        <v>-0.1137737905651486</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3626,13 +3641,13 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>8.09</v>
+        <v>8.1</v>
       </c>
       <c r="C153">
-        <v>7.81389533008069</v>
+        <v>7.926625654267921</v>
       </c>
       <c r="D153">
-        <v>-0.2761046699193095</v>
+        <v>-0.1733743457320784</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3640,13 +3655,13 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>8.09</v>
+        <v>7.96</v>
       </c>
       <c r="C154">
-        <v>7.812064158657718</v>
+        <v>7.928976071970697</v>
       </c>
       <c r="D154">
-        <v>-0.2779358413422823</v>
+        <v>-0.03102392802930343</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3654,13 +3669,13 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>8.220000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C155">
-        <v>8.002564948056223</v>
+        <v>7.939930277988509</v>
       </c>
       <c r="D155">
-        <v>-0.2174350519437773</v>
+        <v>0.1399302779885092</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3668,13 +3683,13 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>8.140000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="C156">
-        <v>7.983834619633077</v>
+        <v>7.901688160037867</v>
       </c>
       <c r="D156">
-        <v>-0.1561653803669234</v>
+        <v>0.2016881600378673</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3682,13 +3697,13 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>7.55</v>
+        <v>7.52</v>
       </c>
       <c r="C157">
-        <v>7.784652316866072</v>
+        <v>7.809852726144936</v>
       </c>
       <c r="D157">
-        <v>0.2346523168660726</v>
+        <v>0.289852726144936</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3696,13 +3711,13 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>7.69</v>
+        <v>7.53</v>
       </c>
       <c r="C158">
-        <v>7.855162961911612</v>
+        <v>7.801272408553968</v>
       </c>
       <c r="D158">
-        <v>0.1651629619116113</v>
+        <v>0.2712724085539682</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3710,13 +3725,13 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>7.46</v>
+        <v>7.5</v>
       </c>
       <c r="C159">
-        <v>7.753857898010203</v>
+        <v>7.751425027766674</v>
       </c>
       <c r="D159">
-        <v>0.2938578980102031</v>
+        <v>0.2514250277666736</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3724,13 +3739,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>7.53</v>
+        <v>7.51</v>
       </c>
       <c r="C160">
-        <v>7.769967973028391</v>
+        <v>7.735521232713191</v>
       </c>
       <c r="D160">
-        <v>0.2399679730283912</v>
+        <v>0.2255212327131915</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3738,13 +3753,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>7.47</v>
+        <v>7.5</v>
       </c>
       <c r="C161">
-        <v>7.697703274425509</v>
+        <v>7.78274802831614</v>
       </c>
       <c r="D161">
-        <v>0.227703274425509</v>
+        <v>0.2827480283161403</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -3752,13 +3767,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>7.5</v>
+        <v>7.63</v>
       </c>
       <c r="C162">
-        <v>7.713719008925192</v>
+        <v>8.108309003178972</v>
       </c>
       <c r="D162">
-        <v>0.2137190089251924</v>
+        <v>0.4783090031789721</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -3766,13 +3781,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>7.45</v>
+        <v>7.69</v>
       </c>
       <c r="C163">
-        <v>7.615228132024344</v>
+        <v>8.274275148693347</v>
       </c>
       <c r="D163">
-        <v>0.1652281320243434</v>
+        <v>0.5842751486933464</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -3780,13 +3795,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>7.58</v>
+        <v>7.68</v>
       </c>
       <c r="C164">
-        <v>7.665977543318677</v>
+        <v>7.96732228236173</v>
       </c>
       <c r="D164">
-        <v>0.08597754331867691</v>
+        <v>0.2873222823617301</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -3794,13 +3809,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>7.59</v>
+        <v>7.6</v>
       </c>
       <c r="C165">
-        <v>7.732089765979527</v>
+        <v>7.818933872028369</v>
       </c>
       <c r="D165">
-        <v>0.1420897659795273</v>
+        <v>0.2189338720283693</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -3808,13 +3823,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>7.62</v>
+        <v>7.63</v>
       </c>
       <c r="C166">
-        <v>8.032975772588562</v>
+        <v>7.722917983973192</v>
       </c>
       <c r="D166">
-        <v>0.4129757725885623</v>
+        <v>0.09291798397319173</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -3822,13 +3837,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>7.61</v>
+        <v>7.54</v>
       </c>
       <c r="C167">
-        <v>7.991748929345681</v>
+        <v>7.698565391386831</v>
       </c>
       <c r="D167">
-        <v>0.3817489293456804</v>
+        <v>0.1585653913868308</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3836,13 +3851,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>7.66</v>
+        <v>7.57</v>
       </c>
       <c r="C168">
-        <v>8.012223146644626</v>
+        <v>7.794026034470846</v>
       </c>
       <c r="D168">
-        <v>0.3522231466446257</v>
+        <v>0.224026034470846</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3850,13 +3865,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="C169">
-        <v>7.993274456403002</v>
+        <v>7.861681021685627</v>
       </c>
       <c r="D169">
-        <v>0.3532744564030024</v>
+        <v>0.1516810216856266</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3864,13 +3879,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>7.62</v>
+        <v>7.65</v>
       </c>
       <c r="C170">
-        <v>7.940233304219491</v>
+        <v>7.839663890764859</v>
       </c>
       <c r="D170">
-        <v>0.3202333042194914</v>
+        <v>0.1896638907648587</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3878,13 +3893,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="C171">
-        <v>8.023716417697846</v>
+        <v>7.946179690036939</v>
       </c>
       <c r="D171">
-        <v>0.4237164176978467</v>
+        <v>0.2461796900369384</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3892,13 +3907,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>7.67</v>
+        <v>7.7</v>
       </c>
       <c r="C172">
-        <v>8.012530274233724</v>
+        <v>7.950431998751892</v>
       </c>
       <c r="D172">
-        <v>0.3425302742337237</v>
+        <v>0.2504319987518917</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3906,13 +3921,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>7.61</v>
+        <v>7.39</v>
       </c>
       <c r="C173">
-        <v>7.89196336494191</v>
+        <v>7.560432370250741</v>
       </c>
       <c r="D173">
-        <v>0.2819633649419098</v>
+        <v>0.1704323702507411</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3920,13 +3935,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>7.67</v>
+        <v>7.15</v>
       </c>
       <c r="C174">
-        <v>7.815423961027006</v>
+        <v>7.29101712493501</v>
       </c>
       <c r="D174">
-        <v>0.1454239610270065</v>
+        <v>0.1410171249350096</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3934,13 +3949,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>7.65</v>
+        <v>7.17</v>
       </c>
       <c r="C175">
-        <v>7.755534469946562</v>
+        <v>7.296510258915296</v>
       </c>
       <c r="D175">
-        <v>0.1055344699465621</v>
+        <v>0.126510258915296</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3948,13 +3963,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>7.67</v>
+        <v>7.19</v>
       </c>
       <c r="C176">
-        <v>7.8802828892878</v>
+        <v>7.314189417932376</v>
       </c>
       <c r="D176">
-        <v>0.2102828892878001</v>
+        <v>0.1241894179323753</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3962,13 +3977,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>7.68</v>
+        <v>7.21</v>
       </c>
       <c r="C177">
-        <v>7.853114522405646</v>
+        <v>7.330864874659207</v>
       </c>
       <c r="D177">
-        <v>0.1731145224056458</v>
+        <v>0.1208648746592074</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3976,13 +3991,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>7.7</v>
+        <v>7.24</v>
       </c>
       <c r="C178">
-        <v>7.874471124368792</v>
+        <v>7.341765064004113</v>
       </c>
       <c r="D178">
-        <v>0.1744711243687922</v>
+        <v>0.1017650640041126</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3990,13 +4005,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>7.7</v>
+        <v>7.28</v>
       </c>
       <c r="C179">
-        <v>7.957239662129062</v>
+        <v>7.346622570812027</v>
       </c>
       <c r="D179">
-        <v>0.257239662129062</v>
+        <v>0.06662257081202672</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4004,13 +4019,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>7.37</v>
+        <v>7.31</v>
       </c>
       <c r="C180">
-        <v>7.600690067217249</v>
+        <v>7.482201626356369</v>
       </c>
       <c r="D180">
-        <v>0.2306900672172487</v>
+        <v>0.1722016263563697</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4018,13 +4033,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>7.3</v>
+        <v>7.44</v>
       </c>
       <c r="C181">
-        <v>7.499471698476146</v>
+        <v>7.578828356811213</v>
       </c>
       <c r="D181">
-        <v>0.1994716984761462</v>
+        <v>0.1388283568112127</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4032,13 +4047,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>7.3</v>
+        <v>7.78</v>
       </c>
       <c r="C182">
-        <v>7.507127890974008</v>
+        <v>7.758646485839666</v>
       </c>
       <c r="D182">
-        <v>0.2071278909740082</v>
+        <v>-0.02135351416033426</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4046,13 +4061,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>7.19</v>
+        <v>7.9</v>
       </c>
       <c r="C183">
-        <v>7.366157773893827</v>
+        <v>7.828041089497608</v>
       </c>
       <c r="D183">
-        <v>0.1761577738938263</v>
+        <v>-0.07195891050239211</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4060,13 +4075,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>7.21</v>
+        <v>7.89</v>
       </c>
       <c r="C184">
-        <v>7.357954227791312</v>
+        <v>7.818392076736798</v>
       </c>
       <c r="D184">
-        <v>0.1479542277913124</v>
+        <v>-0.07160792326320209</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4074,13 +4089,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>7.45</v>
+        <v>7.96</v>
       </c>
       <c r="C185">
-        <v>7.586870649537095</v>
+        <v>7.893776714902613</v>
       </c>
       <c r="D185">
-        <v>0.1368706495370953</v>
+        <v>-0.0662232850973874</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4088,13 +4103,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>7.44</v>
+        <v>7.8</v>
       </c>
       <c r="C186">
-        <v>7.587248840463978</v>
+        <v>7.930755394286473</v>
       </c>
       <c r="D186">
-        <v>0.1472488404639778</v>
+        <v>0.1307553942864734</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4102,13 +4117,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>7.86</v>
+        <v>7.88</v>
       </c>
       <c r="C187">
-        <v>7.784015187746487</v>
+        <v>8.007966479149482</v>
       </c>
       <c r="D187">
-        <v>-0.07598481225351339</v>
+        <v>0.1279664791494826</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4116,13 +4131,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>7.93</v>
+        <v>7.88</v>
       </c>
       <c r="C188">
-        <v>7.849855703958994</v>
+        <v>7.965679963674546</v>
       </c>
       <c r="D188">
-        <v>-0.0801442960410057</v>
+        <v>0.08567996367454622</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4130,13 +4145,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>7.85</v>
+        <v>7.92</v>
       </c>
       <c r="C189">
-        <v>7.949921134748763</v>
+        <v>7.936463254951274</v>
       </c>
       <c r="D189">
-        <v>0.09992113474876341</v>
+        <v>0.01646325495127421</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4144,13 +4159,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>7.86</v>
+        <v>7.91</v>
       </c>
       <c r="C190">
-        <v>7.968614910636097</v>
+        <v>7.946298203876802</v>
       </c>
       <c r="D190">
-        <v>0.1086149106360965</v>
+        <v>0.03629820387680205</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4158,13 +4173,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>8.01</v>
+        <v>8.16</v>
       </c>
       <c r="C191">
-        <v>7.999024721888047</v>
+        <v>8.000953681517643</v>
       </c>
       <c r="D191">
-        <v>-0.0109752781119532</v>
+        <v>-0.159046318482357</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4172,13 +4187,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>8.16</v>
+        <v>8.27</v>
       </c>
       <c r="C192">
-        <v>8.021908778876812</v>
+        <v>8.213705184687827</v>
       </c>
       <c r="D192">
-        <v>-0.1380912211231884</v>
+        <v>-0.05629481531217273</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4186,13 +4201,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>8.19</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C193">
-        <v>8.028474219721588</v>
+        <v>8.131819655387016</v>
       </c>
       <c r="D193">
-        <v>-0.1615257802784118</v>
+        <v>-0.06818034461298339</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4200,13 +4215,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>8.210000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="C194">
-        <v>8.098895281260505</v>
+        <v>8.114993837461119</v>
       </c>
       <c r="D194">
-        <v>-0.1111047187394956</v>
+        <v>-0.07500616253888026</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4214,13 +4229,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>8.359999999999999</v>
+        <v>8.31</v>
       </c>
       <c r="C195">
-        <v>7.993425884248834</v>
+        <v>8.117120051602466</v>
       </c>
       <c r="D195">
-        <v>-0.3665741157511651</v>
+        <v>-0.1928799483975343</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4231,10 +4246,10 @@
         <v>8.369999999999999</v>
       </c>
       <c r="C196">
-        <v>8.26664979232975</v>
+        <v>8.229682617377009</v>
       </c>
       <c r="D196">
-        <v>-0.1033502076702497</v>
+        <v>-0.1403173826229906</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4242,13 +4257,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>8.19</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C197">
-        <v>8.127322375427072</v>
+        <v>8.166823390240806</v>
       </c>
       <c r="D197">
-        <v>-0.06267762457292747</v>
+        <v>-0.1331766097591949</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4256,13 +4271,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>8.17</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="C198">
-        <v>8.133556418688817</v>
+        <v>8.226900725257284</v>
       </c>
       <c r="D198">
-        <v>-0.03644358131118253</v>
+        <v>-0.0730992747427166</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4270,13 +4285,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>8.06</v>
+        <v>8.19</v>
       </c>
       <c r="C199">
-        <v>7.952256613646965</v>
+        <v>8.121587639565908</v>
       </c>
       <c r="D199">
-        <v>-0.1077433863530359</v>
+        <v>-0.06841236043409182</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4284,13 +4299,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>8.199999999999999</v>
+        <v>8.27</v>
       </c>
       <c r="C200">
-        <v>8.032461225997588</v>
+        <v>8.112696373369221</v>
       </c>
       <c r="D200">
-        <v>-0.167538774002411</v>
+        <v>-0.1573036266307781</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4298,13 +4313,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>8.18</v>
+        <v>7.96</v>
       </c>
       <c r="C201">
-        <v>8.174820805603865</v>
+        <v>7.922631093886926</v>
       </c>
       <c r="D201">
-        <v>-0.00517919439613479</v>
+        <v>-0.0373689061130742</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4312,13 +4327,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>8.380000000000001</v>
+        <v>7.96</v>
       </c>
       <c r="C202">
-        <v>8.462412960323</v>
+        <v>7.890442704676641</v>
       </c>
       <c r="D202">
-        <v>0.0824129603229995</v>
+        <v>-0.06955729532335919</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4326,13 +4341,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>9.1</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="C203">
-        <v>8.972340624577079</v>
+        <v>7.866129961824026</v>
       </c>
       <c r="D203">
-        <v>-0.1276593754229207</v>
+        <v>-0.1738700381759735</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4340,13 +4355,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>9.140000000000001</v>
+        <v>8.19</v>
       </c>
       <c r="C204">
-        <v>8.963126217808306</v>
+        <v>8.259282022997738</v>
       </c>
       <c r="D204">
-        <v>-0.176873782191695</v>
+        <v>0.06928202299773822</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4354,13 +4369,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>8.94</v>
+        <v>8.24</v>
       </c>
       <c r="C205">
-        <v>8.897423065759856</v>
+        <v>8.263559370812704</v>
       </c>
       <c r="D205">
-        <v>-0.04257693424014342</v>
+        <v>0.02355937081270376</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4368,13 +4383,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>9.4</v>
+        <v>8.59</v>
       </c>
       <c r="C206">
-        <v>9.119031661773878</v>
+        <v>8.741585395554374</v>
       </c>
       <c r="D206">
-        <v>-0.2809683382261223</v>
+        <v>0.151585395554374</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4382,13 +4397,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>10.05</v>
+        <v>9.25</v>
       </c>
       <c r="C207">
-        <v>9.398317756244305</v>
+        <v>9.076991129449743</v>
       </c>
       <c r="D207">
-        <v>-0.6516822437556957</v>
+        <v>-0.173008870550257</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4396,13 +4411,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>8.710000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="C208">
-        <v>8.619776231625023</v>
+        <v>9.105553626934595</v>
       </c>
       <c r="D208">
-        <v>-0.09022376837497781</v>
+        <v>-0.3044463730654048</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4410,13 +4425,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>7.66</v>
+        <v>9.73</v>
       </c>
       <c r="C209">
-        <v>8.207977565627175</v>
+        <v>9.030498999256988</v>
       </c>
       <c r="D209">
-        <v>0.5479775656271748</v>
+        <v>-0.6995010007430125</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4424,13 +4439,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>7.62</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="C210">
-        <v>8.181755015471614</v>
+        <v>9.206785854470235</v>
       </c>
       <c r="D210">
-        <v>0.561755015471614</v>
+        <v>-0.5732141455297644</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4438,13 +4453,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>7.66</v>
+        <v>10.35</v>
       </c>
       <c r="C211">
-        <v>8.292633240168247</v>
+        <v>9.559343990247653</v>
       </c>
       <c r="D211">
-        <v>0.6326332401682464</v>
+        <v>-0.7906560097523467</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4452,13 +4467,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>7.76</v>
+        <v>10.18</v>
       </c>
       <c r="C212">
-        <v>8.167775982001791</v>
+        <v>9.601134293703204</v>
       </c>
       <c r="D212">
-        <v>0.407775982001791</v>
+        <v>-0.5788657062967957</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4466,13 +4481,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>7.71</v>
+        <v>10.13</v>
       </c>
       <c r="C213">
-        <v>8.086251161838275</v>
+        <v>9.60316614995617</v>
       </c>
       <c r="D213">
-        <v>0.3762511618382751</v>
+        <v>-0.5268338500438308</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4480,13 +4495,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>7.76</v>
+        <v>9.9</v>
       </c>
       <c r="C214">
-        <v>8.046932631832233</v>
+        <v>9.448227147527623</v>
       </c>
       <c r="D214">
-        <v>0.2869326318322329</v>
+        <v>-0.4517728524723772</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4494,13 +4509,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>7.66</v>
+        <v>9.58</v>
       </c>
       <c r="C215">
-        <v>7.89746553381452</v>
+        <v>9.319598191286433</v>
       </c>
       <c r="D215">
-        <v>0.23746553381452</v>
+        <v>-0.2604018087135671</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4508,13 +4523,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>7.55</v>
+        <v>9.58</v>
       </c>
       <c r="C216">
-        <v>7.851268845500439</v>
+        <v>9.356332816334232</v>
       </c>
       <c r="D216">
-        <v>0.3012688455004389</v>
+        <v>-0.2236671836657678</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4522,13 +4537,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>7.76</v>
+        <v>9.41</v>
       </c>
       <c r="C217">
-        <v>7.945870034727831</v>
+        <v>9.242392125119924</v>
       </c>
       <c r="D217">
-        <v>0.1858700347278308</v>
+        <v>-0.1676078748800762</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4536,13 +4551,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>7.8</v>
+        <v>9.32</v>
       </c>
       <c r="C218">
-        <v>7.939085372716059</v>
+        <v>9.184835255407892</v>
       </c>
       <c r="D218">
-        <v>0.1390853727160595</v>
+        <v>-0.1351647445921085</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4550,13 +4565,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>7.78</v>
+        <v>8.65</v>
       </c>
       <c r="C219">
-        <v>7.906600997598135</v>
+        <v>8.634674380105496</v>
       </c>
       <c r="D219">
-        <v>0.1266009975981346</v>
+        <v>-0.01532561989450443</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4564,13 +4579,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>7.9</v>
+        <v>8.49</v>
       </c>
       <c r="C220">
-        <v>7.94900125235139</v>
+        <v>8.583264588057643</v>
       </c>
       <c r="D220">
-        <v>0.04900125235139008</v>
+        <v>0.09326458805764304</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4578,13 +4593,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>8.1</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C221">
-        <v>7.977377699437209</v>
+        <v>8.475515418587253</v>
       </c>
       <c r="D221">
-        <v>-0.1226223005627904</v>
+        <v>0.08551541858725287</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4592,13 +4607,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>7.76</v>
+        <v>7.73</v>
       </c>
       <c r="C222">
-        <v>7.892370789338772</v>
+        <v>8.389238843011853</v>
       </c>
       <c r="D222">
-        <v>0.132370789338772</v>
+        <v>0.6592388430118525</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4606,13 +4621,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>7.24</v>
+        <v>7.73</v>
       </c>
       <c r="C223">
-        <v>7.442370170337931</v>
+        <v>8.377482015936566</v>
       </c>
       <c r="D223">
-        <v>0.2023701703379306</v>
+        <v>0.647482015936566</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4620,13 +4635,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>7.22</v>
+        <v>7.67</v>
       </c>
       <c r="C224">
-        <v>7.358602372860037</v>
+        <v>8.323451933863581</v>
       </c>
       <c r="D224">
-        <v>0.1386023728600376</v>
+        <v>0.6534519338635807</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4634,13 +4649,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>7.21</v>
+        <v>7.63</v>
       </c>
       <c r="C225">
-        <v>7.34071860196776</v>
+        <v>8.281038946195345</v>
       </c>
       <c r="D225">
-        <v>0.13071860196776</v>
+        <v>0.651038946195345</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4648,13 +4663,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>7.22</v>
+        <v>7.65</v>
       </c>
       <c r="C226">
-        <v>7.334340382160329</v>
+        <v>7.945137393031894</v>
       </c>
       <c r="D226">
-        <v>0.1143403821603295</v>
+        <v>0.2951373930318937</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4662,13 +4677,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>7.23</v>
+        <v>7.67</v>
       </c>
       <c r="C227">
-        <v>7.364159920515961</v>
+        <v>7.936816982169606</v>
       </c>
       <c r="D227">
-        <v>0.1341599205159607</v>
+        <v>0.2668169821696065</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4676,13 +4691,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>7.12</v>
+        <v>7.55</v>
       </c>
       <c r="C228">
-        <v>7.141470331773046</v>
+        <v>7.856212599012297</v>
       </c>
       <c r="D228">
-        <v>0.02147033177304625</v>
+        <v>0.306212599012297</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -4690,13 +4705,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>7.22</v>
+        <v>7.75</v>
       </c>
       <c r="C229">
-        <v>7.228294847492307</v>
+        <v>7.857728421469314</v>
       </c>
       <c r="D229">
-        <v>0.008294847492307689</v>
+        <v>0.1077284214693144</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -4704,13 +4719,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>7.19</v>
+        <v>7.71</v>
       </c>
       <c r="C230">
-        <v>7.129071289373956</v>
+        <v>7.905692657244753</v>
       </c>
       <c r="D230">
-        <v>-0.06092871062604477</v>
+        <v>0.195692657244753</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -4718,13 +4733,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>7.2</v>
+        <v>7.29</v>
       </c>
       <c r="C231">
-        <v>7.200404592154428</v>
+        <v>7.445213932620543</v>
       </c>
       <c r="D231">
-        <v>0.0004045921544273412</v>
+        <v>0.1552139326205433</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -4732,13 +4747,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>7.24</v>
+        <v>7.23</v>
       </c>
       <c r="C232">
-        <v>7.23325273995817</v>
+        <v>7.391206178913745</v>
       </c>
       <c r="D232">
-        <v>-0.006747260041830572</v>
+        <v>0.1612061789137442</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -4746,13 +4761,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>7.69</v>
+        <v>7.21</v>
       </c>
       <c r="C233">
-        <v>7.37886543703425</v>
+        <v>7.320907496570571</v>
       </c>
       <c r="D233">
-        <v>-0.3111345629657505</v>
+        <v>0.1109074965705714</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -4760,13 +4775,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>7.19</v>
+        <v>7.02</v>
       </c>
       <c r="C234">
-        <v>7.102155067482279</v>
+        <v>7.116427740892592</v>
       </c>
       <c r="D234">
-        <v>-0.0878449325177213</v>
+        <v>0.09642774089259198</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -4774,13 +4789,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>7.16</v>
+        <v>7.05</v>
       </c>
       <c r="C235">
-        <v>7.071461175075552</v>
+        <v>7.148897897109002</v>
       </c>
       <c r="D235">
-        <v>-0.08853882492444853</v>
+        <v>0.09889789710900221</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -4788,13 +4803,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>7.14</v>
+        <v>7.16</v>
       </c>
       <c r="C236">
-        <v>6.981318652635235</v>
+        <v>7.220410094931523</v>
       </c>
       <c r="D236">
-        <v>-0.158681347364765</v>
+        <v>0.06041009493152316</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -4802,13 +4817,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>7.08</v>
+        <v>7.2</v>
       </c>
       <c r="C237">
-        <v>6.720673725989661</v>
+        <v>7.213946146863032</v>
       </c>
       <c r="D237">
-        <v>-0.3593262740103391</v>
+        <v>0.01394614686303175</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -4816,13 +4831,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>7.02</v>
+        <v>7.35</v>
       </c>
       <c r="C238">
-        <v>6.528011077776563</v>
+        <v>7.349618909481789</v>
       </c>
       <c r="D238">
-        <v>-0.4919889222234364</v>
+        <v>-0.0003810905182106694</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4830,13 +4845,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>6.8</v>
+        <v>7.73</v>
       </c>
       <c r="C239">
-        <v>6.399553599780953</v>
+        <v>7.465539046598471</v>
       </c>
       <c r="D239">
-        <v>-0.4004464002190469</v>
+        <v>-0.2644609534015299</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4844,13 +4859,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>7.18</v>
+        <v>7.62</v>
       </c>
       <c r="C240">
-        <v>6.539890911167623</v>
+        <v>7.293892355825143</v>
       </c>
       <c r="D240">
-        <v>-0.6401090888323768</v>
+        <v>-0.3261076441748569</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4858,13 +4873,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>7.25</v>
+        <v>7.48</v>
       </c>
       <c r="C241">
-        <v>6.611901310006479</v>
+        <v>7.298303599681372</v>
       </c>
       <c r="D241">
-        <v>-0.6380986899935213</v>
+        <v>-0.1816964003186285</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4872,13 +4887,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>7.06</v>
+        <v>7.13</v>
       </c>
       <c r="C242">
-        <v>6.502344814503562</v>
+        <v>7.038278946325098</v>
       </c>
       <c r="D242">
-        <v>-0.5576551854964373</v>
+        <v>-0.09172105367490158</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4886,13 +4901,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>6.89</v>
+        <v>7.29</v>
       </c>
       <c r="C243">
-        <v>6.47325099724501</v>
+        <v>7.082145330885128</v>
       </c>
       <c r="D243">
-        <v>-0.4167490027549894</v>
+        <v>-0.2078546691148722</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4900,13 +4915,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>6.88</v>
+        <v>7.17</v>
       </c>
       <c r="C244">
-        <v>6.543687790211679</v>
+        <v>6.982221452399994</v>
       </c>
       <c r="D244">
-        <v>-0.3363122097883204</v>
+        <v>-0.187778547600006</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4914,13 +4929,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>6.62</v>
+        <v>7.22</v>
       </c>
       <c r="C245">
-        <v>6.27181083174643</v>
+        <v>6.577239876460766</v>
       </c>
       <c r="D245">
-        <v>-0.3481891682535698</v>
+        <v>-0.642760123539234</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4928,13 +4943,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>6.64</v>
+        <v>7.35</v>
       </c>
       <c r="C246">
-        <v>6.239699193316012</v>
+        <v>6.621594679665828</v>
       </c>
       <c r="D246">
-        <v>-0.4003008066839877</v>
+        <v>-0.728405320334172</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4942,13 +4957,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>6.65</v>
+        <v>7.23</v>
       </c>
       <c r="C247">
-        <v>6.220647280270908</v>
+        <v>6.690863959919584</v>
       </c>
       <c r="D247">
-        <v>-0.4293527197290921</v>
+        <v>-0.5391360400804164</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4956,13 +4971,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>6.61</v>
+        <v>6.89</v>
       </c>
       <c r="C248">
-        <v>6.376692834683503</v>
+        <v>6.497734564443459</v>
       </c>
       <c r="D248">
-        <v>-0.2333071653164973</v>
+        <v>-0.3922654355565411</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4970,13 +4985,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>6.81</v>
+        <v>7.01</v>
       </c>
       <c r="C249">
-        <v>6.336282302638907</v>
+        <v>6.463421332614319</v>
       </c>
       <c r="D249">
-        <v>-0.473717697361093</v>
+        <v>-0.5465786673856812</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4984,13 +4999,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>6.81</v>
+        <v>6.95</v>
       </c>
       <c r="C250">
-        <v>6.329495767291689</v>
+        <v>6.473100196648529</v>
       </c>
       <c r="D250">
-        <v>-0.4805042327083102</v>
+        <v>-0.4768998033514711</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4998,13 +5013,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>6.77</v>
+        <v>6.68</v>
       </c>
       <c r="C251">
-        <v>6.305343788777954</v>
+        <v>6.198803693615252</v>
       </c>
       <c r="D251">
-        <v>-0.4646562112220458</v>
+        <v>-0.4811963063847475</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5012,13 +5027,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>6.76</v>
+        <v>6.7</v>
       </c>
       <c r="C252">
-        <v>6.301005450084705</v>
+        <v>6.192189836348986</v>
       </c>
       <c r="D252">
-        <v>-0.4589945499152943</v>
+        <v>-0.5078101636510146</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5026,13 +5041,13 @@
         <v>255</v>
       </c>
       <c r="B253">
-        <v>6.77</v>
+        <v>6.6</v>
       </c>
       <c r="C253">
-        <v>6.263723196974194</v>
+        <v>6.246988834224968</v>
       </c>
       <c r="D253">
-        <v>-0.5062768030258056</v>
+        <v>-0.3530111657750314</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5040,13 +5055,13 @@
         <v>256</v>
       </c>
       <c r="B254">
-        <v>6.36</v>
+        <v>6.8</v>
       </c>
       <c r="C254">
-        <v>6.046045382488826</v>
+        <v>6.256998127952876</v>
       </c>
       <c r="D254">
-        <v>-0.3139546175111745</v>
+        <v>-0.5430018720471237</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5054,13 +5069,13 @@
         <v>257</v>
       </c>
       <c r="B255">
-        <v>6.07</v>
+        <v>6.8</v>
       </c>
       <c r="C255">
-        <v>6.07192066576718</v>
+        <v>6.268627857908369</v>
       </c>
       <c r="D255">
-        <v>0.001920665767180196</v>
+        <v>-0.5313721420916311</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5068,13 +5083,13 @@
         <v>258</v>
       </c>
       <c r="B256">
-        <v>5.74</v>
+        <v>6.81</v>
       </c>
       <c r="C256">
-        <v>6.010999152191767</v>
+        <v>6.239857238235651</v>
       </c>
       <c r="D256">
-        <v>0.2709991521917665</v>
+        <v>-0.5701427617643491</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5082,13 +5097,13 @@
         <v>259</v>
       </c>
       <c r="B257">
-        <v>5.79</v>
+        <v>6.81</v>
       </c>
       <c r="C257">
-        <v>6.018178431138963</v>
+        <v>6.226307025053821</v>
       </c>
       <c r="D257">
-        <v>0.2281784311389634</v>
+        <v>-0.583692974946179</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5096,13 +5111,13 @@
         <v>260</v>
       </c>
       <c r="B258">
-        <v>5.71</v>
+        <v>6.18</v>
       </c>
       <c r="C258">
-        <v>6.015612082035267</v>
+        <v>5.980051252216608</v>
       </c>
       <c r="D258">
-        <v>0.3056120820352666</v>
+        <v>-0.1999487477833917</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5110,13 +5125,13 @@
         <v>261</v>
       </c>
       <c r="B259">
-        <v>5.67</v>
+        <v>6.27</v>
       </c>
       <c r="C259">
-        <v>5.986016840301751</v>
+        <v>5.960515792327238</v>
       </c>
       <c r="D259">
-        <v>0.3160168403017511</v>
+        <v>-0.309484207672762</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5124,13 +5139,13 @@
         <v>262</v>
       </c>
       <c r="B260">
-        <v>5.68</v>
+        <v>6.36</v>
       </c>
       <c r="C260">
-        <v>5.991789800899607</v>
+        <v>5.969205423348416</v>
       </c>
       <c r="D260">
-        <v>0.3117898008996072</v>
+        <v>-0.3907945766515839</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5138,13 +5153,13 @@
         <v>263</v>
       </c>
       <c r="B261">
-        <v>5.69</v>
+        <v>5.98</v>
       </c>
       <c r="C261">
-        <v>5.955175470983267</v>
+        <v>5.994706691741108</v>
       </c>
       <c r="D261">
-        <v>0.2651754709832668</v>
+        <v>0.01470669174110739</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5152,13 +5167,13 @@
         <v>264</v>
       </c>
       <c r="B262">
-        <v>5.7</v>
+        <v>5.76</v>
       </c>
       <c r="C262">
-        <v>5.962784901362051</v>
+        <v>5.996152857643061</v>
       </c>
       <c r="D262">
-        <v>0.2627849013620507</v>
+        <v>0.2361528576430612</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5166,13 +5181,13 @@
         <v>265</v>
       </c>
       <c r="B263">
-        <v>5.65</v>
+        <v>5.79</v>
       </c>
       <c r="C263">
-        <v>5.953118333699427</v>
+        <v>6.036659185858911</v>
       </c>
       <c r="D263">
-        <v>0.3031183336994268</v>
+        <v>0.2466591858589107</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5180,13 +5195,13 @@
         <v>266</v>
       </c>
       <c r="B264">
-        <v>5.67</v>
+        <v>5.75</v>
       </c>
       <c r="C264">
-        <v>5.901770366097423</v>
+        <v>6.011988907416097</v>
       </c>
       <c r="D264">
-        <v>0.2317703660974235</v>
+        <v>0.2619889074160966</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5194,13 +5209,13 @@
         <v>267</v>
       </c>
       <c r="B265">
-        <v>5.7</v>
+        <v>5.71</v>
       </c>
       <c r="C265">
-        <v>5.841170396869934</v>
+        <v>6.013855555871482</v>
       </c>
       <c r="D265">
-        <v>0.141170396869934</v>
+        <v>0.3038555558714817</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5208,13 +5223,13 @@
         <v>268</v>
       </c>
       <c r="B266">
-        <v>5.52</v>
+        <v>5.7</v>
       </c>
       <c r="C266">
-        <v>5.713668845586803</v>
+        <v>5.998774011466367</v>
       </c>
       <c r="D266">
-        <v>0.193668845586803</v>
+        <v>0.2987740114663664</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5222,13 +5237,13 @@
         <v>269</v>
       </c>
       <c r="B267">
-        <v>5.47</v>
+        <v>5.71</v>
       </c>
       <c r="C267">
-        <v>5.6563085755758</v>
+        <v>5.933730810423187</v>
       </c>
       <c r="D267">
-        <v>0.1863085755757998</v>
+        <v>0.223730810423187</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5236,13 +5251,13 @@
         <v>270</v>
       </c>
       <c r="B268">
-        <v>5.47</v>
+        <v>5.77</v>
       </c>
       <c r="C268">
-        <v>5.657259480030858</v>
+        <v>5.910552830844262</v>
       </c>
       <c r="D268">
-        <v>0.1872594800308578</v>
+        <v>0.1405528308442623</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5250,13 +5265,13 @@
         <v>271</v>
       </c>
       <c r="B269">
-        <v>5.43</v>
+        <v>5.69</v>
       </c>
       <c r="C269">
-        <v>5.633544161890377</v>
+        <v>5.871503114443694</v>
       </c>
       <c r="D269">
-        <v>0.2035441618903775</v>
+        <v>0.1815031144436938</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5264,13 +5279,13 @@
         <v>272</v>
       </c>
       <c r="B270">
-        <v>5.43</v>
+        <v>5.71</v>
       </c>
       <c r="C270">
-        <v>5.619809578822139</v>
+        <v>5.858957608421681</v>
       </c>
       <c r="D270">
-        <v>0.189809578822139</v>
+        <v>0.1489576084216813</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5278,13 +5293,13 @@
         <v>273</v>
       </c>
       <c r="B271">
-        <v>5.32</v>
+        <v>5.75</v>
       </c>
       <c r="C271">
-        <v>5.588024531377931</v>
+        <v>5.838420560281792</v>
       </c>
       <c r="D271">
-        <v>0.2680245313779306</v>
+        <v>0.08842056028179179</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5292,13 +5307,13 @@
         <v>274</v>
       </c>
       <c r="B272">
-        <v>5.39</v>
+        <v>5.56</v>
       </c>
       <c r="C272">
-        <v>5.665181795232458</v>
+        <v>5.792283657022908</v>
       </c>
       <c r="D272">
-        <v>0.2751817952324584</v>
+        <v>0.2322836570229088</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5306,13 +5321,13 @@
         <v>275</v>
       </c>
       <c r="B273">
-        <v>5.42</v>
+        <v>5.46</v>
       </c>
       <c r="C273">
-        <v>5.678653585619916</v>
+        <v>5.622439230771089</v>
       </c>
       <c r="D273">
-        <v>0.2586535856199159</v>
+        <v>0.1624392307710893</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5320,13 +5335,13 @@
         <v>276</v>
       </c>
       <c r="B274">
-        <v>5.36</v>
+        <v>5.42</v>
       </c>
       <c r="C274">
-        <v>5.542028217402938</v>
+        <v>5.627428825543666</v>
       </c>
       <c r="D274">
-        <v>0.1820282174029382</v>
+        <v>0.2074288255436656</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5334,13 +5349,13 @@
         <v>277</v>
       </c>
       <c r="B275">
-        <v>5.36</v>
+        <v>5.39</v>
       </c>
       <c r="C275">
-        <v>5.580327856735593</v>
+        <v>5.624358103110957</v>
       </c>
       <c r="D275">
-        <v>0.2203278567355929</v>
+        <v>0.2343581031109574</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5348,13 +5363,13 @@
         <v>278</v>
       </c>
       <c r="B276">
-        <v>5.46</v>
+        <v>5.37</v>
       </c>
       <c r="C276">
-        <v>5.573006426480099</v>
+        <v>5.604959996342014</v>
       </c>
       <c r="D276">
-        <v>0.1130064264800987</v>
+        <v>0.2349599963420141</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5362,13 +5377,13 @@
         <v>279</v>
       </c>
       <c r="B277">
-        <v>5.49</v>
+        <v>5.36</v>
       </c>
       <c r="C277">
-        <v>5.574252992359293</v>
+        <v>5.55541145987927</v>
       </c>
       <c r="D277">
-        <v>0.08425299235929273</v>
+        <v>0.1954114598792698</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5376,13 +5391,13 @@
         <v>280</v>
       </c>
       <c r="B278">
-        <v>5.65</v>
+        <v>5.54</v>
       </c>
       <c r="C278">
-        <v>5.624728024360754</v>
+        <v>5.568356247710966</v>
       </c>
       <c r="D278">
-        <v>-0.02527197563924588</v>
+        <v>0.02835624771096601</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5390,13 +5405,13 @@
         <v>281</v>
       </c>
       <c r="B279">
-        <v>5.66</v>
+        <v>5.57</v>
       </c>
       <c r="C279">
-        <v>5.585892112508304</v>
+        <v>5.549802229046826</v>
       </c>
       <c r="D279">
-        <v>-0.07410788749169583</v>
+        <v>-0.02019777095317465</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5407,10 +5422,10 @@
         <v>5.85</v>
       </c>
       <c r="C280">
-        <v>5.697268507454918</v>
+        <v>5.697068725757413</v>
       </c>
       <c r="D280">
-        <v>-0.1527314925450813</v>
+        <v>-0.1529312742425866</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5418,13 +5433,13 @@
         <v>283</v>
       </c>
       <c r="B281">
-        <v>5.85</v>
+        <v>5.83</v>
       </c>
       <c r="C281">
-        <v>5.717370836363463</v>
+        <v>5.669728126284854</v>
       </c>
       <c r="D281">
-        <v>-0.1326291636365369</v>
+        <v>-0.1602718737151463</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5432,13 +5447,13 @@
         <v>284</v>
       </c>
       <c r="B282">
-        <v>5.89</v>
+        <v>5.84</v>
       </c>
       <c r="C282">
-        <v>5.642842087425132</v>
+        <v>5.670551667970471</v>
       </c>
       <c r="D282">
-        <v>-0.2471579125748677</v>
+        <v>-0.1694483320295284</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5446,13 +5461,13 @@
         <v>285</v>
       </c>
       <c r="B283">
-        <v>5.9</v>
+        <v>5.99</v>
       </c>
       <c r="C283">
-        <v>5.647966267390343</v>
+        <v>5.70002358850253</v>
       </c>
       <c r="D283">
-        <v>-0.2520337326096573</v>
+        <v>-0.2899764114974701</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5460,13 +5475,13 @@
         <v>286</v>
       </c>
       <c r="B284">
-        <v>5.84</v>
+        <v>5.31</v>
       </c>
       <c r="C284">
-        <v>5.649177077065785</v>
+        <v>5.456519590753151</v>
       </c>
       <c r="D284">
-        <v>-0.1908229229342151</v>
+        <v>0.1465195907531518</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5474,13 +5489,13 @@
         <v>287</v>
       </c>
       <c r="B285">
-        <v>5.98</v>
+        <v>5.3</v>
       </c>
       <c r="C285">
-        <v>5.634293645409249</v>
+        <v>5.434463715969017</v>
       </c>
       <c r="D285">
-        <v>-0.3457063545907513</v>
+        <v>0.1344637159690167</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5488,13 +5503,13 @@
         <v>288</v>
       </c>
       <c r="B286">
-        <v>5.98</v>
+        <v>5.31</v>
       </c>
       <c r="C286">
-        <v>5.662829926553773</v>
+        <v>5.447276156945007</v>
       </c>
       <c r="D286">
-        <v>-0.3171700734462277</v>
+        <v>0.1372761569450072</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5502,13 +5517,13 @@
         <v>289</v>
       </c>
       <c r="B287">
-        <v>5.98</v>
+        <v>5.31</v>
       </c>
       <c r="C287">
-        <v>5.692723064855485</v>
+        <v>5.445502385034777</v>
       </c>
       <c r="D287">
-        <v>-0.287276935144515</v>
+        <v>0.1355023850347772</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5516,13 +5531,13 @@
         <v>290</v>
       </c>
       <c r="B288">
-        <v>5.37</v>
+        <v>5.25</v>
       </c>
       <c r="C288">
-        <v>5.479177231130048</v>
+        <v>5.431731380519278</v>
       </c>
       <c r="D288">
-        <v>0.1091772311300483</v>
+        <v>0.1817313805192775</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5530,13 +5545,13 @@
         <v>291</v>
       </c>
       <c r="B289">
-        <v>5.33</v>
+        <v>5.29</v>
       </c>
       <c r="C289">
-        <v>5.440162142597295</v>
+        <v>5.450814247530452</v>
       </c>
       <c r="D289">
-        <v>0.1101621425972947</v>
+        <v>0.1608142475304524</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5544,13 +5559,13 @@
         <v>292</v>
       </c>
       <c r="B290">
-        <v>5.31</v>
+        <v>5.27</v>
       </c>
       <c r="C290">
-        <v>5.435213553835508</v>
+        <v>5.471961377050107</v>
       </c>
       <c r="D290">
-        <v>0.1252135538355086</v>
+        <v>0.2019613770501074</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5558,13 +5573,13 @@
         <v>293</v>
       </c>
       <c r="B291">
-        <v>5.3</v>
+        <v>5.18</v>
       </c>
       <c r="C291">
-        <v>5.422069978721173</v>
+        <v>5.455422026928257</v>
       </c>
       <c r="D291">
-        <v>0.1220699787211732</v>
+        <v>0.2754220269282577</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5572,13 +5587,13 @@
         <v>294</v>
       </c>
       <c r="B292">
-        <v>5.31</v>
+        <v>5.19</v>
       </c>
       <c r="C292">
-        <v>5.469413412764737</v>
+        <v>5.464727720383218</v>
       </c>
       <c r="D292">
-        <v>0.1594134127647377</v>
+        <v>0.2747277203832175</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5586,13 +5601,13 @@
         <v>295</v>
       </c>
       <c r="B293">
-        <v>5.18</v>
+        <v>5.16</v>
       </c>
       <c r="C293">
-        <v>5.477639066676938</v>
+        <v>5.483870065775719</v>
       </c>
       <c r="D293">
-        <v>0.297639066676938</v>
+        <v>0.3238700657757185</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5600,13 +5615,13 @@
         <v>296</v>
       </c>
       <c r="B294">
-        <v>5.04</v>
+        <v>4.98</v>
       </c>
       <c r="C294">
-        <v>5.463363525630891</v>
+        <v>5.474361759173172</v>
       </c>
       <c r="D294">
-        <v>0.423363525630891</v>
+        <v>0.4943617591731719</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5614,13 +5629,13 @@
         <v>297</v>
       </c>
       <c r="B295">
-        <v>5.01</v>
+        <v>4.98</v>
       </c>
       <c r="C295">
-        <v>5.443915939678506</v>
+        <v>5.449816226251071</v>
       </c>
       <c r="D295">
-        <v>0.4339159396785064</v>
+        <v>0.469816226251071</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5631,10 +5646,10 @@
         <v>4.98</v>
       </c>
       <c r="C296">
-        <v>5.447538337143119</v>
+        <v>5.456011132087109</v>
       </c>
       <c r="D296">
-        <v>0.4675383371431181</v>
+        <v>0.476011132087109</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5642,13 +5657,13 @@
         <v>299</v>
       </c>
       <c r="B297">
-        <v>4.97</v>
+        <v>5.09</v>
       </c>
       <c r="C297">
-        <v>5.443160846224385</v>
+        <v>5.49773048787463</v>
       </c>
       <c r="D297">
-        <v>0.4731608462243857</v>
+        <v>0.4077304878746304</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5656,13 +5671,13 @@
         <v>300</v>
       </c>
       <c r="B298">
-        <v>4.96</v>
+        <v>5.09</v>
       </c>
       <c r="C298">
-        <v>5.437084717496054</v>
+        <v>5.500171789080797</v>
       </c>
       <c r="D298">
-        <v>0.4770847174960542</v>
+        <v>0.4101717890807972</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5670,13 +5685,13 @@
         <v>301</v>
       </c>
       <c r="B299">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="C299">
-        <v>5.467489719361469</v>
+        <v>5.486266579439382</v>
       </c>
       <c r="D299">
-        <v>0.4674897193614687</v>
+        <v>0.3962665794393825</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -5684,13 +5699,13 @@
         <v>302</v>
       </c>
       <c r="B300">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
       <c r="C300">
-        <v>5.493639373459553</v>
+        <v>5.50727127666096</v>
       </c>
       <c r="D300">
-        <v>0.4736393734595534</v>
+        <v>0.4172712766609603</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -5698,13 +5713,13 @@
         <v>303</v>
       </c>
       <c r="B301">
-        <v>5.02</v>
+        <v>5.1</v>
       </c>
       <c r="C301">
-        <v>5.484546577901236</v>
+        <v>5.495800736168752</v>
       </c>
       <c r="D301">
-        <v>0.4645465779012365</v>
+        <v>0.3958007361687521</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -5712,13 +5727,13 @@
         <v>304</v>
       </c>
       <c r="B302">
-        <v>5</v>
+        <v>5.14</v>
       </c>
       <c r="C302">
-        <v>5.447548832812771</v>
+        <v>5.499897996832985</v>
       </c>
       <c r="D302">
-        <v>0.447548832812771</v>
+        <v>0.3598979968329852</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -5726,13 +5741,13 @@
         <v>305</v>
       </c>
       <c r="B303">
-        <v>5.09</v>
+        <v>5.14</v>
       </c>
       <c r="C303">
-        <v>5.487186615703353</v>
+        <v>5.487447032512252</v>
       </c>
       <c r="D303">
-        <v>0.3971866157033528</v>
+        <v>0.3474470325122523</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5740,13 +5755,13 @@
         <v>306</v>
       </c>
       <c r="B304">
-        <v>5.1</v>
+        <v>5.12</v>
       </c>
       <c r="C304">
-        <v>5.475960071066471</v>
+        <v>5.431863563978755</v>
       </c>
       <c r="D304">
-        <v>0.375960071066471</v>
+        <v>0.311863563978755</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5754,13 +5769,13 @@
         <v>307</v>
       </c>
       <c r="B305">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="C305">
-        <v>5.502642033360592</v>
+        <v>5.395935873540658</v>
       </c>
       <c r="D305">
-        <v>0.352642033360592</v>
+        <v>0.2959358735406585</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5768,13 +5783,13 @@
         <v>308</v>
       </c>
       <c r="B306">
-        <v>5.15</v>
+        <v>5.09</v>
       </c>
       <c r="C306">
-        <v>5.500129468230348</v>
+        <v>5.421745086551075</v>
       </c>
       <c r="D306">
-        <v>0.3501294682303477</v>
+        <v>0.3317450865510754</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -5782,13 +5797,13 @@
         <v>309</v>
       </c>
       <c r="B307">
-        <v>5.16</v>
+        <v>5.11</v>
       </c>
       <c r="C307">
-        <v>5.482844502500772</v>
+        <v>5.402862755670959</v>
       </c>
       <c r="D307">
-        <v>0.3228445025007716</v>
+        <v>0.2928627556709591</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -5799,10 +5814,10 @@
         <v>5.14</v>
       </c>
       <c r="C308">
-        <v>5.476448143034226</v>
+        <v>5.413479857932634</v>
       </c>
       <c r="D308">
-        <v>0.3364481430342261</v>
+        <v>0.2734798579326343</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -5810,13 +5825,13 @@
         <v>311</v>
       </c>
       <c r="B309">
-        <v>5.14</v>
+        <v>5.07</v>
       </c>
       <c r="C309">
-        <v>5.449555076202223</v>
+        <v>5.310472081718814</v>
       </c>
       <c r="D309">
-        <v>0.3095550762022237</v>
+        <v>0.2404720817188135</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -5824,13 +5839,13 @@
         <v>312</v>
       </c>
       <c r="B310">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="C310">
-        <v>5.387940702106865</v>
+        <v>5.33969768012073</v>
       </c>
       <c r="D310">
-        <v>0.287940702106865</v>
+        <v>0.2696976801207294</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -5838,13 +5853,13 @@
         <v>313</v>
       </c>
       <c r="B311">
-        <v>5.15</v>
+        <v>5.07</v>
       </c>
       <c r="C311">
-        <v>5.398861327691515</v>
+        <v>5.343980835052957</v>
       </c>
       <c r="D311">
-        <v>0.2488613276915146</v>
+        <v>0.2739808350529565</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -5855,10 +5870,10 @@
         <v>5.13</v>
       </c>
       <c r="C312">
-        <v>5.378947174834086</v>
+        <v>5.367471659570694</v>
       </c>
       <c r="D312">
-        <v>0.2489471748340861</v>
+        <v>0.2374716595706943</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -5866,13 +5881,13 @@
         <v>315</v>
       </c>
       <c r="B313">
-        <v>5.13</v>
+        <v>5.12</v>
       </c>
       <c r="C313">
-        <v>5.348066829375888</v>
+        <v>5.357044271701672</v>
       </c>
       <c r="D313">
-        <v>0.2180668293758883</v>
+        <v>0.2370442717016719</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -5880,13 +5895,13 @@
         <v>316</v>
       </c>
       <c r="B314">
-        <v>5.07</v>
+        <v>5.09</v>
       </c>
       <c r="C314">
-        <v>5.301187034983322</v>
+        <v>5.257290494005812</v>
       </c>
       <c r="D314">
-        <v>0.2311870349833214</v>
+        <v>0.1672904940058118</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -5897,10 +5912,10 @@
         <v>5.09</v>
       </c>
       <c r="C315">
-        <v>5.30800164333457</v>
+        <v>5.248356344307871</v>
       </c>
       <c r="D315">
-        <v>0.2180016433345706</v>
+        <v>0.1583563443078715</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -5908,13 +5923,13 @@
         <v>318</v>
       </c>
       <c r="B316">
-        <v>5.08</v>
+        <v>5.05</v>
       </c>
       <c r="C316">
-        <v>5.308778033089709</v>
+        <v>5.268698735817416</v>
       </c>
       <c r="D316">
-        <v>0.2287780330897089</v>
+        <v>0.2186987358174166</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -5925,10 +5940,10 @@
         <v>5.07</v>
       </c>
       <c r="C317">
-        <v>5.301484225534852</v>
+        <v>5.24581806685793</v>
       </c>
       <c r="D317">
-        <v>0.2314842255348513</v>
+        <v>0.1758180668579294</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -5936,13 +5951,13 @@
         <v>320</v>
       </c>
       <c r="B318">
-        <v>5.07</v>
+        <v>5</v>
       </c>
       <c r="C318">
-        <v>5.339628731168868</v>
+        <v>5.162862362823316</v>
       </c>
       <c r="D318">
-        <v>0.2696287311688677</v>
+        <v>0.1628623628233159</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -5950,13 +5965,13 @@
         <v>321</v>
       </c>
       <c r="B319">
-        <v>5.12</v>
+        <v>5</v>
       </c>
       <c r="C319">
-        <v>5.373240518947778</v>
+        <v>5.151727305786437</v>
       </c>
       <c r="D319">
-        <v>0.253240518947778</v>
+        <v>0.1517273057864372</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -5964,13 +5979,13 @@
         <v>322</v>
       </c>
       <c r="B320">
-        <v>5.13</v>
+        <v>4.89</v>
       </c>
       <c r="C320">
-        <v>5.361715454582237</v>
+        <v>5.028709039896319</v>
       </c>
       <c r="D320">
-        <v>0.2317154545822371</v>
+        <v>0.1387090398963196</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -5978,13 +5993,13 @@
         <v>323</v>
       </c>
       <c r="B321">
-        <v>5.15</v>
+        <v>4.9</v>
       </c>
       <c r="C321">
-        <v>5.367465097246286</v>
+        <v>5.020257954171575</v>
       </c>
       <c r="D321">
-        <v>0.2174650972462855</v>
+        <v>0.1202579541715743</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -5992,13 +6007,13 @@
         <v>324</v>
       </c>
       <c r="B322">
-        <v>5.1</v>
+        <v>4.96</v>
       </c>
       <c r="C322">
-        <v>5.308611400846901</v>
+        <v>5.024304590607566</v>
       </c>
       <c r="D322">
-        <v>0.2086114008469009</v>
+        <v>0.06430459060756633</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6006,13 +6021,13 @@
         <v>325</v>
       </c>
       <c r="B323">
-        <v>5.1</v>
+        <v>4.97</v>
       </c>
       <c r="C323">
-        <v>5.253911999317702</v>
+        <v>5.020176357746612</v>
       </c>
       <c r="D323">
-        <v>0.1539119993177023</v>
+        <v>0.05017635774661233</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6020,13 +6035,13 @@
         <v>326</v>
       </c>
       <c r="B324">
-        <v>5.08</v>
+        <v>4.99</v>
       </c>
       <c r="C324">
-        <v>5.265228915374144</v>
+        <v>5.032786238537508</v>
       </c>
       <c r="D324">
-        <v>0.185228915374144</v>
+        <v>0.04278623853750751</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6034,13 +6049,13 @@
         <v>327</v>
       </c>
       <c r="B325">
-        <v>5.04</v>
+        <v>5.05</v>
       </c>
       <c r="C325">
-        <v>5.257985769488687</v>
+        <v>5.03605441369649</v>
       </c>
       <c r="D325">
-        <v>0.2179857694886866</v>
+        <v>-0.01394558630351028</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6048,13 +6063,13 @@
         <v>328</v>
       </c>
       <c r="B326">
-        <v>5.08</v>
+        <v>5.09</v>
       </c>
       <c r="C326">
-        <v>5.233478917592929</v>
+        <v>4.99326197677217</v>
       </c>
       <c r="D326">
-        <v>0.1534789175929294</v>
+        <v>-0.09673802322782965</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6062,13 +6077,13 @@
         <v>329</v>
       </c>
       <c r="B327">
-        <v>5.06</v>
+        <v>5.1</v>
       </c>
       <c r="C327">
-        <v>5.250648627357353</v>
+        <v>5.007122267138114</v>
       </c>
       <c r="D327">
-        <v>0.1906486273573531</v>
+        <v>-0.0928777328618855</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6076,13 +6091,13 @@
         <v>330</v>
       </c>
       <c r="B328">
-        <v>5.04</v>
+        <v>5.1</v>
       </c>
       <c r="C328">
-        <v>5.216159648017442</v>
+        <v>4.976675176060682</v>
       </c>
       <c r="D328">
-        <v>0.1761596480174417</v>
+        <v>-0.1233248239393179</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6090,13 +6105,13 @@
         <v>331</v>
       </c>
       <c r="B329">
-        <v>4.97</v>
+        <v>5.1</v>
       </c>
       <c r="C329">
-        <v>5.09523779144802</v>
+        <v>4.989537099043508</v>
       </c>
       <c r="D329">
-        <v>0.1252377914480203</v>
+        <v>-0.1104629009564917</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6104,13 +6119,13 @@
         <v>332</v>
       </c>
       <c r="B330">
-        <v>4.82</v>
+        <v>5.08</v>
       </c>
       <c r="C330">
-        <v>4.975745796999674</v>
+        <v>4.972419366108514</v>
       </c>
       <c r="D330">
-        <v>0.1557457969996738</v>
+        <v>-0.1075806338914864</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6118,13 +6133,13 @@
         <v>333</v>
       </c>
       <c r="B331">
-        <v>4.98</v>
+        <v>5.14</v>
       </c>
       <c r="C331">
-        <v>5.027778753662882</v>
+        <v>5.013518276820877</v>
       </c>
       <c r="D331">
-        <v>0.04777875366288153</v>
+        <v>-0.1264817231791229</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6132,13 +6147,13 @@
         <v>334</v>
       </c>
       <c r="B332">
-        <v>5.1</v>
+        <v>5.17</v>
       </c>
       <c r="C332">
-        <v>4.992298282897899</v>
+        <v>5.012607198557021</v>
       </c>
       <c r="D332">
-        <v>-0.1077017171021009</v>
+        <v>-0.1573928014429793</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6146,13 +6161,13 @@
         <v>335</v>
       </c>
       <c r="B333">
-        <v>5.14</v>
+        <v>5.19</v>
       </c>
       <c r="C333">
-        <v>5.007128738924989</v>
+        <v>5.020239525805674</v>
       </c>
       <c r="D333">
-        <v>-0.1328712610750102</v>
+        <v>-0.1697604741943266</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6160,13 +6175,13 @@
         <v>336</v>
       </c>
       <c r="B334">
-        <v>5.17</v>
+        <v>5.23</v>
       </c>
       <c r="C334">
-        <v>5.069065396705627</v>
+        <v>5.026145688340359</v>
       </c>
       <c r="D334">
-        <v>-0.1009346032943732</v>
+        <v>-0.203854311659641</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6177,10 +6192,10 @@
         <v>5.2</v>
       </c>
       <c r="C335">
-        <v>5.109579306831741</v>
+        <v>4.975054765667682</v>
       </c>
       <c r="D335">
-        <v>-0.09042069316825962</v>
+        <v>-0.2249452343323179</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6188,13 +6203,13 @@
         <v>338</v>
       </c>
       <c r="B336">
-        <v>5.24</v>
+        <v>5.15</v>
       </c>
       <c r="C336">
-        <v>5.098252126508717</v>
+        <v>5.099037735554929</v>
       </c>
       <c r="D336">
-        <v>-0.1417478734912834</v>
+        <v>-0.05096226444507135</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6202,13 +6217,13 @@
         <v>339</v>
       </c>
       <c r="B337">
-        <v>5.24</v>
+        <v>5.14</v>
       </c>
       <c r="C337">
-        <v>5.091376717943734</v>
+        <v>5.096157110820741</v>
       </c>
       <c r="D337">
-        <v>-0.1486232820562661</v>
+        <v>-0.04384288917925883</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6216,13 +6231,13 @@
         <v>340</v>
       </c>
       <c r="B338">
-        <v>5.26</v>
+        <v>5.27</v>
       </c>
       <c r="C338">
-        <v>5.147923960046474</v>
+        <v>5.155489415466777</v>
       </c>
       <c r="D338">
-        <v>-0.1120760399535259</v>
+        <v>-0.1145105845332228</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6230,13 +6245,13 @@
         <v>341</v>
       </c>
       <c r="B339">
-        <v>5.2</v>
+        <v>5.27</v>
       </c>
       <c r="C339">
-        <v>5.077786803357928</v>
+        <v>5.090876400556982</v>
       </c>
       <c r="D339">
-        <v>-0.1222131966420719</v>
+        <v>-0.1791235994430176</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6244,13 +6259,13 @@
         <v>342</v>
       </c>
       <c r="B340">
-        <v>5.21</v>
+        <v>5.25</v>
       </c>
       <c r="C340">
-        <v>5.065556038037865</v>
+        <v>5.104263331386022</v>
       </c>
       <c r="D340">
-        <v>-0.1444439619621347</v>
+        <v>-0.1457366686139778</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6258,13 +6273,13 @@
         <v>343</v>
       </c>
       <c r="B341">
-        <v>5.23</v>
+        <v>5.26</v>
       </c>
       <c r="C341">
-        <v>5.071361694339069</v>
+        <v>5.106611952369501</v>
       </c>
       <c r="D341">
-        <v>-0.1586383056609311</v>
+        <v>-0.1533880476304992</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6272,13 +6287,13 @@
         <v>344</v>
       </c>
       <c r="B342">
-        <v>5.28</v>
+        <v>5.26</v>
       </c>
       <c r="C342">
-        <v>5.071285078380041</v>
+        <v>5.130890774411073</v>
       </c>
       <c r="D342">
-        <v>-0.2087149216199595</v>
+        <v>-0.1291092255889268</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6286,13 +6301,13 @@
         <v>345</v>
       </c>
       <c r="B343">
-        <v>5.36</v>
+        <v>5.26</v>
       </c>
       <c r="C343">
-        <v>5.177836466474237</v>
+        <v>5.13711556713009</v>
       </c>
       <c r="D343">
-        <v>-0.1821635335257632</v>
+        <v>-0.1228844328699097</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6300,13 +6315,13 @@
         <v>346</v>
       </c>
       <c r="B344">
-        <v>5.29</v>
+        <v>5.18</v>
       </c>
       <c r="C344">
-        <v>5.110723021995611</v>
+        <v>5.016715507562205</v>
       </c>
       <c r="D344">
-        <v>-0.1792769780043892</v>
+        <v>-0.1632844924377945</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6314,13 +6329,13 @@
         <v>347</v>
       </c>
       <c r="B345">
-        <v>5.3</v>
+        <v>5.34</v>
       </c>
       <c r="C345">
-        <v>5.109432725250127</v>
+        <v>5.166963903084008</v>
       </c>
       <c r="D345">
-        <v>-0.1905672747498723</v>
+        <v>-0.1730360969159923</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6328,13 +6343,13 @@
         <v>348</v>
       </c>
       <c r="B346">
-        <v>5.28</v>
+        <v>5.35</v>
       </c>
       <c r="C346">
-        <v>5.10591325079476</v>
+        <v>5.13882767966907</v>
       </c>
       <c r="D346">
-        <v>-0.17408674920524</v>
+        <v>-0.2111723203309293</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6342,13 +6357,13 @@
         <v>349</v>
       </c>
       <c r="B347">
-        <v>5.36</v>
+        <v>5.29</v>
       </c>
       <c r="C347">
-        <v>5.117577723693277</v>
+        <v>5.119239222805414</v>
       </c>
       <c r="D347">
-        <v>-0.2424222763067236</v>
+        <v>-0.1707607771945856</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6356,13 +6371,13 @@
         <v>350</v>
       </c>
       <c r="B348">
-        <v>5.38</v>
+        <v>5.27</v>
       </c>
       <c r="C348">
-        <v>5.138701604379647</v>
+        <v>5.160469380768254</v>
       </c>
       <c r="D348">
-        <v>-0.2412983956203529</v>
+        <v>-0.1095306192317453</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6370,13 +6385,13 @@
         <v>351</v>
       </c>
       <c r="B349">
-        <v>5.37</v>
+        <v>5.25</v>
       </c>
       <c r="C349">
-        <v>5.184032801697211</v>
+        <v>5.112933742269873</v>
       </c>
       <c r="D349">
-        <v>-0.1859671983027891</v>
+        <v>-0.1370662577301269</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6384,13 +6399,13 @@
         <v>352</v>
       </c>
       <c r="B350">
-        <v>5.39</v>
+        <v>5.34</v>
       </c>
       <c r="C350">
-        <v>5.177312429806465</v>
+        <v>5.133199601277487</v>
       </c>
       <c r="D350">
-        <v>-0.2126875701935349</v>
+        <v>-0.2068003987225131</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6398,13 +6413,13 @@
         <v>353</v>
       </c>
       <c r="B351">
-        <v>5.41</v>
+        <v>5.31</v>
       </c>
       <c r="C351">
-        <v>5.187830518530068</v>
+        <v>5.10678888799267</v>
       </c>
       <c r="D351">
-        <v>-0.2221694814699324</v>
+        <v>-0.2032111120073301</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6412,13 +6427,13 @@
         <v>354</v>
       </c>
       <c r="B352">
-        <v>5.5</v>
+        <v>5.34</v>
       </c>
       <c r="C352">
-        <v>5.176683374298929</v>
+        <v>5.092463116283432</v>
       </c>
       <c r="D352">
-        <v>-0.3233166257010707</v>
+        <v>-0.2475368837165677</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6426,13 +6441,13 @@
         <v>355</v>
       </c>
       <c r="B353">
-        <v>5.56</v>
+        <v>5.37</v>
       </c>
       <c r="C353">
-        <v>5.168614462334791</v>
+        <v>5.189702250512616</v>
       </c>
       <c r="D353">
-        <v>-0.3913855376652089</v>
+        <v>-0.1802977494873836</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6440,13 +6455,13 @@
         <v>356</v>
       </c>
       <c r="B354">
-        <v>5.66</v>
+        <v>5.38</v>
       </c>
       <c r="C354">
-        <v>5.237588299158249</v>
+        <v>5.201563246441363</v>
       </c>
       <c r="D354">
-        <v>-0.4224117008417512</v>
+        <v>-0.1784367535586373</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6454,13 +6469,13 @@
         <v>357</v>
       </c>
       <c r="B355">
-        <v>5.69</v>
+        <v>5.38</v>
       </c>
       <c r="C355">
-        <v>5.294002350852923</v>
+        <v>5.218665323019554</v>
       </c>
       <c r="D355">
-        <v>-0.3959976491470769</v>
+        <v>-0.161334676980446</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6468,13 +6483,13 @@
         <v>358</v>
       </c>
       <c r="B356">
-        <v>5.71</v>
+        <v>5.37</v>
       </c>
       <c r="C356">
-        <v>5.289398787304707</v>
+        <v>5.210261726617706</v>
       </c>
       <c r="D356">
-        <v>-0.4206012126952929</v>
+        <v>-0.1597382733822945</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6482,13 +6497,13 @@
         <v>359</v>
       </c>
       <c r="B357">
-        <v>5.69</v>
+        <v>5.54</v>
       </c>
       <c r="C357">
-        <v>5.321589914707238</v>
+        <v>5.246259662098985</v>
       </c>
       <c r="D357">
-        <v>-0.3684100852927621</v>
+        <v>-0.2937403379010153</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6496,13 +6511,13 @@
         <v>360</v>
       </c>
       <c r="B358">
-        <v>5.53</v>
+        <v>5.54</v>
       </c>
       <c r="C358">
-        <v>5.347013606600154</v>
+        <v>5.251824874320825</v>
       </c>
       <c r="D358">
-        <v>-0.1829863933998466</v>
+        <v>-0.2881751256791754</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6510,13 +6525,13 @@
         <v>361</v>
       </c>
       <c r="B359">
-        <v>5.53</v>
+        <v>5.65</v>
       </c>
       <c r="C359">
-        <v>5.361409169171403</v>
+        <v>5.258822248992248</v>
       </c>
       <c r="D359">
-        <v>-0.168590830828597</v>
+        <v>-0.3911777510077519</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6524,13 +6539,13 @@
         <v>362</v>
       </c>
       <c r="B360">
-        <v>5.52</v>
+        <v>5.7</v>
       </c>
       <c r="C360">
-        <v>5.34483317759157</v>
+        <v>5.292440743587298</v>
       </c>
       <c r="D360">
-        <v>-0.1751668224084293</v>
+        <v>-0.4075592564127017</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6538,13 +6553,13 @@
         <v>363</v>
       </c>
       <c r="B361">
-        <v>5.53</v>
+        <v>5.7</v>
       </c>
       <c r="C361">
-        <v>5.353507420389204</v>
+        <v>5.281586512279016</v>
       </c>
       <c r="D361">
-        <v>-0.1764925796107963</v>
+        <v>-0.4184134877209846</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6552,13 +6567,13 @@
         <v>364</v>
       </c>
       <c r="B362">
-        <v>5.47</v>
+        <v>5.7</v>
       </c>
       <c r="C362">
-        <v>5.318928015524343</v>
+        <v>5.299763244176529</v>
       </c>
       <c r="D362">
-        <v>-0.1510719844756565</v>
+        <v>-0.400236755823471</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6566,13 +6581,13 @@
         <v>365</v>
       </c>
       <c r="B363">
-        <v>5.51</v>
+        <v>5.73</v>
       </c>
       <c r="C363">
-        <v>5.334190358249012</v>
+        <v>5.338066453006648</v>
       </c>
       <c r="D363">
-        <v>-0.1758096417509876</v>
+        <v>-0.3919335469933527</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6580,13 +6595,13 @@
         <v>366</v>
       </c>
       <c r="B364">
-        <v>5.52</v>
+        <v>5.53</v>
       </c>
       <c r="C364">
-        <v>5.320369811932697</v>
+        <v>5.356605219113186</v>
       </c>
       <c r="D364">
-        <v>-0.1996301880673022</v>
+        <v>-0.1733947808868139</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6594,13 +6609,13 @@
         <v>367</v>
       </c>
       <c r="B365">
-        <v>5.56</v>
+        <v>5.48</v>
       </c>
       <c r="C365">
-        <v>5.323840700165163</v>
+        <v>5.252860189036939</v>
       </c>
       <c r="D365">
-        <v>-0.2361592998348367</v>
+        <v>-0.2271398109630614</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6608,13 +6623,13 @@
         <v>368</v>
       </c>
       <c r="B366">
-        <v>5.66</v>
+        <v>5.53</v>
       </c>
       <c r="C366">
-        <v>5.399336404855371</v>
+        <v>5.353605359557251</v>
       </c>
       <c r="D366">
-        <v>-0.2606635951446288</v>
+        <v>-0.1763946404427488</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6622,13 +6637,13 @@
         <v>369</v>
       </c>
       <c r="B367">
-        <v>5.63</v>
+        <v>5.53</v>
       </c>
       <c r="C367">
-        <v>5.359723980553118</v>
+        <v>5.372919821278925</v>
       </c>
       <c r="D367">
-        <v>-0.2702760194468823</v>
+        <v>-0.1570801787210749</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6636,13 +6651,13 @@
         <v>370</v>
       </c>
       <c r="B368">
-        <v>5.68</v>
+        <v>5.51</v>
       </c>
       <c r="C368">
-        <v>5.342085551693499</v>
+        <v>5.354788832108643</v>
       </c>
       <c r="D368">
-        <v>-0.3379144483065009</v>
+        <v>-0.1552111678913572</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6650,13 +6665,83 @@
         <v>371</v>
       </c>
       <c r="B369">
-        <v>5.68</v>
+        <v>5.56</v>
       </c>
       <c r="C369">
-        <v>5.427336604796284</v>
+        <v>5.325072481303153</v>
       </c>
       <c r="D369">
-        <v>-0.2526633952037161</v>
+        <v>-0.2349275186968462</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B370">
+        <v>5.57</v>
+      </c>
+      <c r="C370">
+        <v>5.332741016144139</v>
+      </c>
+      <c r="D370">
+        <v>-0.2372589838558614</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B371">
+        <v>5.66</v>
+      </c>
+      <c r="C371">
+        <v>5.375854788844289</v>
+      </c>
+      <c r="D371">
+        <v>-0.2841452111557112</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B372">
+        <v>5.64</v>
+      </c>
+      <c r="C372">
+        <v>5.344496607238367</v>
+      </c>
+      <c r="D372">
+        <v>-0.2955033927616331</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B373">
+        <v>5.71</v>
+      </c>
+      <c r="C373">
+        <v>5.413645910394656</v>
+      </c>
+      <c r="D373">
+        <v>-0.2963540896053436</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B374">
+        <v>5.77</v>
+      </c>
+      <c r="C374">
+        <v>5.46656867557509</v>
+      </c>
+      <c r="D374">
+        <v>-0.3034313244249098</v>
       </c>
     </row>
   </sheetData>

--- a/temp/stable_train.xlsx
+++ b/temp/stable_train.xlsx
@@ -1960,10 +1960,10 @@
         <v>7.07</v>
       </c>
       <c r="C4">
-        <v>6.490071485415951</v>
+        <v>6.490071485415955</v>
       </c>
       <c r="D4">
-        <v>-0.5799285145840489</v>
+        <v>-0.5799285145840454</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1974,10 +1974,10 @@
         <v>6.77</v>
       </c>
       <c r="C5">
-        <v>6.38873431286102</v>
+        <v>6.388734312861022</v>
       </c>
       <c r="D5">
-        <v>-0.3812656871389795</v>
+        <v>-0.3812656871389777</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1988,10 +1988,10 @@
         <v>6.88</v>
       </c>
       <c r="C6">
-        <v>6.222642705195362</v>
+        <v>6.222642705195363</v>
       </c>
       <c r="D6">
-        <v>-0.6573572948046378</v>
+        <v>-0.6573572948046369</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2002,10 +2002,10 @@
         <v>6.87</v>
       </c>
       <c r="C7">
-        <v>6.260706835691879</v>
+        <v>6.260706835691881</v>
       </c>
       <c r="D7">
-        <v>-0.609293164308121</v>
+        <v>-0.6092931643081192</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2016,10 +2016,10 @@
         <v>6.79</v>
       </c>
       <c r="C8">
-        <v>6.208361191577511</v>
+        <v>6.208361191577512</v>
       </c>
       <c r="D8">
-        <v>-0.5816388084224888</v>
+        <v>-0.5816388084224879</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2030,10 +2030,10 @@
         <v>6.77</v>
       </c>
       <c r="C9">
-        <v>6.314352662847484</v>
+        <v>6.314352662847485</v>
       </c>
       <c r="D9">
-        <v>-0.4556473371525156</v>
+        <v>-0.4556473371525147</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2047,7 +2047,7 @@
         <v>6.311171747398753</v>
       </c>
       <c r="D10">
-        <v>-0.4988282526012471</v>
+        <v>-0.4988282526012462</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2058,10 +2058,10 @@
         <v>6.17</v>
       </c>
       <c r="C11">
-        <v>6.159494688879092</v>
+        <v>6.159494688879093</v>
       </c>
       <c r="D11">
-        <v>-0.01050531112090791</v>
+        <v>-0.01050531112090702</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2072,10 +2072,10 @@
         <v>6.16</v>
       </c>
       <c r="C12">
-        <v>6.153946453250639</v>
+        <v>6.153946453250641</v>
       </c>
       <c r="D12">
-        <v>-0.006053546749360983</v>
+        <v>-0.006053546749359207</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2086,10 +2086,10 @@
         <v>6.19</v>
       </c>
       <c r="C13">
-        <v>6.19301852207982</v>
+        <v>6.193018522079821</v>
       </c>
       <c r="D13">
-        <v>0.003018522079819341</v>
+        <v>0.003018522079820229</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2100,10 +2100,10 @@
         <v>6.17</v>
       </c>
       <c r="C14">
-        <v>6.165733728847262</v>
+        <v>6.165733728847263</v>
       </c>
       <c r="D14">
-        <v>-0.004266271152737922</v>
+        <v>-0.004266271152737033</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2114,10 +2114,10 @@
         <v>5.97</v>
       </c>
       <c r="C15">
-        <v>6.086963997462124</v>
+        <v>6.086963997462125</v>
       </c>
       <c r="D15">
-        <v>0.1169639974621246</v>
+        <v>0.1169639974621255</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2128,10 +2128,10 @@
         <v>5.98</v>
       </c>
       <c r="C16">
-        <v>6.079959122143807</v>
+        <v>6.079959122143808</v>
       </c>
       <c r="D16">
-        <v>0.09995912214380631</v>
+        <v>0.0999591221438072</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2156,10 +2156,10 @@
         <v>6.06</v>
       </c>
       <c r="C18">
-        <v>6.01342657554409</v>
+        <v>6.013426575544091</v>
       </c>
       <c r="D18">
-        <v>-0.04657342445590995</v>
+        <v>-0.04657342445590906</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2170,10 +2170,10 @@
         <v>6.08</v>
       </c>
       <c r="C19">
-        <v>5.99875913400386</v>
+        <v>5.998759134003861</v>
       </c>
       <c r="D19">
-        <v>-0.08124086599613989</v>
+        <v>-0.081240865996139</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2198,10 +2198,10 @@
         <v>5.92</v>
       </c>
       <c r="C21">
-        <v>5.984924907396403</v>
+        <v>5.984924907396402</v>
       </c>
       <c r="D21">
-        <v>0.06492490739640289</v>
+        <v>0.064924907396402</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2215,7 +2215,7 @@
         <v>6.019537670302753</v>
       </c>
       <c r="D22">
-        <v>0.08953767030275284</v>
+        <v>0.08953767030275372</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2226,10 +2226,10 @@
         <v>5.97</v>
       </c>
       <c r="C23">
-        <v>6.032415138390022</v>
+        <v>6.032415138390023</v>
       </c>
       <c r="D23">
-        <v>0.06241513839002266</v>
+        <v>0.06241513839002355</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2254,10 +2254,10 @@
         <v>5.95</v>
       </c>
       <c r="C25">
-        <v>5.969789733151925</v>
+        <v>5.969789733151926</v>
       </c>
       <c r="D25">
-        <v>0.01978973315192523</v>
+        <v>0.01978973315192611</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2268,10 +2268,10 @@
         <v>5.96</v>
       </c>
       <c r="C26">
-        <v>5.974775952940024</v>
+        <v>5.974775952940025</v>
       </c>
       <c r="D26">
-        <v>0.01477595294002398</v>
+        <v>0.01477595294002487</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2296,10 +2296,10 @@
         <v>6.02</v>
       </c>
       <c r="C28">
-        <v>6.010574289223293</v>
+        <v>6.010574289223292</v>
       </c>
       <c r="D28">
-        <v>-0.009425710776707064</v>
+        <v>-0.009425710776707952</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2313,7 +2313,7 @@
         <v>6.060531272628936</v>
       </c>
       <c r="D29">
-        <v>0.04053127262893597</v>
+        <v>0.04053127262893685</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2324,10 +2324,10 @@
         <v>5.98</v>
       </c>
       <c r="C30">
-        <v>6.04712886494113</v>
+        <v>6.047128864941131</v>
       </c>
       <c r="D30">
-        <v>0.06712886494112968</v>
+        <v>0.06712886494113057</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2352,10 +2352,10 @@
         <v>6.03</v>
       </c>
       <c r="C32">
-        <v>6.111829408508889</v>
+        <v>6.11182940850889</v>
       </c>
       <c r="D32">
-        <v>0.08182940850888887</v>
+        <v>0.08182940850888976</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2394,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>6.087042197205414</v>
+        <v>6.087042197205416</v>
       </c>
       <c r="D35">
-        <v>0.08704219720541406</v>
+        <v>0.08704219720541584</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2408,10 +2408,10 @@
         <v>5.96</v>
       </c>
       <c r="C36">
-        <v>6.025821816418299</v>
+        <v>6.0258218164183</v>
       </c>
       <c r="D36">
-        <v>0.06582181641829887</v>
+        <v>0.06582181641829976</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2422,10 +2422,10 @@
         <v>6.07</v>
       </c>
       <c r="C37">
-        <v>6.041685105591354</v>
+        <v>6.041685105591355</v>
       </c>
       <c r="D37">
-        <v>-0.02831489440864665</v>
+        <v>-0.02831489440864576</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2436,10 +2436,10 @@
         <v>5.9</v>
       </c>
       <c r="C38">
-        <v>6.008906607283759</v>
+        <v>6.00890660728376</v>
       </c>
       <c r="D38">
-        <v>0.1089066072837586</v>
+        <v>0.1089066072837594</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2450,10 +2450,10 @@
         <v>5.83</v>
       </c>
       <c r="C39">
-        <v>6.010103826713685</v>
+        <v>6.010103826713687</v>
       </c>
       <c r="D39">
-        <v>0.180103826713685</v>
+        <v>0.1801038267136867</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2548,10 +2548,10 @@
         <v>6.15</v>
       </c>
       <c r="C46">
-        <v>6.314520744481536</v>
+        <v>6.314520744481537</v>
       </c>
       <c r="D46">
-        <v>0.1645207444815355</v>
+        <v>0.1645207444815364</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2562,10 +2562,10 @@
         <v>6.43</v>
       </c>
       <c r="C47">
-        <v>6.413640428157888</v>
+        <v>6.413640428157889</v>
       </c>
       <c r="D47">
-        <v>-0.0163595718421119</v>
+        <v>-0.01635957184211101</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2590,10 +2590,10 @@
         <v>6.46</v>
       </c>
       <c r="C49">
-        <v>6.389458194352206</v>
+        <v>6.389458194352207</v>
       </c>
       <c r="D49">
-        <v>-0.07054180564779422</v>
+        <v>-0.07054180564779333</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2632,10 +2632,10 @@
         <v>6.41</v>
       </c>
       <c r="C52">
-        <v>6.465589357704165</v>
+        <v>6.465589357704164</v>
       </c>
       <c r="D52">
-        <v>0.0555893577041644</v>
+        <v>0.05558935770416351</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2702,10 +2702,10 @@
         <v>6.73</v>
       </c>
       <c r="C57">
-        <v>6.618186624910107</v>
+        <v>6.618186624910106</v>
       </c>
       <c r="D57">
-        <v>-0.1118133750898931</v>
+        <v>-0.111813375089894</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2716,10 +2716,10 @@
         <v>6.79</v>
       </c>
       <c r="C58">
-        <v>6.605991472034258</v>
+        <v>6.605991472034259</v>
       </c>
       <c r="D58">
-        <v>-0.1840085279657417</v>
+        <v>-0.1840085279657409</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2758,10 +2758,10 @@
         <v>6.44</v>
       </c>
       <c r="C61">
-        <v>6.615852488410525</v>
+        <v>6.615852488410526</v>
       </c>
       <c r="D61">
-        <v>0.1758524884105244</v>
+        <v>0.1758524884105253</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2786,10 +2786,10 @@
         <v>6.58</v>
       </c>
       <c r="C63">
-        <v>6.61613441371191</v>
+        <v>6.616134413711911</v>
       </c>
       <c r="D63">
-        <v>0.03613441371190973</v>
+        <v>0.03613441371191062</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2800,10 +2800,10 @@
         <v>6.63</v>
       </c>
       <c r="C64">
-        <v>6.592446691478634</v>
+        <v>6.592446691478635</v>
       </c>
       <c r="D64">
-        <v>-0.03755330852136574</v>
+        <v>-0.03755330852136485</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2856,10 +2856,10 @@
         <v>6.47</v>
       </c>
       <c r="C68">
-        <v>6.499318610611381</v>
+        <v>6.499318610611382</v>
       </c>
       <c r="D68">
-        <v>0.02931861061138097</v>
+        <v>0.02931861061138186</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2884,10 +2884,10 @@
         <v>6.36</v>
       </c>
       <c r="C70">
-        <v>6.429075539169574</v>
+        <v>6.429075539169575</v>
       </c>
       <c r="D70">
-        <v>0.06907553916957365</v>
+        <v>0.06907553916957454</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2915,7 +2915,7 @@
         <v>6.288742387144286</v>
       </c>
       <c r="D72">
-        <v>-0.1212576128557146</v>
+        <v>-0.1212576128557137</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2926,10 +2926,10 @@
         <v>6.46</v>
       </c>
       <c r="C73">
-        <v>6.263779919501199</v>
+        <v>6.2637799195012</v>
       </c>
       <c r="D73">
-        <v>-0.1962200804988008</v>
+        <v>-0.1962200804987999</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2940,10 +2940,10 @@
         <v>6.49</v>
       </c>
       <c r="C74">
-        <v>6.235976752541372</v>
+        <v>6.235976752541373</v>
       </c>
       <c r="D74">
-        <v>-0.2540232474586279</v>
+        <v>-0.254023247458627</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2954,10 +2954,10 @@
         <v>6.58</v>
       </c>
       <c r="C75">
-        <v>6.246944999125381</v>
+        <v>6.246944999125382</v>
       </c>
       <c r="D75">
-        <v>-0.3330550008746194</v>
+        <v>-0.3330550008746185</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2968,10 +2968,10 @@
         <v>6.6</v>
       </c>
       <c r="C76">
-        <v>6.272476047383069</v>
+        <v>6.27247604738307</v>
       </c>
       <c r="D76">
-        <v>-0.3275239526169305</v>
+        <v>-0.3275239526169296</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2982,10 +2982,10 @@
         <v>6.63</v>
       </c>
       <c r="C77">
-        <v>6.301441471415102</v>
+        <v>6.301441471415103</v>
       </c>
       <c r="D77">
-        <v>-0.3285585285848978</v>
+        <v>-0.3285585285848969</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2996,10 +2996,10 @@
         <v>6.6</v>
       </c>
       <c r="C78">
-        <v>6.319809199070942</v>
+        <v>6.319809199070944</v>
       </c>
       <c r="D78">
-        <v>-0.2801908009290575</v>
+        <v>-0.2801908009290557</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -3024,10 +3024,10 @@
         <v>6.6</v>
       </c>
       <c r="C80">
-        <v>6.302955560469261</v>
+        <v>6.30295556046926</v>
       </c>
       <c r="D80">
-        <v>-0.2970444395307386</v>
+        <v>-0.2970444395307394</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3038,10 +3038,10 @@
         <v>6.61</v>
       </c>
       <c r="C81">
-        <v>6.28256378941569</v>
+        <v>6.282563789415691</v>
       </c>
       <c r="D81">
-        <v>-0.3274362105843105</v>
+        <v>-0.3274362105843096</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3052,10 +3052,10 @@
         <v>6.55</v>
       </c>
       <c r="C82">
-        <v>6.213230225811945</v>
+        <v>6.213230225811946</v>
       </c>
       <c r="D82">
-        <v>-0.3367697741880544</v>
+        <v>-0.3367697741880535</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3069,7 +3069,7 @@
         <v>6.132576725186079</v>
       </c>
       <c r="D83">
-        <v>-0.4774232748139218</v>
+        <v>-0.4774232748139209</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3080,10 +3080,10 @@
         <v>6.65</v>
       </c>
       <c r="C84">
-        <v>6.162341662731392</v>
+        <v>6.162341662731393</v>
       </c>
       <c r="D84">
-        <v>-0.4876583372686083</v>
+        <v>-0.4876583372686074</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3097,7 +3097,7 @@
         <v>6.1774068449574</v>
       </c>
       <c r="D85">
-        <v>-0.5225931550426006</v>
+        <v>-0.5225931550425997</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3111,7 +3111,7 @@
         <v>6.092363584307368</v>
       </c>
       <c r="D86">
-        <v>-0.3876364156926329</v>
+        <v>-0.387636415692632</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3122,10 +3122,10 @@
         <v>6.39</v>
       </c>
       <c r="C87">
-        <v>6.101832858868466</v>
+        <v>6.101832858868467</v>
       </c>
       <c r="D87">
-        <v>-0.2881671411315336</v>
+        <v>-0.2881671411315327</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3136,10 +3136,10 @@
         <v>6.28</v>
       </c>
       <c r="C88">
-        <v>6.039564935270231</v>
+        <v>6.039564935270232</v>
       </c>
       <c r="D88">
-        <v>-0.2404350647297688</v>
+        <v>-0.2404350647297679</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3167,7 +3167,7 @@
         <v>6.102496334417276</v>
       </c>
       <c r="D90">
-        <v>-0.1875036655827245</v>
+        <v>-0.1875036655827236</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3178,10 +3178,10 @@
         <v>6.34</v>
       </c>
       <c r="C91">
-        <v>6.097185159988275</v>
+        <v>6.097185159988276</v>
       </c>
       <c r="D91">
-        <v>-0.2428148400117252</v>
+        <v>-0.2428148400117243</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3192,10 +3192,10 @@
         <v>6.35</v>
       </c>
       <c r="C92">
-        <v>6.09436174997847</v>
+        <v>6.094361749978472</v>
       </c>
       <c r="D92">
-        <v>-0.25563825002153</v>
+        <v>-0.2556382500215273</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3206,10 +3206,10 @@
         <v>6.25</v>
       </c>
       <c r="C93">
-        <v>6.123687165914006</v>
+        <v>6.123687165914007</v>
       </c>
       <c r="D93">
-        <v>-0.1263128340859936</v>
+        <v>-0.1263128340859927</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3220,10 +3220,10 @@
         <v>6.41</v>
       </c>
       <c r="C94">
-        <v>6.186045488370589</v>
+        <v>6.186045488370591</v>
       </c>
       <c r="D94">
-        <v>-0.2239545116294108</v>
+        <v>-0.223954511629409</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3234,10 +3234,10 @@
         <v>6.47</v>
       </c>
       <c r="C95">
-        <v>6.176666684437754</v>
+        <v>6.176666684437755</v>
       </c>
       <c r="D95">
-        <v>-0.2933333155622462</v>
+        <v>-0.2933333155622444</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3248,10 +3248,10 @@
         <v>6.09</v>
       </c>
       <c r="C96">
-        <v>6.108412206892806</v>
+        <v>6.108412206892807</v>
       </c>
       <c r="D96">
-        <v>0.01841220689280654</v>
+        <v>0.01841220689280743</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3262,10 +3262,10 @@
         <v>6.13</v>
       </c>
       <c r="C97">
-        <v>6.143957931682538</v>
+        <v>6.143957931682539</v>
       </c>
       <c r="D97">
-        <v>0.01395793168253778</v>
+        <v>0.01395793168253956</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3290,10 +3290,10 @@
         <v>6.13</v>
       </c>
       <c r="C99">
-        <v>6.172030384958252</v>
+        <v>6.172030384958253</v>
       </c>
       <c r="D99">
-        <v>0.0420303849582524</v>
+        <v>0.04203038495825329</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3307,7 +3307,7 @@
         <v>6.21902806575492</v>
       </c>
       <c r="D100">
-        <v>0.04902806575491958</v>
+        <v>0.04902806575492047</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3318,10 +3318,10 @@
         <v>6.16</v>
       </c>
       <c r="C101">
-        <v>6.215147838787248</v>
+        <v>6.215147838787249</v>
       </c>
       <c r="D101">
-        <v>0.05514783878724749</v>
+        <v>0.05514783878724838</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3332,10 +3332,10 @@
         <v>6.09</v>
       </c>
       <c r="C102">
-        <v>6.21012895141308</v>
+        <v>6.210128951413082</v>
       </c>
       <c r="D102">
-        <v>0.1201289514130801</v>
+        <v>0.1201289514130819</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3346,10 +3346,10 @@
         <v>6.05</v>
       </c>
       <c r="C103">
-        <v>6.210487248691766</v>
+        <v>6.210487248691767</v>
       </c>
       <c r="D103">
-        <v>0.1604872486917666</v>
+        <v>0.1604872486917674</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3360,10 +3360,10 @@
         <v>5.99</v>
       </c>
       <c r="C104">
-        <v>6.203510098952355</v>
+        <v>6.203510098952356</v>
       </c>
       <c r="D104">
-        <v>0.2135100989523551</v>
+        <v>0.213510098952356</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3388,10 +3388,10 @@
         <v>6.05</v>
       </c>
       <c r="C106">
-        <v>6.27815127048445</v>
+        <v>6.278151270484451</v>
       </c>
       <c r="D106">
-        <v>0.2281512704844504</v>
+        <v>0.2281512704844513</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3430,10 +3430,10 @@
         <v>5.99</v>
       </c>
       <c r="C109">
-        <v>6.297010093482777</v>
+        <v>6.297010093482778</v>
       </c>
       <c r="D109">
-        <v>0.3070100934827771</v>
+        <v>0.307010093482778</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3447,7 +3447,7 @@
         <v>6.292411498989861</v>
       </c>
       <c r="D110">
-        <v>0.2024114989898607</v>
+        <v>0.2024114989898615</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3472,10 +3472,10 @@
         <v>6.09</v>
       </c>
       <c r="C112">
-        <v>6.243516997851407</v>
+        <v>6.243516997851408</v>
       </c>
       <c r="D112">
-        <v>0.1535169978514075</v>
+        <v>0.1535169978514084</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3489,7 +3489,7 @@
         <v>6.409793712975111</v>
       </c>
       <c r="D113">
-        <v>0.3097937129751109</v>
+        <v>0.3097937129751118</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3500,10 +3500,10 @@
         <v>6.15</v>
       </c>
       <c r="C114">
-        <v>6.437859655231456</v>
+        <v>6.437859655231459</v>
       </c>
       <c r="D114">
-        <v>0.2878596552314558</v>
+        <v>0.2878596552314585</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3528,10 +3528,10 @@
         <v>6.04</v>
       </c>
       <c r="C116">
-        <v>6.341635965315868</v>
+        <v>6.341635965315869</v>
       </c>
       <c r="D116">
-        <v>0.3016359653158682</v>
+        <v>0.3016359653158691</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3542,10 +3542,10 @@
         <v>6.06</v>
       </c>
       <c r="C117">
-        <v>6.345296689888965</v>
+        <v>6.345296689888966</v>
       </c>
       <c r="D117">
-        <v>0.2852966898889653</v>
+        <v>0.2852966898889662</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3556,10 +3556,10 @@
         <v>6.12</v>
       </c>
       <c r="C118">
-        <v>6.237237705585528</v>
+        <v>6.23723770558553</v>
       </c>
       <c r="D118">
-        <v>0.117237705585528</v>
+        <v>0.1172377055855298</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3570,10 +3570,10 @@
         <v>5.87</v>
       </c>
       <c r="C119">
-        <v>6.171587645672151</v>
+        <v>6.171587645672152</v>
       </c>
       <c r="D119">
-        <v>0.3015876456721509</v>
+        <v>0.3015876456721518</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3598,10 +3598,10 @@
         <v>5.8</v>
       </c>
       <c r="C121">
-        <v>6.116977034407442</v>
+        <v>6.116977034407443</v>
       </c>
       <c r="D121">
-        <v>0.3169770344074418</v>
+        <v>0.3169770344074427</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3612,10 +3612,10 @@
         <v>6.05</v>
       </c>
       <c r="C122">
-        <v>6.107696013143113</v>
+        <v>6.107696013143115</v>
       </c>
       <c r="D122">
-        <v>0.05769601314311323</v>
+        <v>0.05769601314311501</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3626,10 +3626,10 @@
         <v>5.85</v>
       </c>
       <c r="C123">
-        <v>5.984163074106487</v>
+        <v>5.984163074106489</v>
       </c>
       <c r="D123">
-        <v>0.1341630741064872</v>
+        <v>0.134163074106489</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3654,10 +3654,10 @@
         <v>5.63</v>
       </c>
       <c r="C125">
-        <v>6.047165445282599</v>
+        <v>6.047165445282602</v>
       </c>
       <c r="D125">
-        <v>0.417165445282599</v>
+        <v>0.4171654452826017</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3668,10 +3668,10 @@
         <v>5.62</v>
       </c>
       <c r="C126">
-        <v>6.062529918133439</v>
+        <v>6.06252991813344</v>
       </c>
       <c r="D126">
-        <v>0.442529918133439</v>
+        <v>0.4425299181334399</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3682,10 +3682,10 @@
         <v>5.66</v>
       </c>
       <c r="C127">
-        <v>6.09741658253551</v>
+        <v>6.097416582535512</v>
       </c>
       <c r="D127">
-        <v>0.4374165825355103</v>
+        <v>0.4374165825355121</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3699,7 +3699,7 @@
         <v>6.177555514083664</v>
       </c>
       <c r="D128">
-        <v>0.4875555140836632</v>
+        <v>0.487555514083664</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3710,10 +3710,10 @@
         <v>5.72</v>
       </c>
       <c r="C129">
-        <v>6.163273795457562</v>
+        <v>6.163273795457564</v>
       </c>
       <c r="D129">
-        <v>0.4432737954575625</v>
+        <v>0.4432737954575643</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3724,10 +3724,10 @@
         <v>5.68</v>
       </c>
       <c r="C130">
-        <v>6.115455686284416</v>
+        <v>6.115455686284417</v>
       </c>
       <c r="D130">
-        <v>0.4354556862844161</v>
+        <v>0.435455686284417</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3738,10 +3738,10 @@
         <v>5.67</v>
       </c>
       <c r="C131">
-        <v>6.142035130642449</v>
+        <v>6.142035130642451</v>
       </c>
       <c r="D131">
-        <v>0.4720351306424488</v>
+        <v>0.4720351306424506</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3752,10 +3752,10 @@
         <v>5.69</v>
       </c>
       <c r="C132">
-        <v>6.146966557483506</v>
+        <v>6.146966557483508</v>
       </c>
       <c r="D132">
-        <v>0.4569665574835051</v>
+        <v>0.4569665574835078</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3766,10 +3766,10 @@
         <v>5.68</v>
       </c>
       <c r="C133">
-        <v>6.132807879049459</v>
+        <v>6.13280787904946</v>
       </c>
       <c r="D133">
-        <v>0.452807879049459</v>
+        <v>0.4528078790494598</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3780,10 +3780,10 @@
         <v>5.69</v>
       </c>
       <c r="C134">
-        <v>6.113321676206424</v>
+        <v>6.113321676206426</v>
       </c>
       <c r="D134">
-        <v>0.4233216762064238</v>
+        <v>0.4233216762064256</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3794,10 +3794,10 @@
         <v>5.7</v>
       </c>
       <c r="C135">
-        <v>6.157691159566125</v>
+        <v>6.157691159566126</v>
       </c>
       <c r="D135">
-        <v>0.4576911595661244</v>
+        <v>0.4576911595661262</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3822,10 +3822,10 @@
         <v>5.64</v>
       </c>
       <c r="C137">
-        <v>6.181521199967379</v>
+        <v>6.18152119996738</v>
       </c>
       <c r="D137">
-        <v>0.541521199967379</v>
+        <v>0.5415211999673808</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3850,10 +3850,10 @@
         <v>5.95</v>
       </c>
       <c r="C139">
-        <v>6.274174630344329</v>
+        <v>6.27417463034433</v>
       </c>
       <c r="D139">
-        <v>0.3241746303443289</v>
+        <v>0.3241746303443298</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3878,10 +3878,10 @@
         <v>6.32</v>
       </c>
       <c r="C141">
-        <v>6.598562798118802</v>
+        <v>6.598562798118803</v>
       </c>
       <c r="D141">
-        <v>0.2785627981188021</v>
+        <v>0.278562798118803</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3892,10 +3892,10 @@
         <v>6.32</v>
       </c>
       <c r="C142">
-        <v>6.681354066565747</v>
+        <v>6.681354066565748</v>
       </c>
       <c r="D142">
-        <v>0.3613540665657471</v>
+        <v>0.361354066565748</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3906,10 +3906,10 @@
         <v>6.33</v>
       </c>
       <c r="C143">
-        <v>6.677253823477279</v>
+        <v>6.67725382347728</v>
       </c>
       <c r="D143">
-        <v>0.3472538234772786</v>
+        <v>0.3472538234772795</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3923,7 +3923,7 @@
         <v>6.668362987456455</v>
       </c>
       <c r="D144">
-        <v>0.3283629874564546</v>
+        <v>0.3283629874564555</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3934,10 +3934,10 @@
         <v>6.33</v>
       </c>
       <c r="C145">
-        <v>6.6701449547607</v>
+        <v>6.670144954760702</v>
       </c>
       <c r="D145">
-        <v>0.3401449547607003</v>
+        <v>0.3401449547607021</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3948,10 +3948,10 @@
         <v>6.35</v>
       </c>
       <c r="C146">
-        <v>6.662239661358522</v>
+        <v>6.662239661358523</v>
       </c>
       <c r="D146">
-        <v>0.3122396613585225</v>
+        <v>0.3122396613585234</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3962,10 +3962,10 @@
         <v>6.14</v>
       </c>
       <c r="C147">
-        <v>6.703188224569385</v>
+        <v>6.703188224569387</v>
       </c>
       <c r="D147">
-        <v>0.5631882245693856</v>
+        <v>0.5631882245693873</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3990,10 +3990,10 @@
         <v>6.6</v>
       </c>
       <c r="C149">
-        <v>6.736655532582709</v>
+        <v>6.736655532582711</v>
       </c>
       <c r="D149">
-        <v>0.1366555325827097</v>
+        <v>0.1366555325827115</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -4004,10 +4004,10 @@
         <v>6.63</v>
       </c>
       <c r="C150">
-        <v>6.732323929817082</v>
+        <v>6.732323929817084</v>
       </c>
       <c r="D150">
-        <v>0.1023239298170822</v>
+        <v>0.1023239298170839</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4018,10 +4018,10 @@
         <v>6.59</v>
       </c>
       <c r="C151">
-        <v>6.644574177427778</v>
+        <v>6.64457417742778</v>
       </c>
       <c r="D151">
-        <v>0.05457417742777793</v>
+        <v>0.0545741774277797</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4032,10 +4032,10 @@
         <v>6.59</v>
       </c>
       <c r="C152">
-        <v>6.659171902584277</v>
+        <v>6.659171902584278</v>
       </c>
       <c r="D152">
-        <v>0.06917190258427741</v>
+        <v>0.0691719025842783</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4046,10 +4046,10 @@
         <v>6.58</v>
       </c>
       <c r="C153">
-        <v>6.700814402100368</v>
+        <v>6.700814402100369</v>
       </c>
       <c r="D153">
-        <v>0.1208144021003683</v>
+        <v>0.1208144021003692</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4060,10 +4060,10 @@
         <v>6.61</v>
       </c>
       <c r="C154">
-        <v>6.543022478867199</v>
+        <v>6.5430224788672</v>
       </c>
       <c r="D154">
-        <v>-0.06697752113280142</v>
+        <v>-0.06697752113280053</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4074,10 +4074,10 @@
         <v>6.62</v>
       </c>
       <c r="C155">
-        <v>6.554812598364095</v>
+        <v>6.554812598364096</v>
       </c>
       <c r="D155">
-        <v>-0.06518740163590486</v>
+        <v>-0.06518740163590397</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4088,10 +4088,10 @@
         <v>6.63</v>
       </c>
       <c r="C156">
-        <v>6.537125738712949</v>
+        <v>6.537125738712951</v>
       </c>
       <c r="D156">
-        <v>-0.09287426128705079</v>
+        <v>-0.09287426128704901</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4105,7 +4105,7 @@
         <v>6.499192359456416</v>
       </c>
       <c r="D157">
-        <v>-0.07080764054358468</v>
+        <v>-0.07080764054358379</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4116,10 +4116,10 @@
         <v>6.51</v>
       </c>
       <c r="C158">
-        <v>6.438108250267694</v>
+        <v>6.438108250267695</v>
       </c>
       <c r="D158">
-        <v>-0.0718917497323055</v>
+        <v>-0.07189174973230461</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4130,10 +4130,10 @@
         <v>6.55</v>
       </c>
       <c r="C159">
-        <v>6.463387648791281</v>
+        <v>6.463387648791282</v>
       </c>
       <c r="D159">
-        <v>-0.08661235120871869</v>
+        <v>-0.0866123512087178</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4147,7 +4147,7 @@
         <v>6.508170310949541</v>
       </c>
       <c r="D160">
-        <v>-0.0718296890504595</v>
+        <v>-0.07182968905045861</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4158,10 +4158,10 @@
         <v>6.57</v>
       </c>
       <c r="C161">
-        <v>6.50172666061019</v>
+        <v>6.501726660610191</v>
       </c>
       <c r="D161">
-        <v>-0.06827333938981006</v>
+        <v>-0.06827333938980917</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4172,10 +4172,10 @@
         <v>7.02</v>
       </c>
       <c r="C162">
-        <v>6.693501102677153</v>
+        <v>6.693501102677154</v>
       </c>
       <c r="D162">
-        <v>-0.3264988973228462</v>
+        <v>-0.3264988973228453</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4186,10 +4186,10 @@
         <v>7.07</v>
       </c>
       <c r="C163">
-        <v>6.70108563016111</v>
+        <v>6.701085630161111</v>
       </c>
       <c r="D163">
-        <v>-0.3689143698388904</v>
+        <v>-0.3689143698388895</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4200,10 +4200,10 @@
         <v>7.11</v>
       </c>
       <c r="C164">
-        <v>6.724610317114061</v>
+        <v>6.724610317114062</v>
       </c>
       <c r="D164">
-        <v>-0.3853896828859389</v>
+        <v>-0.385389682885938</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4217,7 +4217,7 @@
         <v>6.742823851105483</v>
       </c>
       <c r="D165">
-        <v>-0.4471761488945178</v>
+        <v>-0.447176148894517</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4242,10 +4242,10 @@
         <v>7.09</v>
       </c>
       <c r="C167">
-        <v>6.722325497980306</v>
+        <v>6.722325497980307</v>
       </c>
       <c r="D167">
-        <v>-0.3676745020196934</v>
+        <v>-0.3676745020196925</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4256,10 +4256,10 @@
         <v>7.12</v>
       </c>
       <c r="C168">
-        <v>6.755238888604557</v>
+        <v>6.755238888604558</v>
       </c>
       <c r="D168">
-        <v>-0.3647611113954428</v>
+        <v>-0.3647611113954419</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4270,10 +4270,10 @@
         <v>6.95</v>
       </c>
       <c r="C169">
-        <v>6.708399315300282</v>
+        <v>6.708399315300283</v>
       </c>
       <c r="D169">
-        <v>-0.2416006846997183</v>
+        <v>-0.2416006846997174</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4284,10 +4284,10 @@
         <v>6.95</v>
       </c>
       <c r="C170">
-        <v>6.687769624620607</v>
+        <v>6.687769624620608</v>
       </c>
       <c r="D170">
-        <v>-0.2622303753793931</v>
+        <v>-0.2622303753793922</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4298,10 +4298,10 @@
         <v>6.97</v>
       </c>
       <c r="C171">
-        <v>6.731365267865502</v>
+        <v>6.731365267865503</v>
       </c>
       <c r="D171">
-        <v>-0.2386347321344973</v>
+        <v>-0.2386347321344964</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4312,10 +4312,10 @@
         <v>6.94</v>
       </c>
       <c r="C172">
-        <v>6.725755434757935</v>
+        <v>6.725755434757936</v>
       </c>
       <c r="D172">
-        <v>-0.2142445652420655</v>
+        <v>-0.2142445652420646</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4326,10 +4326,10 @@
         <v>6.97</v>
       </c>
       <c r="C173">
-        <v>6.744141890577766</v>
+        <v>6.744141890577767</v>
       </c>
       <c r="D173">
-        <v>-0.2258581094222336</v>
+        <v>-0.2258581094222327</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4340,10 +4340,10 @@
         <v>6.91</v>
       </c>
       <c r="C174">
-        <v>6.666601276801673</v>
+        <v>6.666601276801672</v>
       </c>
       <c r="D174">
-        <v>-0.243398723198327</v>
+        <v>-0.2433987231983279</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4354,10 +4354,10 @@
         <v>6.83</v>
       </c>
       <c r="C175">
-        <v>6.653977676592148</v>
+        <v>6.65397767659215</v>
       </c>
       <c r="D175">
-        <v>-0.1760223234078522</v>
+        <v>-0.1760223234078504</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4368,10 +4368,10 @@
         <v>6.77</v>
       </c>
       <c r="C176">
-        <v>6.591711173089086</v>
+        <v>6.591711173089088</v>
       </c>
       <c r="D176">
-        <v>-0.1782888269109133</v>
+        <v>-0.1782888269109115</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4382,10 +4382,10 @@
         <v>6.91</v>
       </c>
       <c r="C177">
-        <v>6.564624129166981</v>
+        <v>6.564624129166982</v>
       </c>
       <c r="D177">
-        <v>-0.3453758708330188</v>
+        <v>-0.3453758708330179</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4396,10 +4396,10 @@
         <v>7.07</v>
       </c>
       <c r="C178">
-        <v>6.673195127552551</v>
+        <v>6.673195127552552</v>
       </c>
       <c r="D178">
-        <v>-0.3968048724474489</v>
+        <v>-0.396804872447448</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4410,10 +4410,10 @@
         <v>7.17</v>
       </c>
       <c r="C179">
-        <v>6.695526285899285</v>
+        <v>6.695526285899286</v>
       </c>
       <c r="D179">
-        <v>-0.4744737141007151</v>
+        <v>-0.4744737141007143</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4424,10 +4424,10 @@
         <v>7.22</v>
       </c>
       <c r="C180">
-        <v>6.690223212452198</v>
+        <v>6.690223212452199</v>
       </c>
       <c r="D180">
-        <v>-0.5297767875478021</v>
+        <v>-0.5297767875478012</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4438,10 +4438,10 @@
         <v>7.27</v>
       </c>
       <c r="C181">
-        <v>6.723381330538968</v>
+        <v>6.723381330538969</v>
       </c>
       <c r="D181">
-        <v>-0.5466186694610311</v>
+        <v>-0.5466186694610302</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4452,10 +4452,10 @@
         <v>7.35</v>
       </c>
       <c r="C182">
-        <v>6.905467622422044</v>
+        <v>6.905467622422045</v>
       </c>
       <c r="D182">
-        <v>-0.4445323775779553</v>
+        <v>-0.4445323775779544</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4466,10 +4466,10 @@
         <v>7.21</v>
       </c>
       <c r="C183">
-        <v>6.845063160428035</v>
+        <v>6.845063160428036</v>
       </c>
       <c r="D183">
-        <v>-0.364936839571965</v>
+        <v>-0.3649368395719641</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4480,10 +4480,10 @@
         <v>7.14</v>
       </c>
       <c r="C184">
-        <v>6.820633719069688</v>
+        <v>6.820633719069689</v>
       </c>
       <c r="D184">
-        <v>-0.3193662809303115</v>
+        <v>-0.3193662809303106</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4494,10 +4494,10 @@
         <v>7.16</v>
       </c>
       <c r="C185">
-        <v>6.931561269670702</v>
+        <v>6.931561269670703</v>
       </c>
       <c r="D185">
-        <v>-0.2284387303292981</v>
+        <v>-0.2284387303292972</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4508,10 +4508,10 @@
         <v>7.1</v>
       </c>
       <c r="C186">
-        <v>6.972096607489801</v>
+        <v>6.972096607489802</v>
       </c>
       <c r="D186">
-        <v>-0.1279033925101984</v>
+        <v>-0.1279033925101976</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4522,10 +4522,10 @@
         <v>6.93</v>
       </c>
       <c r="C187">
-        <v>6.888233687353701</v>
+        <v>6.8882336873537</v>
       </c>
       <c r="D187">
-        <v>-0.04176631264629904</v>
+        <v>-0.04176631264629993</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4550,10 +4550,10 @@
         <v>6.75</v>
       </c>
       <c r="C189">
-        <v>6.904833009373698</v>
+        <v>6.904833009373699</v>
       </c>
       <c r="D189">
-        <v>0.1548330093736983</v>
+        <v>0.1548330093736991</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4564,10 +4564,10 @@
         <v>6.71</v>
       </c>
       <c r="C190">
-        <v>6.87446044603705</v>
+        <v>6.874460446037051</v>
       </c>
       <c r="D190">
-        <v>0.16446044603705</v>
+        <v>0.1644604460370509</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4578,10 +4578,10 @@
         <v>6.73</v>
       </c>
       <c r="C191">
-        <v>6.885300452764275</v>
+        <v>6.885300452764276</v>
       </c>
       <c r="D191">
-        <v>0.1553004527642745</v>
+        <v>0.1553004527642754</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4592,10 +4592,10 @@
         <v>6.76</v>
       </c>
       <c r="C192">
-        <v>6.87770495038279</v>
+        <v>6.877704950382789</v>
       </c>
       <c r="D192">
-        <v>0.1177049503827901</v>
+        <v>0.1177049503827892</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4606,10 +4606,10 @@
         <v>6.75</v>
       </c>
       <c r="C193">
-        <v>6.915641446569772</v>
+        <v>6.915641446569771</v>
       </c>
       <c r="D193">
-        <v>0.1656414465697722</v>
+        <v>0.1656414465697713</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4620,10 +4620,10 @@
         <v>6.73</v>
       </c>
       <c r="C194">
-        <v>6.870134484329698</v>
+        <v>6.870134484329699</v>
       </c>
       <c r="D194">
-        <v>0.1401344843296979</v>
+        <v>0.1401344843296988</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4690,10 +4690,10 @@
         <v>6.53</v>
       </c>
       <c r="C199">
-        <v>6.556959858131613</v>
+        <v>6.556959858131614</v>
       </c>
       <c r="D199">
-        <v>0.02695985813161261</v>
+        <v>0.0269598581316135</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4704,10 +4704,10 @@
         <v>6.52</v>
       </c>
       <c r="C200">
-        <v>6.537670508472058</v>
+        <v>6.537670508472059</v>
       </c>
       <c r="D200">
-        <v>0.01767050847205809</v>
+        <v>0.01767050847205898</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4735,7 +4735,7 @@
         <v>6.503123983157368</v>
       </c>
       <c r="D202">
-        <v>-0.05687601684263122</v>
+        <v>-0.0568760168426321</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4774,10 +4774,10 @@
         <v>6.67</v>
       </c>
       <c r="C205">
-        <v>6.564582403545812</v>
+        <v>6.564582403545811</v>
       </c>
       <c r="D205">
-        <v>-0.1054175964541884</v>
+        <v>-0.1054175964541892</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4788,10 +4788,10 @@
         <v>6.65</v>
       </c>
       <c r="C206">
-        <v>6.596343785342113</v>
+        <v>6.596343785342111</v>
       </c>
       <c r="D206">
-        <v>-0.05365621465788717</v>
+        <v>-0.05365621465788895</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4802,10 +4802,10 @@
         <v>6.62</v>
       </c>
       <c r="C207">
-        <v>6.5762220394382</v>
+        <v>6.576222039438199</v>
       </c>
       <c r="D207">
-        <v>-0.04377796056180028</v>
+        <v>-0.04377796056180117</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4816,10 +4816,10 @@
         <v>6.65</v>
       </c>
       <c r="C208">
-        <v>6.577143374847168</v>
+        <v>6.577143374847169</v>
       </c>
       <c r="D208">
-        <v>-0.07285662515283242</v>
+        <v>-0.07285662515283153</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4858,10 +4858,10 @@
         <v>6.58</v>
       </c>
       <c r="C211">
-        <v>6.420793219077029</v>
+        <v>6.420793219077031</v>
       </c>
       <c r="D211">
-        <v>-0.1592067809229709</v>
+        <v>-0.1592067809229691</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4872,10 +4872,10 @@
         <v>6.64</v>
       </c>
       <c r="C212">
-        <v>6.443844572294665</v>
+        <v>6.443844572294666</v>
       </c>
       <c r="D212">
-        <v>-0.1961554277053343</v>
+        <v>-0.1961554277053335</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4900,10 +4900,10 @@
         <v>6.56</v>
       </c>
       <c r="C214">
-        <v>6.275893561761009</v>
+        <v>6.275893561761012</v>
       </c>
       <c r="D214">
-        <v>-0.2841064382389904</v>
+        <v>-0.2841064382389877</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4942,10 +4942,10 @@
         <v>6.7</v>
       </c>
       <c r="C217">
-        <v>6.280111359844762</v>
+        <v>6.280111359844763</v>
       </c>
       <c r="D217">
-        <v>-0.4198886401552384</v>
+        <v>-0.4198886401552375</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4959,7 +4959,7 @@
         <v>6.402628426759112</v>
       </c>
       <c r="D218">
-        <v>-0.2773715732408881</v>
+        <v>-0.2773715732408872</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4984,10 +4984,10 @@
         <v>6.68</v>
       </c>
       <c r="C220">
-        <v>6.499009070502158</v>
+        <v>6.499009070502159</v>
       </c>
       <c r="D220">
-        <v>-0.1809909294978418</v>
+        <v>-0.1809909294978409</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5012,10 +5012,10 @@
         <v>6.58</v>
       </c>
       <c r="C222">
-        <v>6.478775615347085</v>
+        <v>6.478775615347086</v>
       </c>
       <c r="D222">
-        <v>-0.1012243846529151</v>
+        <v>-0.1012243846529142</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5026,10 +5026,10 @@
         <v>6.86</v>
       </c>
       <c r="C223">
-        <v>6.778143297460392</v>
+        <v>6.778143297460393</v>
       </c>
       <c r="D223">
-        <v>-0.08185670253960797</v>
+        <v>-0.08185670253960708</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5040,10 +5040,10 @@
         <v>6.9</v>
       </c>
       <c r="C224">
-        <v>6.815592708528588</v>
+        <v>6.815592708528589</v>
       </c>
       <c r="D224">
-        <v>-0.08440729147141202</v>
+        <v>-0.08440729147141113</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5054,10 +5054,10 @@
         <v>6.85</v>
       </c>
       <c r="C225">
-        <v>6.770062727232974</v>
+        <v>6.770062727232975</v>
       </c>
       <c r="D225">
-        <v>-0.079937272767026</v>
+        <v>-0.07993727276702511</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5068,10 +5068,10 @@
         <v>6.96</v>
       </c>
       <c r="C226">
-        <v>6.834704419610335</v>
+        <v>6.834704419610336</v>
       </c>
       <c r="D226">
-        <v>-0.1252955803896647</v>
+        <v>-0.1252955803896638</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5082,10 +5082,10 @@
         <v>7.05</v>
       </c>
       <c r="C227">
-        <v>7.011867235278791</v>
+        <v>7.011867235278792</v>
       </c>
       <c r="D227">
-        <v>-0.03813276472120908</v>
+        <v>-0.03813276472120819</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5096,10 +5096,10 @@
         <v>7.12</v>
       </c>
       <c r="C228">
-        <v>7.027613314097495</v>
+        <v>7.027613314097496</v>
       </c>
       <c r="D228">
-        <v>-0.09238668590250487</v>
+        <v>-0.09238668590250398</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5110,10 +5110,10 @@
         <v>7.15</v>
       </c>
       <c r="C229">
-        <v>7.186358986398798</v>
+        <v>7.186358986398797</v>
       </c>
       <c r="D229">
-        <v>0.0363589863987972</v>
+        <v>0.03635898639879631</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5124,10 +5124,10 @@
         <v>7.12</v>
       </c>
       <c r="C230">
-        <v>7.202734829834688</v>
+        <v>7.202734829834687</v>
       </c>
       <c r="D230">
-        <v>0.0827348298346875</v>
+        <v>0.08273482983468661</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5138,10 +5138,10 @@
         <v>6.85</v>
       </c>
       <c r="C231">
-        <v>7.206305433382772</v>
+        <v>7.206305433382773</v>
       </c>
       <c r="D231">
-        <v>0.3563054333827722</v>
+        <v>0.3563054333827731</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5152,10 +5152,10 @@
         <v>6.82</v>
       </c>
       <c r="C232">
-        <v>7.333926781071995</v>
+        <v>7.333926781071994</v>
       </c>
       <c r="D232">
-        <v>0.5139267810719943</v>
+        <v>0.5139267810719934</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5166,10 +5166,10 @@
         <v>6.94</v>
       </c>
       <c r="C233">
-        <v>7.349974710278575</v>
+        <v>7.349974710278576</v>
       </c>
       <c r="D233">
-        <v>0.4099747102785747</v>
+        <v>0.4099747102785756</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5180,10 +5180,10 @@
         <v>7.04</v>
       </c>
       <c r="C234">
-        <v>7.480148608484704</v>
+        <v>7.480148608484703</v>
       </c>
       <c r="D234">
-        <v>0.4401486084847042</v>
+        <v>0.4401486084847033</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5197,7 +5197,7 @@
         <v>7.454717351359522</v>
       </c>
       <c r="D235">
-        <v>0.3147173513595218</v>
+        <v>0.3147173513595227</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5208,10 +5208,10 @@
         <v>7.2</v>
       </c>
       <c r="C236">
-        <v>7.447858832652496</v>
+        <v>7.447858832652499</v>
       </c>
       <c r="D236">
-        <v>0.2478588326524962</v>
+        <v>0.2478588326524989</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5222,10 +5222,10 @@
         <v>7.28</v>
       </c>
       <c r="C237">
-        <v>7.623692062116366</v>
+        <v>7.623692062116365</v>
       </c>
       <c r="D237">
-        <v>0.3436920621163653</v>
+        <v>0.3436920621163644</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5236,10 +5236,10 @@
         <v>7.31</v>
       </c>
       <c r="C238">
-        <v>7.600150508859656</v>
+        <v>7.600150508859657</v>
       </c>
       <c r="D238">
-        <v>0.2901505088596563</v>
+        <v>0.2901505088596572</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5250,10 +5250,10 @@
         <v>7.26</v>
       </c>
       <c r="C239">
-        <v>7.61085281849552</v>
+        <v>7.610852818495519</v>
       </c>
       <c r="D239">
-        <v>0.35085281849552</v>
+        <v>0.3508528184955191</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5264,10 +5264,10 @@
         <v>7.03</v>
       </c>
       <c r="C240">
-        <v>7.37383912383374</v>
+        <v>7.373839123833739</v>
       </c>
       <c r="D240">
-        <v>0.3438391238337397</v>
+        <v>0.3438391238337388</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5278,10 +5278,10 @@
         <v>7.09</v>
       </c>
       <c r="C241">
-        <v>7.423679810915832</v>
+        <v>7.423679810915833</v>
       </c>
       <c r="D241">
-        <v>0.3336798109158323</v>
+        <v>0.3336798109158332</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5292,10 +5292,10 @@
         <v>7.09</v>
       </c>
       <c r="C242">
-        <v>7.397011063410519</v>
+        <v>7.39701106341052</v>
       </c>
       <c r="D242">
-        <v>0.3070110634105188</v>
+        <v>0.3070110634105196</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5306,10 +5306,10 @@
         <v>7.58</v>
       </c>
       <c r="C243">
-        <v>7.604150911527466</v>
+        <v>7.604150911527467</v>
       </c>
       <c r="D243">
-        <v>0.02415091152746562</v>
+        <v>0.02415091152746651</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5320,10 +5320,10 @@
         <v>7.65</v>
       </c>
       <c r="C244">
-        <v>7.617721995316678</v>
+        <v>7.617721995316679</v>
       </c>
       <c r="D244">
-        <v>-0.03227800468332198</v>
+        <v>-0.03227800468332109</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5334,10 +5334,10 @@
         <v>7.22</v>
       </c>
       <c r="C245">
-        <v>7.594728932089144</v>
+        <v>7.594728932089146</v>
       </c>
       <c r="D245">
-        <v>0.3747289320891438</v>
+        <v>0.3747289320891465</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5348,10 +5348,10 @@
         <v>7.38</v>
       </c>
       <c r="C246">
-        <v>7.644421967830649</v>
+        <v>7.64442196783065</v>
       </c>
       <c r="D246">
-        <v>0.264421967830649</v>
+        <v>0.2644219678306499</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5365,7 +5365,7 @@
         <v>7.663374758761702</v>
       </c>
       <c r="D247">
-        <v>0.2433747587617017</v>
+        <v>0.2433747587617026</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5376,10 +5376,10 @@
         <v>7.42</v>
       </c>
       <c r="C248">
-        <v>7.699596536024949</v>
+        <v>7.699596536024948</v>
       </c>
       <c r="D248">
-        <v>0.2795965360249486</v>
+        <v>0.2795965360249477</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5390,10 +5390,10 @@
         <v>7.46</v>
       </c>
       <c r="C249">
-        <v>7.625753901022172</v>
+        <v>7.625753901022175</v>
       </c>
       <c r="D249">
-        <v>0.165753901022172</v>
+        <v>0.1657539010221747</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5404,10 +5404,10 @@
         <v>7.48</v>
       </c>
       <c r="C250">
-        <v>7.646629245965173</v>
+        <v>7.646629245965172</v>
       </c>
       <c r="D250">
-        <v>0.1666292459651721</v>
+        <v>0.1666292459651713</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5418,10 +5418,10 @@
         <v>7.51</v>
       </c>
       <c r="C251">
-        <v>7.64007751488896</v>
+        <v>7.640077514888961</v>
       </c>
       <c r="D251">
-        <v>0.1300775148889599</v>
+        <v>0.1300775148889608</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5432,10 +5432,10 @@
         <v>7.26</v>
       </c>
       <c r="C252">
-        <v>7.50498032283021</v>
+        <v>7.504980322830213</v>
       </c>
       <c r="D252">
-        <v>0.2449803228302105</v>
+        <v>0.2449803228302132</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5446,10 +5446,10 @@
         <v>7.28</v>
       </c>
       <c r="C253">
-        <v>7.542460111275822</v>
+        <v>7.542460111275823</v>
       </c>
       <c r="D253">
-        <v>0.2624601112758222</v>
+        <v>0.2624601112758231</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5460,10 +5460,10 @@
         <v>7.18</v>
       </c>
       <c r="C254">
-        <v>7.519699916674979</v>
+        <v>7.51969991667498</v>
       </c>
       <c r="D254">
-        <v>0.339699916674979</v>
+        <v>0.3396999166749799</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5474,10 +5474,10 @@
         <v>7.21</v>
       </c>
       <c r="C255">
-        <v>7.512627304308999</v>
+        <v>7.512627304309</v>
       </c>
       <c r="D255">
-        <v>0.3026273043089995</v>
+        <v>0.3026273043090004</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5488,10 +5488,10 @@
         <v>7.2</v>
       </c>
       <c r="C256">
-        <v>7.497703692480357</v>
+        <v>7.497703692480358</v>
       </c>
       <c r="D256">
-        <v>0.2977036924803569</v>
+        <v>0.2977036924803578</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5505,7 +5505,7 @@
         <v>7.572136220377018</v>
       </c>
       <c r="D257">
-        <v>0.3621362203770184</v>
+        <v>0.3621362203770175</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5516,10 +5516,10 @@
         <v>7.01</v>
       </c>
       <c r="C258">
-        <v>7.394307905284215</v>
+        <v>7.394307905284214</v>
       </c>
       <c r="D258">
-        <v>0.3843079052842153</v>
+        <v>0.3843079052842144</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5530,10 +5530,10 @@
         <v>7.23</v>
       </c>
       <c r="C259">
-        <v>7.347987961650011</v>
+        <v>7.347987961650012</v>
       </c>
       <c r="D259">
-        <v>0.1179879616500106</v>
+        <v>0.1179879616500115</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5544,10 +5544,10 @@
         <v>7.32</v>
       </c>
       <c r="C260">
-        <v>7.378924264128345</v>
+        <v>7.378924264128346</v>
       </c>
       <c r="D260">
-        <v>0.05892426412834517</v>
+        <v>0.05892426412834606</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5558,10 +5558,10 @@
         <v>7.71</v>
       </c>
       <c r="C261">
-        <v>7.065463099088383</v>
+        <v>7.065463099088384</v>
       </c>
       <c r="D261">
-        <v>-0.6445369009116169</v>
+        <v>-0.644536900911616</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5575,7 +5575,7 @@
         <v>7.100850040471165</v>
       </c>
       <c r="D262">
-        <v>-0.6791499595288348</v>
+        <v>-0.6791499595288357</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5586,10 +5586,10 @@
         <v>7.85</v>
       </c>
       <c r="C263">
-        <v>7.136702246467383</v>
+        <v>7.136702246467382</v>
       </c>
       <c r="D263">
-        <v>-0.7132977535326166</v>
+        <v>-0.7132977535326175</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5600,10 +5600,10 @@
         <v>8.27</v>
       </c>
       <c r="C264">
-        <v>7.592592760704092</v>
+        <v>7.592592760704094</v>
       </c>
       <c r="D264">
-        <v>-0.6774072392959081</v>
+        <v>-0.6774072392959054</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5614,10 +5614,10 @@
         <v>7.97</v>
       </c>
       <c r="C265">
-        <v>7.66927751219494</v>
+        <v>7.669277512194941</v>
       </c>
       <c r="D265">
-        <v>-0.3007224878050598</v>
+        <v>-0.3007224878050589</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5628,10 +5628,10 @@
         <v>7.64</v>
       </c>
       <c r="C266">
-        <v>7.56105967567272</v>
+        <v>7.561059675672721</v>
       </c>
       <c r="D266">
-        <v>-0.07894032432727993</v>
+        <v>-0.07894032432727904</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5642,10 +5642,10 @@
         <v>7.6</v>
       </c>
       <c r="C267">
-        <v>7.571066887471531</v>
+        <v>7.57106688747153</v>
       </c>
       <c r="D267">
-        <v>-0.02893311252846864</v>
+        <v>-0.02893311252846953</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5656,10 +5656,10 @@
         <v>8.06</v>
       </c>
       <c r="C268">
-        <v>7.738379059679945</v>
+        <v>7.738379059679947</v>
       </c>
       <c r="D268">
-        <v>-0.3216209403200558</v>
+        <v>-0.3216209403200532</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5670,10 +5670,10 @@
         <v>8.15</v>
       </c>
       <c r="C269">
-        <v>7.868438405615318</v>
+        <v>7.868438405615321</v>
       </c>
       <c r="D269">
-        <v>-0.2815615943846819</v>
+        <v>-0.2815615943846792</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5698,10 +5698,10 @@
         <v>7.9</v>
       </c>
       <c r="C271">
-        <v>8.168981220507405</v>
+        <v>8.168981220507408</v>
       </c>
       <c r="D271">
-        <v>0.2689812205074045</v>
+        <v>0.268981220507408</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5712,10 +5712,10 @@
         <v>7.67</v>
       </c>
       <c r="C272">
-        <v>8.02115237592791</v>
+        <v>8.021152375927912</v>
       </c>
       <c r="D272">
-        <v>0.35115237592791</v>
+        <v>0.3511523759279118</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5754,10 +5754,10 @@
         <v>7.68</v>
       </c>
       <c r="C275">
-        <v>7.964804010560705</v>
+        <v>7.964804010560706</v>
       </c>
       <c r="D275">
-        <v>0.2848040105607055</v>
+        <v>0.2848040105607064</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5768,10 +5768,10 @@
         <v>8.44</v>
       </c>
       <c r="C276">
-        <v>8.067140379792269</v>
+        <v>8.067140379792271</v>
       </c>
       <c r="D276">
-        <v>-0.3728596202077306</v>
+        <v>-0.3728596202077288</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5782,10 +5782,10 @@
         <v>8.51</v>
       </c>
       <c r="C277">
-        <v>8.085797811860401</v>
+        <v>8.085797811860402</v>
       </c>
       <c r="D277">
-        <v>-0.4242021881395992</v>
+        <v>-0.4242021881395974</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5838,10 +5838,10 @@
         <v>9.02</v>
       </c>
       <c r="C281">
-        <v>8.492824121430868</v>
+        <v>8.492824121430871</v>
       </c>
       <c r="D281">
-        <v>-0.5271758785691318</v>
+        <v>-0.5271758785691283</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5880,10 +5880,10 @@
         <v>8.81</v>
       </c>
       <c r="C284">
-        <v>8.341865354670047</v>
+        <v>8.341865354670048</v>
       </c>
       <c r="D284">
-        <v>-0.468134645329954</v>
+        <v>-0.4681346453299522</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5894,10 +5894,10 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C285">
-        <v>8.336759447442349</v>
+        <v>8.336759447442351</v>
       </c>
       <c r="D285">
-        <v>-0.6132405525576505</v>
+        <v>-0.6132405525576488</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5936,10 +5936,10 @@
         <v>8.58</v>
       </c>
       <c r="C288">
-        <v>8.233839258712795</v>
+        <v>8.233839258712798</v>
       </c>
       <c r="D288">
-        <v>-0.3461607412872052</v>
+        <v>-0.3461607412872016</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5964,10 +5964,10 @@
         <v>8.050000000000001</v>
       </c>
       <c r="C290">
-        <v>8.085518875718529</v>
+        <v>8.085518875718531</v>
       </c>
       <c r="D290">
-        <v>0.03551887571852852</v>
+        <v>0.0355188757185303</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5978,10 +5978,10 @@
         <v>8.039999999999999</v>
       </c>
       <c r="C291">
-        <v>8.085031310919996</v>
+        <v>8.085031310919998</v>
       </c>
       <c r="D291">
-        <v>0.04503131091999713</v>
+        <v>0.0450313109199989</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -6006,10 +6006,10 @@
         <v>8.050000000000001</v>
       </c>
       <c r="C293">
-        <v>8.091094054819573</v>
+        <v>8.091094054819571</v>
       </c>
       <c r="D293">
-        <v>0.04109405481957218</v>
+        <v>0.0410940548195704</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6048,10 +6048,10 @@
         <v>8.23</v>
       </c>
       <c r="C296">
-        <v>8.073233032871441</v>
+        <v>8.073233032871439</v>
       </c>
       <c r="D296">
-        <v>-0.1567669671285596</v>
+        <v>-0.1567669671285614</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6076,10 +6076,10 @@
         <v>8.289999999999999</v>
       </c>
       <c r="C298">
-        <v>8.121096349010479</v>
+        <v>8.121096349010482</v>
       </c>
       <c r="D298">
-        <v>-0.1689036509895203</v>
+        <v>-0.1689036509895168</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6090,10 +6090,10 @@
         <v>8.529999999999999</v>
       </c>
       <c r="C299">
-        <v>8.141165535363227</v>
+        <v>8.141165535363228</v>
       </c>
       <c r="D299">
-        <v>-0.3888344646367727</v>
+        <v>-0.388834464636771</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6118,10 +6118,10 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C301">
-        <v>8.105461027824644</v>
+        <v>8.105461027824646</v>
       </c>
       <c r="D301">
-        <v>-0.2545389721753555</v>
+        <v>-0.2545389721753537</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6146,10 +6146,10 @@
         <v>7.8</v>
       </c>
       <c r="C303">
-        <v>7.909905578968171</v>
+        <v>7.90990557896817</v>
       </c>
       <c r="D303">
-        <v>0.1099055789681715</v>
+        <v>0.1099055789681707</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6160,10 +6160,10 @@
         <v>7.73</v>
       </c>
       <c r="C304">
-        <v>7.841739047769327</v>
+        <v>7.841739047769326</v>
       </c>
       <c r="D304">
-        <v>0.1117390477693263</v>
+        <v>0.1117390477693254</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6174,10 +6174,10 @@
         <v>7.69</v>
       </c>
       <c r="C305">
-        <v>7.831214795771023</v>
+        <v>7.831214795771024</v>
       </c>
       <c r="D305">
-        <v>0.141214795771023</v>
+        <v>0.1412147957710239</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6188,10 +6188,10 @@
         <v>7.62</v>
       </c>
       <c r="C306">
-        <v>7.77797186781385</v>
+        <v>7.777971867813849</v>
       </c>
       <c r="D306">
-        <v>0.15797186781385</v>
+        <v>0.1579718678138491</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6202,10 +6202,10 @@
         <v>7.57</v>
       </c>
       <c r="C307">
-        <v>7.70233613075715</v>
+        <v>7.702336130757149</v>
       </c>
       <c r="D307">
-        <v>0.1323361307571496</v>
+        <v>0.1323361307571487</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6244,10 +6244,10 @@
         <v>8.35</v>
       </c>
       <c r="C310">
-        <v>7.975804937240047</v>
+        <v>7.975804937240048</v>
       </c>
       <c r="D310">
-        <v>-0.3741950627599522</v>
+        <v>-0.3741950627599513</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6258,10 +6258,10 @@
         <v>8.1</v>
       </c>
       <c r="C311">
-        <v>7.904066483857164</v>
+        <v>7.904066483857163</v>
       </c>
       <c r="D311">
-        <v>-0.1959335161428353</v>
+        <v>-0.1959335161428362</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6272,10 +6272,10 @@
         <v>8.109999999999999</v>
       </c>
       <c r="C312">
-        <v>7.892074324039328</v>
+        <v>7.892074324039329</v>
       </c>
       <c r="D312">
-        <v>-0.2179256759606716</v>
+        <v>-0.2179256759606707</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6286,10 +6286,10 @@
         <v>7.68</v>
       </c>
       <c r="C313">
-        <v>7.790796996659793</v>
+        <v>7.790796996659794</v>
       </c>
       <c r="D313">
-        <v>0.1107969966597935</v>
+        <v>0.1107969966597944</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6300,10 +6300,10 @@
         <v>7.67</v>
       </c>
       <c r="C314">
-        <v>7.759348046779332</v>
+        <v>7.759348046779333</v>
       </c>
       <c r="D314">
-        <v>0.08934804677933172</v>
+        <v>0.08934804677933261</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6314,10 +6314,10 @@
         <v>7.47</v>
       </c>
       <c r="C315">
-        <v>7.744720526864418</v>
+        <v>7.744720526864419</v>
       </c>
       <c r="D315">
-        <v>0.2747205268644182</v>
+        <v>0.2747205268644191</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6328,10 +6328,10 @@
         <v>7.51</v>
       </c>
       <c r="C316">
-        <v>7.759793240565195</v>
+        <v>7.759793240565194</v>
       </c>
       <c r="D316">
-        <v>0.2497932405651948</v>
+        <v>0.2497932405651939</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6342,10 +6342,10 @@
         <v>7.52</v>
       </c>
       <c r="C317">
-        <v>7.757662768157681</v>
+        <v>7.757662768157682</v>
       </c>
       <c r="D317">
-        <v>0.2376627681576817</v>
+        <v>0.2376627681576826</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6356,10 +6356,10 @@
         <v>7.47</v>
       </c>
       <c r="C318">
-        <v>7.7082130039453</v>
+        <v>7.708213003945301</v>
       </c>
       <c r="D318">
-        <v>0.2382130039453001</v>
+        <v>0.238213003945301</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6370,10 +6370,10 @@
         <v>7.48</v>
       </c>
       <c r="C319">
-        <v>7.710903495092207</v>
+        <v>7.710903495092206</v>
       </c>
       <c r="D319">
-        <v>0.2309034950922069</v>
+        <v>0.230903495092206</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6384,10 +6384,10 @@
         <v>7.49</v>
       </c>
       <c r="C320">
-        <v>7.71353942333262</v>
+        <v>7.713539423332619</v>
       </c>
       <c r="D320">
-        <v>0.2235394233326193</v>
+        <v>0.2235394233326184</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6398,10 +6398,10 @@
         <v>7.6</v>
       </c>
       <c r="C321">
-        <v>7.766811191094904</v>
+        <v>7.766811191094905</v>
       </c>
       <c r="D321">
-        <v>0.1668111910949044</v>
+        <v>0.1668111910949053</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6412,10 +6412,10 @@
         <v>7.61</v>
       </c>
       <c r="C322">
-        <v>7.788732125719347</v>
+        <v>7.788732125719348</v>
       </c>
       <c r="D322">
-        <v>0.178732125719347</v>
+        <v>0.1787321257193479</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6426,10 +6426,10 @@
         <v>7.71</v>
       </c>
       <c r="C323">
-        <v>8.199709403450763</v>
+        <v>8.199709403450765</v>
       </c>
       <c r="D323">
-        <v>0.489709403450763</v>
+        <v>0.4897094034507647</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6468,10 +6468,10 @@
         <v>7.6</v>
       </c>
       <c r="C326">
-        <v>7.957738213449446</v>
+        <v>7.957738213449447</v>
       </c>
       <c r="D326">
-        <v>0.357738213449446</v>
+        <v>0.3577382134494469</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6482,10 +6482,10 @@
         <v>7.6</v>
       </c>
       <c r="C327">
-        <v>7.949102352386026</v>
+        <v>7.949102352386027</v>
       </c>
       <c r="D327">
-        <v>0.3491023523860264</v>
+        <v>0.3491023523860273</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6510,10 +6510,10 @@
         <v>7.66</v>
       </c>
       <c r="C329">
-        <v>8.043921696680433</v>
+        <v>8.043921696680435</v>
       </c>
       <c r="D329">
-        <v>0.3839216966804333</v>
+        <v>0.3839216966804351</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6538,10 +6538,10 @@
         <v>7.65</v>
       </c>
       <c r="C331">
-        <v>8.019884771765124</v>
+        <v>8.019884771765128</v>
       </c>
       <c r="D331">
-        <v>0.3698847717651237</v>
+        <v>0.3698847717651272</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6552,10 +6552,10 @@
         <v>7.71</v>
       </c>
       <c r="C332">
-        <v>7.971302350738434</v>
+        <v>7.971302350738436</v>
       </c>
       <c r="D332">
-        <v>0.2613023507384336</v>
+        <v>0.2613023507384362</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6566,10 +6566,10 @@
         <v>7.39</v>
       </c>
       <c r="C333">
-        <v>7.635419650785307</v>
+        <v>7.635419650785308</v>
       </c>
       <c r="D333">
-        <v>0.2454196507853075</v>
+        <v>0.2454196507853084</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6583,7 +6583,7 @@
         <v>7.594859573339861</v>
       </c>
       <c r="D334">
-        <v>0.2648595733398604</v>
+        <v>0.2648595733398613</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6594,10 +6594,10 @@
         <v>7.32</v>
       </c>
       <c r="C335">
-        <v>7.536043802433811</v>
+        <v>7.536043802433812</v>
       </c>
       <c r="D335">
-        <v>0.2160438024338109</v>
+        <v>0.2160438024338118</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6608,10 +6608,10 @@
         <v>7.16</v>
       </c>
       <c r="C336">
-        <v>7.443282141285655</v>
+        <v>7.443282141285656</v>
       </c>
       <c r="D336">
-        <v>0.283282141285655</v>
+        <v>0.2832821412856559</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6622,10 +6622,10 @@
         <v>7.4</v>
       </c>
       <c r="C337">
-        <v>7.677438486754056</v>
+        <v>7.677438486754059</v>
       </c>
       <c r="D337">
-        <v>0.2774384867540558</v>
+        <v>0.2774384867540585</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6636,10 +6636,10 @@
         <v>8.039999999999999</v>
       </c>
       <c r="C338">
-        <v>8.140885469523438</v>
+        <v>8.14088546952344</v>
       </c>
       <c r="D338">
-        <v>0.1008854695234387</v>
+        <v>0.1008854695234405</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6678,10 +6678,10 @@
         <v>7.79</v>
       </c>
       <c r="C341">
-        <v>7.970105515768644</v>
+        <v>7.970105515768643</v>
       </c>
       <c r="D341">
-        <v>0.180105515768644</v>
+        <v>0.1801055157686431</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6692,10 +6692,10 @@
         <v>7.97</v>
       </c>
       <c r="C342">
-        <v>8.103713050148874</v>
+        <v>8.103713050148876</v>
       </c>
       <c r="D342">
-        <v>0.1337130501488746</v>
+        <v>0.1337130501488764</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6748,10 +6748,10 @@
         <v>8.24</v>
       </c>
       <c r="C346">
-        <v>8.133607313199219</v>
+        <v>8.133607313199221</v>
       </c>
       <c r="D346">
-        <v>-0.1063926868007812</v>
+        <v>-0.1063926868007794</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6762,10 +6762,10 @@
         <v>8.130000000000001</v>
       </c>
       <c r="C347">
-        <v>8.027561080290564</v>
+        <v>8.027561080290567</v>
       </c>
       <c r="D347">
-        <v>-0.1024389197094369</v>
+        <v>-0.1024389197094333</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6790,10 +6790,10 @@
         <v>8.359999999999999</v>
       </c>
       <c r="C349">
-        <v>8.086527431072762</v>
+        <v>8.086527431072764</v>
       </c>
       <c r="D349">
-        <v>-0.2734725689272377</v>
+        <v>-0.2734725689272359</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6846,10 +6846,10 @@
         <v>8.33</v>
       </c>
       <c r="C353">
-        <v>8.198218570910392</v>
+        <v>8.198218570910395</v>
       </c>
       <c r="D353">
-        <v>-0.1317814290896084</v>
+        <v>-0.1317814290896049</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6874,10 +6874,10 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C355">
-        <v>8.252790995987676</v>
+        <v>8.252790995987677</v>
       </c>
       <c r="D355">
-        <v>-0.1972090040123238</v>
+        <v>-0.197209004012322</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6902,10 +6902,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C357">
-        <v>7.959861219593906</v>
+        <v>7.959861219593907</v>
       </c>
       <c r="D357">
-        <v>-0.2401387804060935</v>
+        <v>-0.2401387804060926</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6930,10 +6930,10 @@
         <v>8.23</v>
       </c>
       <c r="C359">
-        <v>8.102979730684449</v>
+        <v>8.102979730684453</v>
       </c>
       <c r="D359">
-        <v>-0.1270202693155511</v>
+        <v>-0.1270202693155476</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6944,10 +6944,10 @@
         <v>8.01</v>
       </c>
       <c r="C360">
-        <v>7.933075188827212</v>
+        <v>7.933075188827213</v>
       </c>
       <c r="D360">
-        <v>-0.0769248111727876</v>
+        <v>-0.07692481117278671</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6958,10 +6958,10 @@
         <v>8.27</v>
       </c>
       <c r="C361">
-        <v>8.268301853845115</v>
+        <v>8.268301853845117</v>
       </c>
       <c r="D361">
-        <v>-0.001698146154884839</v>
+        <v>-0.001698146154883062</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6972,10 +6972,10 @@
         <v>8.27</v>
       </c>
       <c r="C362">
-        <v>8.316679634165199</v>
+        <v>8.316679634165201</v>
       </c>
       <c r="D362">
-        <v>0.0466796341651996</v>
+        <v>0.04667963416520138</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -7000,10 +7000,10 @@
         <v>9.1</v>
       </c>
       <c r="C364">
-        <v>8.730554614124005</v>
+        <v>8.730554614124006</v>
       </c>
       <c r="D364">
-        <v>-0.369445385875995</v>
+        <v>-0.3694453858759932</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -7028,10 +7028,10 @@
         <v>8.619999999999999</v>
       </c>
       <c r="C366">
-        <v>8.532399408774099</v>
+        <v>8.532399408774101</v>
       </c>
       <c r="D366">
-        <v>-0.08760059122590036</v>
+        <v>-0.08760059122589858</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7056,10 +7056,10 @@
         <v>8.48</v>
       </c>
       <c r="C368">
-        <v>8.434507483964962</v>
+        <v>8.434507483964964</v>
       </c>
       <c r="D368">
-        <v>-0.04549251603503812</v>
+        <v>-0.04549251603503635</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7070,10 +7070,10 @@
         <v>7.65</v>
       </c>
       <c r="C369">
-        <v>7.857961659399647</v>
+        <v>7.857961659399648</v>
       </c>
       <c r="D369">
-        <v>0.2079616593996469</v>
+        <v>0.2079616593996478</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7084,10 +7084,10 @@
         <v>7.67</v>
       </c>
       <c r="C370">
-        <v>7.902462710762773</v>
+        <v>7.902462710762772</v>
       </c>
       <c r="D370">
-        <v>0.232462710762773</v>
+        <v>0.2324627107627721</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7098,10 +7098,10 @@
         <v>8.02</v>
       </c>
       <c r="C371">
-        <v>7.837135332342136</v>
+        <v>7.837135332342137</v>
       </c>
       <c r="D371">
-        <v>-0.1828646676578636</v>
+        <v>-0.1828646676578627</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7112,10 +7112,10 @@
         <v>7.74</v>
       </c>
       <c r="C372">
-        <v>7.819852481182545</v>
+        <v>7.819852481182546</v>
       </c>
       <c r="D372">
-        <v>0.07985248118254518</v>
+        <v>0.07985248118254606</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7126,10 +7126,10 @@
         <v>7.71</v>
       </c>
       <c r="C373">
-        <v>7.850867384032032</v>
+        <v>7.850867384032031</v>
       </c>
       <c r="D373">
-        <v>0.140867384032032</v>
+        <v>0.1408673840320311</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7140,10 +7140,10 @@
         <v>7.3</v>
       </c>
       <c r="C374">
-        <v>7.437810624650874</v>
+        <v>7.437810624650873</v>
       </c>
       <c r="D374">
-        <v>0.1378106246508741</v>
+        <v>0.1378106246508732</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7154,10 +7154,10 @@
         <v>7.08</v>
       </c>
       <c r="C375">
-        <v>7.209170983592479</v>
+        <v>7.20917098359248</v>
       </c>
       <c r="D375">
-        <v>0.1291709835924788</v>
+        <v>0.1291709835924797</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7168,10 +7168,10 @@
         <v>7.15</v>
       </c>
       <c r="C376">
-        <v>7.273956747676154</v>
+        <v>7.273956747676153</v>
       </c>
       <c r="D376">
-        <v>0.1239567476761536</v>
+        <v>0.1239567476761527</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7182,10 +7182,10 @@
         <v>7.2</v>
       </c>
       <c r="C377">
-        <v>7.279893193341477</v>
+        <v>7.279893193341478</v>
       </c>
       <c r="D377">
-        <v>0.07989319334147726</v>
+        <v>0.07989319334147815</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7199,7 +7199,7 @@
         <v>7.219591253225857</v>
       </c>
       <c r="D378">
-        <v>0.1095912532258572</v>
+        <v>0.1095912532258563</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7210,10 +7210,10 @@
         <v>7.18</v>
       </c>
       <c r="C379">
-        <v>7.209230383969089</v>
+        <v>7.209230383969088</v>
       </c>
       <c r="D379">
-        <v>0.0292303839690895</v>
+        <v>0.02923038396908861</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7224,10 +7224,10 @@
         <v>7.34</v>
       </c>
       <c r="C380">
-        <v>7.359035414704822</v>
+        <v>7.359035414704821</v>
       </c>
       <c r="D380">
-        <v>0.01903541470482217</v>
+        <v>0.01903541470482129</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7241,7 +7241,7 @@
         <v>7.247106834780936</v>
       </c>
       <c r="D381">
-        <v>-0.02289316521906315</v>
+        <v>-0.02289316521906404</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7252,10 +7252,10 @@
         <v>7.66</v>
       </c>
       <c r="C382">
-        <v>7.457347306845783</v>
+        <v>7.457347306845784</v>
       </c>
       <c r="D382">
-        <v>-0.2026526931542172</v>
+        <v>-0.2026526931542163</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7266,10 +7266,10 @@
         <v>6.99</v>
       </c>
       <c r="C383">
-        <v>6.867560498769322</v>
+        <v>6.867560498769321</v>
       </c>
       <c r="D383">
-        <v>-0.1224395012306783</v>
+        <v>-0.1224395012306791</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7294,10 +7294,10 @@
         <v>7.21</v>
       </c>
       <c r="C385">
-        <v>6.631419183870868</v>
+        <v>6.631419183870869</v>
       </c>
       <c r="D385">
-        <v>-0.5785808161291319</v>
+        <v>-0.578580816129131</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7308,10 +7308,10 @@
         <v>7.28</v>
       </c>
       <c r="C386">
-        <v>6.540376342254345</v>
+        <v>6.540376342254346</v>
       </c>
       <c r="D386">
-        <v>-0.7396236577456552</v>
+        <v>-0.7396236577456543</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7336,10 +7336,10 @@
         <v>6.88</v>
       </c>
       <c r="C388">
-        <v>6.439629702788052</v>
+        <v>6.439629702788051</v>
       </c>
       <c r="D388">
-        <v>-0.4403702972119481</v>
+        <v>-0.440370297211949</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7350,10 +7350,10 @@
         <v>7.01</v>
       </c>
       <c r="C389">
-        <v>6.417486966082331</v>
+        <v>6.417486966082332</v>
       </c>
       <c r="D389">
-        <v>-0.592513033917669</v>
+        <v>-0.5925130339176681</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7406,10 +7406,10 @@
         <v>6.71</v>
       </c>
       <c r="C393">
-        <v>6.22351291512873</v>
+        <v>6.223512915128731</v>
       </c>
       <c r="D393">
-        <v>-0.4864870848712703</v>
+        <v>-0.4864870848712695</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7420,10 +7420,10 @@
         <v>6.81</v>
       </c>
       <c r="C394">
-        <v>6.234764196997681</v>
+        <v>6.234764196997682</v>
       </c>
       <c r="D394">
-        <v>-0.5752358030023181</v>
+        <v>-0.5752358030023172</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7434,10 +7434,10 @@
         <v>6.78</v>
       </c>
       <c r="C395">
-        <v>6.200320924576074</v>
+        <v>6.200320924576075</v>
       </c>
       <c r="D395">
-        <v>-0.5796790754239263</v>
+        <v>-0.5796790754239254</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7462,10 +7462,10 @@
         <v>5.94</v>
       </c>
       <c r="C397">
-        <v>5.949129941434214</v>
+        <v>5.949129941434215</v>
       </c>
       <c r="D397">
-        <v>0.009129941434213862</v>
+        <v>0.00912994143421475</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7476,10 +7476,10 @@
         <v>5.79</v>
       </c>
       <c r="C398">
-        <v>5.924221825500981</v>
+        <v>5.924221825500982</v>
       </c>
       <c r="D398">
-        <v>0.1342218255009806</v>
+        <v>0.1342218255009815</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7490,10 +7490,10 @@
         <v>5.73</v>
       </c>
       <c r="C399">
-        <v>5.906511520996008</v>
+        <v>5.906511520996009</v>
       </c>
       <c r="D399">
-        <v>0.1765115209960078</v>
+        <v>0.1765115209960086</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7504,10 +7504,10 @@
         <v>5.72</v>
       </c>
       <c r="C400">
-        <v>5.892783113159601</v>
+        <v>5.892783113159602</v>
       </c>
       <c r="D400">
-        <v>0.1727831131596016</v>
+        <v>0.1727831131596025</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7518,10 +7518,10 @@
         <v>5.67</v>
       </c>
       <c r="C401">
-        <v>5.835185264113193</v>
+        <v>5.835185264113194</v>
       </c>
       <c r="D401">
-        <v>0.1651852641131928</v>
+        <v>0.1651852641131937</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7560,10 +7560,10 @@
         <v>5.68</v>
       </c>
       <c r="C404">
-        <v>5.797745792584596</v>
+        <v>5.797745792584599</v>
       </c>
       <c r="D404">
-        <v>0.1177457925845964</v>
+        <v>0.1177457925845991</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7588,10 +7588,10 @@
         <v>5.67</v>
       </c>
       <c r="C406">
-        <v>5.809684873756409</v>
+        <v>5.80968487375641</v>
       </c>
       <c r="D406">
-        <v>0.1396848737564094</v>
+        <v>0.1396848737564103</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7616,10 +7616,10 @@
         <v>5.75</v>
       </c>
       <c r="C408">
-        <v>5.730122059900973</v>
+        <v>5.730122059900972</v>
       </c>
       <c r="D408">
-        <v>-0.01987794009902721</v>
+        <v>-0.0198779400990281</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7686,10 +7686,10 @@
         <v>5.44</v>
       </c>
       <c r="C413">
-        <v>5.59491034725421</v>
+        <v>5.594910347254212</v>
       </c>
       <c r="D413">
-        <v>0.1549103472542095</v>
+        <v>0.1549103472542113</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7700,10 +7700,10 @@
         <v>5.44</v>
       </c>
       <c r="C414">
-        <v>5.573958525663261</v>
+        <v>5.573958525663262</v>
       </c>
       <c r="D414">
-        <v>0.1339585256632603</v>
+        <v>0.1339585256632612</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7742,10 +7742,10 @@
         <v>5.38</v>
       </c>
       <c r="C417">
-        <v>5.607113024038641</v>
+        <v>5.607113024038642</v>
       </c>
       <c r="D417">
-        <v>0.2271130240386414</v>
+        <v>0.2271130240386423</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7770,10 +7770,10 @@
         <v>5.4</v>
       </c>
       <c r="C419">
-        <v>5.628696387200572</v>
+        <v>5.628696387200573</v>
       </c>
       <c r="D419">
-        <v>0.2286963872005714</v>
+        <v>0.2286963872005723</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7798,10 +7798,10 @@
         <v>5.46</v>
       </c>
       <c r="C421">
-        <v>5.545285121133968</v>
+        <v>5.545285121133969</v>
       </c>
       <c r="D421">
-        <v>0.08528512113396847</v>
+        <v>0.08528512113396935</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7812,10 +7812,10 @@
         <v>5.62</v>
       </c>
       <c r="C422">
-        <v>5.582270929613584</v>
+        <v>5.582270929613583</v>
       </c>
       <c r="D422">
-        <v>-0.03772907038641637</v>
+        <v>-0.03772907038641726</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7826,10 +7826,10 @@
         <v>5.63</v>
       </c>
       <c r="C423">
-        <v>5.593731245778619</v>
+        <v>5.59373124577862</v>
       </c>
       <c r="D423">
-        <v>-0.03626875422138109</v>
+        <v>-0.03626875422138021</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7854,10 +7854,10 @@
         <v>5.81</v>
       </c>
       <c r="C425">
-        <v>5.641069811236202</v>
+        <v>5.641069811236201</v>
       </c>
       <c r="D425">
-        <v>-0.168930188763798</v>
+        <v>-0.1689301887637988</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7868,10 +7868,10 @@
         <v>5.83</v>
       </c>
       <c r="C426">
-        <v>5.657677970987489</v>
+        <v>5.657677970987491</v>
       </c>
       <c r="D426">
-        <v>-0.1723220290125109</v>
+        <v>-0.1723220290125091</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7896,10 +7896,10 @@
         <v>5.98</v>
       </c>
       <c r="C428">
-        <v>5.634561520013209</v>
+        <v>5.634561520013208</v>
       </c>
       <c r="D428">
-        <v>-0.3454384799867913</v>
+        <v>-0.3454384799867922</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7910,10 +7910,10 @@
         <v>5.98</v>
       </c>
       <c r="C429">
-        <v>5.651670919264559</v>
+        <v>5.65167091926456</v>
       </c>
       <c r="D429">
-        <v>-0.3283290807354415</v>
+        <v>-0.3283290807354406</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7938,10 +7938,10 @@
         <v>5.44</v>
       </c>
       <c r="C431">
-        <v>5.529961036477938</v>
+        <v>5.529961036477939</v>
       </c>
       <c r="D431">
-        <v>0.08996103647793774</v>
+        <v>0.08996103647793863</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7966,10 +7966,10 @@
         <v>5.39</v>
       </c>
       <c r="C433">
-        <v>5.538311459928151</v>
+        <v>5.538311459928152</v>
       </c>
       <c r="D433">
-        <v>0.1483114599281512</v>
+        <v>0.1483114599281521</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7980,10 +7980,10 @@
         <v>5.31</v>
       </c>
       <c r="C434">
-        <v>5.498477797728321</v>
+        <v>5.498477797728322</v>
       </c>
       <c r="D434">
-        <v>0.1884777977283214</v>
+        <v>0.1884777977283223</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7997,7 +7997,7 @@
         <v>5.496330000922399</v>
       </c>
       <c r="D435">
-        <v>0.1963300009223987</v>
+        <v>0.1963300009223996</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8008,10 +8008,10 @@
         <v>5.28</v>
       </c>
       <c r="C436">
-        <v>5.466550753197943</v>
+        <v>5.466550753197944</v>
       </c>
       <c r="D436">
-        <v>0.1865507531979427</v>
+        <v>0.1865507531979436</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8064,10 +8064,10 @@
         <v>5.19</v>
       </c>
       <c r="C440">
-        <v>5.483040013250779</v>
+        <v>5.483040013250781</v>
       </c>
       <c r="D440">
-        <v>0.2930400132507787</v>
+        <v>0.2930400132507804</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8120,10 +8120,10 @@
         <v>4.99</v>
       </c>
       <c r="C444">
-        <v>5.40433991581701</v>
+        <v>5.404339915817011</v>
       </c>
       <c r="D444">
-        <v>0.4143399158170098</v>
+        <v>0.4143399158170107</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8134,10 +8134,10 @@
         <v>4.98</v>
       </c>
       <c r="C445">
-        <v>5.392300164768876</v>
+        <v>5.392300164768877</v>
       </c>
       <c r="D445">
-        <v>0.412300164768876</v>
+        <v>0.4123001647688769</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8148,10 +8148,10 @@
         <v>5.01</v>
       </c>
       <c r="C446">
-        <v>5.411873425369211</v>
+        <v>5.411873425369212</v>
       </c>
       <c r="D446">
-        <v>0.4018734253692111</v>
+        <v>0.401873425369212</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8176,10 +8176,10 @@
         <v>5.09</v>
       </c>
       <c r="C448">
-        <v>5.443315289641702</v>
+        <v>5.443315289641704</v>
       </c>
       <c r="D448">
-        <v>0.353315289641702</v>
+        <v>0.3533152896417038</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8190,10 +8190,10 @@
         <v>5.08</v>
       </c>
       <c r="C449">
-        <v>5.336925067032897</v>
+        <v>5.336925067032898</v>
       </c>
       <c r="D449">
-        <v>0.2569250670328973</v>
+        <v>0.2569250670328982</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8204,10 +8204,10 @@
         <v>5.1</v>
       </c>
       <c r="C450">
-        <v>5.297069372660613</v>
+        <v>5.297069372660614</v>
       </c>
       <c r="D450">
-        <v>0.1970693726606134</v>
+        <v>0.1970693726606143</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8218,10 +8218,10 @@
         <v>5.1</v>
       </c>
       <c r="C451">
-        <v>5.302766732962689</v>
+        <v>5.30276673296269</v>
       </c>
       <c r="D451">
-        <v>0.2027667329626892</v>
+        <v>0.2027667329626901</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8232,10 +8232,10 @@
         <v>5.08</v>
       </c>
       <c r="C452">
-        <v>5.240948852614022</v>
+        <v>5.240948852614024</v>
       </c>
       <c r="D452">
-        <v>0.1609488526140224</v>
+        <v>0.1609488526140241</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8246,10 +8246,10 @@
         <v>5.09</v>
       </c>
       <c r="C453">
-        <v>5.254088711262004</v>
+        <v>5.254088711262005</v>
       </c>
       <c r="D453">
-        <v>0.1640887112620044</v>
+        <v>0.1640887112620053</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8260,10 +8260,10 @@
         <v>5.07</v>
       </c>
       <c r="C454">
-        <v>5.262737960186317</v>
+        <v>5.262737960186318</v>
       </c>
       <c r="D454">
-        <v>0.1927379601863164</v>
+        <v>0.1927379601863182</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8274,10 +8274,10 @@
         <v>5.08</v>
       </c>
       <c r="C455">
-        <v>5.287287068554251</v>
+        <v>5.287287068554252</v>
       </c>
       <c r="D455">
-        <v>0.2072870685542512</v>
+        <v>0.2072870685542521</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8288,10 +8288,10 @@
         <v>5.13</v>
       </c>
       <c r="C456">
-        <v>5.339062078967979</v>
+        <v>5.339062078967981</v>
       </c>
       <c r="D456">
-        <v>0.2090620789679791</v>
+        <v>0.2090620789679809</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8302,10 +8302,10 @@
         <v>5.05</v>
       </c>
       <c r="C457">
-        <v>5.246568864873192</v>
+        <v>5.246568864873194</v>
       </c>
       <c r="D457">
-        <v>0.1965688648731918</v>
+        <v>0.1965688648731945</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8316,10 +8316,10 @@
         <v>5.05</v>
       </c>
       <c r="C458">
-        <v>5.241779385765881</v>
+        <v>5.241779385765882</v>
       </c>
       <c r="D458">
-        <v>0.1917793857658809</v>
+        <v>0.1917793857658818</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8330,10 +8330,10 @@
         <v>5.06</v>
       </c>
       <c r="C459">
-        <v>5.2249304764513</v>
+        <v>5.224930476451301</v>
       </c>
       <c r="D459">
-        <v>0.1649304764513007</v>
+        <v>0.1649304764513015</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8344,10 +8344,10 @@
         <v>5</v>
       </c>
       <c r="C460">
-        <v>5.210057907382286</v>
+        <v>5.210057907382287</v>
       </c>
       <c r="D460">
-        <v>0.2100579073822857</v>
+        <v>0.2100579073822866</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8372,10 +8372,10 @@
         <v>5</v>
       </c>
       <c r="C462">
-        <v>5.122947592239058</v>
+        <v>5.122947592239059</v>
       </c>
       <c r="D462">
-        <v>0.1229475922390577</v>
+        <v>0.1229475922390586</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8386,10 +8386,10 @@
         <v>4.89</v>
       </c>
       <c r="C463">
-        <v>5.003644241083132</v>
+        <v>5.003644241083133</v>
       </c>
       <c r="D463">
-        <v>0.113644241083132</v>
+        <v>0.1136442410831338</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8400,10 +8400,10 @@
         <v>4.95</v>
       </c>
       <c r="C464">
-        <v>5.000122751620711</v>
+        <v>5.000122751620713</v>
       </c>
       <c r="D464">
-        <v>0.05012275162071056</v>
+        <v>0.05012275162071234</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8414,10 +8414,10 @@
         <v>5.05</v>
       </c>
       <c r="C465">
-        <v>5.0208868346882</v>
+        <v>5.020886834688202</v>
       </c>
       <c r="D465">
-        <v>-0.02911316531179953</v>
+        <v>-0.02911316531179775</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8428,10 +8428,10 @@
         <v>5.06</v>
       </c>
       <c r="C466">
-        <v>5.03492400865308</v>
+        <v>5.034924008653082</v>
       </c>
       <c r="D466">
-        <v>-0.0250759913469194</v>
+        <v>-0.02507599134691763</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8442,10 +8442,10 @@
         <v>5.07</v>
       </c>
       <c r="C467">
-        <v>5.013669554252158</v>
+        <v>5.01366955425216</v>
       </c>
       <c r="D467">
-        <v>-0.05633044574784218</v>
+        <v>-0.05633044574784041</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8456,10 +8456,10 @@
         <v>5.12</v>
       </c>
       <c r="C468">
-        <v>5.046481383386908</v>
+        <v>5.04648138338691</v>
       </c>
       <c r="D468">
-        <v>-0.07351861661309211</v>
+        <v>-0.07351861661309034</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8470,10 +8470,10 @@
         <v>5.14</v>
       </c>
       <c r="C469">
-        <v>5.027410962895897</v>
+        <v>5.027410962895899</v>
       </c>
       <c r="D469">
-        <v>-0.1125890371041027</v>
+        <v>-0.112589037104101</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8484,10 +8484,10 @@
         <v>5.19</v>
       </c>
       <c r="C470">
-        <v>5.052714703299719</v>
+        <v>5.05271470329972</v>
       </c>
       <c r="D470">
-        <v>-0.1372852967002816</v>
+        <v>-0.1372852967002807</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8501,7 +8501,7 @@
         <v>5.117831253042429</v>
       </c>
       <c r="D471">
-        <v>-0.02216874695757109</v>
+        <v>-0.02216874695757021</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8515,7 +8515,7 @@
         <v>5.126206014507622</v>
       </c>
       <c r="D472">
-        <v>-0.02379398549237877</v>
+        <v>-0.02379398549237788</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8526,10 +8526,10 @@
         <v>5.21</v>
       </c>
       <c r="C473">
-        <v>5.150339308909623</v>
+        <v>5.150339308909625</v>
       </c>
       <c r="D473">
-        <v>-0.05966069109037697</v>
+        <v>-0.0596606910903752</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8540,10 +8540,10 @@
         <v>5.3</v>
       </c>
       <c r="C474">
-        <v>5.186770277827623</v>
+        <v>5.186770277827624</v>
       </c>
       <c r="D474">
-        <v>-0.1132297221723766</v>
+        <v>-0.1132297221723757</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8554,10 +8554,10 @@
         <v>5.24</v>
       </c>
       <c r="C475">
-        <v>5.10935215366735</v>
+        <v>5.109352153667351</v>
       </c>
       <c r="D475">
-        <v>-0.1306478463326499</v>
+        <v>-0.130647846332649</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8568,10 +8568,10 @@
         <v>5.25</v>
       </c>
       <c r="C476">
-        <v>5.125058937714456</v>
+        <v>5.125058937714458</v>
       </c>
       <c r="D476">
-        <v>-0.1249410622855436</v>
+        <v>-0.1249410622855418</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8582,10 +8582,10 @@
         <v>5.18</v>
       </c>
       <c r="C477">
-        <v>5.036126394692244</v>
+        <v>5.036126394692247</v>
       </c>
       <c r="D477">
-        <v>-0.1438736053077561</v>
+        <v>-0.1438736053077525</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8596,10 +8596,10 @@
         <v>5.34</v>
       </c>
       <c r="C478">
-        <v>5.190355023935753</v>
+        <v>5.190355023935754</v>
       </c>
       <c r="D478">
-        <v>-0.1496449760642466</v>
+        <v>-0.1496449760642458</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8610,10 +8610,10 @@
         <v>5.33</v>
       </c>
       <c r="C479">
-        <v>5.180709438204783</v>
+        <v>5.180709438204785</v>
       </c>
       <c r="D479">
-        <v>-0.1492905617952172</v>
+        <v>-0.1492905617952154</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8624,10 +8624,10 @@
         <v>5.33</v>
       </c>
       <c r="C480">
-        <v>5.173051803026123</v>
+        <v>5.173051803026124</v>
       </c>
       <c r="D480">
-        <v>-0.1569481969738771</v>
+        <v>-0.1569481969738762</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8638,10 +8638,10 @@
         <v>5.35</v>
       </c>
       <c r="C481">
-        <v>5.185669396438497</v>
+        <v>5.185669396438498</v>
       </c>
       <c r="D481">
-        <v>-0.1643306035615026</v>
+        <v>-0.1643306035615018</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8652,10 +8652,10 @@
         <v>5.3</v>
       </c>
       <c r="C482">
-        <v>5.120066304913402</v>
+        <v>5.120066304913403</v>
       </c>
       <c r="D482">
-        <v>-0.1799336950865982</v>
+        <v>-0.1799336950865973</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8666,10 +8666,10 @@
         <v>5.29</v>
       </c>
       <c r="C483">
-        <v>5.126734085604735</v>
+        <v>5.126734085604737</v>
       </c>
       <c r="D483">
-        <v>-0.1632659143952653</v>
+        <v>-0.1632659143952635</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8680,10 +8680,10 @@
         <v>5.34</v>
       </c>
       <c r="C484">
-        <v>5.14937018601833</v>
+        <v>5.149370186018333</v>
       </c>
       <c r="D484">
-        <v>-0.19062981398167</v>
+        <v>-0.1906298139816673</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8694,10 +8694,10 @@
         <v>5.29</v>
       </c>
       <c r="C485">
-        <v>5.135536251697089</v>
+        <v>5.13553625169709</v>
       </c>
       <c r="D485">
-        <v>-0.154463748302911</v>
+        <v>-0.1544637483029101</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8708,10 +8708,10 @@
         <v>5.26</v>
       </c>
       <c r="C486">
-        <v>5.131366936742738</v>
+        <v>5.131366936742739</v>
       </c>
       <c r="D486">
-        <v>-0.1286330632572614</v>
+        <v>-0.1286330632572605</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8722,10 +8722,10 @@
         <v>5.29</v>
       </c>
       <c r="C487">
-        <v>5.170502702775298</v>
+        <v>5.170502702775301</v>
       </c>
       <c r="D487">
-        <v>-0.1194972972247017</v>
+        <v>-0.119497297224699</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8750,10 +8750,10 @@
         <v>5.37</v>
       </c>
       <c r="C489">
-        <v>5.238950761880134</v>
+        <v>5.238950761880136</v>
       </c>
       <c r="D489">
-        <v>-0.131049238119866</v>
+        <v>-0.1310492381198642</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8764,10 +8764,10 @@
         <v>5.39</v>
       </c>
       <c r="C490">
-        <v>5.247811092899658</v>
+        <v>5.247811092899659</v>
       </c>
       <c r="D490">
-        <v>-0.1421889071003415</v>
+        <v>-0.1421889071003406</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8778,10 +8778,10 @@
         <v>5.47</v>
       </c>
       <c r="C491">
-        <v>5.30714426371255</v>
+        <v>5.307144263712551</v>
       </c>
       <c r="D491">
-        <v>-0.1628557362874501</v>
+        <v>-0.1628557362874483</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8820,10 +8820,10 @@
         <v>5.68</v>
       </c>
       <c r="C494">
-        <v>5.42459155063764</v>
+        <v>5.424591550637641</v>
       </c>
       <c r="D494">
-        <v>-0.2554084493623598</v>
+        <v>-0.255408449362359</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8848,10 +8848,10 @@
         <v>5.56</v>
       </c>
       <c r="C496">
-        <v>5.438991883552334</v>
+        <v>5.438991883552335</v>
       </c>
       <c r="D496">
-        <v>-0.1210081164476655</v>
+        <v>-0.1210081164476646</v>
       </c>
     </row>
     <row r="497" spans="1:4">
@@ -8862,10 +8862,10 @@
         <v>5.57</v>
       </c>
       <c r="C497">
-        <v>5.449460207984678</v>
+        <v>5.449460207984679</v>
       </c>
       <c r="D497">
-        <v>-0.1205397920153226</v>
+        <v>-0.1205397920153208</v>
       </c>
     </row>
     <row r="498" spans="1:4">
@@ -8876,10 +8876,10 @@
         <v>5.57</v>
       </c>
       <c r="C498">
-        <v>5.453936325986037</v>
+        <v>5.453936325986039</v>
       </c>
       <c r="D498">
-        <v>-0.1160636740139633</v>
+        <v>-0.1160636740139616</v>
       </c>
     </row>
     <row r="499" spans="1:4">
@@ -8890,10 +8890,10 @@
         <v>5.54</v>
       </c>
       <c r="C499">
-        <v>5.372751635862693</v>
+        <v>5.372751635862694</v>
       </c>
       <c r="D499">
-        <v>-0.1672483641373068</v>
+        <v>-0.1672483641373059</v>
       </c>
     </row>
     <row r="500" spans="1:4">
@@ -8904,10 +8904,10 @@
         <v>5.5</v>
       </c>
       <c r="C500">
-        <v>5.360322698350318</v>
+        <v>5.36032269835032</v>
       </c>
       <c r="D500">
-        <v>-0.139677301649682</v>
+        <v>-0.1396773016496802</v>
       </c>
     </row>
     <row r="501" spans="1:4">
@@ -8932,10 +8932,10 @@
         <v>5.6</v>
       </c>
       <c r="C502">
-        <v>5.389937744184579</v>
+        <v>5.38993774418458</v>
       </c>
       <c r="D502">
-        <v>-0.2100622558154202</v>
+        <v>-0.2100622558154193</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -8946,10 +8946,10 @@
         <v>5.65</v>
       </c>
       <c r="C503">
-        <v>5.387871287936754</v>
+        <v>5.387871287936755</v>
       </c>
       <c r="D503">
-        <v>-0.2621287120632463</v>
+        <v>-0.2621287120632454</v>
       </c>
     </row>
     <row r="504" spans="1:4">
@@ -8988,10 +8988,10 @@
         <v>5.66</v>
       </c>
       <c r="C506">
-        <v>5.39414896070947</v>
+        <v>5.394148960709471</v>
       </c>
       <c r="D506">
-        <v>-0.2658510392905304</v>
+        <v>-0.2658510392905296</v>
       </c>
     </row>
     <row r="507" spans="1:4">
@@ -9002,10 +9002,10 @@
         <v>5.66</v>
       </c>
       <c r="C507">
-        <v>5.376901411914868</v>
+        <v>5.376901411914869</v>
       </c>
       <c r="D507">
-        <v>-0.2830985880851324</v>
+        <v>-0.2830985880851307</v>
       </c>
     </row>
     <row r="508" spans="1:4">
@@ -9016,10 +9016,10 @@
         <v>5.69</v>
       </c>
       <c r="C508">
-        <v>5.401970457278634</v>
+        <v>5.401970457278635</v>
       </c>
       <c r="D508">
-        <v>-0.2880295427213664</v>
+        <v>-0.2880295427213655</v>
       </c>
     </row>
   </sheetData>
